--- a/testnet3 AMD CPU测试报告.xlsx
+++ b/testnet3 AMD CPU测试报告.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowHeight="17940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="结论" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="253">
   <si>
     <t xml:space="preserve">1. 使用MaxCache参数可以大幅提高PreCommit1的效率（会多使用56G内存，建议全程开启该参数）
 2. PreCommit1阶段只使用单核CPU性能，带sha-ni指令扩展的AMD CPU可以对该阶段大幅加速
@@ -122,6 +122,15 @@
     <t>Commit1</t>
   </si>
   <si>
+    <t>2s</t>
+  </si>
+  <si>
+    <t>3s</t>
+  </si>
+  <si>
+    <t>1m37s</t>
+  </si>
+  <si>
     <t>Commit2</t>
   </si>
   <si>
@@ -202,6 +211,9 @@
     <t>4h53m44s</t>
   </si>
   <si>
+    <t>6s</t>
+  </si>
+  <si>
     <t>2h7m47s</t>
   </si>
   <si>
@@ -248,6 +260,15 @@
     <t>1h35m21s</t>
   </si>
   <si>
+    <t>372ms</t>
+  </si>
+  <si>
+    <t>677ms</t>
+  </si>
+  <si>
+    <t>434ms</t>
+  </si>
+  <si>
     <t>1h23m59s</t>
   </si>
   <si>
@@ -430,6 +451,33 @@
   </si>
   <si>
     <t>7h26m5s</t>
+  </si>
+  <si>
+    <t>许总测试结果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMD Ryzen™ 9 3950X 32T 3.5~4.7GHz </t>
+  </si>
+  <si>
+    <t>未知</t>
+  </si>
+  <si>
+    <t>128G+256G SSDswap</t>
+  </si>
+  <si>
+    <t>GeForce GTX 1060 6g</t>
+  </si>
+  <si>
+    <t>14h32m41s</t>
+  </si>
+  <si>
+    <t>1h37m32s</t>
+  </si>
+  <si>
+    <t>1h19m15s</t>
+  </si>
+  <si>
+    <t>17h29m28s</t>
   </si>
   <si>
     <t>测试选项</t>
@@ -765,10 +813,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -792,6 +840,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -800,7 +880,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -808,7 +888,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -822,7 +917,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -837,10 +939,26 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -852,16 +970,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -869,68 +979,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -975,13 +1023,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,49 +1095,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,13 +1137,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,13 +1155,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1089,7 +1173,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,61 +1203,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1651,11 +1699,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1679,22 +1777,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1713,41 +1796,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1756,10 +1804,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1768,137 +1816,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="46" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="43" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2329,18 +2377,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
@@ -3355,943 +3391,943 @@
   <sheetPr/>
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
+      <c r="L1" s="166"/>
+      <c r="M1" s="166"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="170"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="170"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
+      <c r="A3" s="166"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="170"/>
-      <c r="B4" s="170"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
+      <c r="A4" s="166"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="170"/>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="170"/>
-      <c r="L5" s="170"/>
-      <c r="M5" s="170"/>
+      <c r="A5" s="166"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="166"/>
+      <c r="L5" s="166"/>
+      <c r="M5" s="166"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="170"/>
-      <c r="B6" s="170"/>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="170"/>
-      <c r="K6" s="170"/>
-      <c r="L6" s="170"/>
-      <c r="M6" s="170"/>
+      <c r="A6" s="166"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="166"/>
+      <c r="L6" s="166"/>
+      <c r="M6" s="166"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="170"/>
-      <c r="B7" s="170"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="170"/>
-      <c r="M7" s="170"/>
+      <c r="A7" s="166"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="166"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="170"/>
-      <c r="B8" s="170"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="170"/>
-      <c r="K8" s="170"/>
-      <c r="L8" s="170"/>
-      <c r="M8" s="170"/>
+      <c r="A8" s="166"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="166"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="170"/>
-      <c r="B9" s="170"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="170"/>
-      <c r="L9" s="170"/>
-      <c r="M9" s="170"/>
+      <c r="A9" s="166"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="166"/>
+      <c r="K9" s="166"/>
+      <c r="L9" s="166"/>
+      <c r="M9" s="166"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="170"/>
-      <c r="B10" s="170"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="170"/>
-      <c r="L10" s="170"/>
-      <c r="M10" s="170"/>
+      <c r="A10" s="166"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="166"/>
+      <c r="H10" s="166"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="166"/>
+      <c r="K10" s="166"/>
+      <c r="L10" s="166"/>
+      <c r="M10" s="166"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="170"/>
-      <c r="B11" s="170"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="170"/>
-      <c r="L11" s="170"/>
-      <c r="M11" s="170"/>
+      <c r="A11" s="166"/>
+      <c r="B11" s="166"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="166"/>
+      <c r="L11" s="166"/>
+      <c r="M11" s="166"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="170"/>
-      <c r="B12" s="170"/>
-      <c r="C12" s="170"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="170"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="170"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="170"/>
-      <c r="K12" s="170"/>
-      <c r="L12" s="170"/>
-      <c r="M12" s="170"/>
+      <c r="A12" s="166"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="166"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="166"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="166"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="166"/>
+      <c r="K12" s="166"/>
+      <c r="L12" s="166"/>
+      <c r="M12" s="166"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="170"/>
-      <c r="B13" s="170"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="170"/>
-      <c r="F13" s="170"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="170"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="170"/>
-      <c r="K13" s="170"/>
-      <c r="L13" s="170"/>
-      <c r="M13" s="170"/>
+      <c r="A13" s="166"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="166"/>
+      <c r="H13" s="166"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="166"/>
+      <c r="K13" s="166"/>
+      <c r="L13" s="166"/>
+      <c r="M13" s="166"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="170"/>
-      <c r="B14" s="170"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="170"/>
-      <c r="K14" s="170"/>
-      <c r="L14" s="170"/>
-      <c r="M14" s="170"/>
+      <c r="A14" s="166"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="166"/>
+      <c r="E14" s="166"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="166"/>
+      <c r="H14" s="166"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="166"/>
+      <c r="K14" s="166"/>
+      <c r="L14" s="166"/>
+      <c r="M14" s="166"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="170"/>
-      <c r="B15" s="170"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="170"/>
-      <c r="K15" s="170"/>
-      <c r="L15" s="170"/>
-      <c r="M15" s="170"/>
+      <c r="A15" s="166"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="166"/>
+      <c r="K15" s="166"/>
+      <c r="L15" s="166"/>
+      <c r="M15" s="166"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="170"/>
-      <c r="B16" s="170"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="170"/>
-      <c r="K16" s="170"/>
-      <c r="L16" s="170"/>
-      <c r="M16" s="170"/>
+      <c r="A16" s="166"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="166"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="166"/>
+      <c r="K16" s="166"/>
+      <c r="L16" s="166"/>
+      <c r="M16" s="166"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="170"/>
-      <c r="B17" s="170"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="170"/>
-      <c r="K17" s="170"/>
-      <c r="L17" s="170"/>
-      <c r="M17" s="170"/>
+      <c r="A17" s="166"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="166"/>
+      <c r="G17" s="166"/>
+      <c r="H17" s="166"/>
+      <c r="I17" s="166"/>
+      <c r="J17" s="166"/>
+      <c r="K17" s="166"/>
+      <c r="L17" s="166"/>
+      <c r="M17" s="166"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="170"/>
-      <c r="B18" s="170"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="170"/>
-      <c r="L18" s="170"/>
-      <c r="M18" s="170"/>
+      <c r="A18" s="166"/>
+      <c r="B18" s="166"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="166"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="166"/>
+      <c r="K18" s="166"/>
+      <c r="L18" s="166"/>
+      <c r="M18" s="166"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="170"/>
-      <c r="B19" s="170"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="170"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="170"/>
-      <c r="K19" s="170"/>
-      <c r="L19" s="170"/>
-      <c r="M19" s="170"/>
+      <c r="A19" s="166"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="166"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="166"/>
+      <c r="K19" s="166"/>
+      <c r="L19" s="166"/>
+      <c r="M19" s="166"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="170"/>
-      <c r="B20" s="170"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="170"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="170"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="170"/>
-      <c r="K20" s="170"/>
-      <c r="L20" s="170"/>
-      <c r="M20" s="170"/>
+      <c r="A20" s="166"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="166"/>
+      <c r="K20" s="166"/>
+      <c r="L20" s="166"/>
+      <c r="M20" s="166"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="170"/>
-      <c r="B21" s="170"/>
-      <c r="C21" s="170"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="170"/>
-      <c r="I21" s="170"/>
-      <c r="J21" s="170"/>
-      <c r="K21" s="170"/>
-      <c r="L21" s="170"/>
-      <c r="M21" s="170"/>
+      <c r="A21" s="166"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="166"/>
+      <c r="H21" s="166"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="166"/>
+      <c r="K21" s="166"/>
+      <c r="L21" s="166"/>
+      <c r="M21" s="166"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="170"/>
-      <c r="B22" s="170"/>
-      <c r="C22" s="170"/>
-      <c r="D22" s="170"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="170"/>
-      <c r="H22" s="170"/>
-      <c r="I22" s="170"/>
-      <c r="J22" s="170"/>
-      <c r="K22" s="170"/>
-      <c r="L22" s="170"/>
-      <c r="M22" s="170"/>
+      <c r="A22" s="166"/>
+      <c r="B22" s="166"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="166"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="166"/>
+      <c r="K22" s="166"/>
+      <c r="L22" s="166"/>
+      <c r="M22" s="166"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="170"/>
-      <c r="B23" s="170"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="170"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="170"/>
-      <c r="K23" s="170"/>
-      <c r="L23" s="170"/>
-      <c r="M23" s="170"/>
+      <c r="A23" s="166"/>
+      <c r="B23" s="166"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="166"/>
+      <c r="G23" s="166"/>
+      <c r="H23" s="166"/>
+      <c r="I23" s="166"/>
+      <c r="J23" s="166"/>
+      <c r="K23" s="166"/>
+      <c r="L23" s="166"/>
+      <c r="M23" s="166"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="170"/>
-      <c r="B24" s="170"/>
-      <c r="C24" s="170"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="170"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="170"/>
-      <c r="H24" s="170"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="170"/>
-      <c r="K24" s="170"/>
-      <c r="L24" s="170"/>
-      <c r="M24" s="170"/>
+      <c r="A24" s="166"/>
+      <c r="B24" s="166"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="166"/>
+      <c r="E24" s="166"/>
+      <c r="F24" s="166"/>
+      <c r="G24" s="166"/>
+      <c r="H24" s="166"/>
+      <c r="I24" s="166"/>
+      <c r="J24" s="166"/>
+      <c r="K24" s="166"/>
+      <c r="L24" s="166"/>
+      <c r="M24" s="166"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="170"/>
-      <c r="B25" s="170"/>
-      <c r="C25" s="170"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="170"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="170"/>
-      <c r="K25" s="170"/>
-      <c r="L25" s="170"/>
-      <c r="M25" s="170"/>
+      <c r="A25" s="166"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="166"/>
+      <c r="E25" s="166"/>
+      <c r="F25" s="166"/>
+      <c r="G25" s="166"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="166"/>
+      <c r="K25" s="166"/>
+      <c r="L25" s="166"/>
+      <c r="M25" s="166"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="170"/>
-      <c r="B26" s="170"/>
-      <c r="C26" s="170"/>
-      <c r="D26" s="170"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="170"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="170"/>
-      <c r="K26" s="170"/>
-      <c r="L26" s="170"/>
-      <c r="M26" s="170"/>
+      <c r="A26" s="166"/>
+      <c r="B26" s="166"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="166"/>
+      <c r="H26" s="166"/>
+      <c r="I26" s="166"/>
+      <c r="J26" s="166"/>
+      <c r="K26" s="166"/>
+      <c r="L26" s="166"/>
+      <c r="M26" s="166"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="170"/>
-      <c r="B27" s="170"/>
-      <c r="C27" s="170"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="170"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="170"/>
-      <c r="K27" s="170"/>
-      <c r="L27" s="170"/>
-      <c r="M27" s="170"/>
+      <c r="A27" s="166"/>
+      <c r="B27" s="166"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="166"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="166"/>
+      <c r="K27" s="166"/>
+      <c r="L27" s="166"/>
+      <c r="M27" s="166"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="170"/>
-      <c r="B28" s="170"/>
-      <c r="C28" s="170"/>
-      <c r="D28" s="170"/>
-      <c r="E28" s="170"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="170"/>
-      <c r="H28" s="170"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="170"/>
-      <c r="K28" s="170"/>
-      <c r="L28" s="170"/>
-      <c r="M28" s="170"/>
+      <c r="A28" s="166"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="166"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="166"/>
+      <c r="K28" s="166"/>
+      <c r="L28" s="166"/>
+      <c r="M28" s="166"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="170"/>
-      <c r="B29" s="170"/>
-      <c r="C29" s="170"/>
-      <c r="D29" s="170"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="170"/>
-      <c r="H29" s="170"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="170"/>
-      <c r="K29" s="170"/>
-      <c r="L29" s="170"/>
-      <c r="M29" s="170"/>
+      <c r="A29" s="166"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="166"/>
+      <c r="E29" s="166"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="166"/>
+      <c r="H29" s="166"/>
+      <c r="I29" s="166"/>
+      <c r="J29" s="166"/>
+      <c r="K29" s="166"/>
+      <c r="L29" s="166"/>
+      <c r="M29" s="166"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="170"/>
-      <c r="B30" s="170"/>
-      <c r="C30" s="170"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="170"/>
-      <c r="H30" s="170"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="170"/>
-      <c r="K30" s="170"/>
-      <c r="L30" s="170"/>
-      <c r="M30" s="170"/>
+      <c r="A30" s="166"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="166"/>
+      <c r="D30" s="166"/>
+      <c r="E30" s="166"/>
+      <c r="F30" s="166"/>
+      <c r="G30" s="166"/>
+      <c r="H30" s="166"/>
+      <c r="I30" s="166"/>
+      <c r="J30" s="166"/>
+      <c r="K30" s="166"/>
+      <c r="L30" s="166"/>
+      <c r="M30" s="166"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="170"/>
-      <c r="B31" s="170"/>
-      <c r="C31" s="170"/>
-      <c r="D31" s="170"/>
-      <c r="E31" s="170"/>
-      <c r="F31" s="170"/>
-      <c r="G31" s="170"/>
-      <c r="H31" s="170"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="170"/>
-      <c r="K31" s="170"/>
-      <c r="L31" s="170"/>
-      <c r="M31" s="170"/>
+      <c r="A31" s="166"/>
+      <c r="B31" s="166"/>
+      <c r="C31" s="166"/>
+      <c r="D31" s="166"/>
+      <c r="E31" s="166"/>
+      <c r="F31" s="166"/>
+      <c r="G31" s="166"/>
+      <c r="H31" s="166"/>
+      <c r="I31" s="166"/>
+      <c r="J31" s="166"/>
+      <c r="K31" s="166"/>
+      <c r="L31" s="166"/>
+      <c r="M31" s="166"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="170"/>
-      <c r="B32" s="170"/>
-      <c r="C32" s="170"/>
-      <c r="D32" s="170"/>
-      <c r="E32" s="170"/>
-      <c r="F32" s="170"/>
-      <c r="G32" s="170"/>
-      <c r="H32" s="170"/>
-      <c r="I32" s="170"/>
-      <c r="J32" s="170"/>
-      <c r="K32" s="170"/>
-      <c r="L32" s="170"/>
-      <c r="M32" s="170"/>
+      <c r="A32" s="166"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="166"/>
+      <c r="D32" s="166"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="166"/>
+      <c r="H32" s="166"/>
+      <c r="I32" s="166"/>
+      <c r="J32" s="166"/>
+      <c r="K32" s="166"/>
+      <c r="L32" s="166"/>
+      <c r="M32" s="166"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="170"/>
-      <c r="B33" s="170"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="170"/>
-      <c r="E33" s="170"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="170"/>
-      <c r="H33" s="170"/>
-      <c r="I33" s="170"/>
-      <c r="J33" s="170"/>
-      <c r="K33" s="170"/>
-      <c r="L33" s="170"/>
-      <c r="M33" s="170"/>
+      <c r="A33" s="166"/>
+      <c r="B33" s="166"/>
+      <c r="C33" s="166"/>
+      <c r="D33" s="166"/>
+      <c r="E33" s="166"/>
+      <c r="F33" s="166"/>
+      <c r="G33" s="166"/>
+      <c r="H33" s="166"/>
+      <c r="I33" s="166"/>
+      <c r="J33" s="166"/>
+      <c r="K33" s="166"/>
+      <c r="L33" s="166"/>
+      <c r="M33" s="166"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="170"/>
-      <c r="B34" s="170"/>
-      <c r="C34" s="170"/>
-      <c r="D34" s="170"/>
-      <c r="E34" s="170"/>
-      <c r="F34" s="170"/>
-      <c r="G34" s="170"/>
-      <c r="H34" s="170"/>
-      <c r="I34" s="170"/>
-      <c r="J34" s="170"/>
-      <c r="K34" s="170"/>
-      <c r="L34" s="170"/>
-      <c r="M34" s="170"/>
+      <c r="A34" s="166"/>
+      <c r="B34" s="166"/>
+      <c r="C34" s="166"/>
+      <c r="D34" s="166"/>
+      <c r="E34" s="166"/>
+      <c r="F34" s="166"/>
+      <c r="G34" s="166"/>
+      <c r="H34" s="166"/>
+      <c r="I34" s="166"/>
+      <c r="J34" s="166"/>
+      <c r="K34" s="166"/>
+      <c r="L34" s="166"/>
+      <c r="M34" s="166"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="170"/>
-      <c r="B35" s="170"/>
-      <c r="C35" s="170"/>
-      <c r="D35" s="170"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="170"/>
-      <c r="G35" s="170"/>
-      <c r="H35" s="170"/>
-      <c r="I35" s="170"/>
-      <c r="J35" s="170"/>
-      <c r="K35" s="170"/>
-      <c r="L35" s="170"/>
-      <c r="M35" s="170"/>
+      <c r="A35" s="166"/>
+      <c r="B35" s="166"/>
+      <c r="C35" s="166"/>
+      <c r="D35" s="166"/>
+      <c r="E35" s="166"/>
+      <c r="F35" s="166"/>
+      <c r="G35" s="166"/>
+      <c r="H35" s="166"/>
+      <c r="I35" s="166"/>
+      <c r="J35" s="166"/>
+      <c r="K35" s="166"/>
+      <c r="L35" s="166"/>
+      <c r="M35" s="166"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="170"/>
-      <c r="B36" s="170"/>
-      <c r="C36" s="170"/>
-      <c r="D36" s="170"/>
-      <c r="E36" s="170"/>
-      <c r="F36" s="170"/>
-      <c r="G36" s="170"/>
-      <c r="H36" s="170"/>
-      <c r="I36" s="170"/>
-      <c r="J36" s="170"/>
-      <c r="K36" s="170"/>
-      <c r="L36" s="170"/>
-      <c r="M36" s="170"/>
+      <c r="A36" s="166"/>
+      <c r="B36" s="166"/>
+      <c r="C36" s="166"/>
+      <c r="D36" s="166"/>
+      <c r="E36" s="166"/>
+      <c r="F36" s="166"/>
+      <c r="G36" s="166"/>
+      <c r="H36" s="166"/>
+      <c r="I36" s="166"/>
+      <c r="J36" s="166"/>
+      <c r="K36" s="166"/>
+      <c r="L36" s="166"/>
+      <c r="M36" s="166"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="170"/>
-      <c r="B37" s="170"/>
-      <c r="C37" s="170"/>
-      <c r="D37" s="170"/>
-      <c r="E37" s="170"/>
-      <c r="F37" s="170"/>
-      <c r="G37" s="170"/>
-      <c r="H37" s="170"/>
-      <c r="I37" s="170"/>
-      <c r="J37" s="170"/>
-      <c r="K37" s="170"/>
-      <c r="L37" s="170"/>
-      <c r="M37" s="170"/>
+      <c r="A37" s="166"/>
+      <c r="B37" s="166"/>
+      <c r="C37" s="166"/>
+      <c r="D37" s="166"/>
+      <c r="E37" s="166"/>
+      <c r="F37" s="166"/>
+      <c r="G37" s="166"/>
+      <c r="H37" s="166"/>
+      <c r="I37" s="166"/>
+      <c r="J37" s="166"/>
+      <c r="K37" s="166"/>
+      <c r="L37" s="166"/>
+      <c r="M37" s="166"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="170"/>
-      <c r="B38" s="170"/>
-      <c r="C38" s="170"/>
-      <c r="D38" s="170"/>
-      <c r="E38" s="170"/>
-      <c r="F38" s="170"/>
-      <c r="G38" s="170"/>
-      <c r="H38" s="170"/>
-      <c r="I38" s="170"/>
-      <c r="J38" s="170"/>
-      <c r="K38" s="170"/>
-      <c r="L38" s="170"/>
-      <c r="M38" s="170"/>
+      <c r="A38" s="166"/>
+      <c r="B38" s="166"/>
+      <c r="C38" s="166"/>
+      <c r="D38" s="166"/>
+      <c r="E38" s="166"/>
+      <c r="F38" s="166"/>
+      <c r="G38" s="166"/>
+      <c r="H38" s="166"/>
+      <c r="I38" s="166"/>
+      <c r="J38" s="166"/>
+      <c r="K38" s="166"/>
+      <c r="L38" s="166"/>
+      <c r="M38" s="166"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="170"/>
-      <c r="B39" s="170"/>
-      <c r="C39" s="170"/>
-      <c r="D39" s="170"/>
-      <c r="E39" s="170"/>
-      <c r="F39" s="170"/>
-      <c r="G39" s="170"/>
-      <c r="H39" s="170"/>
-      <c r="I39" s="170"/>
-      <c r="J39" s="170"/>
-      <c r="K39" s="170"/>
-      <c r="L39" s="170"/>
-      <c r="M39" s="170"/>
+      <c r="A39" s="166"/>
+      <c r="B39" s="166"/>
+      <c r="C39" s="166"/>
+      <c r="D39" s="166"/>
+      <c r="E39" s="166"/>
+      <c r="F39" s="166"/>
+      <c r="G39" s="166"/>
+      <c r="H39" s="166"/>
+      <c r="I39" s="166"/>
+      <c r="J39" s="166"/>
+      <c r="K39" s="166"/>
+      <c r="L39" s="166"/>
+      <c r="M39" s="166"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="170"/>
-      <c r="B40" s="170"/>
-      <c r="C40" s="170"/>
-      <c r="D40" s="170"/>
-      <c r="E40" s="170"/>
-      <c r="F40" s="170"/>
-      <c r="G40" s="170"/>
-      <c r="H40" s="170"/>
-      <c r="I40" s="170"/>
-      <c r="J40" s="170"/>
-      <c r="K40" s="170"/>
-      <c r="L40" s="170"/>
-      <c r="M40" s="170"/>
+      <c r="A40" s="166"/>
+      <c r="B40" s="166"/>
+      <c r="C40" s="166"/>
+      <c r="D40" s="166"/>
+      <c r="E40" s="166"/>
+      <c r="F40" s="166"/>
+      <c r="G40" s="166"/>
+      <c r="H40" s="166"/>
+      <c r="I40" s="166"/>
+      <c r="J40" s="166"/>
+      <c r="K40" s="166"/>
+      <c r="L40" s="166"/>
+      <c r="M40" s="166"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="170"/>
-      <c r="B41" s="170"/>
-      <c r="C41" s="170"/>
-      <c r="D41" s="170"/>
-      <c r="E41" s="170"/>
-      <c r="F41" s="170"/>
-      <c r="G41" s="170"/>
-      <c r="H41" s="170"/>
-      <c r="I41" s="170"/>
-      <c r="J41" s="170"/>
-      <c r="K41" s="170"/>
-      <c r="L41" s="170"/>
-      <c r="M41" s="170"/>
+      <c r="A41" s="166"/>
+      <c r="B41" s="166"/>
+      <c r="C41" s="166"/>
+      <c r="D41" s="166"/>
+      <c r="E41" s="166"/>
+      <c r="F41" s="166"/>
+      <c r="G41" s="166"/>
+      <c r="H41" s="166"/>
+      <c r="I41" s="166"/>
+      <c r="J41" s="166"/>
+      <c r="K41" s="166"/>
+      <c r="L41" s="166"/>
+      <c r="M41" s="166"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="170"/>
-      <c r="B42" s="170"/>
-      <c r="C42" s="170"/>
-      <c r="D42" s="170"/>
-      <c r="E42" s="170"/>
-      <c r="F42" s="170"/>
-      <c r="G42" s="170"/>
-      <c r="H42" s="170"/>
-      <c r="I42" s="170"/>
-      <c r="J42" s="170"/>
-      <c r="K42" s="170"/>
-      <c r="L42" s="170"/>
-      <c r="M42" s="170"/>
+      <c r="A42" s="166"/>
+      <c r="B42" s="166"/>
+      <c r="C42" s="166"/>
+      <c r="D42" s="166"/>
+      <c r="E42" s="166"/>
+      <c r="F42" s="166"/>
+      <c r="G42" s="166"/>
+      <c r="H42" s="166"/>
+      <c r="I42" s="166"/>
+      <c r="J42" s="166"/>
+      <c r="K42" s="166"/>
+      <c r="L42" s="166"/>
+      <c r="M42" s="166"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="170"/>
-      <c r="B43" s="170"/>
-      <c r="C43" s="170"/>
-      <c r="D43" s="170"/>
-      <c r="E43" s="170"/>
-      <c r="F43" s="170"/>
-      <c r="G43" s="170"/>
-      <c r="H43" s="170"/>
-      <c r="I43" s="170"/>
-      <c r="J43" s="170"/>
-      <c r="K43" s="170"/>
-      <c r="L43" s="170"/>
-      <c r="M43" s="170"/>
+      <c r="A43" s="166"/>
+      <c r="B43" s="166"/>
+      <c r="C43" s="166"/>
+      <c r="D43" s="166"/>
+      <c r="E43" s="166"/>
+      <c r="F43" s="166"/>
+      <c r="G43" s="166"/>
+      <c r="H43" s="166"/>
+      <c r="I43" s="166"/>
+      <c r="J43" s="166"/>
+      <c r="K43" s="166"/>
+      <c r="L43" s="166"/>
+      <c r="M43" s="166"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="170"/>
-      <c r="B44" s="170"/>
-      <c r="C44" s="170"/>
-      <c r="D44" s="170"/>
-      <c r="E44" s="170"/>
-      <c r="F44" s="170"/>
-      <c r="G44" s="170"/>
-      <c r="H44" s="170"/>
-      <c r="I44" s="170"/>
-      <c r="J44" s="170"/>
-      <c r="K44" s="170"/>
-      <c r="L44" s="170"/>
-      <c r="M44" s="170"/>
+      <c r="A44" s="166"/>
+      <c r="B44" s="166"/>
+      <c r="C44" s="166"/>
+      <c r="D44" s="166"/>
+      <c r="E44" s="166"/>
+      <c r="F44" s="166"/>
+      <c r="G44" s="166"/>
+      <c r="H44" s="166"/>
+      <c r="I44" s="166"/>
+      <c r="J44" s="166"/>
+      <c r="K44" s="166"/>
+      <c r="L44" s="166"/>
+      <c r="M44" s="166"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="170"/>
-      <c r="B45" s="170"/>
-      <c r="C45" s="170"/>
-      <c r="D45" s="170"/>
-      <c r="E45" s="170"/>
-      <c r="F45" s="170"/>
-      <c r="G45" s="170"/>
-      <c r="H45" s="170"/>
-      <c r="I45" s="170"/>
-      <c r="J45" s="170"/>
-      <c r="K45" s="170"/>
-      <c r="L45" s="170"/>
-      <c r="M45" s="170"/>
+      <c r="A45" s="166"/>
+      <c r="B45" s="166"/>
+      <c r="C45" s="166"/>
+      <c r="D45" s="166"/>
+      <c r="E45" s="166"/>
+      <c r="F45" s="166"/>
+      <c r="G45" s="166"/>
+      <c r="H45" s="166"/>
+      <c r="I45" s="166"/>
+      <c r="J45" s="166"/>
+      <c r="K45" s="166"/>
+      <c r="L45" s="166"/>
+      <c r="M45" s="166"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="170"/>
-      <c r="B46" s="170"/>
-      <c r="C46" s="170"/>
-      <c r="D46" s="170"/>
-      <c r="E46" s="170"/>
-      <c r="F46" s="170"/>
-      <c r="G46" s="170"/>
-      <c r="H46" s="170"/>
-      <c r="I46" s="170"/>
-      <c r="J46" s="170"/>
-      <c r="K46" s="170"/>
-      <c r="L46" s="170"/>
-      <c r="M46" s="170"/>
+      <c r="A46" s="166"/>
+      <c r="B46" s="166"/>
+      <c r="C46" s="166"/>
+      <c r="D46" s="166"/>
+      <c r="E46" s="166"/>
+      <c r="F46" s="166"/>
+      <c r="G46" s="166"/>
+      <c r="H46" s="166"/>
+      <c r="I46" s="166"/>
+      <c r="J46" s="166"/>
+      <c r="K46" s="166"/>
+      <c r="L46" s="166"/>
+      <c r="M46" s="166"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="170"/>
-      <c r="B47" s="170"/>
-      <c r="C47" s="170"/>
-      <c r="D47" s="170"/>
-      <c r="E47" s="170"/>
-      <c r="F47" s="170"/>
-      <c r="G47" s="170"/>
-      <c r="H47" s="170"/>
-      <c r="I47" s="170"/>
-      <c r="J47" s="170"/>
-      <c r="K47" s="170"/>
-      <c r="L47" s="170"/>
-      <c r="M47" s="170"/>
+      <c r="A47" s="166"/>
+      <c r="B47" s="166"/>
+      <c r="C47" s="166"/>
+      <c r="D47" s="166"/>
+      <c r="E47" s="166"/>
+      <c r="F47" s="166"/>
+      <c r="G47" s="166"/>
+      <c r="H47" s="166"/>
+      <c r="I47" s="166"/>
+      <c r="J47" s="166"/>
+      <c r="K47" s="166"/>
+      <c r="L47" s="166"/>
+      <c r="M47" s="166"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="170"/>
-      <c r="B48" s="170"/>
-      <c r="C48" s="170"/>
-      <c r="D48" s="170"/>
-      <c r="E48" s="170"/>
-      <c r="F48" s="170"/>
-      <c r="G48" s="170"/>
-      <c r="H48" s="170"/>
-      <c r="I48" s="170"/>
-      <c r="J48" s="170"/>
-      <c r="K48" s="170"/>
-      <c r="L48" s="170"/>
-      <c r="M48" s="170"/>
+      <c r="A48" s="166"/>
+      <c r="B48" s="166"/>
+      <c r="C48" s="166"/>
+      <c r="D48" s="166"/>
+      <c r="E48" s="166"/>
+      <c r="F48" s="166"/>
+      <c r="G48" s="166"/>
+      <c r="H48" s="166"/>
+      <c r="I48" s="166"/>
+      <c r="J48" s="166"/>
+      <c r="K48" s="166"/>
+      <c r="L48" s="166"/>
+      <c r="M48" s="166"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="170"/>
-      <c r="B49" s="170"/>
-      <c r="C49" s="170"/>
-      <c r="D49" s="170"/>
-      <c r="E49" s="170"/>
-      <c r="F49" s="170"/>
-      <c r="G49" s="170"/>
-      <c r="H49" s="170"/>
-      <c r="I49" s="170"/>
-      <c r="J49" s="170"/>
-      <c r="K49" s="170"/>
-      <c r="L49" s="170"/>
-      <c r="M49" s="170"/>
+      <c r="A49" s="166"/>
+      <c r="B49" s="166"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="166"/>
+      <c r="E49" s="166"/>
+      <c r="F49" s="166"/>
+      <c r="G49" s="166"/>
+      <c r="H49" s="166"/>
+      <c r="I49" s="166"/>
+      <c r="J49" s="166"/>
+      <c r="K49" s="166"/>
+      <c r="L49" s="166"/>
+      <c r="M49" s="166"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="170"/>
-      <c r="B50" s="170"/>
-      <c r="C50" s="170"/>
-      <c r="D50" s="170"/>
-      <c r="E50" s="170"/>
-      <c r="F50" s="170"/>
-      <c r="G50" s="170"/>
-      <c r="H50" s="170"/>
-      <c r="I50" s="170"/>
-      <c r="J50" s="170"/>
-      <c r="K50" s="170"/>
-      <c r="L50" s="170"/>
-      <c r="M50" s="170"/>
+      <c r="A50" s="166"/>
+      <c r="B50" s="166"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="166"/>
+      <c r="E50" s="166"/>
+      <c r="F50" s="166"/>
+      <c r="G50" s="166"/>
+      <c r="H50" s="166"/>
+      <c r="I50" s="166"/>
+      <c r="J50" s="166"/>
+      <c r="K50" s="166"/>
+      <c r="L50" s="166"/>
+      <c r="M50" s="166"/>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="170"/>
-      <c r="B51" s="170"/>
-      <c r="C51" s="170"/>
-      <c r="D51" s="170"/>
-      <c r="E51" s="170"/>
-      <c r="F51" s="170"/>
-      <c r="G51" s="170"/>
-      <c r="H51" s="170"/>
-      <c r="I51" s="170"/>
-      <c r="J51" s="170"/>
-      <c r="K51" s="170"/>
-      <c r="L51" s="170"/>
-      <c r="M51" s="170"/>
+      <c r="A51" s="166"/>
+      <c r="B51" s="166"/>
+      <c r="C51" s="166"/>
+      <c r="D51" s="166"/>
+      <c r="E51" s="166"/>
+      <c r="F51" s="166"/>
+      <c r="G51" s="166"/>
+      <c r="H51" s="166"/>
+      <c r="I51" s="166"/>
+      <c r="J51" s="166"/>
+      <c r="K51" s="166"/>
+      <c r="L51" s="166"/>
+      <c r="M51" s="166"/>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="170"/>
-      <c r="B52" s="170"/>
-      <c r="C52" s="170"/>
-      <c r="D52" s="170"/>
-      <c r="E52" s="170"/>
-      <c r="F52" s="170"/>
-      <c r="G52" s="170"/>
-      <c r="H52" s="170"/>
-      <c r="I52" s="170"/>
-      <c r="J52" s="170"/>
-      <c r="K52" s="170"/>
-      <c r="L52" s="170"/>
-      <c r="M52" s="170"/>
+      <c r="A52" s="166"/>
+      <c r="B52" s="166"/>
+      <c r="C52" s="166"/>
+      <c r="D52" s="166"/>
+      <c r="E52" s="166"/>
+      <c r="F52" s="166"/>
+      <c r="G52" s="166"/>
+      <c r="H52" s="166"/>
+      <c r="I52" s="166"/>
+      <c r="J52" s="166"/>
+      <c r="K52" s="166"/>
+      <c r="L52" s="166"/>
+      <c r="M52" s="166"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="170"/>
-      <c r="B53" s="170"/>
-      <c r="C53" s="170"/>
-      <c r="D53" s="170"/>
-      <c r="E53" s="170"/>
-      <c r="F53" s="170"/>
-      <c r="G53" s="170"/>
-      <c r="H53" s="170"/>
-      <c r="I53" s="170"/>
-      <c r="J53" s="170"/>
-      <c r="K53" s="170"/>
-      <c r="L53" s="170"/>
-      <c r="M53" s="170"/>
+      <c r="A53" s="166"/>
+      <c r="B53" s="166"/>
+      <c r="C53" s="166"/>
+      <c r="D53" s="166"/>
+      <c r="E53" s="166"/>
+      <c r="F53" s="166"/>
+      <c r="G53" s="166"/>
+      <c r="H53" s="166"/>
+      <c r="I53" s="166"/>
+      <c r="J53" s="166"/>
+      <c r="K53" s="166"/>
+      <c r="L53" s="166"/>
+      <c r="M53" s="166"/>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="170"/>
-      <c r="B54" s="170"/>
-      <c r="C54" s="170"/>
-      <c r="D54" s="170"/>
-      <c r="E54" s="170"/>
-      <c r="F54" s="170"/>
-      <c r="G54" s="170"/>
-      <c r="H54" s="170"/>
-      <c r="I54" s="170"/>
-      <c r="J54" s="170"/>
-      <c r="K54" s="170"/>
-      <c r="L54" s="170"/>
-      <c r="M54" s="170"/>
+      <c r="A54" s="166"/>
+      <c r="B54" s="166"/>
+      <c r="C54" s="166"/>
+      <c r="D54" s="166"/>
+      <c r="E54" s="166"/>
+      <c r="F54" s="166"/>
+      <c r="G54" s="166"/>
+      <c r="H54" s="166"/>
+      <c r="I54" s="166"/>
+      <c r="J54" s="166"/>
+      <c r="K54" s="166"/>
+      <c r="L54" s="166"/>
+      <c r="M54" s="166"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="170"/>
-      <c r="B55" s="170"/>
-      <c r="C55" s="170"/>
-      <c r="D55" s="170"/>
-      <c r="E55" s="170"/>
-      <c r="F55" s="170"/>
-      <c r="G55" s="170"/>
-      <c r="H55" s="170"/>
-      <c r="I55" s="170"/>
-      <c r="J55" s="170"/>
-      <c r="K55" s="170"/>
-      <c r="L55" s="170"/>
-      <c r="M55" s="170"/>
+      <c r="A55" s="166"/>
+      <c r="B55" s="166"/>
+      <c r="C55" s="166"/>
+      <c r="D55" s="166"/>
+      <c r="E55" s="166"/>
+      <c r="F55" s="166"/>
+      <c r="G55" s="166"/>
+      <c r="H55" s="166"/>
+      <c r="I55" s="166"/>
+      <c r="J55" s="166"/>
+      <c r="K55" s="166"/>
+      <c r="L55" s="166"/>
+      <c r="M55" s="166"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="170"/>
-      <c r="B56" s="170"/>
-      <c r="C56" s="170"/>
-      <c r="D56" s="170"/>
-      <c r="E56" s="170"/>
-      <c r="F56" s="170"/>
-      <c r="G56" s="170"/>
-      <c r="H56" s="170"/>
-      <c r="I56" s="170"/>
-      <c r="J56" s="170"/>
-      <c r="K56" s="170"/>
-      <c r="L56" s="170"/>
-      <c r="M56" s="170"/>
+      <c r="A56" s="166"/>
+      <c r="B56" s="166"/>
+      <c r="C56" s="166"/>
+      <c r="D56" s="166"/>
+      <c r="E56" s="166"/>
+      <c r="F56" s="166"/>
+      <c r="G56" s="166"/>
+      <c r="H56" s="166"/>
+      <c r="I56" s="166"/>
+      <c r="J56" s="166"/>
+      <c r="K56" s="166"/>
+      <c r="L56" s="166"/>
+      <c r="M56" s="166"/>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="170"/>
-      <c r="B57" s="170"/>
-      <c r="C57" s="170"/>
-      <c r="D57" s="170"/>
-      <c r="E57" s="170"/>
-      <c r="F57" s="170"/>
-      <c r="G57" s="170"/>
-      <c r="H57" s="170"/>
-      <c r="I57" s="170"/>
-      <c r="J57" s="170"/>
-      <c r="K57" s="170"/>
-      <c r="L57" s="170"/>
-      <c r="M57" s="170"/>
+      <c r="A57" s="166"/>
+      <c r="B57" s="166"/>
+      <c r="C57" s="166"/>
+      <c r="D57" s="166"/>
+      <c r="E57" s="166"/>
+      <c r="F57" s="166"/>
+      <c r="G57" s="166"/>
+      <c r="H57" s="166"/>
+      <c r="I57" s="166"/>
+      <c r="J57" s="166"/>
+      <c r="K57" s="166"/>
+      <c r="L57" s="166"/>
+      <c r="M57" s="166"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="170"/>
-      <c r="B58" s="170"/>
-      <c r="C58" s="170"/>
-      <c r="D58" s="170"/>
-      <c r="E58" s="170"/>
-      <c r="F58" s="170"/>
-      <c r="G58" s="170"/>
-      <c r="H58" s="170"/>
-      <c r="I58" s="170"/>
-      <c r="J58" s="170"/>
-      <c r="K58" s="170"/>
-      <c r="L58" s="170"/>
-      <c r="M58" s="170"/>
+      <c r="A58" s="166"/>
+      <c r="B58" s="166"/>
+      <c r="C58" s="166"/>
+      <c r="D58" s="166"/>
+      <c r="E58" s="166"/>
+      <c r="F58" s="166"/>
+      <c r="G58" s="166"/>
+      <c r="H58" s="166"/>
+      <c r="I58" s="166"/>
+      <c r="J58" s="166"/>
+      <c r="K58" s="166"/>
+      <c r="L58" s="166"/>
+      <c r="M58" s="166"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="170"/>
-      <c r="B59" s="170"/>
-      <c r="C59" s="170"/>
-      <c r="D59" s="170"/>
-      <c r="E59" s="170"/>
-      <c r="F59" s="170"/>
-      <c r="G59" s="170"/>
-      <c r="H59" s="170"/>
-      <c r="I59" s="170"/>
-      <c r="J59" s="170"/>
-      <c r="K59" s="170"/>
-      <c r="L59" s="170"/>
-      <c r="M59" s="170"/>
+      <c r="A59" s="166"/>
+      <c r="B59" s="166"/>
+      <c r="C59" s="166"/>
+      <c r="D59" s="166"/>
+      <c r="E59" s="166"/>
+      <c r="F59" s="166"/>
+      <c r="G59" s="166"/>
+      <c r="H59" s="166"/>
+      <c r="I59" s="166"/>
+      <c r="J59" s="166"/>
+      <c r="K59" s="166"/>
+      <c r="L59" s="166"/>
+      <c r="M59" s="166"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="170"/>
-      <c r="B60" s="170"/>
-      <c r="C60" s="170"/>
-      <c r="D60" s="170"/>
-      <c r="E60" s="170"/>
-      <c r="F60" s="170"/>
-      <c r="G60" s="170"/>
-      <c r="H60" s="170"/>
-      <c r="I60" s="170"/>
-      <c r="J60" s="170"/>
-      <c r="K60" s="170"/>
-      <c r="L60" s="170"/>
-      <c r="M60" s="170"/>
+      <c r="A60" s="166"/>
+      <c r="B60" s="166"/>
+      <c r="C60" s="166"/>
+      <c r="D60" s="166"/>
+      <c r="E60" s="166"/>
+      <c r="F60" s="166"/>
+      <c r="G60" s="166"/>
+      <c r="H60" s="166"/>
+      <c r="I60" s="166"/>
+      <c r="J60" s="166"/>
+      <c r="K60" s="166"/>
+      <c r="L60" s="166"/>
+      <c r="M60" s="166"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="170"/>
-      <c r="B61" s="170"/>
-      <c r="C61" s="170"/>
-      <c r="D61" s="170"/>
-      <c r="E61" s="170"/>
-      <c r="F61" s="170"/>
-      <c r="G61" s="170"/>
-      <c r="H61" s="170"/>
-      <c r="I61" s="170"/>
-      <c r="J61" s="170"/>
-      <c r="K61" s="170"/>
-      <c r="L61" s="170"/>
-      <c r="M61" s="170"/>
+      <c r="A61" s="166"/>
+      <c r="B61" s="166"/>
+      <c r="C61" s="166"/>
+      <c r="D61" s="166"/>
+      <c r="E61" s="166"/>
+      <c r="F61" s="166"/>
+      <c r="G61" s="166"/>
+      <c r="H61" s="166"/>
+      <c r="I61" s="166"/>
+      <c r="J61" s="166"/>
+      <c r="K61" s="166"/>
+      <c r="L61" s="166"/>
+      <c r="M61" s="166"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="170"/>
-      <c r="B62" s="170"/>
-      <c r="C62" s="170"/>
-      <c r="D62" s="170"/>
-      <c r="E62" s="170"/>
-      <c r="F62" s="170"/>
-      <c r="G62" s="170"/>
-      <c r="H62" s="170"/>
-      <c r="I62" s="170"/>
-      <c r="J62" s="170"/>
-      <c r="K62" s="170"/>
-      <c r="L62" s="170"/>
-      <c r="M62" s="170"/>
+      <c r="A62" s="166"/>
+      <c r="B62" s="166"/>
+      <c r="C62" s="166"/>
+      <c r="D62" s="166"/>
+      <c r="E62" s="166"/>
+      <c r="F62" s="166"/>
+      <c r="G62" s="166"/>
+      <c r="H62" s="166"/>
+      <c r="I62" s="166"/>
+      <c r="J62" s="166"/>
+      <c r="K62" s="166"/>
+      <c r="L62" s="166"/>
+      <c r="M62" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4307,10 +4343,10 @@
   <sheetPr/>
   <dimension ref="A1:V116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B52" sqref="B52:B56"/>
+      <selection pane="bottomLeft" activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4379,7 +4415,7 @@
       <c r="S1" s="137"/>
       <c r="T1" s="137"/>
       <c r="U1" s="137"/>
-      <c r="V1" s="163"/>
+      <c r="V1" s="159"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="138"/>
@@ -4425,99 +4461,99 @@
       <c r="S2" s="143"/>
       <c r="T2" s="143"/>
       <c r="U2" s="143"/>
-      <c r="V2" s="164"/>
+      <c r="V2" s="160"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="144"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="148" t="s">
+      <c r="A3" s="138"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="149" t="s">
+      <c r="G3" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="149" t="s">
+      <c r="H3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="149" t="s">
+      <c r="I3" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="149" t="s">
+      <c r="J3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="149" t="s">
+      <c r="K3" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="149" t="s">
+      <c r="L3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="149" t="s">
+      <c r="M3" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="149" t="s">
+      <c r="N3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="149" t="s">
+      <c r="O3" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="149" t="s">
+      <c r="P3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="149"/>
-      <c r="R3" s="149"/>
-      <c r="S3" s="149"/>
-      <c r="T3" s="149"/>
-      <c r="U3" s="149"/>
-      <c r="V3" s="165"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="145"/>
+      <c r="S3" s="145"/>
+      <c r="T3" s="145"/>
+      <c r="U3" s="145"/>
+      <c r="V3" s="161"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="144"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="150" t="s">
+      <c r="A4" s="138"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="151" t="s">
+      <c r="G4" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="151" t="s">
+      <c r="H4" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="151" t="s">
+      <c r="I4" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="151" t="s">
+      <c r="J4" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="151" t="s">
+      <c r="K4" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="151" t="s">
+      <c r="L4" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="151" t="s">
+      <c r="M4" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="151" t="s">
+      <c r="N4" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="151" t="s">
+      <c r="O4" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="151" t="s">
+      <c r="P4" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="151"/>
-      <c r="R4" s="151"/>
-      <c r="S4" s="151"/>
-      <c r="T4" s="151"/>
-      <c r="U4" s="151"/>
-      <c r="V4" s="166"/>
+      <c r="Q4" s="147"/>
+      <c r="R4" s="147"/>
+      <c r="S4" s="147"/>
+      <c r="T4" s="147"/>
+      <c r="U4" s="147"/>
+      <c r="V4" s="162"/>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="65" t="s">
@@ -4532,7 +4568,7 @@
       <c r="D5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="152" t="s">
+      <c r="E5" s="148" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="23" t="s">
@@ -4566,84 +4602,92 @@
     <row r="6" spans="1:22">
       <c r="A6" s="65"/>
       <c r="B6" s="21"/>
-      <c r="C6" s="153"/>
+      <c r="C6" s="149"/>
       <c r="D6" s="21"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="154" t="s">
+      <c r="E6" s="148"/>
+      <c r="F6" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="154"/>
-      <c r="H6" s="155" t="s">
+      <c r="G6" s="150"/>
+      <c r="H6" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="155" t="s">
+      <c r="I6" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="155" t="s">
+      <c r="J6" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="155" t="s">
+      <c r="K6" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="155"/>
-      <c r="M6" s="155"/>
-      <c r="N6" s="155"/>
-      <c r="O6" s="155"/>
-      <c r="P6" s="155"/>
-      <c r="Q6" s="155"/>
-      <c r="R6" s="155"/>
-      <c r="S6" s="155"/>
-      <c r="T6" s="155"/>
-      <c r="U6" s="155"/>
-      <c r="V6" s="167"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="151"/>
+      <c r="N6" s="151"/>
+      <c r="O6" s="151"/>
+      <c r="P6" s="151"/>
+      <c r="Q6" s="151"/>
+      <c r="R6" s="151"/>
+      <c r="S6" s="151"/>
+      <c r="T6" s="151"/>
+      <c r="U6" s="151"/>
+      <c r="V6" s="163"/>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="65"/>
       <c r="B7" s="21"/>
-      <c r="C7" s="153"/>
+      <c r="C7" s="149"/>
       <c r="D7" s="21"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="154" t="s">
+      <c r="E7" s="148"/>
+      <c r="F7" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="154"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="155"/>
-      <c r="L7" s="155"/>
-      <c r="M7" s="155"/>
-      <c r="N7" s="155"/>
-      <c r="O7" s="155"/>
-      <c r="P7" s="155"/>
-      <c r="Q7" s="155"/>
-      <c r="R7" s="155"/>
-      <c r="S7" s="155"/>
-      <c r="T7" s="155"/>
-      <c r="U7" s="155"/>
-      <c r="V7" s="167"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="151" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="151" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="151" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="151" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="151"/>
+      <c r="M7" s="151"/>
+      <c r="N7" s="151"/>
+      <c r="O7" s="151"/>
+      <c r="P7" s="151"/>
+      <c r="Q7" s="151"/>
+      <c r="R7" s="151"/>
+      <c r="S7" s="151"/>
+      <c r="T7" s="151"/>
+      <c r="U7" s="151"/>
+      <c r="V7" s="163"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="65"/>
       <c r="B8" s="21"/>
-      <c r="C8" s="153"/>
+      <c r="C8" s="149"/>
       <c r="D8" s="21"/>
-      <c r="E8" s="152"/>
+      <c r="E8" s="148"/>
       <c r="F8" s="23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="78" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I8" s="78" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J8" s="78" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K8" s="78" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L8" s="78"/>
       <c r="M8" s="78"/>
@@ -4660,76 +4704,76 @@
     <row r="9" ht="14.25" spans="1:22">
       <c r="A9" s="66"/>
       <c r="B9" s="54"/>
-      <c r="C9" s="153"/>
+      <c r="C9" s="149"/>
       <c r="D9" s="54"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="157" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="157"/>
-      <c r="H9" s="158" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="158" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="158" t="s">
+      <c r="E9" s="152"/>
+      <c r="F9" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="158" t="s">
+      <c r="G9" s="153"/>
+      <c r="H9" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="158"/>
-      <c r="M9" s="158"/>
-      <c r="N9" s="158"/>
-      <c r="O9" s="158"/>
-      <c r="P9" s="158"/>
-      <c r="Q9" s="158"/>
-      <c r="R9" s="158"/>
-      <c r="S9" s="158"/>
-      <c r="T9" s="158"/>
-      <c r="U9" s="158"/>
-      <c r="V9" s="168"/>
+      <c r="I9" s="154" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="154" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="154" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="154"/>
+      <c r="M9" s="154"/>
+      <c r="N9" s="154"/>
+      <c r="O9" s="154"/>
+      <c r="P9" s="154"/>
+      <c r="Q9" s="154"/>
+      <c r="R9" s="154"/>
+      <c r="S9" s="154"/>
+      <c r="T9" s="154"/>
+      <c r="U9" s="154"/>
+      <c r="V9" s="164"/>
     </row>
     <row r="10" ht="14.25" spans="1:22">
       <c r="A10" s="103"/>
       <c r="B10" s="104"/>
-      <c r="C10" s="159"/>
+      <c r="C10" s="155"/>
       <c r="D10" s="104"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="161" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="161"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="162"/>
-      <c r="L10" s="162"/>
-      <c r="M10" s="162"/>
-      <c r="N10" s="162"/>
-      <c r="O10" s="162"/>
-      <c r="P10" s="162"/>
-      <c r="Q10" s="162"/>
-      <c r="R10" s="162"/>
-      <c r="S10" s="162"/>
-      <c r="T10" s="162"/>
-      <c r="U10" s="162"/>
-      <c r="V10" s="169"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="157" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="157"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="158"/>
+      <c r="L10" s="158"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="158"/>
+      <c r="O10" s="158"/>
+      <c r="P10" s="158"/>
+      <c r="Q10" s="158"/>
+      <c r="R10" s="158"/>
+      <c r="S10" s="158"/>
+      <c r="T10" s="158"/>
+      <c r="U10" s="158"/>
+      <c r="V10" s="165"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="65" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="152" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="E11" s="148" t="s">
+        <v>46</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>18</v>
@@ -4740,7 +4784,7 @@
       <c r="J11" s="78"/>
       <c r="K11" s="78"/>
       <c r="L11" s="78" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M11" s="78"/>
       <c r="N11" s="78"/>
@@ -4756,67 +4800,67 @@
     <row r="12" spans="1:22">
       <c r="A12" s="65"/>
       <c r="B12" s="21"/>
-      <c r="C12" s="153"/>
+      <c r="C12" s="149"/>
       <c r="D12" s="21"/>
-      <c r="E12" s="152"/>
-      <c r="F12" s="154" t="s">
+      <c r="E12" s="148"/>
+      <c r="F12" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="154"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="155"/>
-      <c r="K12" s="155"/>
-      <c r="L12" s="155" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12" s="155"/>
-      <c r="N12" s="155"/>
-      <c r="O12" s="155"/>
-      <c r="P12" s="155"/>
-      <c r="Q12" s="155"/>
-      <c r="R12" s="155"/>
-      <c r="S12" s="155"/>
-      <c r="T12" s="155"/>
-      <c r="U12" s="155"/>
-      <c r="V12" s="167"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="151"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="151" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="151"/>
+      <c r="N12" s="151"/>
+      <c r="O12" s="151"/>
+      <c r="P12" s="151"/>
+      <c r="Q12" s="151"/>
+      <c r="R12" s="151"/>
+      <c r="S12" s="151"/>
+      <c r="T12" s="151"/>
+      <c r="U12" s="151"/>
+      <c r="V12" s="163"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="65"/>
       <c r="B13" s="21"/>
-      <c r="C13" s="153"/>
+      <c r="C13" s="149"/>
       <c r="D13" s="21"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="154" t="s">
+      <c r="E13" s="148"/>
+      <c r="F13" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="154"/>
-      <c r="H13" s="155"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="155"/>
-      <c r="K13" s="155"/>
-      <c r="L13" s="155" t="s">
-        <v>46</v>
-      </c>
-      <c r="M13" s="155"/>
-      <c r="N13" s="155"/>
-      <c r="O13" s="155"/>
-      <c r="P13" s="155"/>
-      <c r="Q13" s="155"/>
-      <c r="R13" s="155"/>
-      <c r="S13" s="155"/>
-      <c r="T13" s="155"/>
-      <c r="U13" s="155"/>
-      <c r="V13" s="167"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="151" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="151"/>
+      <c r="N13" s="151"/>
+      <c r="O13" s="151"/>
+      <c r="P13" s="151"/>
+      <c r="Q13" s="151"/>
+      <c r="R13" s="151"/>
+      <c r="S13" s="151"/>
+      <c r="T13" s="151"/>
+      <c r="U13" s="151"/>
+      <c r="V13" s="163"/>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="65"/>
       <c r="B14" s="21"/>
-      <c r="C14" s="153"/>
+      <c r="C14" s="149"/>
       <c r="D14" s="21"/>
-      <c r="E14" s="152"/>
+      <c r="E14" s="148"/>
       <c r="F14" s="23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="78"/>
@@ -4824,7 +4868,7 @@
       <c r="J14" s="78"/>
       <c r="K14" s="78"/>
       <c r="L14" s="78" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M14" s="78"/>
       <c r="N14" s="78"/>
@@ -4840,72 +4884,72 @@
     <row r="15" ht="14.25" spans="1:22">
       <c r="A15" s="66"/>
       <c r="B15" s="54"/>
-      <c r="C15" s="153"/>
+      <c r="C15" s="149"/>
       <c r="D15" s="54"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="157" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="157"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="158"/>
-      <c r="J15" s="158"/>
-      <c r="K15" s="158"/>
-      <c r="L15" s="158" t="s">
-        <v>48</v>
-      </c>
-      <c r="M15" s="158"/>
-      <c r="N15" s="158"/>
-      <c r="O15" s="158"/>
-      <c r="P15" s="158"/>
-      <c r="Q15" s="158"/>
-      <c r="R15" s="158"/>
-      <c r="S15" s="158"/>
-      <c r="T15" s="158"/>
-      <c r="U15" s="158"/>
-      <c r="V15" s="168"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="153"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="154" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" s="154"/>
+      <c r="N15" s="154"/>
+      <c r="O15" s="154"/>
+      <c r="P15" s="154"/>
+      <c r="Q15" s="154"/>
+      <c r="R15" s="154"/>
+      <c r="S15" s="154"/>
+      <c r="T15" s="154"/>
+      <c r="U15" s="154"/>
+      <c r="V15" s="164"/>
     </row>
     <row r="16" ht="14.25" spans="1:22">
       <c r="A16" s="103"/>
       <c r="B16" s="104"/>
-      <c r="C16" s="159"/>
+      <c r="C16" s="155"/>
       <c r="D16" s="104"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="161" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="161"/>
-      <c r="H16" s="162"/>
-      <c r="I16" s="162"/>
-      <c r="J16" s="162"/>
-      <c r="K16" s="162"/>
-      <c r="L16" s="162"/>
-      <c r="M16" s="162"/>
-      <c r="N16" s="162"/>
-      <c r="O16" s="162"/>
-      <c r="P16" s="162"/>
-      <c r="Q16" s="162"/>
-      <c r="R16" s="162"/>
-      <c r="S16" s="162"/>
-      <c r="T16" s="162"/>
-      <c r="U16" s="162"/>
-      <c r="V16" s="169"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="157" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="157"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
+      <c r="M16" s="158"/>
+      <c r="N16" s="158"/>
+      <c r="O16" s="158"/>
+      <c r="P16" s="158"/>
+      <c r="Q16" s="158"/>
+      <c r="R16" s="158"/>
+      <c r="S16" s="158"/>
+      <c r="T16" s="158"/>
+      <c r="U16" s="158"/>
+      <c r="V16" s="165"/>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="65" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="152" t="s">
-        <v>52</v>
+        <v>45</v>
+      </c>
+      <c r="E17" s="148" t="s">
+        <v>55</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>18</v>
@@ -4913,7 +4957,7 @@
       <c r="G17" s="23"/>
       <c r="H17" s="78"/>
       <c r="I17" s="78" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J17" s="78"/>
       <c r="K17" s="78"/>
@@ -4932,70 +4976,72 @@
     <row r="18" spans="1:22">
       <c r="A18" s="65"/>
       <c r="B18" s="21"/>
-      <c r="C18" s="153"/>
+      <c r="C18" s="149"/>
       <c r="D18" s="21"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="154" t="s">
+      <c r="E18" s="148"/>
+      <c r="F18" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="154"/>
-      <c r="H18" s="155"/>
-      <c r="I18" s="155" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" s="155"/>
-      <c r="K18" s="155"/>
-      <c r="L18" s="155"/>
-      <c r="M18" s="155"/>
-      <c r="N18" s="155"/>
-      <c r="O18" s="155"/>
-      <c r="P18" s="155"/>
-      <c r="Q18" s="155"/>
-      <c r="R18" s="155"/>
-      <c r="S18" s="155"/>
-      <c r="T18" s="155"/>
-      <c r="U18" s="155"/>
-      <c r="V18" s="167"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="151"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="151"/>
+      <c r="O18" s="151"/>
+      <c r="P18" s="151"/>
+      <c r="Q18" s="151"/>
+      <c r="R18" s="151"/>
+      <c r="S18" s="151"/>
+      <c r="T18" s="151"/>
+      <c r="U18" s="151"/>
+      <c r="V18" s="163"/>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="65"/>
       <c r="B19" s="21"/>
-      <c r="C19" s="153"/>
+      <c r="C19" s="149"/>
       <c r="D19" s="21"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="154" t="s">
+      <c r="E19" s="148"/>
+      <c r="F19" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="154"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="155"/>
-      <c r="K19" s="155"/>
-      <c r="L19" s="155"/>
-      <c r="M19" s="155"/>
-      <c r="N19" s="155"/>
-      <c r="O19" s="155"/>
-      <c r="P19" s="155"/>
-      <c r="Q19" s="155"/>
-      <c r="R19" s="155"/>
-      <c r="S19" s="155"/>
-      <c r="T19" s="155"/>
-      <c r="U19" s="155"/>
-      <c r="V19" s="167"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="151" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="151"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="151"/>
+      <c r="N19" s="151"/>
+      <c r="O19" s="151"/>
+      <c r="P19" s="151"/>
+      <c r="Q19" s="151"/>
+      <c r="R19" s="151"/>
+      <c r="S19" s="151"/>
+      <c r="T19" s="151"/>
+      <c r="U19" s="151"/>
+      <c r="V19" s="163"/>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="65"/>
       <c r="B20" s="21"/>
-      <c r="C20" s="153"/>
+      <c r="C20" s="149"/>
       <c r="D20" s="21"/>
-      <c r="E20" s="152"/>
+      <c r="E20" s="148"/>
       <c r="F20" s="23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="78"/>
       <c r="I20" s="78" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J20" s="78"/>
       <c r="K20" s="78"/>
@@ -5014,91 +5060,91 @@
     <row r="21" ht="14.25" spans="1:22">
       <c r="A21" s="66"/>
       <c r="B21" s="54"/>
-      <c r="C21" s="153"/>
+      <c r="C21" s="149"/>
       <c r="D21" s="54"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="157" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="157"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="158" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" s="158"/>
-      <c r="K21" s="158"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="158"/>
-      <c r="N21" s="158"/>
-      <c r="O21" s="158"/>
-      <c r="P21" s="158"/>
-      <c r="Q21" s="158"/>
-      <c r="R21" s="158"/>
-      <c r="S21" s="158"/>
-      <c r="T21" s="158"/>
-      <c r="U21" s="158"/>
-      <c r="V21" s="168"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="153"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" s="154"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="154"/>
+      <c r="P21" s="154"/>
+      <c r="Q21" s="154"/>
+      <c r="R21" s="154"/>
+      <c r="S21" s="154"/>
+      <c r="T21" s="154"/>
+      <c r="U21" s="154"/>
+      <c r="V21" s="164"/>
     </row>
     <row r="22" ht="14.25" spans="1:22">
       <c r="A22" s="103"/>
       <c r="B22" s="104"/>
-      <c r="C22" s="159"/>
+      <c r="C22" s="155"/>
       <c r="D22" s="104"/>
-      <c r="E22" s="160"/>
-      <c r="F22" s="161" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="161"/>
-      <c r="H22" s="162"/>
-      <c r="I22" s="162"/>
-      <c r="J22" s="162"/>
-      <c r="K22" s="162"/>
-      <c r="L22" s="162"/>
-      <c r="M22" s="162"/>
-      <c r="N22" s="162"/>
-      <c r="O22" s="162"/>
-      <c r="P22" s="162"/>
-      <c r="Q22" s="162"/>
-      <c r="R22" s="162"/>
-      <c r="S22" s="162"/>
-      <c r="T22" s="162"/>
-      <c r="U22" s="162"/>
-      <c r="V22" s="169"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="157" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="157"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="158"/>
+      <c r="J22" s="158"/>
+      <c r="K22" s="158"/>
+      <c r="L22" s="158"/>
+      <c r="M22" s="158"/>
+      <c r="N22" s="158"/>
+      <c r="O22" s="158"/>
+      <c r="P22" s="158"/>
+      <c r="Q22" s="158"/>
+      <c r="R22" s="158"/>
+      <c r="S22" s="158"/>
+      <c r="T22" s="158"/>
+      <c r="U22" s="158"/>
+      <c r="V22" s="165"/>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="65" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="152" t="s">
-        <v>52</v>
+        <v>63</v>
+      </c>
+      <c r="E23" s="148" t="s">
+        <v>55</v>
       </c>
       <c r="F23" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="78" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H23" s="78"/>
       <c r="I23" s="78" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J23" s="78" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K23" s="78" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L23" s="78" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M23" s="78"/>
       <c r="N23" s="78"/>
@@ -5114,89 +5160,95 @@
     <row r="24" spans="1:22">
       <c r="A24" s="65"/>
       <c r="B24" s="21"/>
-      <c r="C24" s="153"/>
+      <c r="C24" s="149"/>
       <c r="D24" s="21"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="154" t="s">
+      <c r="E24" s="148"/>
+      <c r="F24" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="155" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="155"/>
-      <c r="I24" s="155" t="s">
-        <v>66</v>
-      </c>
-      <c r="J24" s="155" t="s">
-        <v>67</v>
-      </c>
-      <c r="K24" s="155" t="s">
-        <v>68</v>
-      </c>
-      <c r="L24" s="155" t="s">
+      <c r="G24" s="151" t="s">
         <v>69</v>
       </c>
-      <c r="M24" s="155"/>
-      <c r="N24" s="155"/>
-      <c r="O24" s="155"/>
-      <c r="P24" s="155"/>
-      <c r="Q24" s="155"/>
-      <c r="R24" s="155"/>
-      <c r="S24" s="155"/>
-      <c r="T24" s="155"/>
-      <c r="U24" s="155"/>
-      <c r="V24" s="167"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" s="151" t="s">
+        <v>71</v>
+      </c>
+      <c r="K24" s="151" t="s">
+        <v>72</v>
+      </c>
+      <c r="L24" s="151" t="s">
+        <v>73</v>
+      </c>
+      <c r="M24" s="151"/>
+      <c r="N24" s="151"/>
+      <c r="O24" s="151"/>
+      <c r="P24" s="151"/>
+      <c r="Q24" s="151"/>
+      <c r="R24" s="151"/>
+      <c r="S24" s="151"/>
+      <c r="T24" s="151"/>
+      <c r="U24" s="151"/>
+      <c r="V24" s="163"/>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="65"/>
       <c r="B25" s="21"/>
-      <c r="C25" s="153"/>
+      <c r="C25" s="149"/>
       <c r="D25" s="21"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="154" t="s">
+      <c r="E25" s="148"/>
+      <c r="F25" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="155"/>
-      <c r="H25" s="155"/>
-      <c r="I25" s="155"/>
-      <c r="J25" s="155"/>
-      <c r="K25" s="155"/>
-      <c r="L25" s="155"/>
-      <c r="M25" s="155"/>
-      <c r="N25" s="155"/>
-      <c r="O25" s="155"/>
-      <c r="P25" s="155"/>
-      <c r="Q25" s="155"/>
-      <c r="R25" s="155"/>
-      <c r="S25" s="155"/>
-      <c r="T25" s="155"/>
-      <c r="U25" s="155"/>
-      <c r="V25" s="167"/>
+      <c r="G25" s="151" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="151"/>
+      <c r="I25" s="151" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" s="151" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" s="151"/>
+      <c r="L25" s="151"/>
+      <c r="M25" s="151"/>
+      <c r="N25" s="151"/>
+      <c r="O25" s="151"/>
+      <c r="P25" s="151"/>
+      <c r="Q25" s="151"/>
+      <c r="R25" s="151"/>
+      <c r="S25" s="151"/>
+      <c r="T25" s="151"/>
+      <c r="U25" s="151"/>
+      <c r="V25" s="163"/>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="65"/>
       <c r="B26" s="21"/>
-      <c r="C26" s="153"/>
+      <c r="C26" s="149"/>
       <c r="D26" s="21"/>
-      <c r="E26" s="152"/>
+      <c r="E26" s="148"/>
       <c r="F26" s="23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G26" s="78" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H26" s="78"/>
       <c r="I26" s="78" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="J26" s="78" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K26" s="78" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L26" s="78" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="M26" s="78"/>
       <c r="N26" s="78"/>
@@ -5212,80 +5264,80 @@
     <row r="27" ht="14.25" spans="1:22">
       <c r="A27" s="66"/>
       <c r="B27" s="54"/>
-      <c r="C27" s="153"/>
+      <c r="C27" s="149"/>
       <c r="D27" s="54"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="157" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="158" t="s">
-        <v>75</v>
-      </c>
-      <c r="H27" s="158"/>
-      <c r="I27" s="158" t="s">
-        <v>76</v>
-      </c>
-      <c r="J27" s="158" t="s">
-        <v>77</v>
-      </c>
-      <c r="K27" s="158" t="s">
-        <v>78</v>
-      </c>
-      <c r="L27" s="158" t="s">
-        <v>79</v>
-      </c>
-      <c r="M27" s="158"/>
-      <c r="N27" s="158"/>
-      <c r="O27" s="158"/>
-      <c r="P27" s="158"/>
-      <c r="Q27" s="158"/>
-      <c r="R27" s="158"/>
-      <c r="S27" s="158"/>
-      <c r="T27" s="158"/>
-      <c r="U27" s="158"/>
-      <c r="V27" s="168"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="154" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="154"/>
+      <c r="I27" s="154" t="s">
+        <v>83</v>
+      </c>
+      <c r="J27" s="154" t="s">
+        <v>84</v>
+      </c>
+      <c r="K27" s="154" t="s">
+        <v>85</v>
+      </c>
+      <c r="L27" s="154" t="s">
+        <v>86</v>
+      </c>
+      <c r="M27" s="154"/>
+      <c r="N27" s="154"/>
+      <c r="O27" s="154"/>
+      <c r="P27" s="154"/>
+      <c r="Q27" s="154"/>
+      <c r="R27" s="154"/>
+      <c r="S27" s="154"/>
+      <c r="T27" s="154"/>
+      <c r="U27" s="154"/>
+      <c r="V27" s="164"/>
     </row>
     <row r="28" ht="14.25" spans="1:22">
       <c r="A28" s="103"/>
       <c r="B28" s="104"/>
-      <c r="C28" s="159"/>
+      <c r="C28" s="155"/>
       <c r="D28" s="104"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="161" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="161"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="162"/>
-      <c r="K28" s="162"/>
-      <c r="L28" s="162"/>
-      <c r="M28" s="162"/>
-      <c r="N28" s="162"/>
-      <c r="O28" s="162"/>
-      <c r="P28" s="162"/>
-      <c r="Q28" s="162"/>
-      <c r="R28" s="162"/>
-      <c r="S28" s="162"/>
-      <c r="T28" s="162"/>
-      <c r="U28" s="162"/>
-      <c r="V28" s="169"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="157" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="157"/>
+      <c r="H28" s="158"/>
+      <c r="I28" s="158"/>
+      <c r="J28" s="158"/>
+      <c r="K28" s="158"/>
+      <c r="L28" s="158"/>
+      <c r="M28" s="158"/>
+      <c r="N28" s="158"/>
+      <c r="O28" s="158"/>
+      <c r="P28" s="158"/>
+      <c r="Q28" s="158"/>
+      <c r="R28" s="158"/>
+      <c r="S28" s="158"/>
+      <c r="T28" s="158"/>
+      <c r="U28" s="158"/>
+      <c r="V28" s="165"/>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="65" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="152" t="s">
-        <v>52</v>
+        <v>63</v>
+      </c>
+      <c r="E29" s="148" t="s">
+        <v>55</v>
       </c>
       <c r="F29" s="23" t="s">
         <v>18</v>
@@ -5293,13 +5345,13 @@
       <c r="G29" s="23"/>
       <c r="H29" s="78"/>
       <c r="I29" s="78" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J29" s="78" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K29" s="78" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L29" s="78"/>
       <c r="M29" s="78"/>
@@ -5316,80 +5368,80 @@
     <row r="30" spans="1:22">
       <c r="A30" s="65"/>
       <c r="B30" s="21"/>
-      <c r="C30" s="153"/>
+      <c r="C30" s="149"/>
       <c r="D30" s="21"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="154" t="s">
+      <c r="E30" s="148"/>
+      <c r="F30" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="154"/>
-      <c r="H30" s="155"/>
-      <c r="I30" s="155" t="s">
-        <v>85</v>
-      </c>
-      <c r="J30" s="155" t="s">
-        <v>86</v>
-      </c>
-      <c r="K30" s="155" t="s">
-        <v>87</v>
-      </c>
-      <c r="L30" s="155"/>
-      <c r="M30" s="155"/>
-      <c r="N30" s="155"/>
-      <c r="O30" s="155"/>
-      <c r="P30" s="155"/>
-      <c r="Q30" s="155"/>
-      <c r="R30" s="155"/>
-      <c r="S30" s="155"/>
-      <c r="T30" s="155"/>
-      <c r="U30" s="155"/>
-      <c r="V30" s="167"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="151" t="s">
+        <v>92</v>
+      </c>
+      <c r="J30" s="151" t="s">
+        <v>93</v>
+      </c>
+      <c r="K30" s="151" t="s">
+        <v>94</v>
+      </c>
+      <c r="L30" s="151"/>
+      <c r="M30" s="151"/>
+      <c r="N30" s="151"/>
+      <c r="O30" s="151"/>
+      <c r="P30" s="151"/>
+      <c r="Q30" s="151"/>
+      <c r="R30" s="151"/>
+      <c r="S30" s="151"/>
+      <c r="T30" s="151"/>
+      <c r="U30" s="151"/>
+      <c r="V30" s="163"/>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="65"/>
       <c r="B31" s="21"/>
-      <c r="C31" s="153"/>
+      <c r="C31" s="149"/>
       <c r="D31" s="21"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="154" t="s">
+      <c r="E31" s="148"/>
+      <c r="F31" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="154"/>
-      <c r="H31" s="155"/>
-      <c r="I31" s="155"/>
-      <c r="J31" s="155"/>
-      <c r="K31" s="155"/>
-      <c r="L31" s="155"/>
-      <c r="M31" s="155"/>
-      <c r="N31" s="155"/>
-      <c r="O31" s="155"/>
-      <c r="P31" s="155"/>
-      <c r="Q31" s="155"/>
-      <c r="R31" s="155"/>
-      <c r="S31" s="155"/>
-      <c r="T31" s="155"/>
-      <c r="U31" s="155"/>
-      <c r="V31" s="167"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="151"/>
+      <c r="J31" s="151"/>
+      <c r="K31" s="151"/>
+      <c r="L31" s="151"/>
+      <c r="M31" s="151"/>
+      <c r="N31" s="151"/>
+      <c r="O31" s="151"/>
+      <c r="P31" s="151"/>
+      <c r="Q31" s="151"/>
+      <c r="R31" s="151"/>
+      <c r="S31" s="151"/>
+      <c r="T31" s="151"/>
+      <c r="U31" s="151"/>
+      <c r="V31" s="163"/>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="65"/>
       <c r="B32" s="21"/>
-      <c r="C32" s="153"/>
+      <c r="C32" s="149"/>
       <c r="D32" s="21"/>
-      <c r="E32" s="152"/>
+      <c r="E32" s="148"/>
       <c r="F32" s="23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G32" s="23"/>
       <c r="H32" s="78"/>
       <c r="I32" s="78" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J32" s="78" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K32" s="78" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L32" s="78"/>
       <c r="M32" s="78"/>
@@ -5406,76 +5458,76 @@
     <row r="33" ht="14.25" spans="1:22">
       <c r="A33" s="66"/>
       <c r="B33" s="54"/>
-      <c r="C33" s="153"/>
+      <c r="C33" s="149"/>
       <c r="D33" s="54"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="157" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="157"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="158" t="s">
-        <v>91</v>
-      </c>
-      <c r="J33" s="158" t="s">
-        <v>92</v>
-      </c>
-      <c r="K33" s="158" t="s">
-        <v>93</v>
-      </c>
-      <c r="L33" s="158"/>
-      <c r="M33" s="158"/>
-      <c r="N33" s="158"/>
-      <c r="O33" s="158"/>
-      <c r="P33" s="158"/>
-      <c r="Q33" s="158"/>
-      <c r="R33" s="158"/>
-      <c r="S33" s="158"/>
-      <c r="T33" s="158"/>
-      <c r="U33" s="158"/>
-      <c r="V33" s="168"/>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="E33" s="152"/>
+      <c r="F33" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="153"/>
+      <c r="H33" s="154"/>
+      <c r="I33" s="154" t="s">
+        <v>98</v>
+      </c>
+      <c r="J33" s="154" t="s">
+        <v>99</v>
+      </c>
+      <c r="K33" s="154" t="s">
+        <v>100</v>
+      </c>
+      <c r="L33" s="154"/>
+      <c r="M33" s="154"/>
+      <c r="N33" s="154"/>
+      <c r="O33" s="154"/>
+      <c r="P33" s="154"/>
+      <c r="Q33" s="154"/>
+      <c r="R33" s="154"/>
+      <c r="S33" s="154"/>
+      <c r="T33" s="154"/>
+      <c r="U33" s="154"/>
+      <c r="V33" s="164"/>
+    </row>
+    <row r="34" ht="14.25" spans="1:22">
       <c r="A34" s="103"/>
       <c r="B34" s="104"/>
-      <c r="C34" s="159"/>
+      <c r="C34" s="155"/>
       <c r="D34" s="104"/>
-      <c r="E34" s="160"/>
-      <c r="F34" s="161" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="161"/>
-      <c r="H34" s="162"/>
-      <c r="I34" s="162"/>
-      <c r="J34" s="162"/>
-      <c r="K34" s="162"/>
-      <c r="L34" s="162"/>
-      <c r="M34" s="162"/>
-      <c r="N34" s="162"/>
-      <c r="O34" s="162"/>
-      <c r="P34" s="162"/>
-      <c r="Q34" s="162"/>
-      <c r="R34" s="162"/>
-      <c r="S34" s="162"/>
-      <c r="T34" s="162"/>
-      <c r="U34" s="162"/>
-      <c r="V34" s="169"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="157" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="157"/>
+      <c r="H34" s="158"/>
+      <c r="I34" s="158"/>
+      <c r="J34" s="158"/>
+      <c r="K34" s="158"/>
+      <c r="L34" s="158"/>
+      <c r="M34" s="158"/>
+      <c r="N34" s="158"/>
+      <c r="O34" s="158"/>
+      <c r="P34" s="158"/>
+      <c r="Q34" s="158"/>
+      <c r="R34" s="158"/>
+      <c r="S34" s="158"/>
+      <c r="T34" s="158"/>
+      <c r="U34" s="158"/>
+      <c r="V34" s="165"/>
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="65" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C35" s="54" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="152" t="s">
-        <v>52</v>
+        <v>63</v>
+      </c>
+      <c r="E35" s="148" t="s">
+        <v>55</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>18</v>
@@ -5483,16 +5535,16 @@
       <c r="G35" s="23"/>
       <c r="H35" s="78"/>
       <c r="I35" s="78" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J35" s="78" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K35" s="78" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L35" s="78" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M35" s="78"/>
       <c r="N35" s="78"/>
@@ -5508,85 +5560,85 @@
     <row r="36" spans="1:22">
       <c r="A36" s="65"/>
       <c r="B36" s="21"/>
-      <c r="C36" s="153"/>
+      <c r="C36" s="149"/>
       <c r="D36" s="21"/>
-      <c r="E36" s="152"/>
-      <c r="F36" s="154" t="s">
+      <c r="E36" s="148"/>
+      <c r="F36" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="G36" s="154"/>
-      <c r="H36" s="155"/>
-      <c r="I36" s="155" t="s">
-        <v>100</v>
-      </c>
-      <c r="J36" s="155" t="s">
-        <v>101</v>
-      </c>
-      <c r="K36" s="155" t="s">
-        <v>102</v>
-      </c>
-      <c r="L36" s="155" t="s">
-        <v>103</v>
-      </c>
-      <c r="M36" s="155"/>
-      <c r="N36" s="155"/>
-      <c r="O36" s="155"/>
-      <c r="P36" s="155"/>
-      <c r="Q36" s="155"/>
-      <c r="R36" s="155"/>
-      <c r="S36" s="155"/>
-      <c r="T36" s="155"/>
-      <c r="U36" s="155"/>
-      <c r="V36" s="167"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="151"/>
+      <c r="I36" s="151" t="s">
+        <v>107</v>
+      </c>
+      <c r="J36" s="151" t="s">
+        <v>108</v>
+      </c>
+      <c r="K36" s="151" t="s">
+        <v>109</v>
+      </c>
+      <c r="L36" s="151" t="s">
+        <v>110</v>
+      </c>
+      <c r="M36" s="151"/>
+      <c r="N36" s="151"/>
+      <c r="O36" s="151"/>
+      <c r="P36" s="151"/>
+      <c r="Q36" s="151"/>
+      <c r="R36" s="151"/>
+      <c r="S36" s="151"/>
+      <c r="T36" s="151"/>
+      <c r="U36" s="151"/>
+      <c r="V36" s="163"/>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="65"/>
       <c r="B37" s="21"/>
-      <c r="C37" s="153"/>
+      <c r="C37" s="149"/>
       <c r="D37" s="21"/>
-      <c r="E37" s="152"/>
-      <c r="F37" s="154" t="s">
+      <c r="E37" s="148"/>
+      <c r="F37" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="G37" s="154"/>
-      <c r="H37" s="155"/>
-      <c r="I37" s="155"/>
-      <c r="J37" s="155"/>
-      <c r="K37" s="155"/>
-      <c r="L37" s="155"/>
-      <c r="M37" s="155"/>
-      <c r="N37" s="155"/>
-      <c r="O37" s="155"/>
-      <c r="P37" s="155"/>
-      <c r="Q37" s="155"/>
-      <c r="R37" s="155"/>
-      <c r="S37" s="155"/>
-      <c r="T37" s="155"/>
-      <c r="U37" s="155"/>
-      <c r="V37" s="167"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="151"/>
+      <c r="J37" s="151"/>
+      <c r="K37" s="151"/>
+      <c r="L37" s="151"/>
+      <c r="M37" s="151"/>
+      <c r="N37" s="151"/>
+      <c r="O37" s="151"/>
+      <c r="P37" s="151"/>
+      <c r="Q37" s="151"/>
+      <c r="R37" s="151"/>
+      <c r="S37" s="151"/>
+      <c r="T37" s="151"/>
+      <c r="U37" s="151"/>
+      <c r="V37" s="163"/>
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="65"/>
       <c r="B38" s="21"/>
-      <c r="C38" s="153"/>
+      <c r="C38" s="149"/>
       <c r="D38" s="21"/>
-      <c r="E38" s="152"/>
+      <c r="E38" s="148"/>
       <c r="F38" s="23" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G38" s="23"/>
       <c r="H38" s="78"/>
       <c r="I38" s="78" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="J38" s="78" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K38" s="78" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L38" s="78" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M38" s="78"/>
       <c r="N38" s="78"/>
@@ -5602,78 +5654,78 @@
     <row r="39" ht="14.25" spans="1:22">
       <c r="A39" s="66"/>
       <c r="B39" s="54"/>
-      <c r="C39" s="153"/>
+      <c r="C39" s="149"/>
       <c r="D39" s="54"/>
-      <c r="E39" s="156"/>
-      <c r="F39" s="157" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" s="157"/>
-      <c r="H39" s="158"/>
-      <c r="I39" s="158" t="s">
-        <v>109</v>
-      </c>
-      <c r="J39" s="158" t="s">
-        <v>110</v>
-      </c>
-      <c r="K39" s="158" t="s">
-        <v>111</v>
-      </c>
-      <c r="L39" s="158" t="s">
-        <v>112</v>
-      </c>
-      <c r="M39" s="158"/>
-      <c r="N39" s="158"/>
-      <c r="O39" s="158"/>
-      <c r="P39" s="158"/>
-      <c r="Q39" s="158"/>
-      <c r="R39" s="158"/>
-      <c r="S39" s="158"/>
-      <c r="T39" s="158"/>
-      <c r="U39" s="158"/>
-      <c r="V39" s="168"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="153"/>
+      <c r="H39" s="154"/>
+      <c r="I39" s="154" t="s">
+        <v>116</v>
+      </c>
+      <c r="J39" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="K39" s="154" t="s">
+        <v>118</v>
+      </c>
+      <c r="L39" s="154" t="s">
+        <v>119</v>
+      </c>
+      <c r="M39" s="154"/>
+      <c r="N39" s="154"/>
+      <c r="O39" s="154"/>
+      <c r="P39" s="154"/>
+      <c r="Q39" s="154"/>
+      <c r="R39" s="154"/>
+      <c r="S39" s="154"/>
+      <c r="T39" s="154"/>
+      <c r="U39" s="154"/>
+      <c r="V39" s="164"/>
     </row>
     <row r="40" ht="14.25" spans="1:22">
       <c r="A40" s="103"/>
       <c r="B40" s="104"/>
-      <c r="C40" s="159"/>
+      <c r="C40" s="155"/>
       <c r="D40" s="104"/>
-      <c r="E40" s="160"/>
-      <c r="F40" s="161" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40" s="161"/>
-      <c r="H40" s="162"/>
-      <c r="I40" s="162"/>
-      <c r="J40" s="162"/>
-      <c r="K40" s="162"/>
-      <c r="L40" s="162"/>
-      <c r="M40" s="162"/>
-      <c r="N40" s="162"/>
-      <c r="O40" s="162"/>
-      <c r="P40" s="162"/>
-      <c r="Q40" s="162"/>
-      <c r="R40" s="162"/>
-      <c r="S40" s="162"/>
-      <c r="T40" s="162"/>
-      <c r="U40" s="162"/>
-      <c r="V40" s="169"/>
+      <c r="E40" s="156"/>
+      <c r="F40" s="157" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="157"/>
+      <c r="H40" s="158"/>
+      <c r="I40" s="158"/>
+      <c r="J40" s="158"/>
+      <c r="K40" s="158"/>
+      <c r="L40" s="158"/>
+      <c r="M40" s="158"/>
+      <c r="N40" s="158"/>
+      <c r="O40" s="158"/>
+      <c r="P40" s="158"/>
+      <c r="Q40" s="158"/>
+      <c r="R40" s="158"/>
+      <c r="S40" s="158"/>
+      <c r="T40" s="158"/>
+      <c r="U40" s="158"/>
+      <c r="V40" s="165"/>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="65" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C41" s="54" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E41" s="152" t="s">
-        <v>52</v>
+        <v>63</v>
+      </c>
+      <c r="E41" s="148" t="s">
+        <v>55</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>18</v>
@@ -5681,16 +5733,16 @@
       <c r="G41" s="23"/>
       <c r="H41" s="78"/>
       <c r="I41" s="78" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="J41" s="78" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="K41" s="78" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="L41" s="78" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="M41" s="78"/>
       <c r="N41" s="78"/>
@@ -5706,85 +5758,85 @@
     <row r="42" spans="1:22">
       <c r="A42" s="65"/>
       <c r="B42" s="21"/>
-      <c r="C42" s="153"/>
+      <c r="C42" s="149"/>
       <c r="D42" s="21"/>
-      <c r="E42" s="152"/>
-      <c r="F42" s="154" t="s">
+      <c r="E42" s="148"/>
+      <c r="F42" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="154"/>
-      <c r="H42" s="155"/>
-      <c r="I42" s="155" t="s">
-        <v>119</v>
-      </c>
-      <c r="J42" s="155" t="s">
-        <v>120</v>
-      </c>
-      <c r="K42" s="155" t="s">
-        <v>121</v>
-      </c>
-      <c r="L42" s="155" t="s">
-        <v>122</v>
-      </c>
-      <c r="M42" s="155"/>
-      <c r="N42" s="155"/>
-      <c r="O42" s="155"/>
-      <c r="P42" s="155"/>
-      <c r="Q42" s="155"/>
-      <c r="R42" s="155"/>
-      <c r="S42" s="155"/>
-      <c r="T42" s="155"/>
-      <c r="U42" s="155"/>
-      <c r="V42" s="167"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="151"/>
+      <c r="I42" s="151" t="s">
+        <v>126</v>
+      </c>
+      <c r="J42" s="151" t="s">
+        <v>127</v>
+      </c>
+      <c r="K42" s="151" t="s">
+        <v>128</v>
+      </c>
+      <c r="L42" s="151" t="s">
+        <v>129</v>
+      </c>
+      <c r="M42" s="151"/>
+      <c r="N42" s="151"/>
+      <c r="O42" s="151"/>
+      <c r="P42" s="151"/>
+      <c r="Q42" s="151"/>
+      <c r="R42" s="151"/>
+      <c r="S42" s="151"/>
+      <c r="T42" s="151"/>
+      <c r="U42" s="151"/>
+      <c r="V42" s="163"/>
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="65"/>
       <c r="B43" s="21"/>
-      <c r="C43" s="153"/>
+      <c r="C43" s="149"/>
       <c r="D43" s="21"/>
-      <c r="E43" s="152"/>
-      <c r="F43" s="154" t="s">
+      <c r="E43" s="148"/>
+      <c r="F43" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="G43" s="154"/>
-      <c r="H43" s="155"/>
-      <c r="I43" s="155"/>
-      <c r="J43" s="155"/>
-      <c r="K43" s="155"/>
-      <c r="L43" s="155"/>
-      <c r="M43" s="155"/>
-      <c r="N43" s="155"/>
-      <c r="O43" s="155"/>
-      <c r="P43" s="155"/>
-      <c r="Q43" s="155"/>
-      <c r="R43" s="155"/>
-      <c r="S43" s="155"/>
-      <c r="T43" s="155"/>
-      <c r="U43" s="155"/>
-      <c r="V43" s="167"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="151"/>
+      <c r="J43" s="151"/>
+      <c r="K43" s="151"/>
+      <c r="L43" s="151"/>
+      <c r="M43" s="151"/>
+      <c r="N43" s="151"/>
+      <c r="O43" s="151"/>
+      <c r="P43" s="151"/>
+      <c r="Q43" s="151"/>
+      <c r="R43" s="151"/>
+      <c r="S43" s="151"/>
+      <c r="T43" s="151"/>
+      <c r="U43" s="151"/>
+      <c r="V43" s="163"/>
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="65"/>
       <c r="B44" s="21"/>
-      <c r="C44" s="153"/>
+      <c r="C44" s="149"/>
       <c r="D44" s="21"/>
-      <c r="E44" s="152"/>
+      <c r="E44" s="148"/>
       <c r="F44" s="23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G44" s="23"/>
       <c r="H44" s="78"/>
       <c r="I44" s="78" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="J44" s="78" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="K44" s="78" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="L44" s="78" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M44" s="78"/>
       <c r="N44" s="78"/>
@@ -5800,75 +5852,87 @@
     <row r="45" ht="14.25" spans="1:22">
       <c r="A45" s="66"/>
       <c r="B45" s="54"/>
-      <c r="C45" s="153"/>
+      <c r="C45" s="149"/>
       <c r="D45" s="54"/>
-      <c r="E45" s="156"/>
-      <c r="F45" s="157" t="s">
-        <v>34</v>
-      </c>
-      <c r="G45" s="157"/>
-      <c r="H45" s="158"/>
-      <c r="I45" s="158" t="s">
-        <v>127</v>
-      </c>
-      <c r="J45" s="158" t="s">
-        <v>128</v>
-      </c>
-      <c r="K45" s="158" t="s">
-        <v>129</v>
-      </c>
-      <c r="L45" s="158" t="s">
-        <v>130</v>
-      </c>
-      <c r="M45" s="158"/>
-      <c r="N45" s="158"/>
-      <c r="O45" s="158"/>
-      <c r="P45" s="158"/>
-      <c r="Q45" s="158"/>
-      <c r="R45" s="158"/>
-      <c r="S45" s="158"/>
-      <c r="T45" s="158"/>
-      <c r="U45" s="158"/>
-      <c r="V45" s="168"/>
+      <c r="E45" s="152"/>
+      <c r="F45" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" s="153"/>
+      <c r="H45" s="154"/>
+      <c r="I45" s="154" t="s">
+        <v>134</v>
+      </c>
+      <c r="J45" s="154" t="s">
+        <v>135</v>
+      </c>
+      <c r="K45" s="154" t="s">
+        <v>136</v>
+      </c>
+      <c r="L45" s="154" t="s">
+        <v>137</v>
+      </c>
+      <c r="M45" s="154"/>
+      <c r="N45" s="154"/>
+      <c r="O45" s="154"/>
+      <c r="P45" s="154"/>
+      <c r="Q45" s="154"/>
+      <c r="R45" s="154"/>
+      <c r="S45" s="154"/>
+      <c r="T45" s="154"/>
+      <c r="U45" s="154"/>
+      <c r="V45" s="164"/>
     </row>
     <row r="46" ht="14.25" spans="1:22">
       <c r="A46" s="103"/>
       <c r="B46" s="104"/>
-      <c r="C46" s="159"/>
+      <c r="C46" s="155"/>
       <c r="D46" s="104"/>
-      <c r="E46" s="160"/>
-      <c r="F46" s="161" t="s">
-        <v>39</v>
-      </c>
-      <c r="G46" s="161"/>
-      <c r="H46" s="162"/>
-      <c r="I46" s="162"/>
-      <c r="J46" s="162"/>
-      <c r="K46" s="162"/>
-      <c r="L46" s="162"/>
-      <c r="M46" s="162"/>
-      <c r="N46" s="162"/>
-      <c r="O46" s="162"/>
-      <c r="P46" s="162"/>
-      <c r="Q46" s="162"/>
-      <c r="R46" s="162"/>
-      <c r="S46" s="162"/>
-      <c r="T46" s="162"/>
-      <c r="U46" s="162"/>
-      <c r="V46" s="169"/>
+      <c r="E46" s="156"/>
+      <c r="F46" s="157" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" s="157"/>
+      <c r="H46" s="158"/>
+      <c r="I46" s="158"/>
+      <c r="J46" s="158"/>
+      <c r="K46" s="158"/>
+      <c r="L46" s="158"/>
+      <c r="M46" s="158"/>
+      <c r="N46" s="158"/>
+      <c r="O46" s="158"/>
+      <c r="P46" s="158"/>
+      <c r="Q46" s="158"/>
+      <c r="R46" s="158"/>
+      <c r="S46" s="158"/>
+      <c r="T46" s="158"/>
+      <c r="U46" s="158"/>
+      <c r="V46" s="165"/>
     </row>
     <row r="47" spans="1:22">
-      <c r="A47" s="65"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="152"/>
+      <c r="A47" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" s="148" t="s">
+        <v>142</v>
+      </c>
       <c r="F47" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G47" s="23"/>
       <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
+      <c r="I47" s="78" t="s">
+        <v>143</v>
+      </c>
       <c r="J47" s="78"/>
       <c r="K47" s="78"/>
       <c r="L47" s="78"/>
@@ -5886,41 +5950,45 @@
     <row r="48" spans="1:22">
       <c r="A48" s="65"/>
       <c r="B48" s="21"/>
-      <c r="C48" s="153"/>
+      <c r="C48" s="149"/>
       <c r="D48" s="21"/>
-      <c r="E48" s="152"/>
-      <c r="F48" s="154" t="s">
+      <c r="E48" s="148"/>
+      <c r="F48" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="G48" s="154"/>
-      <c r="H48" s="155"/>
-      <c r="I48" s="155"/>
-      <c r="J48" s="155"/>
-      <c r="K48" s="155"/>
-      <c r="L48" s="155"/>
-      <c r="M48" s="155"/>
-      <c r="N48" s="155"/>
-      <c r="O48" s="155"/>
-      <c r="P48" s="155"/>
-      <c r="Q48" s="155"/>
-      <c r="R48" s="155"/>
-      <c r="S48" s="155"/>
-      <c r="T48" s="155"/>
-      <c r="U48" s="155"/>
-      <c r="V48" s="167"/>
+      <c r="G48" s="150"/>
+      <c r="H48" s="151"/>
+      <c r="I48" s="151" t="s">
+        <v>144</v>
+      </c>
+      <c r="J48" s="151"/>
+      <c r="K48" s="151"/>
+      <c r="L48" s="151"/>
+      <c r="M48" s="151"/>
+      <c r="N48" s="151"/>
+      <c r="O48" s="151"/>
+      <c r="P48" s="151"/>
+      <c r="Q48" s="151"/>
+      <c r="R48" s="151"/>
+      <c r="S48" s="151"/>
+      <c r="T48" s="151"/>
+      <c r="U48" s="151"/>
+      <c r="V48" s="163"/>
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="65"/>
       <c r="B49" s="21"/>
-      <c r="C49" s="153"/>
+      <c r="C49" s="149"/>
       <c r="D49" s="21"/>
-      <c r="E49" s="152"/>
+      <c r="E49" s="148"/>
       <c r="F49" s="23" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G49" s="23"/>
       <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
+      <c r="I49" s="78" t="s">
+        <v>145</v>
+      </c>
       <c r="J49" s="78"/>
       <c r="K49" s="78"/>
       <c r="L49" s="78"/>
@@ -5938,61 +6006,63 @@
     <row r="50" ht="14.25" spans="1:22">
       <c r="A50" s="66"/>
       <c r="B50" s="54"/>
-      <c r="C50" s="153"/>
+      <c r="C50" s="149"/>
       <c r="D50" s="54"/>
-      <c r="E50" s="156"/>
-      <c r="F50" s="157" t="s">
-        <v>34</v>
-      </c>
-      <c r="G50" s="157"/>
-      <c r="H50" s="158"/>
-      <c r="I50" s="158"/>
-      <c r="J50" s="158"/>
-      <c r="K50" s="158"/>
-      <c r="L50" s="158"/>
-      <c r="M50" s="158"/>
-      <c r="N50" s="158"/>
-      <c r="O50" s="158"/>
-      <c r="P50" s="158"/>
-      <c r="Q50" s="158"/>
-      <c r="R50" s="158"/>
-      <c r="S50" s="158"/>
-      <c r="T50" s="158"/>
-      <c r="U50" s="158"/>
-      <c r="V50" s="168"/>
+      <c r="E50" s="152"/>
+      <c r="F50" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="G50" s="153"/>
+      <c r="H50" s="154"/>
+      <c r="I50" s="154" t="s">
+        <v>146</v>
+      </c>
+      <c r="J50" s="154"/>
+      <c r="K50" s="154"/>
+      <c r="L50" s="154"/>
+      <c r="M50" s="154"/>
+      <c r="N50" s="154"/>
+      <c r="O50" s="154"/>
+      <c r="P50" s="154"/>
+      <c r="Q50" s="154"/>
+      <c r="R50" s="154"/>
+      <c r="S50" s="154"/>
+      <c r="T50" s="154"/>
+      <c r="U50" s="154"/>
+      <c r="V50" s="164"/>
     </row>
     <row r="51" ht="14.25" spans="1:22">
       <c r="A51" s="103"/>
       <c r="B51" s="104"/>
-      <c r="C51" s="159"/>
+      <c r="C51" s="155"/>
       <c r="D51" s="104"/>
-      <c r="E51" s="160"/>
-      <c r="F51" s="161" t="s">
-        <v>39</v>
-      </c>
-      <c r="G51" s="161"/>
-      <c r="H51" s="162"/>
-      <c r="I51" s="162"/>
-      <c r="J51" s="162"/>
-      <c r="K51" s="162"/>
-      <c r="L51" s="162"/>
-      <c r="M51" s="162"/>
-      <c r="N51" s="162"/>
-      <c r="O51" s="162"/>
-      <c r="P51" s="162"/>
-      <c r="Q51" s="162"/>
-      <c r="R51" s="162"/>
-      <c r="S51" s="162"/>
-      <c r="T51" s="162"/>
-      <c r="U51" s="162"/>
-      <c r="V51" s="169"/>
+      <c r="E51" s="156"/>
+      <c r="F51" s="157" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" s="157"/>
+      <c r="H51" s="158"/>
+      <c r="I51" s="158"/>
+      <c r="J51" s="158"/>
+      <c r="K51" s="158"/>
+      <c r="L51" s="158"/>
+      <c r="M51" s="158"/>
+      <c r="N51" s="158"/>
+      <c r="O51" s="158"/>
+      <c r="P51" s="158"/>
+      <c r="Q51" s="158"/>
+      <c r="R51" s="158"/>
+      <c r="S51" s="158"/>
+      <c r="T51" s="158"/>
+      <c r="U51" s="158"/>
+      <c r="V51" s="165"/>
     </row>
     <row r="52" spans="1:22">
       <c r="A52" s="65"/>
       <c r="B52" s="21"/>
       <c r="C52" s="54"/>
       <c r="D52" s="21"/>
-      <c r="E52" s="152"/>
+      <c r="E52" s="148"/>
       <c r="F52" s="23" t="s">
         <v>18</v>
       </c>
@@ -6016,37 +6086,37 @@
     <row r="53" spans="1:22">
       <c r="A53" s="65"/>
       <c r="B53" s="21"/>
-      <c r="C53" s="153"/>
+      <c r="C53" s="149"/>
       <c r="D53" s="21"/>
-      <c r="E53" s="152"/>
-      <c r="F53" s="154" t="s">
+      <c r="E53" s="148"/>
+      <c r="F53" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="G53" s="154"/>
-      <c r="H53" s="155"/>
-      <c r="I53" s="155"/>
-      <c r="J53" s="155"/>
-      <c r="K53" s="155"/>
-      <c r="L53" s="155"/>
-      <c r="M53" s="155"/>
-      <c r="N53" s="155"/>
-      <c r="O53" s="155"/>
-      <c r="P53" s="155"/>
-      <c r="Q53" s="155"/>
-      <c r="R53" s="155"/>
-      <c r="S53" s="155"/>
-      <c r="T53" s="155"/>
-      <c r="U53" s="155"/>
-      <c r="V53" s="167"/>
+      <c r="G53" s="150"/>
+      <c r="H53" s="151"/>
+      <c r="I53" s="151"/>
+      <c r="J53" s="151"/>
+      <c r="K53" s="151"/>
+      <c r="L53" s="151"/>
+      <c r="M53" s="151"/>
+      <c r="N53" s="151"/>
+      <c r="O53" s="151"/>
+      <c r="P53" s="151"/>
+      <c r="Q53" s="151"/>
+      <c r="R53" s="151"/>
+      <c r="S53" s="151"/>
+      <c r="T53" s="151"/>
+      <c r="U53" s="151"/>
+      <c r="V53" s="163"/>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="65"/>
       <c r="B54" s="21"/>
-      <c r="C54" s="153"/>
+      <c r="C54" s="149"/>
       <c r="D54" s="21"/>
-      <c r="E54" s="152"/>
+      <c r="E54" s="148"/>
       <c r="F54" s="23" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G54" s="23"/>
       <c r="H54" s="78"/>
@@ -6068,61 +6138,61 @@
     <row r="55" ht="14.25" spans="1:22">
       <c r="A55" s="66"/>
       <c r="B55" s="54"/>
-      <c r="C55" s="153"/>
+      <c r="C55" s="149"/>
       <c r="D55" s="54"/>
-      <c r="E55" s="156"/>
-      <c r="F55" s="157" t="s">
-        <v>34</v>
-      </c>
-      <c r="G55" s="157"/>
-      <c r="H55" s="158"/>
-      <c r="I55" s="158"/>
-      <c r="J55" s="158"/>
-      <c r="K55" s="158"/>
-      <c r="L55" s="158"/>
-      <c r="M55" s="158"/>
-      <c r="N55" s="158"/>
-      <c r="O55" s="158"/>
-      <c r="P55" s="158"/>
-      <c r="Q55" s="158"/>
-      <c r="R55" s="158"/>
-      <c r="S55" s="158"/>
-      <c r="T55" s="158"/>
-      <c r="U55" s="158"/>
-      <c r="V55" s="168"/>
+      <c r="E55" s="152"/>
+      <c r="F55" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="G55" s="153"/>
+      <c r="H55" s="154"/>
+      <c r="I55" s="154"/>
+      <c r="J55" s="154"/>
+      <c r="K55" s="154"/>
+      <c r="L55" s="154"/>
+      <c r="M55" s="154"/>
+      <c r="N55" s="154"/>
+      <c r="O55" s="154"/>
+      <c r="P55" s="154"/>
+      <c r="Q55" s="154"/>
+      <c r="R55" s="154"/>
+      <c r="S55" s="154"/>
+      <c r="T55" s="154"/>
+      <c r="U55" s="154"/>
+      <c r="V55" s="164"/>
     </row>
     <row r="56" ht="14.25" spans="1:22">
       <c r="A56" s="103"/>
       <c r="B56" s="104"/>
-      <c r="C56" s="159"/>
+      <c r="C56" s="155"/>
       <c r="D56" s="104"/>
-      <c r="E56" s="160"/>
-      <c r="F56" s="161" t="s">
-        <v>39</v>
-      </c>
-      <c r="G56" s="161"/>
-      <c r="H56" s="162"/>
-      <c r="I56" s="162"/>
-      <c r="J56" s="162"/>
-      <c r="K56" s="162"/>
-      <c r="L56" s="162"/>
-      <c r="M56" s="162"/>
-      <c r="N56" s="162"/>
-      <c r="O56" s="162"/>
-      <c r="P56" s="162"/>
-      <c r="Q56" s="162"/>
-      <c r="R56" s="162"/>
-      <c r="S56" s="162"/>
-      <c r="T56" s="162"/>
-      <c r="U56" s="162"/>
-      <c r="V56" s="169"/>
+      <c r="E56" s="156"/>
+      <c r="F56" s="157" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56" s="157"/>
+      <c r="H56" s="158"/>
+      <c r="I56" s="158"/>
+      <c r="J56" s="158"/>
+      <c r="K56" s="158"/>
+      <c r="L56" s="158"/>
+      <c r="M56" s="158"/>
+      <c r="N56" s="158"/>
+      <c r="O56" s="158"/>
+      <c r="P56" s="158"/>
+      <c r="Q56" s="158"/>
+      <c r="R56" s="158"/>
+      <c r="S56" s="158"/>
+      <c r="T56" s="158"/>
+      <c r="U56" s="158"/>
+      <c r="V56" s="165"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="65"/>
       <c r="B57" s="21"/>
       <c r="C57" s="54"/>
       <c r="D57" s="21"/>
-      <c r="E57" s="152"/>
+      <c r="E57" s="148"/>
       <c r="F57" s="23" t="s">
         <v>18</v>
       </c>
@@ -6146,37 +6216,37 @@
     <row r="58" spans="1:22">
       <c r="A58" s="65"/>
       <c r="B58" s="21"/>
-      <c r="C58" s="153"/>
+      <c r="C58" s="149"/>
       <c r="D58" s="21"/>
-      <c r="E58" s="152"/>
-      <c r="F58" s="154" t="s">
+      <c r="E58" s="148"/>
+      <c r="F58" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="G58" s="154"/>
-      <c r="H58" s="155"/>
-      <c r="I58" s="155"/>
-      <c r="J58" s="155"/>
-      <c r="K58" s="155"/>
-      <c r="L58" s="155"/>
-      <c r="M58" s="155"/>
-      <c r="N58" s="155"/>
-      <c r="O58" s="155"/>
-      <c r="P58" s="155"/>
-      <c r="Q58" s="155"/>
-      <c r="R58" s="155"/>
-      <c r="S58" s="155"/>
-      <c r="T58" s="155"/>
-      <c r="U58" s="155"/>
-      <c r="V58" s="167"/>
+      <c r="G58" s="150"/>
+      <c r="H58" s="151"/>
+      <c r="I58" s="151"/>
+      <c r="J58" s="151"/>
+      <c r="K58" s="151"/>
+      <c r="L58" s="151"/>
+      <c r="M58" s="151"/>
+      <c r="N58" s="151"/>
+      <c r="O58" s="151"/>
+      <c r="P58" s="151"/>
+      <c r="Q58" s="151"/>
+      <c r="R58" s="151"/>
+      <c r="S58" s="151"/>
+      <c r="T58" s="151"/>
+      <c r="U58" s="151"/>
+      <c r="V58" s="163"/>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="65"/>
       <c r="B59" s="21"/>
-      <c r="C59" s="153"/>
+      <c r="C59" s="149"/>
       <c r="D59" s="21"/>
-      <c r="E59" s="152"/>
+      <c r="E59" s="148"/>
       <c r="F59" s="23" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G59" s="23"/>
       <c r="H59" s="78"/>
@@ -6198,61 +6268,61 @@
     <row r="60" ht="14.25" spans="1:22">
       <c r="A60" s="66"/>
       <c r="B60" s="54"/>
-      <c r="C60" s="153"/>
+      <c r="C60" s="149"/>
       <c r="D60" s="54"/>
-      <c r="E60" s="156"/>
-      <c r="F60" s="157" t="s">
-        <v>34</v>
-      </c>
-      <c r="G60" s="157"/>
-      <c r="H60" s="158"/>
-      <c r="I60" s="158"/>
-      <c r="J60" s="158"/>
-      <c r="K60" s="158"/>
-      <c r="L60" s="158"/>
-      <c r="M60" s="158"/>
-      <c r="N60" s="158"/>
-      <c r="O60" s="158"/>
-      <c r="P60" s="158"/>
-      <c r="Q60" s="158"/>
-      <c r="R60" s="158"/>
-      <c r="S60" s="158"/>
-      <c r="T60" s="158"/>
-      <c r="U60" s="158"/>
-      <c r="V60" s="168"/>
+      <c r="E60" s="152"/>
+      <c r="F60" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="G60" s="153"/>
+      <c r="H60" s="154"/>
+      <c r="I60" s="154"/>
+      <c r="J60" s="154"/>
+      <c r="K60" s="154"/>
+      <c r="L60" s="154"/>
+      <c r="M60" s="154"/>
+      <c r="N60" s="154"/>
+      <c r="O60" s="154"/>
+      <c r="P60" s="154"/>
+      <c r="Q60" s="154"/>
+      <c r="R60" s="154"/>
+      <c r="S60" s="154"/>
+      <c r="T60" s="154"/>
+      <c r="U60" s="154"/>
+      <c r="V60" s="164"/>
     </row>
     <row r="61" ht="14.25" spans="1:22">
       <c r="A61" s="103"/>
       <c r="B61" s="104"/>
-      <c r="C61" s="159"/>
+      <c r="C61" s="155"/>
       <c r="D61" s="104"/>
-      <c r="E61" s="160"/>
-      <c r="F61" s="161" t="s">
-        <v>39</v>
-      </c>
-      <c r="G61" s="161"/>
-      <c r="H61" s="162"/>
-      <c r="I61" s="162"/>
-      <c r="J61" s="162"/>
-      <c r="K61" s="162"/>
-      <c r="L61" s="162"/>
-      <c r="M61" s="162"/>
-      <c r="N61" s="162"/>
-      <c r="O61" s="162"/>
-      <c r="P61" s="162"/>
-      <c r="Q61" s="162"/>
-      <c r="R61" s="162"/>
-      <c r="S61" s="162"/>
-      <c r="T61" s="162"/>
-      <c r="U61" s="162"/>
-      <c r="V61" s="169"/>
+      <c r="E61" s="156"/>
+      <c r="F61" s="157" t="s">
+        <v>42</v>
+      </c>
+      <c r="G61" s="157"/>
+      <c r="H61" s="158"/>
+      <c r="I61" s="158"/>
+      <c r="J61" s="158"/>
+      <c r="K61" s="158"/>
+      <c r="L61" s="158"/>
+      <c r="M61" s="158"/>
+      <c r="N61" s="158"/>
+      <c r="O61" s="158"/>
+      <c r="P61" s="158"/>
+      <c r="Q61" s="158"/>
+      <c r="R61" s="158"/>
+      <c r="S61" s="158"/>
+      <c r="T61" s="158"/>
+      <c r="U61" s="158"/>
+      <c r="V61" s="165"/>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="65"/>
       <c r="B62" s="21"/>
       <c r="C62" s="54"/>
       <c r="D62" s="21"/>
-      <c r="E62" s="152"/>
+      <c r="E62" s="148"/>
       <c r="F62" s="23" t="s">
         <v>18</v>
       </c>
@@ -6276,37 +6346,37 @@
     <row r="63" spans="1:22">
       <c r="A63" s="65"/>
       <c r="B63" s="21"/>
-      <c r="C63" s="153"/>
+      <c r="C63" s="149"/>
       <c r="D63" s="21"/>
-      <c r="E63" s="152"/>
-      <c r="F63" s="154" t="s">
+      <c r="E63" s="148"/>
+      <c r="F63" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="G63" s="154"/>
-      <c r="H63" s="155"/>
-      <c r="I63" s="155"/>
-      <c r="J63" s="155"/>
-      <c r="K63" s="155"/>
-      <c r="L63" s="155"/>
-      <c r="M63" s="155"/>
-      <c r="N63" s="155"/>
-      <c r="O63" s="155"/>
-      <c r="P63" s="155"/>
-      <c r="Q63" s="155"/>
-      <c r="R63" s="155"/>
-      <c r="S63" s="155"/>
-      <c r="T63" s="155"/>
-      <c r="U63" s="155"/>
-      <c r="V63" s="167"/>
+      <c r="G63" s="150"/>
+      <c r="H63" s="151"/>
+      <c r="I63" s="151"/>
+      <c r="J63" s="151"/>
+      <c r="K63" s="151"/>
+      <c r="L63" s="151"/>
+      <c r="M63" s="151"/>
+      <c r="N63" s="151"/>
+      <c r="O63" s="151"/>
+      <c r="P63" s="151"/>
+      <c r="Q63" s="151"/>
+      <c r="R63" s="151"/>
+      <c r="S63" s="151"/>
+      <c r="T63" s="151"/>
+      <c r="U63" s="151"/>
+      <c r="V63" s="163"/>
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="65"/>
       <c r="B64" s="21"/>
-      <c r="C64" s="153"/>
+      <c r="C64" s="149"/>
       <c r="D64" s="21"/>
-      <c r="E64" s="152"/>
+      <c r="E64" s="148"/>
       <c r="F64" s="23" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G64" s="23"/>
       <c r="H64" s="78"/>
@@ -6328,61 +6398,61 @@
     <row r="65" ht="14.25" spans="1:22">
       <c r="A65" s="66"/>
       <c r="B65" s="54"/>
-      <c r="C65" s="153"/>
+      <c r="C65" s="149"/>
       <c r="D65" s="54"/>
-      <c r="E65" s="156"/>
-      <c r="F65" s="157" t="s">
-        <v>34</v>
-      </c>
-      <c r="G65" s="157"/>
-      <c r="H65" s="158"/>
-      <c r="I65" s="158"/>
-      <c r="J65" s="158"/>
-      <c r="K65" s="158"/>
-      <c r="L65" s="158"/>
-      <c r="M65" s="158"/>
-      <c r="N65" s="158"/>
-      <c r="O65" s="158"/>
-      <c r="P65" s="158"/>
-      <c r="Q65" s="158"/>
-      <c r="R65" s="158"/>
-      <c r="S65" s="158"/>
-      <c r="T65" s="158"/>
-      <c r="U65" s="158"/>
-      <c r="V65" s="168"/>
+      <c r="E65" s="152"/>
+      <c r="F65" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="G65" s="153"/>
+      <c r="H65" s="154"/>
+      <c r="I65" s="154"/>
+      <c r="J65" s="154"/>
+      <c r="K65" s="154"/>
+      <c r="L65" s="154"/>
+      <c r="M65" s="154"/>
+      <c r="N65" s="154"/>
+      <c r="O65" s="154"/>
+      <c r="P65" s="154"/>
+      <c r="Q65" s="154"/>
+      <c r="R65" s="154"/>
+      <c r="S65" s="154"/>
+      <c r="T65" s="154"/>
+      <c r="U65" s="154"/>
+      <c r="V65" s="164"/>
     </row>
     <row r="66" ht="14.25" spans="1:22">
       <c r="A66" s="103"/>
       <c r="B66" s="104"/>
-      <c r="C66" s="159"/>
+      <c r="C66" s="155"/>
       <c r="D66" s="104"/>
-      <c r="E66" s="160"/>
-      <c r="F66" s="161" t="s">
-        <v>39</v>
-      </c>
-      <c r="G66" s="161"/>
-      <c r="H66" s="162"/>
-      <c r="I66" s="162"/>
-      <c r="J66" s="162"/>
-      <c r="K66" s="162"/>
-      <c r="L66" s="162"/>
-      <c r="M66" s="162"/>
-      <c r="N66" s="162"/>
-      <c r="O66" s="162"/>
-      <c r="P66" s="162"/>
-      <c r="Q66" s="162"/>
-      <c r="R66" s="162"/>
-      <c r="S66" s="162"/>
-      <c r="T66" s="162"/>
-      <c r="U66" s="162"/>
-      <c r="V66" s="169"/>
+      <c r="E66" s="156"/>
+      <c r="F66" s="157" t="s">
+        <v>42</v>
+      </c>
+      <c r="G66" s="157"/>
+      <c r="H66" s="158"/>
+      <c r="I66" s="158"/>
+      <c r="J66" s="158"/>
+      <c r="K66" s="158"/>
+      <c r="L66" s="158"/>
+      <c r="M66" s="158"/>
+      <c r="N66" s="158"/>
+      <c r="O66" s="158"/>
+      <c r="P66" s="158"/>
+      <c r="Q66" s="158"/>
+      <c r="R66" s="158"/>
+      <c r="S66" s="158"/>
+      <c r="T66" s="158"/>
+      <c r="U66" s="158"/>
+      <c r="V66" s="165"/>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="65"/>
       <c r="B67" s="21"/>
       <c r="C67" s="54"/>
       <c r="D67" s="21"/>
-      <c r="E67" s="152"/>
+      <c r="E67" s="148"/>
       <c r="F67" s="23" t="s">
         <v>18</v>
       </c>
@@ -6406,37 +6476,37 @@
     <row r="68" spans="1:22">
       <c r="A68" s="65"/>
       <c r="B68" s="21"/>
-      <c r="C68" s="153"/>
+      <c r="C68" s="149"/>
       <c r="D68" s="21"/>
-      <c r="E68" s="152"/>
-      <c r="F68" s="154" t="s">
+      <c r="E68" s="148"/>
+      <c r="F68" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="G68" s="154"/>
-      <c r="H68" s="155"/>
-      <c r="I68" s="155"/>
-      <c r="J68" s="155"/>
-      <c r="K68" s="155"/>
-      <c r="L68" s="155"/>
-      <c r="M68" s="155"/>
-      <c r="N68" s="155"/>
-      <c r="O68" s="155"/>
-      <c r="P68" s="155"/>
-      <c r="Q68" s="155"/>
-      <c r="R68" s="155"/>
-      <c r="S68" s="155"/>
-      <c r="T68" s="155"/>
-      <c r="U68" s="155"/>
-      <c r="V68" s="167"/>
+      <c r="G68" s="150"/>
+      <c r="H68" s="151"/>
+      <c r="I68" s="151"/>
+      <c r="J68" s="151"/>
+      <c r="K68" s="151"/>
+      <c r="L68" s="151"/>
+      <c r="M68" s="151"/>
+      <c r="N68" s="151"/>
+      <c r="O68" s="151"/>
+      <c r="P68" s="151"/>
+      <c r="Q68" s="151"/>
+      <c r="R68" s="151"/>
+      <c r="S68" s="151"/>
+      <c r="T68" s="151"/>
+      <c r="U68" s="151"/>
+      <c r="V68" s="163"/>
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="65"/>
       <c r="B69" s="21"/>
-      <c r="C69" s="153"/>
+      <c r="C69" s="149"/>
       <c r="D69" s="21"/>
-      <c r="E69" s="152"/>
+      <c r="E69" s="148"/>
       <c r="F69" s="23" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G69" s="23"/>
       <c r="H69" s="78"/>
@@ -6458,61 +6528,61 @@
     <row r="70" ht="14.25" spans="1:22">
       <c r="A70" s="66"/>
       <c r="B70" s="54"/>
-      <c r="C70" s="153"/>
+      <c r="C70" s="149"/>
       <c r="D70" s="54"/>
-      <c r="E70" s="156"/>
-      <c r="F70" s="157" t="s">
-        <v>34</v>
-      </c>
-      <c r="G70" s="157"/>
-      <c r="H70" s="158"/>
-      <c r="I70" s="158"/>
-      <c r="J70" s="158"/>
-      <c r="K70" s="158"/>
-      <c r="L70" s="158"/>
-      <c r="M70" s="158"/>
-      <c r="N70" s="158"/>
-      <c r="O70" s="158"/>
-      <c r="P70" s="158"/>
-      <c r="Q70" s="158"/>
-      <c r="R70" s="158"/>
-      <c r="S70" s="158"/>
-      <c r="T70" s="158"/>
-      <c r="U70" s="158"/>
-      <c r="V70" s="168"/>
+      <c r="E70" s="152"/>
+      <c r="F70" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="G70" s="153"/>
+      <c r="H70" s="154"/>
+      <c r="I70" s="154"/>
+      <c r="J70" s="154"/>
+      <c r="K70" s="154"/>
+      <c r="L70" s="154"/>
+      <c r="M70" s="154"/>
+      <c r="N70" s="154"/>
+      <c r="O70" s="154"/>
+      <c r="P70" s="154"/>
+      <c r="Q70" s="154"/>
+      <c r="R70" s="154"/>
+      <c r="S70" s="154"/>
+      <c r="T70" s="154"/>
+      <c r="U70" s="154"/>
+      <c r="V70" s="164"/>
     </row>
     <row r="71" ht="14.25" spans="1:22">
       <c r="A71" s="103"/>
       <c r="B71" s="104"/>
-      <c r="C71" s="159"/>
+      <c r="C71" s="155"/>
       <c r="D71" s="104"/>
-      <c r="E71" s="160"/>
-      <c r="F71" s="161" t="s">
-        <v>39</v>
-      </c>
-      <c r="G71" s="161"/>
-      <c r="H71" s="162"/>
-      <c r="I71" s="162"/>
-      <c r="J71" s="162"/>
-      <c r="K71" s="162"/>
-      <c r="L71" s="162"/>
-      <c r="M71" s="162"/>
-      <c r="N71" s="162"/>
-      <c r="O71" s="162"/>
-      <c r="P71" s="162"/>
-      <c r="Q71" s="162"/>
-      <c r="R71" s="162"/>
-      <c r="S71" s="162"/>
-      <c r="T71" s="162"/>
-      <c r="U71" s="162"/>
-      <c r="V71" s="169"/>
+      <c r="E71" s="156"/>
+      <c r="F71" s="157" t="s">
+        <v>42</v>
+      </c>
+      <c r="G71" s="157"/>
+      <c r="H71" s="158"/>
+      <c r="I71" s="158"/>
+      <c r="J71" s="158"/>
+      <c r="K71" s="158"/>
+      <c r="L71" s="158"/>
+      <c r="M71" s="158"/>
+      <c r="N71" s="158"/>
+      <c r="O71" s="158"/>
+      <c r="P71" s="158"/>
+      <c r="Q71" s="158"/>
+      <c r="R71" s="158"/>
+      <c r="S71" s="158"/>
+      <c r="T71" s="158"/>
+      <c r="U71" s="158"/>
+      <c r="V71" s="165"/>
     </row>
     <row r="72" spans="1:22">
       <c r="A72" s="65"/>
       <c r="B72" s="21"/>
       <c r="C72" s="54"/>
       <c r="D72" s="21"/>
-      <c r="E72" s="152"/>
+      <c r="E72" s="148"/>
       <c r="F72" s="23" t="s">
         <v>18</v>
       </c>
@@ -6536,37 +6606,37 @@
     <row r="73" spans="1:22">
       <c r="A73" s="65"/>
       <c r="B73" s="21"/>
-      <c r="C73" s="153"/>
+      <c r="C73" s="149"/>
       <c r="D73" s="21"/>
-      <c r="E73" s="152"/>
-      <c r="F73" s="154" t="s">
+      <c r="E73" s="148"/>
+      <c r="F73" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="G73" s="154"/>
-      <c r="H73" s="155"/>
-      <c r="I73" s="155"/>
-      <c r="J73" s="155"/>
-      <c r="K73" s="155"/>
-      <c r="L73" s="155"/>
-      <c r="M73" s="155"/>
-      <c r="N73" s="155"/>
-      <c r="O73" s="155"/>
-      <c r="P73" s="155"/>
-      <c r="Q73" s="155"/>
-      <c r="R73" s="155"/>
-      <c r="S73" s="155"/>
-      <c r="T73" s="155"/>
-      <c r="U73" s="155"/>
-      <c r="V73" s="167"/>
+      <c r="G73" s="150"/>
+      <c r="H73" s="151"/>
+      <c r="I73" s="151"/>
+      <c r="J73" s="151"/>
+      <c r="K73" s="151"/>
+      <c r="L73" s="151"/>
+      <c r="M73" s="151"/>
+      <c r="N73" s="151"/>
+      <c r="O73" s="151"/>
+      <c r="P73" s="151"/>
+      <c r="Q73" s="151"/>
+      <c r="R73" s="151"/>
+      <c r="S73" s="151"/>
+      <c r="T73" s="151"/>
+      <c r="U73" s="151"/>
+      <c r="V73" s="163"/>
     </row>
     <row r="74" spans="1:22">
       <c r="A74" s="65"/>
       <c r="B74" s="21"/>
-      <c r="C74" s="153"/>
+      <c r="C74" s="149"/>
       <c r="D74" s="21"/>
-      <c r="E74" s="152"/>
+      <c r="E74" s="148"/>
       <c r="F74" s="23" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G74" s="23"/>
       <c r="H74" s="78"/>
@@ -6588,61 +6658,61 @@
     <row r="75" ht="14.25" spans="1:22">
       <c r="A75" s="66"/>
       <c r="B75" s="54"/>
-      <c r="C75" s="153"/>
+      <c r="C75" s="149"/>
       <c r="D75" s="54"/>
-      <c r="E75" s="156"/>
-      <c r="F75" s="157" t="s">
-        <v>34</v>
-      </c>
-      <c r="G75" s="157"/>
-      <c r="H75" s="158"/>
-      <c r="I75" s="158"/>
-      <c r="J75" s="158"/>
-      <c r="K75" s="158"/>
-      <c r="L75" s="158"/>
-      <c r="M75" s="158"/>
-      <c r="N75" s="158"/>
-      <c r="O75" s="158"/>
-      <c r="P75" s="158"/>
-      <c r="Q75" s="158"/>
-      <c r="R75" s="158"/>
-      <c r="S75" s="158"/>
-      <c r="T75" s="158"/>
-      <c r="U75" s="158"/>
-      <c r="V75" s="168"/>
+      <c r="E75" s="152"/>
+      <c r="F75" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="G75" s="153"/>
+      <c r="H75" s="154"/>
+      <c r="I75" s="154"/>
+      <c r="J75" s="154"/>
+      <c r="K75" s="154"/>
+      <c r="L75" s="154"/>
+      <c r="M75" s="154"/>
+      <c r="N75" s="154"/>
+      <c r="O75" s="154"/>
+      <c r="P75" s="154"/>
+      <c r="Q75" s="154"/>
+      <c r="R75" s="154"/>
+      <c r="S75" s="154"/>
+      <c r="T75" s="154"/>
+      <c r="U75" s="154"/>
+      <c r="V75" s="164"/>
     </row>
     <row r="76" ht="14.25" spans="1:22">
       <c r="A76" s="103"/>
       <c r="B76" s="104"/>
-      <c r="C76" s="159"/>
+      <c r="C76" s="155"/>
       <c r="D76" s="104"/>
-      <c r="E76" s="160"/>
-      <c r="F76" s="161" t="s">
-        <v>39</v>
-      </c>
-      <c r="G76" s="161"/>
-      <c r="H76" s="162"/>
-      <c r="I76" s="162"/>
-      <c r="J76" s="162"/>
-      <c r="K76" s="162"/>
-      <c r="L76" s="162"/>
-      <c r="M76" s="162"/>
-      <c r="N76" s="162"/>
-      <c r="O76" s="162"/>
-      <c r="P76" s="162"/>
-      <c r="Q76" s="162"/>
-      <c r="R76" s="162"/>
-      <c r="S76" s="162"/>
-      <c r="T76" s="162"/>
-      <c r="U76" s="162"/>
-      <c r="V76" s="169"/>
+      <c r="E76" s="156"/>
+      <c r="F76" s="157" t="s">
+        <v>42</v>
+      </c>
+      <c r="G76" s="157"/>
+      <c r="H76" s="158"/>
+      <c r="I76" s="158"/>
+      <c r="J76" s="158"/>
+      <c r="K76" s="158"/>
+      <c r="L76" s="158"/>
+      <c r="M76" s="158"/>
+      <c r="N76" s="158"/>
+      <c r="O76" s="158"/>
+      <c r="P76" s="158"/>
+      <c r="Q76" s="158"/>
+      <c r="R76" s="158"/>
+      <c r="S76" s="158"/>
+      <c r="T76" s="158"/>
+      <c r="U76" s="158"/>
+      <c r="V76" s="165"/>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="65"/>
       <c r="B77" s="21"/>
       <c r="C77" s="54"/>
       <c r="D77" s="21"/>
-      <c r="E77" s="152"/>
+      <c r="E77" s="148"/>
       <c r="F77" s="23" t="s">
         <v>18</v>
       </c>
@@ -6666,37 +6736,37 @@
     <row r="78" spans="1:22">
       <c r="A78" s="65"/>
       <c r="B78" s="21"/>
-      <c r="C78" s="153"/>
+      <c r="C78" s="149"/>
       <c r="D78" s="21"/>
-      <c r="E78" s="152"/>
-      <c r="F78" s="154" t="s">
+      <c r="E78" s="148"/>
+      <c r="F78" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="G78" s="154"/>
-      <c r="H78" s="155"/>
-      <c r="I78" s="155"/>
-      <c r="J78" s="155"/>
-      <c r="K78" s="155"/>
-      <c r="L78" s="155"/>
-      <c r="M78" s="155"/>
-      <c r="N78" s="155"/>
-      <c r="O78" s="155"/>
-      <c r="P78" s="155"/>
-      <c r="Q78" s="155"/>
-      <c r="R78" s="155"/>
-      <c r="S78" s="155"/>
-      <c r="T78" s="155"/>
-      <c r="U78" s="155"/>
-      <c r="V78" s="167"/>
+      <c r="G78" s="150"/>
+      <c r="H78" s="151"/>
+      <c r="I78" s="151"/>
+      <c r="J78" s="151"/>
+      <c r="K78" s="151"/>
+      <c r="L78" s="151"/>
+      <c r="M78" s="151"/>
+      <c r="N78" s="151"/>
+      <c r="O78" s="151"/>
+      <c r="P78" s="151"/>
+      <c r="Q78" s="151"/>
+      <c r="R78" s="151"/>
+      <c r="S78" s="151"/>
+      <c r="T78" s="151"/>
+      <c r="U78" s="151"/>
+      <c r="V78" s="163"/>
     </row>
     <row r="79" spans="1:22">
       <c r="A79" s="65"/>
       <c r="B79" s="21"/>
-      <c r="C79" s="153"/>
+      <c r="C79" s="149"/>
       <c r="D79" s="21"/>
-      <c r="E79" s="152"/>
+      <c r="E79" s="148"/>
       <c r="F79" s="23" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G79" s="23"/>
       <c r="H79" s="78"/>
@@ -6718,61 +6788,61 @@
     <row r="80" ht="14.25" spans="1:22">
       <c r="A80" s="66"/>
       <c r="B80" s="54"/>
-      <c r="C80" s="153"/>
+      <c r="C80" s="149"/>
       <c r="D80" s="54"/>
-      <c r="E80" s="156"/>
-      <c r="F80" s="157" t="s">
-        <v>34</v>
-      </c>
-      <c r="G80" s="157"/>
-      <c r="H80" s="158"/>
-      <c r="I80" s="158"/>
-      <c r="J80" s="158"/>
-      <c r="K80" s="158"/>
-      <c r="L80" s="158"/>
-      <c r="M80" s="158"/>
-      <c r="N80" s="158"/>
-      <c r="O80" s="158"/>
-      <c r="P80" s="158"/>
-      <c r="Q80" s="158"/>
-      <c r="R80" s="158"/>
-      <c r="S80" s="158"/>
-      <c r="T80" s="158"/>
-      <c r="U80" s="158"/>
-      <c r="V80" s="168"/>
+      <c r="E80" s="152"/>
+      <c r="F80" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="G80" s="153"/>
+      <c r="H80" s="154"/>
+      <c r="I80" s="154"/>
+      <c r="J80" s="154"/>
+      <c r="K80" s="154"/>
+      <c r="L80" s="154"/>
+      <c r="M80" s="154"/>
+      <c r="N80" s="154"/>
+      <c r="O80" s="154"/>
+      <c r="P80" s="154"/>
+      <c r="Q80" s="154"/>
+      <c r="R80" s="154"/>
+      <c r="S80" s="154"/>
+      <c r="T80" s="154"/>
+      <c r="U80" s="154"/>
+      <c r="V80" s="164"/>
     </row>
     <row r="81" ht="14.25" spans="1:22">
       <c r="A81" s="103"/>
       <c r="B81" s="104"/>
-      <c r="C81" s="159"/>
+      <c r="C81" s="155"/>
       <c r="D81" s="104"/>
-      <c r="E81" s="160"/>
-      <c r="F81" s="161" t="s">
-        <v>39</v>
-      </c>
-      <c r="G81" s="161"/>
-      <c r="H81" s="162"/>
-      <c r="I81" s="162"/>
-      <c r="J81" s="162"/>
-      <c r="K81" s="162"/>
-      <c r="L81" s="162"/>
-      <c r="M81" s="162"/>
-      <c r="N81" s="162"/>
-      <c r="O81" s="162"/>
-      <c r="P81" s="162"/>
-      <c r="Q81" s="162"/>
-      <c r="R81" s="162"/>
-      <c r="S81" s="162"/>
-      <c r="T81" s="162"/>
-      <c r="U81" s="162"/>
-      <c r="V81" s="169"/>
+      <c r="E81" s="156"/>
+      <c r="F81" s="157" t="s">
+        <v>42</v>
+      </c>
+      <c r="G81" s="157"/>
+      <c r="H81" s="158"/>
+      <c r="I81" s="158"/>
+      <c r="J81" s="158"/>
+      <c r="K81" s="158"/>
+      <c r="L81" s="158"/>
+      <c r="M81" s="158"/>
+      <c r="N81" s="158"/>
+      <c r="O81" s="158"/>
+      <c r="P81" s="158"/>
+      <c r="Q81" s="158"/>
+      <c r="R81" s="158"/>
+      <c r="S81" s="158"/>
+      <c r="T81" s="158"/>
+      <c r="U81" s="158"/>
+      <c r="V81" s="165"/>
     </row>
     <row r="82" spans="1:22">
       <c r="A82" s="65"/>
       <c r="B82" s="21"/>
       <c r="C82" s="54"/>
       <c r="D82" s="21"/>
-      <c r="E82" s="152"/>
+      <c r="E82" s="148"/>
       <c r="F82" s="23" t="s">
         <v>18</v>
       </c>
@@ -6796,37 +6866,37 @@
     <row r="83" spans="1:22">
       <c r="A83" s="65"/>
       <c r="B83" s="21"/>
-      <c r="C83" s="153"/>
+      <c r="C83" s="149"/>
       <c r="D83" s="21"/>
-      <c r="E83" s="152"/>
-      <c r="F83" s="154" t="s">
+      <c r="E83" s="148"/>
+      <c r="F83" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="G83" s="154"/>
-      <c r="H83" s="155"/>
-      <c r="I83" s="155"/>
-      <c r="J83" s="155"/>
-      <c r="K83" s="155"/>
-      <c r="L83" s="155"/>
-      <c r="M83" s="155"/>
-      <c r="N83" s="155"/>
-      <c r="O83" s="155"/>
-      <c r="P83" s="155"/>
-      <c r="Q83" s="155"/>
-      <c r="R83" s="155"/>
-      <c r="S83" s="155"/>
-      <c r="T83" s="155"/>
-      <c r="U83" s="155"/>
-      <c r="V83" s="167"/>
+      <c r="G83" s="150"/>
+      <c r="H83" s="151"/>
+      <c r="I83" s="151"/>
+      <c r="J83" s="151"/>
+      <c r="K83" s="151"/>
+      <c r="L83" s="151"/>
+      <c r="M83" s="151"/>
+      <c r="N83" s="151"/>
+      <c r="O83" s="151"/>
+      <c r="P83" s="151"/>
+      <c r="Q83" s="151"/>
+      <c r="R83" s="151"/>
+      <c r="S83" s="151"/>
+      <c r="T83" s="151"/>
+      <c r="U83" s="151"/>
+      <c r="V83" s="163"/>
     </row>
     <row r="84" spans="1:22">
       <c r="A84" s="65"/>
       <c r="B84" s="21"/>
-      <c r="C84" s="153"/>
+      <c r="C84" s="149"/>
       <c r="D84" s="21"/>
-      <c r="E84" s="152"/>
+      <c r="E84" s="148"/>
       <c r="F84" s="23" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G84" s="23"/>
       <c r="H84" s="78"/>
@@ -6848,61 +6918,61 @@
     <row r="85" ht="14.25" spans="1:22">
       <c r="A85" s="66"/>
       <c r="B85" s="54"/>
-      <c r="C85" s="153"/>
+      <c r="C85" s="149"/>
       <c r="D85" s="54"/>
-      <c r="E85" s="156"/>
-      <c r="F85" s="157" t="s">
-        <v>34</v>
-      </c>
-      <c r="G85" s="157"/>
-      <c r="H85" s="158"/>
-      <c r="I85" s="158"/>
-      <c r="J85" s="158"/>
-      <c r="K85" s="158"/>
-      <c r="L85" s="158"/>
-      <c r="M85" s="158"/>
-      <c r="N85" s="158"/>
-      <c r="O85" s="158"/>
-      <c r="P85" s="158"/>
-      <c r="Q85" s="158"/>
-      <c r="R85" s="158"/>
-      <c r="S85" s="158"/>
-      <c r="T85" s="158"/>
-      <c r="U85" s="158"/>
-      <c r="V85" s="168"/>
+      <c r="E85" s="152"/>
+      <c r="F85" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="G85" s="153"/>
+      <c r="H85" s="154"/>
+      <c r="I85" s="154"/>
+      <c r="J85" s="154"/>
+      <c r="K85" s="154"/>
+      <c r="L85" s="154"/>
+      <c r="M85" s="154"/>
+      <c r="N85" s="154"/>
+      <c r="O85" s="154"/>
+      <c r="P85" s="154"/>
+      <c r="Q85" s="154"/>
+      <c r="R85" s="154"/>
+      <c r="S85" s="154"/>
+      <c r="T85" s="154"/>
+      <c r="U85" s="154"/>
+      <c r="V85" s="164"/>
     </row>
     <row r="86" ht="14.25" spans="1:22">
       <c r="A86" s="103"/>
       <c r="B86" s="104"/>
-      <c r="C86" s="159"/>
+      <c r="C86" s="155"/>
       <c r="D86" s="104"/>
-      <c r="E86" s="160"/>
-      <c r="F86" s="161" t="s">
-        <v>39</v>
-      </c>
-      <c r="G86" s="161"/>
-      <c r="H86" s="162"/>
-      <c r="I86" s="162"/>
-      <c r="J86" s="162"/>
-      <c r="K86" s="162"/>
-      <c r="L86" s="162"/>
-      <c r="M86" s="162"/>
-      <c r="N86" s="162"/>
-      <c r="O86" s="162"/>
-      <c r="P86" s="162"/>
-      <c r="Q86" s="162"/>
-      <c r="R86" s="162"/>
-      <c r="S86" s="162"/>
-      <c r="T86" s="162"/>
-      <c r="U86" s="162"/>
-      <c r="V86" s="169"/>
+      <c r="E86" s="156"/>
+      <c r="F86" s="157" t="s">
+        <v>42</v>
+      </c>
+      <c r="G86" s="157"/>
+      <c r="H86" s="158"/>
+      <c r="I86" s="158"/>
+      <c r="J86" s="158"/>
+      <c r="K86" s="158"/>
+      <c r="L86" s="158"/>
+      <c r="M86" s="158"/>
+      <c r="N86" s="158"/>
+      <c r="O86" s="158"/>
+      <c r="P86" s="158"/>
+      <c r="Q86" s="158"/>
+      <c r="R86" s="158"/>
+      <c r="S86" s="158"/>
+      <c r="T86" s="158"/>
+      <c r="U86" s="158"/>
+      <c r="V86" s="165"/>
     </row>
     <row r="87" spans="1:22">
       <c r="A87" s="65"/>
       <c r="B87" s="21"/>
       <c r="C87" s="54"/>
       <c r="D87" s="21"/>
-      <c r="E87" s="152"/>
+      <c r="E87" s="148"/>
       <c r="F87" s="23" t="s">
         <v>18</v>
       </c>
@@ -6926,37 +6996,37 @@
     <row r="88" spans="1:22">
       <c r="A88" s="65"/>
       <c r="B88" s="21"/>
-      <c r="C88" s="153"/>
+      <c r="C88" s="149"/>
       <c r="D88" s="21"/>
-      <c r="E88" s="152"/>
-      <c r="F88" s="154" t="s">
+      <c r="E88" s="148"/>
+      <c r="F88" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="G88" s="154"/>
-      <c r="H88" s="155"/>
-      <c r="I88" s="155"/>
-      <c r="J88" s="155"/>
-      <c r="K88" s="155"/>
-      <c r="L88" s="155"/>
-      <c r="M88" s="155"/>
-      <c r="N88" s="155"/>
-      <c r="O88" s="155"/>
-      <c r="P88" s="155"/>
-      <c r="Q88" s="155"/>
-      <c r="R88" s="155"/>
-      <c r="S88" s="155"/>
-      <c r="T88" s="155"/>
-      <c r="U88" s="155"/>
-      <c r="V88" s="167"/>
+      <c r="G88" s="150"/>
+      <c r="H88" s="151"/>
+      <c r="I88" s="151"/>
+      <c r="J88" s="151"/>
+      <c r="K88" s="151"/>
+      <c r="L88" s="151"/>
+      <c r="M88" s="151"/>
+      <c r="N88" s="151"/>
+      <c r="O88" s="151"/>
+      <c r="P88" s="151"/>
+      <c r="Q88" s="151"/>
+      <c r="R88" s="151"/>
+      <c r="S88" s="151"/>
+      <c r="T88" s="151"/>
+      <c r="U88" s="151"/>
+      <c r="V88" s="163"/>
     </row>
     <row r="89" spans="1:22">
       <c r="A89" s="65"/>
       <c r="B89" s="21"/>
-      <c r="C89" s="153"/>
+      <c r="C89" s="149"/>
       <c r="D89" s="21"/>
-      <c r="E89" s="152"/>
+      <c r="E89" s="148"/>
       <c r="F89" s="23" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G89" s="23"/>
       <c r="H89" s="78"/>
@@ -6978,61 +7048,61 @@
     <row r="90" ht="14.25" spans="1:22">
       <c r="A90" s="66"/>
       <c r="B90" s="54"/>
-      <c r="C90" s="153"/>
+      <c r="C90" s="149"/>
       <c r="D90" s="54"/>
-      <c r="E90" s="156"/>
-      <c r="F90" s="157" t="s">
-        <v>34</v>
-      </c>
-      <c r="G90" s="157"/>
-      <c r="H90" s="158"/>
-      <c r="I90" s="158"/>
-      <c r="J90" s="158"/>
-      <c r="K90" s="158"/>
-      <c r="L90" s="158"/>
-      <c r="M90" s="158"/>
-      <c r="N90" s="158"/>
-      <c r="O90" s="158"/>
-      <c r="P90" s="158"/>
-      <c r="Q90" s="158"/>
-      <c r="R90" s="158"/>
-      <c r="S90" s="158"/>
-      <c r="T90" s="158"/>
-      <c r="U90" s="158"/>
-      <c r="V90" s="168"/>
+      <c r="E90" s="152"/>
+      <c r="F90" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="G90" s="153"/>
+      <c r="H90" s="154"/>
+      <c r="I90" s="154"/>
+      <c r="J90" s="154"/>
+      <c r="K90" s="154"/>
+      <c r="L90" s="154"/>
+      <c r="M90" s="154"/>
+      <c r="N90" s="154"/>
+      <c r="O90" s="154"/>
+      <c r="P90" s="154"/>
+      <c r="Q90" s="154"/>
+      <c r="R90" s="154"/>
+      <c r="S90" s="154"/>
+      <c r="T90" s="154"/>
+      <c r="U90" s="154"/>
+      <c r="V90" s="164"/>
     </row>
     <row r="91" ht="14.25" spans="1:22">
       <c r="A91" s="103"/>
       <c r="B91" s="104"/>
-      <c r="C91" s="159"/>
+      <c r="C91" s="155"/>
       <c r="D91" s="104"/>
-      <c r="E91" s="160"/>
-      <c r="F91" s="161" t="s">
-        <v>39</v>
-      </c>
-      <c r="G91" s="161"/>
-      <c r="H91" s="162"/>
-      <c r="I91" s="162"/>
-      <c r="J91" s="162"/>
-      <c r="K91" s="162"/>
-      <c r="L91" s="162"/>
-      <c r="M91" s="162"/>
-      <c r="N91" s="162"/>
-      <c r="O91" s="162"/>
-      <c r="P91" s="162"/>
-      <c r="Q91" s="162"/>
-      <c r="R91" s="162"/>
-      <c r="S91" s="162"/>
-      <c r="T91" s="162"/>
-      <c r="U91" s="162"/>
-      <c r="V91" s="169"/>
+      <c r="E91" s="156"/>
+      <c r="F91" s="157" t="s">
+        <v>42</v>
+      </c>
+      <c r="G91" s="157"/>
+      <c r="H91" s="158"/>
+      <c r="I91" s="158"/>
+      <c r="J91" s="158"/>
+      <c r="K91" s="158"/>
+      <c r="L91" s="158"/>
+      <c r="M91" s="158"/>
+      <c r="N91" s="158"/>
+      <c r="O91" s="158"/>
+      <c r="P91" s="158"/>
+      <c r="Q91" s="158"/>
+      <c r="R91" s="158"/>
+      <c r="S91" s="158"/>
+      <c r="T91" s="158"/>
+      <c r="U91" s="158"/>
+      <c r="V91" s="165"/>
     </row>
     <row r="92" spans="1:22">
       <c r="A92" s="65"/>
       <c r="B92" s="21"/>
       <c r="C92" s="54"/>
       <c r="D92" s="21"/>
-      <c r="E92" s="152"/>
+      <c r="E92" s="148"/>
       <c r="F92" s="23" t="s">
         <v>18</v>
       </c>
@@ -7056,37 +7126,37 @@
     <row r="93" spans="1:22">
       <c r="A93" s="65"/>
       <c r="B93" s="21"/>
-      <c r="C93" s="153"/>
+      <c r="C93" s="149"/>
       <c r="D93" s="21"/>
-      <c r="E93" s="152"/>
-      <c r="F93" s="154" t="s">
+      <c r="E93" s="148"/>
+      <c r="F93" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="G93" s="154"/>
-      <c r="H93" s="155"/>
-      <c r="I93" s="155"/>
-      <c r="J93" s="155"/>
-      <c r="K93" s="155"/>
-      <c r="L93" s="155"/>
-      <c r="M93" s="155"/>
-      <c r="N93" s="155"/>
-      <c r="O93" s="155"/>
-      <c r="P93" s="155"/>
-      <c r="Q93" s="155"/>
-      <c r="R93" s="155"/>
-      <c r="S93" s="155"/>
-      <c r="T93" s="155"/>
-      <c r="U93" s="155"/>
-      <c r="V93" s="167"/>
+      <c r="G93" s="150"/>
+      <c r="H93" s="151"/>
+      <c r="I93" s="151"/>
+      <c r="J93" s="151"/>
+      <c r="K93" s="151"/>
+      <c r="L93" s="151"/>
+      <c r="M93" s="151"/>
+      <c r="N93" s="151"/>
+      <c r="O93" s="151"/>
+      <c r="P93" s="151"/>
+      <c r="Q93" s="151"/>
+      <c r="R93" s="151"/>
+      <c r="S93" s="151"/>
+      <c r="T93" s="151"/>
+      <c r="U93" s="151"/>
+      <c r="V93" s="163"/>
     </row>
     <row r="94" spans="1:22">
       <c r="A94" s="65"/>
       <c r="B94" s="21"/>
-      <c r="C94" s="153"/>
+      <c r="C94" s="149"/>
       <c r="D94" s="21"/>
-      <c r="E94" s="152"/>
+      <c r="E94" s="148"/>
       <c r="F94" s="23" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G94" s="23"/>
       <c r="H94" s="78"/>
@@ -7108,61 +7178,61 @@
     <row r="95" ht="14.25" spans="1:22">
       <c r="A95" s="66"/>
       <c r="B95" s="54"/>
-      <c r="C95" s="153"/>
+      <c r="C95" s="149"/>
       <c r="D95" s="54"/>
-      <c r="E95" s="156"/>
-      <c r="F95" s="157" t="s">
-        <v>34</v>
-      </c>
-      <c r="G95" s="157"/>
-      <c r="H95" s="158"/>
-      <c r="I95" s="158"/>
-      <c r="J95" s="158"/>
-      <c r="K95" s="158"/>
-      <c r="L95" s="158"/>
-      <c r="M95" s="158"/>
-      <c r="N95" s="158"/>
-      <c r="O95" s="158"/>
-      <c r="P95" s="158"/>
-      <c r="Q95" s="158"/>
-      <c r="R95" s="158"/>
-      <c r="S95" s="158"/>
-      <c r="T95" s="158"/>
-      <c r="U95" s="158"/>
-      <c r="V95" s="168"/>
+      <c r="E95" s="152"/>
+      <c r="F95" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="G95" s="153"/>
+      <c r="H95" s="154"/>
+      <c r="I95" s="154"/>
+      <c r="J95" s="154"/>
+      <c r="K95" s="154"/>
+      <c r="L95" s="154"/>
+      <c r="M95" s="154"/>
+      <c r="N95" s="154"/>
+      <c r="O95" s="154"/>
+      <c r="P95" s="154"/>
+      <c r="Q95" s="154"/>
+      <c r="R95" s="154"/>
+      <c r="S95" s="154"/>
+      <c r="T95" s="154"/>
+      <c r="U95" s="154"/>
+      <c r="V95" s="164"/>
     </row>
     <row r="96" ht="14.25" spans="1:22">
       <c r="A96" s="103"/>
       <c r="B96" s="104"/>
-      <c r="C96" s="159"/>
+      <c r="C96" s="155"/>
       <c r="D96" s="104"/>
-      <c r="E96" s="160"/>
-      <c r="F96" s="161" t="s">
-        <v>39</v>
-      </c>
-      <c r="G96" s="161"/>
-      <c r="H96" s="162"/>
-      <c r="I96" s="162"/>
-      <c r="J96" s="162"/>
-      <c r="K96" s="162"/>
-      <c r="L96" s="162"/>
-      <c r="M96" s="162"/>
-      <c r="N96" s="162"/>
-      <c r="O96" s="162"/>
-      <c r="P96" s="162"/>
-      <c r="Q96" s="162"/>
-      <c r="R96" s="162"/>
-      <c r="S96" s="162"/>
-      <c r="T96" s="162"/>
-      <c r="U96" s="162"/>
-      <c r="V96" s="169"/>
+      <c r="E96" s="156"/>
+      <c r="F96" s="157" t="s">
+        <v>42</v>
+      </c>
+      <c r="G96" s="157"/>
+      <c r="H96" s="158"/>
+      <c r="I96" s="158"/>
+      <c r="J96" s="158"/>
+      <c r="K96" s="158"/>
+      <c r="L96" s="158"/>
+      <c r="M96" s="158"/>
+      <c r="N96" s="158"/>
+      <c r="O96" s="158"/>
+      <c r="P96" s="158"/>
+      <c r="Q96" s="158"/>
+      <c r="R96" s="158"/>
+      <c r="S96" s="158"/>
+      <c r="T96" s="158"/>
+      <c r="U96" s="158"/>
+      <c r="V96" s="165"/>
     </row>
     <row r="97" spans="1:22">
       <c r="A97" s="65"/>
       <c r="B97" s="21"/>
       <c r="C97" s="54"/>
       <c r="D97" s="21"/>
-      <c r="E97" s="152"/>
+      <c r="E97" s="148"/>
       <c r="F97" s="23" t="s">
         <v>18</v>
       </c>
@@ -7186,37 +7256,37 @@
     <row r="98" spans="1:22">
       <c r="A98" s="65"/>
       <c r="B98" s="21"/>
-      <c r="C98" s="153"/>
+      <c r="C98" s="149"/>
       <c r="D98" s="21"/>
-      <c r="E98" s="152"/>
-      <c r="F98" s="154" t="s">
+      <c r="E98" s="148"/>
+      <c r="F98" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="G98" s="154"/>
-      <c r="H98" s="155"/>
-      <c r="I98" s="155"/>
-      <c r="J98" s="155"/>
-      <c r="K98" s="155"/>
-      <c r="L98" s="155"/>
-      <c r="M98" s="155"/>
-      <c r="N98" s="155"/>
-      <c r="O98" s="155"/>
-      <c r="P98" s="155"/>
-      <c r="Q98" s="155"/>
-      <c r="R98" s="155"/>
-      <c r="S98" s="155"/>
-      <c r="T98" s="155"/>
-      <c r="U98" s="155"/>
-      <c r="V98" s="167"/>
+      <c r="G98" s="150"/>
+      <c r="H98" s="151"/>
+      <c r="I98" s="151"/>
+      <c r="J98" s="151"/>
+      <c r="K98" s="151"/>
+      <c r="L98" s="151"/>
+      <c r="M98" s="151"/>
+      <c r="N98" s="151"/>
+      <c r="O98" s="151"/>
+      <c r="P98" s="151"/>
+      <c r="Q98" s="151"/>
+      <c r="R98" s="151"/>
+      <c r="S98" s="151"/>
+      <c r="T98" s="151"/>
+      <c r="U98" s="151"/>
+      <c r="V98" s="163"/>
     </row>
     <row r="99" spans="1:22">
       <c r="A99" s="65"/>
       <c r="B99" s="21"/>
-      <c r="C99" s="153"/>
+      <c r="C99" s="149"/>
       <c r="D99" s="21"/>
-      <c r="E99" s="152"/>
+      <c r="E99" s="148"/>
       <c r="F99" s="23" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G99" s="23"/>
       <c r="H99" s="78"/>
@@ -7238,61 +7308,61 @@
     <row r="100" ht="14.25" spans="1:22">
       <c r="A100" s="66"/>
       <c r="B100" s="54"/>
-      <c r="C100" s="153"/>
+      <c r="C100" s="149"/>
       <c r="D100" s="54"/>
-      <c r="E100" s="156"/>
-      <c r="F100" s="157" t="s">
-        <v>34</v>
-      </c>
-      <c r="G100" s="157"/>
-      <c r="H100" s="158"/>
-      <c r="I100" s="158"/>
-      <c r="J100" s="158"/>
-      <c r="K100" s="158"/>
-      <c r="L100" s="158"/>
-      <c r="M100" s="158"/>
-      <c r="N100" s="158"/>
-      <c r="O100" s="158"/>
-      <c r="P100" s="158"/>
-      <c r="Q100" s="158"/>
-      <c r="R100" s="158"/>
-      <c r="S100" s="158"/>
-      <c r="T100" s="158"/>
-      <c r="U100" s="158"/>
-      <c r="V100" s="168"/>
+      <c r="E100" s="152"/>
+      <c r="F100" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="G100" s="153"/>
+      <c r="H100" s="154"/>
+      <c r="I100" s="154"/>
+      <c r="J100" s="154"/>
+      <c r="K100" s="154"/>
+      <c r="L100" s="154"/>
+      <c r="M100" s="154"/>
+      <c r="N100" s="154"/>
+      <c r="O100" s="154"/>
+      <c r="P100" s="154"/>
+      <c r="Q100" s="154"/>
+      <c r="R100" s="154"/>
+      <c r="S100" s="154"/>
+      <c r="T100" s="154"/>
+      <c r="U100" s="154"/>
+      <c r="V100" s="164"/>
     </row>
     <row r="101" ht="14.25" spans="1:22">
       <c r="A101" s="103"/>
       <c r="B101" s="104"/>
-      <c r="C101" s="159"/>
+      <c r="C101" s="155"/>
       <c r="D101" s="104"/>
-      <c r="E101" s="160"/>
-      <c r="F101" s="161" t="s">
-        <v>39</v>
-      </c>
-      <c r="G101" s="161"/>
-      <c r="H101" s="162"/>
-      <c r="I101" s="162"/>
-      <c r="J101" s="162"/>
-      <c r="K101" s="162"/>
-      <c r="L101" s="162"/>
-      <c r="M101" s="162"/>
-      <c r="N101" s="162"/>
-      <c r="O101" s="162"/>
-      <c r="P101" s="162"/>
-      <c r="Q101" s="162"/>
-      <c r="R101" s="162"/>
-      <c r="S101" s="162"/>
-      <c r="T101" s="162"/>
-      <c r="U101" s="162"/>
-      <c r="V101" s="169"/>
+      <c r="E101" s="156"/>
+      <c r="F101" s="157" t="s">
+        <v>42</v>
+      </c>
+      <c r="G101" s="157"/>
+      <c r="H101" s="158"/>
+      <c r="I101" s="158"/>
+      <c r="J101" s="158"/>
+      <c r="K101" s="158"/>
+      <c r="L101" s="158"/>
+      <c r="M101" s="158"/>
+      <c r="N101" s="158"/>
+      <c r="O101" s="158"/>
+      <c r="P101" s="158"/>
+      <c r="Q101" s="158"/>
+      <c r="R101" s="158"/>
+      <c r="S101" s="158"/>
+      <c r="T101" s="158"/>
+      <c r="U101" s="158"/>
+      <c r="V101" s="165"/>
     </row>
     <row r="102" spans="1:22">
       <c r="A102" s="65"/>
       <c r="B102" s="21"/>
       <c r="C102" s="54"/>
       <c r="D102" s="21"/>
-      <c r="E102" s="152"/>
+      <c r="E102" s="148"/>
       <c r="F102" s="23" t="s">
         <v>18</v>
       </c>
@@ -7316,37 +7386,37 @@
     <row r="103" spans="1:22">
       <c r="A103" s="65"/>
       <c r="B103" s="21"/>
-      <c r="C103" s="153"/>
+      <c r="C103" s="149"/>
       <c r="D103" s="21"/>
-      <c r="E103" s="152"/>
-      <c r="F103" s="154" t="s">
+      <c r="E103" s="148"/>
+      <c r="F103" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="G103" s="154"/>
-      <c r="H103" s="155"/>
-      <c r="I103" s="155"/>
-      <c r="J103" s="155"/>
-      <c r="K103" s="155"/>
-      <c r="L103" s="155"/>
-      <c r="M103" s="155"/>
-      <c r="N103" s="155"/>
-      <c r="O103" s="155"/>
-      <c r="P103" s="155"/>
-      <c r="Q103" s="155"/>
-      <c r="R103" s="155"/>
-      <c r="S103" s="155"/>
-      <c r="T103" s="155"/>
-      <c r="U103" s="155"/>
-      <c r="V103" s="167"/>
+      <c r="G103" s="150"/>
+      <c r="H103" s="151"/>
+      <c r="I103" s="151"/>
+      <c r="J103" s="151"/>
+      <c r="K103" s="151"/>
+      <c r="L103" s="151"/>
+      <c r="M103" s="151"/>
+      <c r="N103" s="151"/>
+      <c r="O103" s="151"/>
+      <c r="P103" s="151"/>
+      <c r="Q103" s="151"/>
+      <c r="R103" s="151"/>
+      <c r="S103" s="151"/>
+      <c r="T103" s="151"/>
+      <c r="U103" s="151"/>
+      <c r="V103" s="163"/>
     </row>
     <row r="104" spans="1:22">
       <c r="A104" s="65"/>
       <c r="B104" s="21"/>
-      <c r="C104" s="153"/>
+      <c r="C104" s="149"/>
       <c r="D104" s="21"/>
-      <c r="E104" s="152"/>
+      <c r="E104" s="148"/>
       <c r="F104" s="23" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G104" s="23"/>
       <c r="H104" s="78"/>
@@ -7368,61 +7438,61 @@
     <row r="105" ht="14.25" spans="1:22">
       <c r="A105" s="66"/>
       <c r="B105" s="54"/>
-      <c r="C105" s="153"/>
+      <c r="C105" s="149"/>
       <c r="D105" s="54"/>
-      <c r="E105" s="156"/>
-      <c r="F105" s="157" t="s">
-        <v>34</v>
-      </c>
-      <c r="G105" s="157"/>
-      <c r="H105" s="158"/>
-      <c r="I105" s="158"/>
-      <c r="J105" s="158"/>
-      <c r="K105" s="158"/>
-      <c r="L105" s="158"/>
-      <c r="M105" s="158"/>
-      <c r="N105" s="158"/>
-      <c r="O105" s="158"/>
-      <c r="P105" s="158"/>
-      <c r="Q105" s="158"/>
-      <c r="R105" s="158"/>
-      <c r="S105" s="158"/>
-      <c r="T105" s="158"/>
-      <c r="U105" s="158"/>
-      <c r="V105" s="168"/>
+      <c r="E105" s="152"/>
+      <c r="F105" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="G105" s="153"/>
+      <c r="H105" s="154"/>
+      <c r="I105" s="154"/>
+      <c r="J105" s="154"/>
+      <c r="K105" s="154"/>
+      <c r="L105" s="154"/>
+      <c r="M105" s="154"/>
+      <c r="N105" s="154"/>
+      <c r="O105" s="154"/>
+      <c r="P105" s="154"/>
+      <c r="Q105" s="154"/>
+      <c r="R105" s="154"/>
+      <c r="S105" s="154"/>
+      <c r="T105" s="154"/>
+      <c r="U105" s="154"/>
+      <c r="V105" s="164"/>
     </row>
     <row r="106" ht="14.25" spans="1:22">
       <c r="A106" s="103"/>
       <c r="B106" s="104"/>
-      <c r="C106" s="159"/>
+      <c r="C106" s="155"/>
       <c r="D106" s="104"/>
-      <c r="E106" s="160"/>
-      <c r="F106" s="161" t="s">
-        <v>39</v>
-      </c>
-      <c r="G106" s="161"/>
-      <c r="H106" s="162"/>
-      <c r="I106" s="162"/>
-      <c r="J106" s="162"/>
-      <c r="K106" s="162"/>
-      <c r="L106" s="162"/>
-      <c r="M106" s="162"/>
-      <c r="N106" s="162"/>
-      <c r="O106" s="162"/>
-      <c r="P106" s="162"/>
-      <c r="Q106" s="162"/>
-      <c r="R106" s="162"/>
-      <c r="S106" s="162"/>
-      <c r="T106" s="162"/>
-      <c r="U106" s="162"/>
-      <c r="V106" s="169"/>
+      <c r="E106" s="156"/>
+      <c r="F106" s="157" t="s">
+        <v>42</v>
+      </c>
+      <c r="G106" s="157"/>
+      <c r="H106" s="158"/>
+      <c r="I106" s="158"/>
+      <c r="J106" s="158"/>
+      <c r="K106" s="158"/>
+      <c r="L106" s="158"/>
+      <c r="M106" s="158"/>
+      <c r="N106" s="158"/>
+      <c r="O106" s="158"/>
+      <c r="P106" s="158"/>
+      <c r="Q106" s="158"/>
+      <c r="R106" s="158"/>
+      <c r="S106" s="158"/>
+      <c r="T106" s="158"/>
+      <c r="U106" s="158"/>
+      <c r="V106" s="165"/>
     </row>
     <row r="107" spans="1:22">
       <c r="A107" s="65"/>
       <c r="B107" s="21"/>
       <c r="C107" s="54"/>
       <c r="D107" s="21"/>
-      <c r="E107" s="152"/>
+      <c r="E107" s="148"/>
       <c r="F107" s="23" t="s">
         <v>18</v>
       </c>
@@ -7446,37 +7516,37 @@
     <row r="108" spans="1:22">
       <c r="A108" s="65"/>
       <c r="B108" s="21"/>
-      <c r="C108" s="153"/>
+      <c r="C108" s="149"/>
       <c r="D108" s="21"/>
-      <c r="E108" s="152"/>
-      <c r="F108" s="154" t="s">
+      <c r="E108" s="148"/>
+      <c r="F108" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="G108" s="154"/>
-      <c r="H108" s="155"/>
-      <c r="I108" s="155"/>
-      <c r="J108" s="155"/>
-      <c r="K108" s="155"/>
-      <c r="L108" s="155"/>
-      <c r="M108" s="155"/>
-      <c r="N108" s="155"/>
-      <c r="O108" s="155"/>
-      <c r="P108" s="155"/>
-      <c r="Q108" s="155"/>
-      <c r="R108" s="155"/>
-      <c r="S108" s="155"/>
-      <c r="T108" s="155"/>
-      <c r="U108" s="155"/>
-      <c r="V108" s="167"/>
+      <c r="G108" s="150"/>
+      <c r="H108" s="151"/>
+      <c r="I108" s="151"/>
+      <c r="J108" s="151"/>
+      <c r="K108" s="151"/>
+      <c r="L108" s="151"/>
+      <c r="M108" s="151"/>
+      <c r="N108" s="151"/>
+      <c r="O108" s="151"/>
+      <c r="P108" s="151"/>
+      <c r="Q108" s="151"/>
+      <c r="R108" s="151"/>
+      <c r="S108" s="151"/>
+      <c r="T108" s="151"/>
+      <c r="U108" s="151"/>
+      <c r="V108" s="163"/>
     </row>
     <row r="109" spans="1:22">
       <c r="A109" s="65"/>
       <c r="B109" s="21"/>
-      <c r="C109" s="153"/>
+      <c r="C109" s="149"/>
       <c r="D109" s="21"/>
-      <c r="E109" s="152"/>
+      <c r="E109" s="148"/>
       <c r="F109" s="23" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G109" s="23"/>
       <c r="H109" s="78"/>
@@ -7498,61 +7568,61 @@
     <row r="110" ht="14.25" spans="1:22">
       <c r="A110" s="66"/>
       <c r="B110" s="54"/>
-      <c r="C110" s="153"/>
+      <c r="C110" s="149"/>
       <c r="D110" s="54"/>
-      <c r="E110" s="156"/>
-      <c r="F110" s="157" t="s">
-        <v>34</v>
-      </c>
-      <c r="G110" s="157"/>
-      <c r="H110" s="158"/>
-      <c r="I110" s="158"/>
-      <c r="J110" s="158"/>
-      <c r="K110" s="158"/>
-      <c r="L110" s="158"/>
-      <c r="M110" s="158"/>
-      <c r="N110" s="158"/>
-      <c r="O110" s="158"/>
-      <c r="P110" s="158"/>
-      <c r="Q110" s="158"/>
-      <c r="R110" s="158"/>
-      <c r="S110" s="158"/>
-      <c r="T110" s="158"/>
-      <c r="U110" s="158"/>
-      <c r="V110" s="168"/>
+      <c r="E110" s="152"/>
+      <c r="F110" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="G110" s="153"/>
+      <c r="H110" s="154"/>
+      <c r="I110" s="154"/>
+      <c r="J110" s="154"/>
+      <c r="K110" s="154"/>
+      <c r="L110" s="154"/>
+      <c r="M110" s="154"/>
+      <c r="N110" s="154"/>
+      <c r="O110" s="154"/>
+      <c r="P110" s="154"/>
+      <c r="Q110" s="154"/>
+      <c r="R110" s="154"/>
+      <c r="S110" s="154"/>
+      <c r="T110" s="154"/>
+      <c r="U110" s="154"/>
+      <c r="V110" s="164"/>
     </row>
     <row r="111" ht="14.25" spans="1:22">
       <c r="A111" s="103"/>
       <c r="B111" s="104"/>
-      <c r="C111" s="159"/>
+      <c r="C111" s="155"/>
       <c r="D111" s="104"/>
-      <c r="E111" s="160"/>
-      <c r="F111" s="161" t="s">
-        <v>39</v>
-      </c>
-      <c r="G111" s="161"/>
-      <c r="H111" s="162"/>
-      <c r="I111" s="162"/>
-      <c r="J111" s="162"/>
-      <c r="K111" s="162"/>
-      <c r="L111" s="162"/>
-      <c r="M111" s="162"/>
-      <c r="N111" s="162"/>
-      <c r="O111" s="162"/>
-      <c r="P111" s="162"/>
-      <c r="Q111" s="162"/>
-      <c r="R111" s="162"/>
-      <c r="S111" s="162"/>
-      <c r="T111" s="162"/>
-      <c r="U111" s="162"/>
-      <c r="V111" s="169"/>
+      <c r="E111" s="156"/>
+      <c r="F111" s="157" t="s">
+        <v>42</v>
+      </c>
+      <c r="G111" s="157"/>
+      <c r="H111" s="158"/>
+      <c r="I111" s="158"/>
+      <c r="J111" s="158"/>
+      <c r="K111" s="158"/>
+      <c r="L111" s="158"/>
+      <c r="M111" s="158"/>
+      <c r="N111" s="158"/>
+      <c r="O111" s="158"/>
+      <c r="P111" s="158"/>
+      <c r="Q111" s="158"/>
+      <c r="R111" s="158"/>
+      <c r="S111" s="158"/>
+      <c r="T111" s="158"/>
+      <c r="U111" s="158"/>
+      <c r="V111" s="165"/>
     </row>
     <row r="112" spans="1:22">
       <c r="A112" s="65"/>
       <c r="B112" s="21"/>
       <c r="C112" s="54"/>
       <c r="D112" s="21"/>
-      <c r="E112" s="152"/>
+      <c r="E112" s="148"/>
       <c r="F112" s="23" t="s">
         <v>18</v>
       </c>
@@ -7576,37 +7646,37 @@
     <row r="113" spans="1:22">
       <c r="A113" s="65"/>
       <c r="B113" s="21"/>
-      <c r="C113" s="153"/>
+      <c r="C113" s="149"/>
       <c r="D113" s="21"/>
-      <c r="E113" s="152"/>
-      <c r="F113" s="154" t="s">
+      <c r="E113" s="148"/>
+      <c r="F113" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="G113" s="154"/>
-      <c r="H113" s="155"/>
-      <c r="I113" s="155"/>
-      <c r="J113" s="155"/>
-      <c r="K113" s="155"/>
-      <c r="L113" s="155"/>
-      <c r="M113" s="155"/>
-      <c r="N113" s="155"/>
-      <c r="O113" s="155"/>
-      <c r="P113" s="155"/>
-      <c r="Q113" s="155"/>
-      <c r="R113" s="155"/>
-      <c r="S113" s="155"/>
-      <c r="T113" s="155"/>
-      <c r="U113" s="155"/>
-      <c r="V113" s="167"/>
+      <c r="G113" s="150"/>
+      <c r="H113" s="151"/>
+      <c r="I113" s="151"/>
+      <c r="J113" s="151"/>
+      <c r="K113" s="151"/>
+      <c r="L113" s="151"/>
+      <c r="M113" s="151"/>
+      <c r="N113" s="151"/>
+      <c r="O113" s="151"/>
+      <c r="P113" s="151"/>
+      <c r="Q113" s="151"/>
+      <c r="R113" s="151"/>
+      <c r="S113" s="151"/>
+      <c r="T113" s="151"/>
+      <c r="U113" s="151"/>
+      <c r="V113" s="163"/>
     </row>
     <row r="114" spans="1:22">
       <c r="A114" s="65"/>
       <c r="B114" s="21"/>
-      <c r="C114" s="153"/>
+      <c r="C114" s="149"/>
       <c r="D114" s="21"/>
-      <c r="E114" s="152"/>
+      <c r="E114" s="148"/>
       <c r="F114" s="23" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G114" s="23"/>
       <c r="H114" s="78"/>
@@ -7628,54 +7698,54 @@
     <row r="115" ht="14.25" spans="1:22">
       <c r="A115" s="66"/>
       <c r="B115" s="54"/>
-      <c r="C115" s="153"/>
+      <c r="C115" s="149"/>
       <c r="D115" s="54"/>
-      <c r="E115" s="156"/>
-      <c r="F115" s="157" t="s">
-        <v>34</v>
-      </c>
-      <c r="G115" s="157"/>
-      <c r="H115" s="158"/>
-      <c r="I115" s="158"/>
-      <c r="J115" s="158"/>
-      <c r="K115" s="158"/>
-      <c r="L115" s="158"/>
-      <c r="M115" s="158"/>
-      <c r="N115" s="158"/>
-      <c r="O115" s="158"/>
-      <c r="P115" s="158"/>
-      <c r="Q115" s="158"/>
-      <c r="R115" s="158"/>
-      <c r="S115" s="158"/>
-      <c r="T115" s="158"/>
-      <c r="U115" s="158"/>
-      <c r="V115" s="168"/>
+      <c r="E115" s="152"/>
+      <c r="F115" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="G115" s="153"/>
+      <c r="H115" s="154"/>
+      <c r="I115" s="154"/>
+      <c r="J115" s="154"/>
+      <c r="K115" s="154"/>
+      <c r="L115" s="154"/>
+      <c r="M115" s="154"/>
+      <c r="N115" s="154"/>
+      <c r="O115" s="154"/>
+      <c r="P115" s="154"/>
+      <c r="Q115" s="154"/>
+      <c r="R115" s="154"/>
+      <c r="S115" s="154"/>
+      <c r="T115" s="154"/>
+      <c r="U115" s="154"/>
+      <c r="V115" s="164"/>
     </row>
     <row r="116" ht="14.25" spans="1:22">
       <c r="A116" s="103"/>
       <c r="B116" s="104"/>
-      <c r="C116" s="159"/>
+      <c r="C116" s="155"/>
       <c r="D116" s="104"/>
-      <c r="E116" s="160"/>
-      <c r="F116" s="161" t="s">
-        <v>39</v>
-      </c>
-      <c r="G116" s="161"/>
-      <c r="H116" s="162"/>
-      <c r="I116" s="162"/>
-      <c r="J116" s="162"/>
-      <c r="K116" s="162"/>
-      <c r="L116" s="162"/>
-      <c r="M116" s="162"/>
-      <c r="N116" s="162"/>
-      <c r="O116" s="162"/>
-      <c r="P116" s="162"/>
-      <c r="Q116" s="162"/>
-      <c r="R116" s="162"/>
-      <c r="S116" s="162"/>
-      <c r="T116" s="162"/>
-      <c r="U116" s="162"/>
-      <c r="V116" s="169"/>
+      <c r="E116" s="156"/>
+      <c r="F116" s="157" t="s">
+        <v>42</v>
+      </c>
+      <c r="G116" s="157"/>
+      <c r="H116" s="158"/>
+      <c r="I116" s="158"/>
+      <c r="J116" s="158"/>
+      <c r="K116" s="158"/>
+      <c r="L116" s="158"/>
+      <c r="M116" s="158"/>
+      <c r="N116" s="158"/>
+      <c r="O116" s="158"/>
+      <c r="P116" s="158"/>
+      <c r="Q116" s="158"/>
+      <c r="R116" s="158"/>
+      <c r="S116" s="158"/>
+      <c r="T116" s="158"/>
+      <c r="U116" s="158"/>
+      <c r="V116" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="110">
@@ -7816,14 +7886,14 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="3" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="6" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="7" t="s">
@@ -7847,7 +7917,7 @@
       <c r="R1" s="7"/>
       <c r="S1" s="5"/>
       <c r="T1" s="94" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:20">
@@ -7867,46 +7937,46 @@
         <v>6</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="I2" s="69" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="M2" s="70" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="N2" s="69" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="O2" s="70" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="P2" s="69" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="Q2" s="95" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="R2" s="70" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="S2" s="69" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="T2" s="96"/>
     </row>
@@ -7915,7 +7985,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>17</v>
@@ -7949,7 +8019,7 @@
       <c r="R3" s="74"/>
       <c r="S3" s="18"/>
       <c r="T3" s="97" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7985,10 +8055,10 @@
       <c r="D5" s="21"/>
       <c r="E5" s="22"/>
       <c r="F5" s="23" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="75"/>
@@ -8011,10 +8081,10 @@
       <c r="D6" s="21"/>
       <c r="E6" s="22"/>
       <c r="F6" s="26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="79"/>
@@ -8054,31 +8124,31 @@
         <v>11</v>
       </c>
       <c r="K7" s="84" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="L7" s="84" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="M7" s="85" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="N7" s="31" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="O7" s="85" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="P7" s="31" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="Q7" s="83" t="s">
         <v>8</v>
       </c>
       <c r="R7" s="85" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="S7" s="31" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="T7" s="98"/>
     </row>
@@ -8104,23 +8174,23 @@
       <c r="K8" s="88"/>
       <c r="L8" s="88"/>
       <c r="M8" s="89" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="N8" s="34" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O8" s="89" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="Q8" s="87"/>
       <c r="R8" s="89" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="S8" s="34" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="T8" s="99"/>
     </row>
@@ -8131,10 +8201,10 @@
       <c r="D9" s="21"/>
       <c r="E9" s="29"/>
       <c r="F9" s="33" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H9" s="35">
         <v>64</v>
@@ -8146,23 +8216,23 @@
       <c r="K9" s="88"/>
       <c r="L9" s="88"/>
       <c r="M9" s="89" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="N9" s="34" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="O9" s="89" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="Q9" s="87"/>
       <c r="R9" s="89" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="S9" s="34" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="T9" s="99"/>
     </row>
@@ -8173,10 +8243,10 @@
       <c r="D10" s="21"/>
       <c r="E10" s="29"/>
       <c r="F10" s="36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H10" s="38">
         <v>64</v>
@@ -8188,23 +8258,23 @@
       <c r="K10" s="92"/>
       <c r="L10" s="92"/>
       <c r="M10" s="93" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="N10" s="37" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="O10" s="93" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="P10" s="37" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="Q10" s="91"/>
       <c r="R10" s="93" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="S10" s="37" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="T10" s="100"/>
     </row>
@@ -8232,22 +8302,22 @@
         <v>11</v>
       </c>
       <c r="K11" s="73" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="L11" s="73" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="M11" s="74" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="O11" s="17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="P11" s="18" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="Q11" s="72" t="s">
         <v>7</v>
@@ -8278,16 +8348,16 @@
       <c r="K12" s="77"/>
       <c r="L12" s="77"/>
       <c r="M12" s="78" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="P12" s="24" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="Q12" s="76"/>
       <c r="R12" s="78"/>
@@ -8301,10 +8371,10 @@
       <c r="D13" s="21"/>
       <c r="E13" s="22"/>
       <c r="F13" s="23" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H13" s="25">
         <v>64</v>
@@ -8316,16 +8386,16 @@
       <c r="K13" s="77"/>
       <c r="L13" s="77"/>
       <c r="M13" s="78" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="N13" s="24" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="P13" s="24" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="76"/>
       <c r="R13" s="78"/>
@@ -8339,10 +8409,10 @@
       <c r="D14" s="21"/>
       <c r="E14" s="22"/>
       <c r="F14" s="26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H14" s="28">
         <v>64</v>
@@ -8354,16 +8424,16 @@
       <c r="K14" s="81"/>
       <c r="L14" s="81"/>
       <c r="M14" s="82" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="N14" s="27" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="O14" s="26" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="P14" s="27" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="Q14" s="80"/>
       <c r="R14" s="82"/>
@@ -8394,22 +8464,22 @@
         <v>12</v>
       </c>
       <c r="K15" s="84" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="L15" s="84" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="M15" s="85" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="N15" s="31" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="O15" s="85" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="P15" s="31" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="Q15" s="83" t="s">
         <v>8</v>
@@ -8440,16 +8510,16 @@
       <c r="K16" s="88"/>
       <c r="L16" s="88"/>
       <c r="M16" s="89" t="s">
+        <v>191</v>
+      </c>
+      <c r="N16" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="O16" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="P16" s="34" t="s">
         <v>175</v>
-      </c>
-      <c r="N16" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="O16" s="89" t="s">
-        <v>177</v>
-      </c>
-      <c r="P16" s="34" t="s">
-        <v>159</v>
       </c>
       <c r="Q16" s="87"/>
       <c r="R16" s="89"/>
@@ -8463,10 +8533,10 @@
       <c r="D17" s="21"/>
       <c r="E17" s="29"/>
       <c r="F17" s="33" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H17" s="35">
         <v>64</v>
@@ -8478,23 +8548,23 @@
       <c r="K17" s="88"/>
       <c r="L17" s="88"/>
       <c r="M17" s="89" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="N17" s="34" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="O17" s="89" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="P17" s="34" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="Q17" s="87"/>
       <c r="R17" s="89" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="S17" s="34" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="T17" s="99"/>
     </row>
@@ -8505,10 +8575,10 @@
       <c r="D18" s="21"/>
       <c r="E18" s="29"/>
       <c r="F18" s="36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H18" s="38">
         <v>64</v>
@@ -8520,23 +8590,23 @@
       <c r="K18" s="92"/>
       <c r="L18" s="92"/>
       <c r="M18" s="93" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="N18" s="37" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="O18" s="93" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="P18" s="37" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="Q18" s="91"/>
       <c r="R18" s="93" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="S18" s="37" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="T18" s="100"/>
     </row>
@@ -8558,10 +8628,10 @@
         <v>12</v>
       </c>
       <c r="K19" s="73" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="L19" s="73" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="M19" s="74"/>
       <c r="N19" s="18"/>
@@ -8605,7 +8675,7 @@
       <c r="D21" s="21"/>
       <c r="E21" s="22"/>
       <c r="F21" s="23" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G21" s="24"/>
       <c r="H21" s="25"/>
@@ -8629,7 +8699,7 @@
       <c r="D22" s="21"/>
       <c r="E22" s="22"/>
       <c r="F22" s="26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="28"/>
@@ -8648,16 +8718,16 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="40" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E23" s="43">
         <v>1</v>
@@ -8666,7 +8736,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="H23" s="32">
         <v>20</v>
@@ -8678,10 +8748,10 @@
         <v>11</v>
       </c>
       <c r="K23" s="84" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="L23" s="84" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="M23" s="85"/>
       <c r="N23" s="31"/>
@@ -8704,7 +8774,7 @@
         <v>23</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H24" s="35">
         <v>20</v>
@@ -8731,16 +8801,16 @@
       <c r="D25" s="46"/>
       <c r="E25" s="29"/>
       <c r="F25" s="33" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H25" s="35" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="I25" s="86" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="J25" s="87"/>
       <c r="K25" s="88"/>
@@ -8751,10 +8821,10 @@
       <c r="P25" s="34"/>
       <c r="Q25" s="87"/>
       <c r="R25" s="89" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="S25" s="34" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="T25" s="99"/>
     </row>
@@ -8765,10 +8835,10 @@
       <c r="D26" s="49"/>
       <c r="E26" s="50"/>
       <c r="F26" s="36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G26" s="37" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H26" s="38">
         <v>20</v>
@@ -8780,38 +8850,38 @@
       <c r="K26" s="92"/>
       <c r="L26" s="92"/>
       <c r="M26" s="93" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="N26" s="37" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="O26" s="93" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="P26" s="37" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="Q26" s="91"/>
       <c r="R26" s="93" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="S26" s="37" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="T26" s="100"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E27" s="16">
         <v>0</v>
@@ -8820,7 +8890,7 @@
         <v>18</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H27" s="19">
         <v>7.68</v>
@@ -8832,31 +8902,31 @@
         <v>11</v>
       </c>
       <c r="K27" s="73" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="L27" s="73" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="M27" s="74" t="s">
+        <v>179</v>
+      </c>
+      <c r="N27" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="N27" s="18" t="s">
-        <v>147</v>
-      </c>
       <c r="O27" s="17" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="P27" s="18" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="Q27" s="72" t="s">
         <v>8</v>
       </c>
       <c r="R27" s="74" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="S27" s="18" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="T27" s="101"/>
     </row>
@@ -8870,7 +8940,7 @@
         <v>23</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H28" s="25">
         <v>63.12</v>
@@ -8882,23 +8952,23 @@
       <c r="K28" s="77"/>
       <c r="L28" s="77"/>
       <c r="M28" s="78" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="N28" s="24" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="O28" s="23" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="P28" s="24" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="Q28" s="76"/>
       <c r="R28" s="78" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="S28" s="24" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="T28" s="102"/>
     </row>
@@ -8909,10 +8979,10 @@
       <c r="D29" s="21"/>
       <c r="E29" s="22"/>
       <c r="F29" s="23" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H29" s="25">
         <v>9.33</v>
@@ -8924,23 +8994,23 @@
       <c r="K29" s="77"/>
       <c r="L29" s="77"/>
       <c r="M29" s="78" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="N29" s="24" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="O29" s="23" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="P29" s="24" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="Q29" s="76"/>
       <c r="R29" s="78" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="S29" s="24" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="T29" s="102"/>
     </row>
@@ -8951,10 +9021,10 @@
       <c r="D30" s="21"/>
       <c r="E30" s="22"/>
       <c r="F30" s="26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H30" s="28">
         <v>63.12</v>
@@ -8966,23 +9036,23 @@
       <c r="K30" s="81"/>
       <c r="L30" s="81"/>
       <c r="M30" s="82" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="N30" s="27" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="O30" s="26" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="P30" s="27" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="Q30" s="80"/>
       <c r="R30" s="82" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="S30" s="27" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="T30" s="102"/>
     </row>
@@ -8998,7 +9068,7 @@
         <v>18</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H31" s="32">
         <v>59.59</v>
@@ -9010,31 +9080,31 @@
         <v>11</v>
       </c>
       <c r="K31" s="84" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="L31" s="84" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="M31" s="85" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="N31" s="31" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="O31" s="85" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="P31" s="31" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="Q31" s="83" t="s">
         <v>8</v>
       </c>
       <c r="R31" s="85" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="S31" s="31" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="T31" s="98"/>
     </row>
@@ -9048,7 +9118,7 @@
         <v>23</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H32" s="35">
         <v>64</v>
@@ -9060,23 +9130,23 @@
       <c r="K32" s="88"/>
       <c r="L32" s="88"/>
       <c r="M32" s="89" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="N32" s="34" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="O32" s="89" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="P32" s="34" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="Q32" s="87"/>
       <c r="R32" s="89" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="S32" s="34" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="T32" s="99"/>
     </row>
@@ -9087,10 +9157,10 @@
       <c r="D33" s="52"/>
       <c r="E33" s="29"/>
       <c r="F33" s="33" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H33" s="35">
         <v>53.5</v>
@@ -9102,23 +9172,23 @@
       <c r="K33" s="88"/>
       <c r="L33" s="88"/>
       <c r="M33" s="89" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="N33" s="34" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="O33" s="89" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="P33" s="34" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="Q33" s="87"/>
       <c r="R33" s="89" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="S33" s="34" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="T33" s="99"/>
     </row>
@@ -9129,10 +9199,10 @@
       <c r="D34" s="52"/>
       <c r="E34" s="29"/>
       <c r="F34" s="36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G34" s="37" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H34" s="38">
         <v>64</v>
@@ -9144,23 +9214,23 @@
       <c r="K34" s="92"/>
       <c r="L34" s="92"/>
       <c r="M34" s="93" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="N34" s="37" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="O34" s="93" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="P34" s="37" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="Q34" s="91"/>
       <c r="R34" s="93" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="S34" s="37" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="T34" s="100"/>
     </row>
@@ -9176,7 +9246,7 @@
         <v>18</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H35" s="19">
         <v>59.59</v>
@@ -9188,22 +9258,22 @@
         <v>11</v>
       </c>
       <c r="K35" s="73" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="L35" s="73" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="M35" s="74" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="N35" s="18" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="O35" s="17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="P35" s="18" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="Q35" s="72" t="s">
         <v>7</v>
@@ -9222,7 +9292,7 @@
         <v>23</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H36" s="25">
         <v>64</v>
@@ -9234,16 +9304,16 @@
       <c r="K36" s="77"/>
       <c r="L36" s="77"/>
       <c r="M36" s="78" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="N36" s="24" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="O36" s="23" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="P36" s="24" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="Q36" s="76"/>
       <c r="R36" s="78"/>
@@ -9257,10 +9327,10 @@
       <c r="D37" s="21"/>
       <c r="E37" s="22"/>
       <c r="F37" s="23" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H37" s="25">
         <v>64</v>
@@ -9272,16 +9342,16 @@
       <c r="K37" s="77"/>
       <c r="L37" s="77"/>
       <c r="M37" s="78" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="N37" s="24" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="O37" s="23" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="P37" s="24" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="Q37" s="76"/>
       <c r="R37" s="78"/>
@@ -9295,10 +9365,10 @@
       <c r="D38" s="21"/>
       <c r="E38" s="22"/>
       <c r="F38" s="26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H38" s="28">
         <v>64</v>
@@ -9310,16 +9380,16 @@
       <c r="K38" s="81"/>
       <c r="L38" s="81"/>
       <c r="M38" s="82" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="N38" s="27" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="O38" s="26" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="P38" s="27" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="Q38" s="80"/>
       <c r="R38" s="82"/>
@@ -9338,7 +9408,7 @@
         <v>18</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H39" s="32">
         <v>63.31</v>
@@ -9350,31 +9420,31 @@
         <v>12</v>
       </c>
       <c r="K39" s="84" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="L39" s="84" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="M39" s="32" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="N39" s="31" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="O39" s="85" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="P39" s="31" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="Q39" s="83" t="s">
         <v>8</v>
       </c>
       <c r="R39" s="85" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="S39" s="31" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="T39" s="98"/>
     </row>
@@ -9388,7 +9458,7 @@
         <v>23</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H40" s="35">
         <v>64</v>
@@ -9400,23 +9470,23 @@
       <c r="K40" s="88"/>
       <c r="L40" s="88"/>
       <c r="M40" s="89" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="N40" s="34" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="O40" s="89" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="P40" s="34" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="Q40" s="87"/>
       <c r="R40" s="89" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="S40" s="34" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="T40" s="99"/>
     </row>
@@ -9427,10 +9497,10 @@
       <c r="D41" s="52"/>
       <c r="E41" s="29"/>
       <c r="F41" s="33" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G41" s="34" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H41" s="35">
         <v>19</v>
@@ -9442,23 +9512,23 @@
       <c r="K41" s="88"/>
       <c r="L41" s="88"/>
       <c r="M41" s="89" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="N41" s="34" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="O41" s="89" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="P41" s="34" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="Q41" s="87"/>
       <c r="R41" s="89" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="S41" s="34" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="T41" s="99"/>
     </row>
@@ -9469,10 +9539,10 @@
       <c r="D42" s="52"/>
       <c r="E42" s="29"/>
       <c r="F42" s="36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G42" s="37" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H42" s="38">
         <v>64</v>
@@ -9484,23 +9554,23 @@
       <c r="K42" s="92"/>
       <c r="L42" s="92"/>
       <c r="M42" s="93" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="N42" s="37" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="O42" s="93" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="P42" s="37" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="Q42" s="91"/>
       <c r="R42" s="93" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="S42" s="37" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="T42" s="100"/>
     </row>
@@ -9516,7 +9586,7 @@
         <v>18</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="H43" s="19">
         <v>63.88</v>
@@ -9528,22 +9598,22 @@
         <v>12</v>
       </c>
       <c r="K43" s="73" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="L43" s="73" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="M43" s="74" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="N43" s="18" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="O43" s="17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="P43" s="18" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="Q43" s="72" t="s">
         <v>7</v>
@@ -9562,7 +9632,7 @@
         <v>23</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="H44" s="25">
         <v>6.93</v>
@@ -9574,16 +9644,16 @@
       <c r="K44" s="77"/>
       <c r="L44" s="77"/>
       <c r="M44" s="78" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="N44" s="24" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="O44" s="23" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="P44" s="24" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="Q44" s="76"/>
       <c r="R44" s="78"/>
@@ -9597,10 +9667,10 @@
       <c r="D45" s="21"/>
       <c r="E45" s="22"/>
       <c r="F45" s="23" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="H45" s="25">
         <v>64</v>
@@ -9612,16 +9682,16 @@
       <c r="K45" s="77"/>
       <c r="L45" s="77"/>
       <c r="M45" s="78" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="N45" s="24" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="O45" s="23" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="P45" s="24" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="Q45" s="76"/>
       <c r="R45" s="78"/>
@@ -9635,10 +9705,10 @@
       <c r="D46" s="54"/>
       <c r="E46" s="22"/>
       <c r="F46" s="26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H46" s="28">
         <v>64</v>
@@ -9650,16 +9720,16 @@
       <c r="K46" s="81"/>
       <c r="L46" s="81"/>
       <c r="M46" s="82" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="N46" s="27" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="O46" s="26" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="P46" s="27" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="Q46" s="80"/>
       <c r="R46" s="82"/>
@@ -9668,16 +9738,16 @@
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="55" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B47" s="56" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="C47" s="56" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="D47" s="56" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E47" s="43">
         <v>1</v>
@@ -9731,7 +9801,7 @@
       <c r="D49" s="58"/>
       <c r="E49" s="29"/>
       <c r="F49" s="33" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G49" s="34"/>
       <c r="H49" s="35"/>
@@ -9755,7 +9825,7 @@
       <c r="D50" s="58"/>
       <c r="E50" s="29"/>
       <c r="F50" s="36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G50" s="37"/>
       <c r="H50" s="38"/>
@@ -9829,7 +9899,7 @@
       <c r="D53" s="58"/>
       <c r="E53" s="22"/>
       <c r="F53" s="23" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G53" s="24"/>
       <c r="H53" s="25"/>
@@ -9853,7 +9923,7 @@
       <c r="D54" s="58"/>
       <c r="E54" s="22"/>
       <c r="F54" s="26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G54" s="27"/>
       <c r="H54" s="28"/>
@@ -9925,7 +9995,7 @@
       <c r="D57" s="52"/>
       <c r="E57" s="29"/>
       <c r="F57" s="33" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G57" s="34"/>
       <c r="H57" s="35"/>
@@ -9949,7 +10019,7 @@
       <c r="D58" s="63"/>
       <c r="E58" s="50"/>
       <c r="F58" s="36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G58" s="37"/>
       <c r="H58" s="38"/>
@@ -10021,7 +10091,7 @@
       <c r="D61" s="21"/>
       <c r="E61" s="22"/>
       <c r="F61" s="23" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G61" s="24"/>
       <c r="H61" s="25"/>
@@ -10045,7 +10115,7 @@
       <c r="D62" s="54"/>
       <c r="E62" s="22"/>
       <c r="F62" s="26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G62" s="27"/>
       <c r="H62" s="28"/>
@@ -10117,7 +10187,7 @@
       <c r="D65" s="21"/>
       <c r="E65" s="29"/>
       <c r="F65" s="33" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G65" s="34"/>
       <c r="H65" s="35"/>
@@ -10141,7 +10211,7 @@
       <c r="D66" s="104"/>
       <c r="E66" s="50"/>
       <c r="F66" s="36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G66" s="37"/>
       <c r="H66" s="38"/>
@@ -10213,7 +10283,7 @@
       <c r="D69" s="21"/>
       <c r="E69" s="22"/>
       <c r="F69" s="23" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G69" s="24"/>
       <c r="H69" s="25"/>
@@ -10237,7 +10307,7 @@
       <c r="D70" s="104"/>
       <c r="E70" s="22"/>
       <c r="F70" s="26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G70" s="27"/>
       <c r="H70" s="28"/>
@@ -10309,7 +10379,7 @@
       <c r="D73" s="21"/>
       <c r="E73" s="29"/>
       <c r="F73" s="33" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G73" s="34"/>
       <c r="H73" s="35"/>
@@ -10333,7 +10403,7 @@
       <c r="D74" s="104"/>
       <c r="E74" s="50"/>
       <c r="F74" s="36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G74" s="37"/>
       <c r="H74" s="38"/>
@@ -10405,7 +10475,7 @@
       <c r="D77" s="21"/>
       <c r="E77" s="22"/>
       <c r="F77" s="23" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G77" s="24"/>
       <c r="H77" s="25"/>
@@ -10429,7 +10499,7 @@
       <c r="D78" s="104"/>
       <c r="E78" s="22"/>
       <c r="F78" s="26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G78" s="27"/>
       <c r="H78" s="28"/>
@@ -10501,7 +10571,7 @@
       <c r="D81" s="21"/>
       <c r="E81" s="29"/>
       <c r="F81" s="33" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G81" s="34"/>
       <c r="H81" s="35"/>
@@ -10525,7 +10595,7 @@
       <c r="D82" s="104"/>
       <c r="E82" s="50"/>
       <c r="F82" s="36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G82" s="37"/>
       <c r="H82" s="38"/>
@@ -10597,7 +10667,7 @@
       <c r="D85" s="21"/>
       <c r="E85" s="22"/>
       <c r="F85" s="23" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G85" s="24"/>
       <c r="H85" s="25"/>
@@ -10621,7 +10691,7 @@
       <c r="D86" s="104"/>
       <c r="E86" s="22"/>
       <c r="F86" s="26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G86" s="27"/>
       <c r="H86" s="28"/>
@@ -10693,7 +10763,7 @@
       <c r="D89" s="21"/>
       <c r="E89" s="29"/>
       <c r="F89" s="33" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G89" s="34"/>
       <c r="H89" s="35"/>
@@ -10717,7 +10787,7 @@
       <c r="D90" s="104"/>
       <c r="E90" s="50"/>
       <c r="F90" s="36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G90" s="37"/>
       <c r="H90" s="38"/>
@@ -10789,7 +10859,7 @@
       <c r="D93" s="21"/>
       <c r="E93" s="22"/>
       <c r="F93" s="23" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G93" s="24"/>
       <c r="H93" s="25"/>
@@ -10813,7 +10883,7 @@
       <c r="D94" s="104"/>
       <c r="E94" s="105"/>
       <c r="F94" s="106" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G94" s="107"/>
       <c r="H94" s="108"/>
@@ -10885,7 +10955,7 @@
       <c r="D97" s="21"/>
       <c r="E97" s="29"/>
       <c r="F97" s="33" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G97" s="34"/>
       <c r="H97" s="35"/>
@@ -10909,7 +10979,7 @@
       <c r="D98" s="104"/>
       <c r="E98" s="109"/>
       <c r="F98" s="110" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G98" s="111"/>
       <c r="H98" s="112"/>
@@ -10981,7 +11051,7 @@
       <c r="D101" s="21"/>
       <c r="E101" s="22"/>
       <c r="F101" s="23" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G101" s="24"/>
       <c r="H101" s="25"/>
@@ -11005,7 +11075,7 @@
       <c r="D102" s="104"/>
       <c r="E102" s="105"/>
       <c r="F102" s="106" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G102" s="107"/>
       <c r="H102" s="108"/>
@@ -11435,7 +11505,7 @@
   <sheetData>
     <row r="1" ht="68" customHeight="1" spans="1:25">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11464,7 +11534,7 @@
     </row>
     <row r="4" spans="12:23">
       <c r="L4" s="2" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -11690,7 +11760,7 @@
     </row>
     <row r="95" spans="16:23">
       <c r="P95" s="2" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>

--- a/testnet3 AMD CPU测试报告.xlsx
+++ b/testnet3 AMD CPU测试报告.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="270">
   <si>
     <t xml:space="preserve">1. 使用MaxCache参数可以大幅提高PreCommit1的效率（会多使用56G内存，建议全程开启该参数）
 2. PreCommit1阶段只使用单核CPU性能，带sha-ni指令扩展的AMD CPU可以对该阶段大幅加速
@@ -164,6 +164,10 @@
     <t>日密封数据</t>
   </si>
   <si>
+    <t>西安node1
+使用BUILD_FROM_SOURCE编译</t>
+  </si>
+  <si>
     <t>杭州发回机器</t>
   </si>
   <si>
@@ -451,6 +455,56 @@
   </si>
   <si>
     <t>7h26m5s</t>
+  </si>
+  <si>
+    <t>外部测试5
+使用BUILD_FROM_SOURCE编译</t>
+  </si>
+  <si>
+    <t>SSD W1.4G/s R1.5G/s
+HDD W137M/s R177M/s</t>
+  </si>
+  <si>
+    <t>3h18m42s</t>
+  </si>
+  <si>
+    <t>3h18m41s</t>
+  </si>
+  <si>
+    <t>3h22m58s</t>
+  </si>
+  <si>
+    <t>41m43s</t>
+  </si>
+  <si>
+    <t>41m32s</t>
+  </si>
+  <si>
+    <t>1h41m34s</t>
+  </si>
+  <si>
+    <t>27s</t>
+  </si>
+  <si>
+    <t>22s</t>
+  </si>
+  <si>
+    <t>1h26m48s</t>
+  </si>
+  <si>
+    <t>1h59m13s</t>
+  </si>
+  <si>
+    <t>2h0m29s</t>
+  </si>
+  <si>
+    <t>5h37m52s</t>
+  </si>
+  <si>
+    <t>6h9m33s</t>
+  </si>
+  <si>
+    <t>7h18m31s</t>
   </si>
   <si>
     <t>许总测试结果</t>
@@ -840,6 +894,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -857,10 +977,18 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -880,53 +1008,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -938,38 +1023,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -977,8 +1030,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1023,31 +1077,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,7 +1101,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,7 +1131,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1089,13 +1149,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,55 +1227,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,43 +1251,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1699,52 +1753,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1773,6 +1792,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1782,17 +1816,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1804,10 +1858,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1816,133 +1870,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="46" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4341,17 +4395,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V116"/>
+  <dimension ref="A1:V128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J52" sqref="J52"/>
+      <selection pane="bottomLeft" activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
     <col min="2" max="2" width="19.875" customWidth="1"/>
     <col min="3" max="3" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
@@ -4766,14 +4820,16 @@
         <v>43</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="54"/>
+        <v>14</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>15</v>
+      </c>
       <c r="D11" s="21" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="E11" s="148" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>18</v>
@@ -4783,9 +4839,7 @@
       <c r="I11" s="78"/>
       <c r="J11" s="78"/>
       <c r="K11" s="78"/>
-      <c r="L11" s="78" t="s">
-        <v>47</v>
-      </c>
+      <c r="L11" s="78"/>
       <c r="M11" s="78"/>
       <c r="N11" s="78"/>
       <c r="O11" s="78"/>
@@ -4811,9 +4865,7 @@
       <c r="I12" s="151"/>
       <c r="J12" s="151"/>
       <c r="K12" s="151"/>
-      <c r="L12" s="151" t="s">
-        <v>48</v>
-      </c>
+      <c r="L12" s="151"/>
       <c r="M12" s="151"/>
       <c r="N12" s="151"/>
       <c r="O12" s="151"/>
@@ -4839,9 +4891,7 @@
       <c r="I13" s="151"/>
       <c r="J13" s="151"/>
       <c r="K13" s="151"/>
-      <c r="L13" s="151" t="s">
-        <v>49</v>
-      </c>
+      <c r="L13" s="151"/>
       <c r="M13" s="151"/>
       <c r="N13" s="151"/>
       <c r="O13" s="151"/>
@@ -4867,9 +4917,7 @@
       <c r="I14" s="78"/>
       <c r="J14" s="78"/>
       <c r="K14" s="78"/>
-      <c r="L14" s="78" t="s">
-        <v>50</v>
-      </c>
+      <c r="L14" s="78"/>
       <c r="M14" s="78"/>
       <c r="N14" s="78"/>
       <c r="O14" s="78"/>
@@ -4895,9 +4943,7 @@
       <c r="I15" s="154"/>
       <c r="J15" s="154"/>
       <c r="K15" s="154"/>
-      <c r="L15" s="154" t="s">
-        <v>51</v>
-      </c>
+      <c r="L15" s="154"/>
       <c r="M15" s="154"/>
       <c r="N15" s="154"/>
       <c r="O15" s="154"/>
@@ -4937,31 +4983,29 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="65" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>54</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C17" s="54"/>
       <c r="D17" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" s="148" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="78"/>
-      <c r="I17" s="78" t="s">
-        <v>56</v>
-      </c>
+      <c r="I17" s="78"/>
       <c r="J17" s="78"/>
       <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
+      <c r="L17" s="78" t="s">
+        <v>48</v>
+      </c>
       <c r="M17" s="78"/>
       <c r="N17" s="78"/>
       <c r="O17" s="78"/>
@@ -4984,12 +5028,12 @@
       </c>
       <c r="G18" s="150"/>
       <c r="H18" s="151"/>
-      <c r="I18" s="151" t="s">
-        <v>57</v>
-      </c>
+      <c r="I18" s="151"/>
       <c r="J18" s="151"/>
       <c r="K18" s="151"/>
-      <c r="L18" s="151"/>
+      <c r="L18" s="151" t="s">
+        <v>49</v>
+      </c>
       <c r="M18" s="151"/>
       <c r="N18" s="151"/>
       <c r="O18" s="151"/>
@@ -5012,12 +5056,12 @@
       </c>
       <c r="G19" s="150"/>
       <c r="H19" s="151"/>
-      <c r="I19" s="151" t="s">
-        <v>58</v>
-      </c>
+      <c r="I19" s="151"/>
       <c r="J19" s="151"/>
       <c r="K19" s="151"/>
-      <c r="L19" s="151"/>
+      <c r="L19" s="151" t="s">
+        <v>50</v>
+      </c>
       <c r="M19" s="151"/>
       <c r="N19" s="151"/>
       <c r="O19" s="151"/>
@@ -5040,12 +5084,12 @@
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="78"/>
-      <c r="I20" s="78" t="s">
-        <v>59</v>
-      </c>
+      <c r="I20" s="78"/>
       <c r="J20" s="78"/>
       <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
+      <c r="L20" s="78" t="s">
+        <v>51</v>
+      </c>
       <c r="M20" s="78"/>
       <c r="N20" s="78"/>
       <c r="O20" s="78"/>
@@ -5068,12 +5112,12 @@
       </c>
       <c r="G21" s="153"/>
       <c r="H21" s="154"/>
-      <c r="I21" s="154" t="s">
-        <v>60</v>
-      </c>
+      <c r="I21" s="154"/>
       <c r="J21" s="154"/>
       <c r="K21" s="154"/>
-      <c r="L21" s="154"/>
+      <c r="L21" s="154" t="s">
+        <v>52</v>
+      </c>
       <c r="M21" s="154"/>
       <c r="N21" s="154"/>
       <c r="O21" s="154"/>
@@ -5113,39 +5157,31 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="65" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E23" s="148" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F23" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="78" t="s">
-        <v>64</v>
-      </c>
+      <c r="G23" s="23"/>
       <c r="H23" s="78"/>
       <c r="I23" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="J23" s="78" t="s">
-        <v>66</v>
-      </c>
-      <c r="K23" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="L23" s="78" t="s">
-        <v>68</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
       <c r="M23" s="78"/>
       <c r="N23" s="78"/>
       <c r="O23" s="78"/>
@@ -5166,22 +5202,14 @@
       <c r="F24" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="151" t="s">
-        <v>69</v>
-      </c>
+      <c r="G24" s="150"/>
       <c r="H24" s="151"/>
       <c r="I24" s="151" t="s">
-        <v>70</v>
-      </c>
-      <c r="J24" s="151" t="s">
-        <v>71</v>
-      </c>
-      <c r="K24" s="151" t="s">
-        <v>72</v>
-      </c>
-      <c r="L24" s="151" t="s">
-        <v>73</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="J24" s="151"/>
+      <c r="K24" s="151"/>
+      <c r="L24" s="151"/>
       <c r="M24" s="151"/>
       <c r="N24" s="151"/>
       <c r="O24" s="151"/>
@@ -5202,16 +5230,12 @@
       <c r="F25" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="151" t="s">
-        <v>74</v>
-      </c>
+      <c r="G25" s="150"/>
       <c r="H25" s="151"/>
       <c r="I25" s="151" t="s">
-        <v>75</v>
-      </c>
-      <c r="J25" s="151" t="s">
-        <v>76</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="J25" s="151"/>
       <c r="K25" s="151"/>
       <c r="L25" s="151"/>
       <c r="M25" s="151"/>
@@ -5234,22 +5258,14 @@
       <c r="F26" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="78" t="s">
-        <v>77</v>
-      </c>
+      <c r="G26" s="23"/>
       <c r="H26" s="78"/>
       <c r="I26" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="J26" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="K26" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="L26" s="78" t="s">
-        <v>81</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
       <c r="M26" s="78"/>
       <c r="N26" s="78"/>
       <c r="O26" s="78"/>
@@ -5270,22 +5286,14 @@
       <c r="F27" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="154" t="s">
-        <v>82</v>
-      </c>
+      <c r="G27" s="153"/>
       <c r="H27" s="154"/>
       <c r="I27" s="154" t="s">
-        <v>83</v>
-      </c>
-      <c r="J27" s="154" t="s">
-        <v>84</v>
-      </c>
-      <c r="K27" s="154" t="s">
-        <v>85</v>
-      </c>
-      <c r="L27" s="154" t="s">
-        <v>86</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="J27" s="154"/>
+      <c r="K27" s="154"/>
+      <c r="L27" s="154"/>
       <c r="M27" s="154"/>
       <c r="N27" s="154"/>
       <c r="O27" s="154"/>
@@ -5325,35 +5333,39 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="65" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E29" s="148" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="23"/>
+      <c r="G29" s="78" t="s">
+        <v>65</v>
+      </c>
       <c r="H29" s="78"/>
       <c r="I29" s="78" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="J29" s="78" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="K29" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="L29" s="78"/>
+        <v>68</v>
+      </c>
+      <c r="L29" s="78" t="s">
+        <v>69</v>
+      </c>
       <c r="M29" s="78"/>
       <c r="N29" s="78"/>
       <c r="O29" s="78"/>
@@ -5374,18 +5386,22 @@
       <c r="F30" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="150"/>
+      <c r="G30" s="151" t="s">
+        <v>70</v>
+      </c>
       <c r="H30" s="151"/>
       <c r="I30" s="151" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="J30" s="151" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="K30" s="151" t="s">
-        <v>94</v>
-      </c>
-      <c r="L30" s="151"/>
+        <v>73</v>
+      </c>
+      <c r="L30" s="151" t="s">
+        <v>74</v>
+      </c>
       <c r="M30" s="151"/>
       <c r="N30" s="151"/>
       <c r="O30" s="151"/>
@@ -5406,10 +5422,16 @@
       <c r="F31" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="150"/>
+      <c r="G31" s="151" t="s">
+        <v>75</v>
+      </c>
       <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
+      <c r="I31" s="151" t="s">
+        <v>76</v>
+      </c>
+      <c r="J31" s="151" t="s">
+        <v>77</v>
+      </c>
       <c r="K31" s="151"/>
       <c r="L31" s="151"/>
       <c r="M31" s="151"/>
@@ -5432,18 +5454,22 @@
       <c r="F32" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="23"/>
+      <c r="G32" s="78" t="s">
+        <v>78</v>
+      </c>
       <c r="H32" s="78"/>
       <c r="I32" s="78" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="J32" s="78" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="K32" s="78" t="s">
-        <v>97</v>
-      </c>
-      <c r="L32" s="78"/>
+        <v>81</v>
+      </c>
+      <c r="L32" s="78" t="s">
+        <v>82</v>
+      </c>
       <c r="M32" s="78"/>
       <c r="N32" s="78"/>
       <c r="O32" s="78"/>
@@ -5464,18 +5490,22 @@
       <c r="F33" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="153"/>
+      <c r="G33" s="154" t="s">
+        <v>83</v>
+      </c>
       <c r="H33" s="154"/>
       <c r="I33" s="154" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="J33" s="154" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="K33" s="154" t="s">
-        <v>100</v>
-      </c>
-      <c r="L33" s="154"/>
+        <v>86</v>
+      </c>
+      <c r="L33" s="154" t="s">
+        <v>87</v>
+      </c>
       <c r="M33" s="154"/>
       <c r="N33" s="154"/>
       <c r="O33" s="154"/>
@@ -5515,19 +5545,19 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="65" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C35" s="54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E35" s="148" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>18</v>
@@ -5535,17 +5565,15 @@
       <c r="G35" s="23"/>
       <c r="H35" s="78"/>
       <c r="I35" s="78" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="J35" s="78" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="K35" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="L35" s="78" t="s">
-        <v>106</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="L35" s="78"/>
       <c r="M35" s="78"/>
       <c r="N35" s="78"/>
       <c r="O35" s="78"/>
@@ -5569,17 +5597,15 @@
       <c r="G36" s="150"/>
       <c r="H36" s="151"/>
       <c r="I36" s="151" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="J36" s="151" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="K36" s="151" t="s">
-        <v>109</v>
-      </c>
-      <c r="L36" s="151" t="s">
-        <v>110</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="L36" s="151"/>
       <c r="M36" s="151"/>
       <c r="N36" s="151"/>
       <c r="O36" s="151"/>
@@ -5624,22 +5650,20 @@
       <c r="D38" s="21"/>
       <c r="E38" s="148"/>
       <c r="F38" s="23" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="G38" s="23"/>
       <c r="H38" s="78"/>
       <c r="I38" s="78" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J38" s="78" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="K38" s="78" t="s">
-        <v>114</v>
-      </c>
-      <c r="L38" s="78" t="s">
-        <v>115</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="L38" s="78"/>
       <c r="M38" s="78"/>
       <c r="N38" s="78"/>
       <c r="O38" s="78"/>
@@ -5663,17 +5687,15 @@
       <c r="G39" s="153"/>
       <c r="H39" s="154"/>
       <c r="I39" s="154" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="J39" s="154" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="K39" s="154" t="s">
-        <v>118</v>
-      </c>
-      <c r="L39" s="154" t="s">
-        <v>119</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="L39" s="154"/>
       <c r="M39" s="154"/>
       <c r="N39" s="154"/>
       <c r="O39" s="154"/>
@@ -5713,19 +5735,19 @@
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="65" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C41" s="54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E41" s="148" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>18</v>
@@ -5733,16 +5755,16 @@
       <c r="G41" s="23"/>
       <c r="H41" s="78"/>
       <c r="I41" s="78" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="J41" s="78" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="K41" s="78" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="L41" s="78" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="M41" s="78"/>
       <c r="N41" s="78"/>
@@ -5767,16 +5789,16 @@
       <c r="G42" s="150"/>
       <c r="H42" s="151"/>
       <c r="I42" s="151" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="J42" s="151" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="K42" s="151" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="L42" s="151" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="M42" s="151"/>
       <c r="N42" s="151"/>
@@ -5822,21 +5844,21 @@
       <c r="D44" s="21"/>
       <c r="E44" s="148"/>
       <c r="F44" s="23" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="G44" s="23"/>
       <c r="H44" s="78"/>
       <c r="I44" s="78" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="J44" s="78" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="K44" s="78" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="L44" s="78" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="M44" s="78"/>
       <c r="N44" s="78"/>
@@ -5861,16 +5883,16 @@
       <c r="G45" s="153"/>
       <c r="H45" s="154"/>
       <c r="I45" s="154" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="J45" s="154" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="K45" s="154" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="L45" s="154" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="M45" s="154"/>
       <c r="N45" s="154"/>
@@ -5911,19 +5933,19 @@
     </row>
     <row r="47" spans="1:22">
       <c r="A47" s="65" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C47" s="54" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="E47" s="148" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>18</v>
@@ -5931,11 +5953,17 @@
       <c r="G47" s="23"/>
       <c r="H47" s="78"/>
       <c r="I47" s="78" t="s">
-        <v>143</v>
-      </c>
-      <c r="J47" s="78"/>
-      <c r="K47" s="78"/>
-      <c r="L47" s="78"/>
+        <v>123</v>
+      </c>
+      <c r="J47" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="K47" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="L47" s="78" t="s">
+        <v>126</v>
+      </c>
       <c r="M47" s="78"/>
       <c r="N47" s="78"/>
       <c r="O47" s="78"/>
@@ -5959,11 +5987,17 @@
       <c r="G48" s="150"/>
       <c r="H48" s="151"/>
       <c r="I48" s="151" t="s">
-        <v>144</v>
-      </c>
-      <c r="J48" s="151"/>
-      <c r="K48" s="151"/>
-      <c r="L48" s="151"/>
+        <v>127</v>
+      </c>
+      <c r="J48" s="151" t="s">
+        <v>128</v>
+      </c>
+      <c r="K48" s="151" t="s">
+        <v>129</v>
+      </c>
+      <c r="L48" s="151" t="s">
+        <v>130</v>
+      </c>
       <c r="M48" s="151"/>
       <c r="N48" s="151"/>
       <c r="O48" s="151"/>
@@ -5981,133 +6015,161 @@
       <c r="C49" s="149"/>
       <c r="D49" s="21"/>
       <c r="E49" s="148"/>
-      <c r="F49" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="G49" s="23"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78" t="s">
-        <v>145</v>
-      </c>
-      <c r="J49" s="78"/>
-      <c r="K49" s="78"/>
-      <c r="L49" s="78"/>
-      <c r="M49" s="78"/>
-      <c r="N49" s="78"/>
-      <c r="O49" s="78"/>
-      <c r="P49" s="78"/>
-      <c r="Q49" s="78"/>
-      <c r="R49" s="78"/>
-      <c r="S49" s="78"/>
-      <c r="T49" s="78"/>
-      <c r="U49" s="78"/>
-      <c r="V49" s="24"/>
-    </row>
-    <row r="50" ht="14.25" spans="1:22">
-      <c r="A50" s="66"/>
-      <c r="B50" s="54"/>
+      <c r="F49" s="150" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="150"/>
+      <c r="H49" s="151"/>
+      <c r="I49" s="151"/>
+      <c r="J49" s="151"/>
+      <c r="K49" s="151"/>
+      <c r="L49" s="151"/>
+      <c r="M49" s="151"/>
+      <c r="N49" s="151"/>
+      <c r="O49" s="151"/>
+      <c r="P49" s="151"/>
+      <c r="Q49" s="151"/>
+      <c r="R49" s="151"/>
+      <c r="S49" s="151"/>
+      <c r="T49" s="151"/>
+      <c r="U49" s="151"/>
+      <c r="V49" s="163"/>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" s="65"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="149"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="152"/>
-      <c r="F50" s="153" t="s">
+      <c r="D50" s="21"/>
+      <c r="E50" s="148"/>
+      <c r="F50" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="23"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="J50" s="78" t="s">
+        <v>132</v>
+      </c>
+      <c r="K50" s="78" t="s">
+        <v>133</v>
+      </c>
+      <c r="L50" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="M50" s="78"/>
+      <c r="N50" s="78"/>
+      <c r="O50" s="78"/>
+      <c r="P50" s="78"/>
+      <c r="Q50" s="78"/>
+      <c r="R50" s="78"/>
+      <c r="S50" s="78"/>
+      <c r="T50" s="78"/>
+      <c r="U50" s="78"/>
+      <c r="V50" s="24"/>
+    </row>
+    <row r="51" ht="14.25" spans="1:22">
+      <c r="A51" s="66"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="149"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="152"/>
+      <c r="F51" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="G50" s="153"/>
-      <c r="H50" s="154"/>
-      <c r="I50" s="154" t="s">
-        <v>146</v>
-      </c>
-      <c r="J50" s="154"/>
-      <c r="K50" s="154"/>
-      <c r="L50" s="154"/>
-      <c r="M50" s="154"/>
-      <c r="N50" s="154"/>
-      <c r="O50" s="154"/>
-      <c r="P50" s="154"/>
-      <c r="Q50" s="154"/>
-      <c r="R50" s="154"/>
-      <c r="S50" s="154"/>
-      <c r="T50" s="154"/>
-      <c r="U50" s="154"/>
-      <c r="V50" s="164"/>
-    </row>
-    <row r="51" ht="14.25" spans="1:22">
-      <c r="A51" s="103"/>
-      <c r="B51" s="104"/>
-      <c r="C51" s="155"/>
-      <c r="D51" s="104"/>
-      <c r="E51" s="156"/>
-      <c r="F51" s="157" t="s">
+      <c r="G51" s="153"/>
+      <c r="H51" s="154"/>
+      <c r="I51" s="154" t="s">
+        <v>135</v>
+      </c>
+      <c r="J51" s="154" t="s">
+        <v>136</v>
+      </c>
+      <c r="K51" s="154" t="s">
+        <v>137</v>
+      </c>
+      <c r="L51" s="154" t="s">
+        <v>138</v>
+      </c>
+      <c r="M51" s="154"/>
+      <c r="N51" s="154"/>
+      <c r="O51" s="154"/>
+      <c r="P51" s="154"/>
+      <c r="Q51" s="154"/>
+      <c r="R51" s="154"/>
+      <c r="S51" s="154"/>
+      <c r="T51" s="154"/>
+      <c r="U51" s="154"/>
+      <c r="V51" s="164"/>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" s="103"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="155"/>
+      <c r="D52" s="104"/>
+      <c r="E52" s="156"/>
+      <c r="F52" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="G51" s="157"/>
-      <c r="H51" s="158"/>
-      <c r="I51" s="158"/>
-      <c r="J51" s="158"/>
-      <c r="K51" s="158"/>
-      <c r="L51" s="158"/>
-      <c r="M51" s="158"/>
-      <c r="N51" s="158"/>
-      <c r="O51" s="158"/>
-      <c r="P51" s="158"/>
-      <c r="Q51" s="158"/>
-      <c r="R51" s="158"/>
-      <c r="S51" s="158"/>
-      <c r="T51" s="158"/>
-      <c r="U51" s="158"/>
-      <c r="V51" s="165"/>
-    </row>
-    <row r="52" spans="1:22">
-      <c r="A52" s="65"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="148"/>
-      <c r="F52" s="23" t="s">
+      <c r="G52" s="157"/>
+      <c r="H52" s="158"/>
+      <c r="I52" s="158"/>
+      <c r="J52" s="158"/>
+      <c r="K52" s="158"/>
+      <c r="L52" s="158"/>
+      <c r="M52" s="158"/>
+      <c r="N52" s="158"/>
+      <c r="O52" s="158"/>
+      <c r="P52" s="158"/>
+      <c r="Q52" s="158"/>
+      <c r="R52" s="158"/>
+      <c r="S52" s="158"/>
+      <c r="T52" s="158"/>
+      <c r="U52" s="158"/>
+      <c r="V52" s="165"/>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="148" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G52" s="23"/>
-      <c r="H52" s="78"/>
-      <c r="I52" s="78"/>
-      <c r="J52" s="78"/>
-      <c r="K52" s="78"/>
-      <c r="L52" s="78"/>
-      <c r="M52" s="78"/>
-      <c r="N52" s="78"/>
-      <c r="O52" s="78"/>
-      <c r="P52" s="78"/>
-      <c r="Q52" s="78"/>
-      <c r="R52" s="78"/>
-      <c r="S52" s="78"/>
-      <c r="T52" s="78"/>
-      <c r="U52" s="78"/>
-      <c r="V52" s="24"/>
-    </row>
-    <row r="53" spans="1:22">
-      <c r="A53" s="65"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="149"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="148"/>
-      <c r="F53" s="150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" s="150"/>
-      <c r="H53" s="151"/>
-      <c r="I53" s="151"/>
-      <c r="J53" s="151"/>
-      <c r="K53" s="151"/>
-      <c r="L53" s="151"/>
-      <c r="M53" s="151"/>
-      <c r="N53" s="151"/>
-      <c r="O53" s="151"/>
-      <c r="P53" s="151"/>
-      <c r="Q53" s="151"/>
-      <c r="R53" s="151"/>
-      <c r="S53" s="151"/>
-      <c r="T53" s="151"/>
-      <c r="U53" s="151"/>
-      <c r="V53" s="163"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="78"/>
+      <c r="I53" s="78" t="s">
+        <v>141</v>
+      </c>
+      <c r="J53" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="K53" s="78"/>
+      <c r="L53" s="78" t="s">
+        <v>143</v>
+      </c>
+      <c r="M53" s="78"/>
+      <c r="N53" s="78"/>
+      <c r="O53" s="78"/>
+      <c r="P53" s="78"/>
+      <c r="Q53" s="78"/>
+      <c r="R53" s="78"/>
+      <c r="S53" s="78"/>
+      <c r="T53" s="78"/>
+      <c r="U53" s="78"/>
+      <c r="V53" s="24"/>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="65"/>
@@ -6115,142 +6177,178 @@
       <c r="C54" s="149"/>
       <c r="D54" s="21"/>
       <c r="E54" s="148"/>
-      <c r="F54" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="G54" s="23"/>
-      <c r="H54" s="78"/>
-      <c r="I54" s="78"/>
-      <c r="J54" s="78"/>
-      <c r="K54" s="78"/>
-      <c r="L54" s="78"/>
-      <c r="M54" s="78"/>
-      <c r="N54" s="78"/>
-      <c r="O54" s="78"/>
-      <c r="P54" s="78"/>
-      <c r="Q54" s="78"/>
-      <c r="R54" s="78"/>
-      <c r="S54" s="78"/>
-      <c r="T54" s="78"/>
-      <c r="U54" s="78"/>
-      <c r="V54" s="24"/>
-    </row>
-    <row r="55" ht="14.25" spans="1:22">
-      <c r="A55" s="66"/>
-      <c r="B55" s="54"/>
+      <c r="F54" s="150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" s="150"/>
+      <c r="H54" s="151"/>
+      <c r="I54" s="151" t="s">
+        <v>144</v>
+      </c>
+      <c r="J54" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="K54" s="151"/>
+      <c r="L54" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="M54" s="151"/>
+      <c r="N54" s="151"/>
+      <c r="O54" s="151"/>
+      <c r="P54" s="151"/>
+      <c r="Q54" s="151"/>
+      <c r="R54" s="151"/>
+      <c r="S54" s="151"/>
+      <c r="T54" s="151"/>
+      <c r="U54" s="151"/>
+      <c r="V54" s="163"/>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55" s="65"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="149"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="152"/>
-      <c r="F55" s="153" t="s">
+      <c r="D55" s="21"/>
+      <c r="E55" s="148"/>
+      <c r="F55" s="150" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" s="150"/>
+      <c r="H55" s="151"/>
+      <c r="I55" s="151" t="s">
+        <v>147</v>
+      </c>
+      <c r="J55" s="151" t="s">
+        <v>30</v>
+      </c>
+      <c r="K55" s="151"/>
+      <c r="L55" s="151" t="s">
+        <v>148</v>
+      </c>
+      <c r="M55" s="151"/>
+      <c r="N55" s="151"/>
+      <c r="O55" s="151"/>
+      <c r="P55" s="151"/>
+      <c r="Q55" s="151"/>
+      <c r="R55" s="151"/>
+      <c r="S55" s="151"/>
+      <c r="T55" s="151"/>
+      <c r="U55" s="151"/>
+      <c r="V55" s="163"/>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56" s="65"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="149"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="148"/>
+      <c r="F56" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="23"/>
+      <c r="H56" s="78"/>
+      <c r="I56" s="78" t="s">
+        <v>149</v>
+      </c>
+      <c r="J56" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="K56" s="78"/>
+      <c r="L56" s="78" t="s">
+        <v>151</v>
+      </c>
+      <c r="M56" s="78"/>
+      <c r="N56" s="78"/>
+      <c r="O56" s="78"/>
+      <c r="P56" s="78"/>
+      <c r="Q56" s="78"/>
+      <c r="R56" s="78"/>
+      <c r="S56" s="78"/>
+      <c r="T56" s="78"/>
+      <c r="U56" s="78"/>
+      <c r="V56" s="24"/>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57" s="66"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="149"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="152"/>
+      <c r="F57" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="G55" s="153"/>
-      <c r="H55" s="154"/>
-      <c r="I55" s="154"/>
-      <c r="J55" s="154"/>
-      <c r="K55" s="154"/>
-      <c r="L55" s="154"/>
-      <c r="M55" s="154"/>
-      <c r="N55" s="154"/>
-      <c r="O55" s="154"/>
-      <c r="P55" s="154"/>
-      <c r="Q55" s="154"/>
-      <c r="R55" s="154"/>
-      <c r="S55" s="154"/>
-      <c r="T55" s="154"/>
-      <c r="U55" s="154"/>
-      <c r="V55" s="164"/>
-    </row>
-    <row r="56" ht="14.25" spans="1:22">
-      <c r="A56" s="103"/>
-      <c r="B56" s="104"/>
-      <c r="C56" s="155"/>
-      <c r="D56" s="104"/>
-      <c r="E56" s="156"/>
-      <c r="F56" s="157" t="s">
+      <c r="G57" s="153"/>
+      <c r="H57" s="154"/>
+      <c r="I57" s="154" t="s">
+        <v>152</v>
+      </c>
+      <c r="J57" s="154" t="s">
+        <v>153</v>
+      </c>
+      <c r="K57" s="154"/>
+      <c r="L57" s="154" t="s">
+        <v>154</v>
+      </c>
+      <c r="M57" s="154"/>
+      <c r="N57" s="154"/>
+      <c r="O57" s="154"/>
+      <c r="P57" s="154"/>
+      <c r="Q57" s="154"/>
+      <c r="R57" s="154"/>
+      <c r="S57" s="154"/>
+      <c r="T57" s="154"/>
+      <c r="U57" s="154"/>
+      <c r="V57" s="164"/>
+    </row>
+    <row r="58" ht="14.25" spans="1:22">
+      <c r="A58" s="103"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="155"/>
+      <c r="D58" s="104"/>
+      <c r="E58" s="156"/>
+      <c r="F58" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="G56" s="157"/>
-      <c r="H56" s="158"/>
-      <c r="I56" s="158"/>
-      <c r="J56" s="158"/>
-      <c r="K56" s="158"/>
-      <c r="L56" s="158"/>
-      <c r="M56" s="158"/>
-      <c r="N56" s="158"/>
-      <c r="O56" s="158"/>
-      <c r="P56" s="158"/>
-      <c r="Q56" s="158"/>
-      <c r="R56" s="158"/>
-      <c r="S56" s="158"/>
-      <c r="T56" s="158"/>
-      <c r="U56" s="158"/>
-      <c r="V56" s="165"/>
-    </row>
-    <row r="57" spans="1:22">
-      <c r="A57" s="65"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="148"/>
-      <c r="F57" s="23" t="s">
+      <c r="G58" s="157"/>
+      <c r="H58" s="158"/>
+      <c r="I58" s="158"/>
+      <c r="J58" s="158"/>
+      <c r="K58" s="158"/>
+      <c r="L58" s="158"/>
+      <c r="M58" s="158"/>
+      <c r="N58" s="158"/>
+      <c r="O58" s="158"/>
+      <c r="P58" s="158"/>
+      <c r="Q58" s="158"/>
+      <c r="R58" s="158"/>
+      <c r="S58" s="158"/>
+      <c r="T58" s="158"/>
+      <c r="U58" s="158"/>
+      <c r="V58" s="165"/>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="A59" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="E59" s="148" t="s">
+        <v>159</v>
+      </c>
+      <c r="F59" s="23" t="s">
         <v>18</v>
-      </c>
-      <c r="G57" s="23"/>
-      <c r="H57" s="78"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="78"/>
-      <c r="K57" s="78"/>
-      <c r="L57" s="78"/>
-      <c r="M57" s="78"/>
-      <c r="N57" s="78"/>
-      <c r="O57" s="78"/>
-      <c r="P57" s="78"/>
-      <c r="Q57" s="78"/>
-      <c r="R57" s="78"/>
-      <c r="S57" s="78"/>
-      <c r="T57" s="78"/>
-      <c r="U57" s="78"/>
-      <c r="V57" s="24"/>
-    </row>
-    <row r="58" spans="1:22">
-      <c r="A58" s="65"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="149"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="148"/>
-      <c r="F58" s="150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" s="150"/>
-      <c r="H58" s="151"/>
-      <c r="I58" s="151"/>
-      <c r="J58" s="151"/>
-      <c r="K58" s="151"/>
-      <c r="L58" s="151"/>
-      <c r="M58" s="151"/>
-      <c r="N58" s="151"/>
-      <c r="O58" s="151"/>
-      <c r="P58" s="151"/>
-      <c r="Q58" s="151"/>
-      <c r="R58" s="151"/>
-      <c r="S58" s="151"/>
-      <c r="T58" s="151"/>
-      <c r="U58" s="151"/>
-      <c r="V58" s="163"/>
-    </row>
-    <row r="59" spans="1:22">
-      <c r="A59" s="65"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="149"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="148"/>
-      <c r="F59" s="23" t="s">
-        <v>111</v>
       </c>
       <c r="G59" s="23"/>
       <c r="H59" s="78"/>
-      <c r="I59" s="78"/>
+      <c r="I59" s="78" t="s">
+        <v>160</v>
+      </c>
       <c r="J59" s="78"/>
       <c r="K59" s="78"/>
       <c r="L59" s="78"/>
@@ -6265,118 +6363,124 @@
       <c r="U59" s="78"/>
       <c r="V59" s="24"/>
     </row>
-    <row r="60" ht="14.25" spans="1:22">
-      <c r="A60" s="66"/>
-      <c r="B60" s="54"/>
+    <row r="60" spans="1:22">
+      <c r="A60" s="65"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="149"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="152"/>
-      <c r="F60" s="153" t="s">
+      <c r="D60" s="21"/>
+      <c r="E60" s="148"/>
+      <c r="F60" s="150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" s="150"/>
+      <c r="H60" s="151"/>
+      <c r="I60" s="151" t="s">
+        <v>161</v>
+      </c>
+      <c r="J60" s="151"/>
+      <c r="K60" s="151"/>
+      <c r="L60" s="151"/>
+      <c r="M60" s="151"/>
+      <c r="N60" s="151"/>
+      <c r="O60" s="151"/>
+      <c r="P60" s="151"/>
+      <c r="Q60" s="151"/>
+      <c r="R60" s="151"/>
+      <c r="S60" s="151"/>
+      <c r="T60" s="151"/>
+      <c r="U60" s="151"/>
+      <c r="V60" s="163"/>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="A61" s="65"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="149"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="148"/>
+      <c r="F61" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G61" s="23"/>
+      <c r="H61" s="78"/>
+      <c r="I61" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="J61" s="78"/>
+      <c r="K61" s="78"/>
+      <c r="L61" s="78"/>
+      <c r="M61" s="78"/>
+      <c r="N61" s="78"/>
+      <c r="O61" s="78"/>
+      <c r="P61" s="78"/>
+      <c r="Q61" s="78"/>
+      <c r="R61" s="78"/>
+      <c r="S61" s="78"/>
+      <c r="T61" s="78"/>
+      <c r="U61" s="78"/>
+      <c r="V61" s="24"/>
+    </row>
+    <row r="62" ht="14.25" spans="1:22">
+      <c r="A62" s="66"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="149"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="152"/>
+      <c r="F62" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="G60" s="153"/>
-      <c r="H60" s="154"/>
-      <c r="I60" s="154"/>
-      <c r="J60" s="154"/>
-      <c r="K60" s="154"/>
-      <c r="L60" s="154"/>
-      <c r="M60" s="154"/>
-      <c r="N60" s="154"/>
-      <c r="O60" s="154"/>
-      <c r="P60" s="154"/>
-      <c r="Q60" s="154"/>
-      <c r="R60" s="154"/>
-      <c r="S60" s="154"/>
-      <c r="T60" s="154"/>
-      <c r="U60" s="154"/>
-      <c r="V60" s="164"/>
-    </row>
-    <row r="61" ht="14.25" spans="1:22">
-      <c r="A61" s="103"/>
-      <c r="B61" s="104"/>
-      <c r="C61" s="155"/>
-      <c r="D61" s="104"/>
-      <c r="E61" s="156"/>
-      <c r="F61" s="157" t="s">
+      <c r="G62" s="153"/>
+      <c r="H62" s="154"/>
+      <c r="I62" s="154" t="s">
+        <v>163</v>
+      </c>
+      <c r="J62" s="154"/>
+      <c r="K62" s="154"/>
+      <c r="L62" s="154"/>
+      <c r="M62" s="154"/>
+      <c r="N62" s="154"/>
+      <c r="O62" s="154"/>
+      <c r="P62" s="154"/>
+      <c r="Q62" s="154"/>
+      <c r="R62" s="154"/>
+      <c r="S62" s="154"/>
+      <c r="T62" s="154"/>
+      <c r="U62" s="154"/>
+      <c r="V62" s="164"/>
+    </row>
+    <row r="63" ht="14.25" spans="1:22">
+      <c r="A63" s="103"/>
+      <c r="B63" s="104"/>
+      <c r="C63" s="155"/>
+      <c r="D63" s="104"/>
+      <c r="E63" s="156"/>
+      <c r="F63" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="G61" s="157"/>
-      <c r="H61" s="158"/>
-      <c r="I61" s="158"/>
-      <c r="J61" s="158"/>
-      <c r="K61" s="158"/>
-      <c r="L61" s="158"/>
-      <c r="M61" s="158"/>
-      <c r="N61" s="158"/>
-      <c r="O61" s="158"/>
-      <c r="P61" s="158"/>
-      <c r="Q61" s="158"/>
-      <c r="R61" s="158"/>
-      <c r="S61" s="158"/>
-      <c r="T61" s="158"/>
-      <c r="U61" s="158"/>
-      <c r="V61" s="165"/>
-    </row>
-    <row r="62" spans="1:22">
-      <c r="A62" s="65"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="148"/>
-      <c r="F62" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" s="23"/>
-      <c r="H62" s="78"/>
-      <c r="I62" s="78"/>
-      <c r="J62" s="78"/>
-      <c r="K62" s="78"/>
-      <c r="L62" s="78"/>
-      <c r="M62" s="78"/>
-      <c r="N62" s="78"/>
-      <c r="O62" s="78"/>
-      <c r="P62" s="78"/>
-      <c r="Q62" s="78"/>
-      <c r="R62" s="78"/>
-      <c r="S62" s="78"/>
-      <c r="T62" s="78"/>
-      <c r="U62" s="78"/>
-      <c r="V62" s="24"/>
-    </row>
-    <row r="63" spans="1:22">
-      <c r="A63" s="65"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="149"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="148"/>
-      <c r="F63" s="150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" s="150"/>
-      <c r="H63" s="151"/>
-      <c r="I63" s="151"/>
-      <c r="J63" s="151"/>
-      <c r="K63" s="151"/>
-      <c r="L63" s="151"/>
-      <c r="M63" s="151"/>
-      <c r="N63" s="151"/>
-      <c r="O63" s="151"/>
-      <c r="P63" s="151"/>
-      <c r="Q63" s="151"/>
-      <c r="R63" s="151"/>
-      <c r="S63" s="151"/>
-      <c r="T63" s="151"/>
-      <c r="U63" s="151"/>
-      <c r="V63" s="163"/>
+      <c r="G63" s="157"/>
+      <c r="H63" s="158"/>
+      <c r="I63" s="158"/>
+      <c r="J63" s="158"/>
+      <c r="K63" s="158"/>
+      <c r="L63" s="158"/>
+      <c r="M63" s="158"/>
+      <c r="N63" s="158"/>
+      <c r="O63" s="158"/>
+      <c r="P63" s="158"/>
+      <c r="Q63" s="158"/>
+      <c r="R63" s="158"/>
+      <c r="S63" s="158"/>
+      <c r="T63" s="158"/>
+      <c r="U63" s="158"/>
+      <c r="V63" s="165"/>
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="65"/>
       <c r="B64" s="21"/>
-      <c r="C64" s="149"/>
+      <c r="C64" s="54"/>
       <c r="D64" s="21"/>
       <c r="E64" s="148"/>
       <c r="F64" s="23" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="G64" s="23"/>
       <c r="H64" s="78"/>
@@ -6395,118 +6499,118 @@
       <c r="U64" s="78"/>
       <c r="V64" s="24"/>
     </row>
-    <row r="65" ht="14.25" spans="1:22">
-      <c r="A65" s="66"/>
-      <c r="B65" s="54"/>
+    <row r="65" spans="1:22">
+      <c r="A65" s="65"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="149"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="152"/>
-      <c r="F65" s="153" t="s">
+      <c r="D65" s="21"/>
+      <c r="E65" s="148"/>
+      <c r="F65" s="150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" s="150"/>
+      <c r="H65" s="151"/>
+      <c r="I65" s="151"/>
+      <c r="J65" s="151"/>
+      <c r="K65" s="151"/>
+      <c r="L65" s="151"/>
+      <c r="M65" s="151"/>
+      <c r="N65" s="151"/>
+      <c r="O65" s="151"/>
+      <c r="P65" s="151"/>
+      <c r="Q65" s="151"/>
+      <c r="R65" s="151"/>
+      <c r="S65" s="151"/>
+      <c r="T65" s="151"/>
+      <c r="U65" s="151"/>
+      <c r="V65" s="163"/>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66" s="65"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="149"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="148"/>
+      <c r="F66" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G66" s="23"/>
+      <c r="H66" s="78"/>
+      <c r="I66" s="78"/>
+      <c r="J66" s="78"/>
+      <c r="K66" s="78"/>
+      <c r="L66" s="78"/>
+      <c r="M66" s="78"/>
+      <c r="N66" s="78"/>
+      <c r="O66" s="78"/>
+      <c r="P66" s="78"/>
+      <c r="Q66" s="78"/>
+      <c r="R66" s="78"/>
+      <c r="S66" s="78"/>
+      <c r="T66" s="78"/>
+      <c r="U66" s="78"/>
+      <c r="V66" s="24"/>
+    </row>
+    <row r="67" ht="14.25" spans="1:22">
+      <c r="A67" s="66"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="149"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="152"/>
+      <c r="F67" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="G65" s="153"/>
-      <c r="H65" s="154"/>
-      <c r="I65" s="154"/>
-      <c r="J65" s="154"/>
-      <c r="K65" s="154"/>
-      <c r="L65" s="154"/>
-      <c r="M65" s="154"/>
-      <c r="N65" s="154"/>
-      <c r="O65" s="154"/>
-      <c r="P65" s="154"/>
-      <c r="Q65" s="154"/>
-      <c r="R65" s="154"/>
-      <c r="S65" s="154"/>
-      <c r="T65" s="154"/>
-      <c r="U65" s="154"/>
-      <c r="V65" s="164"/>
-    </row>
-    <row r="66" ht="14.25" spans="1:22">
-      <c r="A66" s="103"/>
-      <c r="B66" s="104"/>
-      <c r="C66" s="155"/>
-      <c r="D66" s="104"/>
-      <c r="E66" s="156"/>
-      <c r="F66" s="157" t="s">
+      <c r="G67" s="153"/>
+      <c r="H67" s="154"/>
+      <c r="I67" s="154"/>
+      <c r="J67" s="154"/>
+      <c r="K67" s="154"/>
+      <c r="L67" s="154"/>
+      <c r="M67" s="154"/>
+      <c r="N67" s="154"/>
+      <c r="O67" s="154"/>
+      <c r="P67" s="154"/>
+      <c r="Q67" s="154"/>
+      <c r="R67" s="154"/>
+      <c r="S67" s="154"/>
+      <c r="T67" s="154"/>
+      <c r="U67" s="154"/>
+      <c r="V67" s="164"/>
+    </row>
+    <row r="68" ht="14.25" spans="1:22">
+      <c r="A68" s="103"/>
+      <c r="B68" s="104"/>
+      <c r="C68" s="155"/>
+      <c r="D68" s="104"/>
+      <c r="E68" s="156"/>
+      <c r="F68" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="G66" s="157"/>
-      <c r="H66" s="158"/>
-      <c r="I66" s="158"/>
-      <c r="J66" s="158"/>
-      <c r="K66" s="158"/>
-      <c r="L66" s="158"/>
-      <c r="M66" s="158"/>
-      <c r="N66" s="158"/>
-      <c r="O66" s="158"/>
-      <c r="P66" s="158"/>
-      <c r="Q66" s="158"/>
-      <c r="R66" s="158"/>
-      <c r="S66" s="158"/>
-      <c r="T66" s="158"/>
-      <c r="U66" s="158"/>
-      <c r="V66" s="165"/>
-    </row>
-    <row r="67" spans="1:22">
-      <c r="A67" s="65"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="148"/>
-      <c r="F67" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" s="23"/>
-      <c r="H67" s="78"/>
-      <c r="I67" s="78"/>
-      <c r="J67" s="78"/>
-      <c r="K67" s="78"/>
-      <c r="L67" s="78"/>
-      <c r="M67" s="78"/>
-      <c r="N67" s="78"/>
-      <c r="O67" s="78"/>
-      <c r="P67" s="78"/>
-      <c r="Q67" s="78"/>
-      <c r="R67" s="78"/>
-      <c r="S67" s="78"/>
-      <c r="T67" s="78"/>
-      <c r="U67" s="78"/>
-      <c r="V67" s="24"/>
-    </row>
-    <row r="68" spans="1:22">
-      <c r="A68" s="65"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="149"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="148"/>
-      <c r="F68" s="150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" s="150"/>
-      <c r="H68" s="151"/>
-      <c r="I68" s="151"/>
-      <c r="J68" s="151"/>
-      <c r="K68" s="151"/>
-      <c r="L68" s="151"/>
-      <c r="M68" s="151"/>
-      <c r="N68" s="151"/>
-      <c r="O68" s="151"/>
-      <c r="P68" s="151"/>
-      <c r="Q68" s="151"/>
-      <c r="R68" s="151"/>
-      <c r="S68" s="151"/>
-      <c r="T68" s="151"/>
-      <c r="U68" s="151"/>
-      <c r="V68" s="163"/>
+      <c r="G68" s="157"/>
+      <c r="H68" s="158"/>
+      <c r="I68" s="158"/>
+      <c r="J68" s="158"/>
+      <c r="K68" s="158"/>
+      <c r="L68" s="158"/>
+      <c r="M68" s="158"/>
+      <c r="N68" s="158"/>
+      <c r="O68" s="158"/>
+      <c r="P68" s="158"/>
+      <c r="Q68" s="158"/>
+      <c r="R68" s="158"/>
+      <c r="S68" s="158"/>
+      <c r="T68" s="158"/>
+      <c r="U68" s="158"/>
+      <c r="V68" s="165"/>
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="65"/>
       <c r="B69" s="21"/>
-      <c r="C69" s="149"/>
+      <c r="C69" s="54"/>
       <c r="D69" s="21"/>
       <c r="E69" s="148"/>
       <c r="F69" s="23" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="G69" s="23"/>
       <c r="H69" s="78"/>
@@ -6525,118 +6629,118 @@
       <c r="U69" s="78"/>
       <c r="V69" s="24"/>
     </row>
-    <row r="70" ht="14.25" spans="1:22">
-      <c r="A70" s="66"/>
-      <c r="B70" s="54"/>
+    <row r="70" spans="1:22">
+      <c r="A70" s="65"/>
+      <c r="B70" s="21"/>
       <c r="C70" s="149"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="152"/>
-      <c r="F70" s="153" t="s">
+      <c r="D70" s="21"/>
+      <c r="E70" s="148"/>
+      <c r="F70" s="150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" s="150"/>
+      <c r="H70" s="151"/>
+      <c r="I70" s="151"/>
+      <c r="J70" s="151"/>
+      <c r="K70" s="151"/>
+      <c r="L70" s="151"/>
+      <c r="M70" s="151"/>
+      <c r="N70" s="151"/>
+      <c r="O70" s="151"/>
+      <c r="P70" s="151"/>
+      <c r="Q70" s="151"/>
+      <c r="R70" s="151"/>
+      <c r="S70" s="151"/>
+      <c r="T70" s="151"/>
+      <c r="U70" s="151"/>
+      <c r="V70" s="163"/>
+    </row>
+    <row r="71" spans="1:22">
+      <c r="A71" s="65"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="149"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="148"/>
+      <c r="F71" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G71" s="23"/>
+      <c r="H71" s="78"/>
+      <c r="I71" s="78"/>
+      <c r="J71" s="78"/>
+      <c r="K71" s="78"/>
+      <c r="L71" s="78"/>
+      <c r="M71" s="78"/>
+      <c r="N71" s="78"/>
+      <c r="O71" s="78"/>
+      <c r="P71" s="78"/>
+      <c r="Q71" s="78"/>
+      <c r="R71" s="78"/>
+      <c r="S71" s="78"/>
+      <c r="T71" s="78"/>
+      <c r="U71" s="78"/>
+      <c r="V71" s="24"/>
+    </row>
+    <row r="72" ht="14.25" spans="1:22">
+      <c r="A72" s="66"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="149"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="152"/>
+      <c r="F72" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="G70" s="153"/>
-      <c r="H70" s="154"/>
-      <c r="I70" s="154"/>
-      <c r="J70" s="154"/>
-      <c r="K70" s="154"/>
-      <c r="L70" s="154"/>
-      <c r="M70" s="154"/>
-      <c r="N70" s="154"/>
-      <c r="O70" s="154"/>
-      <c r="P70" s="154"/>
-      <c r="Q70" s="154"/>
-      <c r="R70" s="154"/>
-      <c r="S70" s="154"/>
-      <c r="T70" s="154"/>
-      <c r="U70" s="154"/>
-      <c r="V70" s="164"/>
-    </row>
-    <row r="71" ht="14.25" spans="1:22">
-      <c r="A71" s="103"/>
-      <c r="B71" s="104"/>
-      <c r="C71" s="155"/>
-      <c r="D71" s="104"/>
-      <c r="E71" s="156"/>
-      <c r="F71" s="157" t="s">
+      <c r="G72" s="153"/>
+      <c r="H72" s="154"/>
+      <c r="I72" s="154"/>
+      <c r="J72" s="154"/>
+      <c r="K72" s="154"/>
+      <c r="L72" s="154"/>
+      <c r="M72" s="154"/>
+      <c r="N72" s="154"/>
+      <c r="O72" s="154"/>
+      <c r="P72" s="154"/>
+      <c r="Q72" s="154"/>
+      <c r="R72" s="154"/>
+      <c r="S72" s="154"/>
+      <c r="T72" s="154"/>
+      <c r="U72" s="154"/>
+      <c r="V72" s="164"/>
+    </row>
+    <row r="73" ht="14.25" spans="1:22">
+      <c r="A73" s="103"/>
+      <c r="B73" s="104"/>
+      <c r="C73" s="155"/>
+      <c r="D73" s="104"/>
+      <c r="E73" s="156"/>
+      <c r="F73" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="G71" s="157"/>
-      <c r="H71" s="158"/>
-      <c r="I71" s="158"/>
-      <c r="J71" s="158"/>
-      <c r="K71" s="158"/>
-      <c r="L71" s="158"/>
-      <c r="M71" s="158"/>
-      <c r="N71" s="158"/>
-      <c r="O71" s="158"/>
-      <c r="P71" s="158"/>
-      <c r="Q71" s="158"/>
-      <c r="R71" s="158"/>
-      <c r="S71" s="158"/>
-      <c r="T71" s="158"/>
-      <c r="U71" s="158"/>
-      <c r="V71" s="165"/>
-    </row>
-    <row r="72" spans="1:22">
-      <c r="A72" s="65"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="148"/>
-      <c r="F72" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" s="23"/>
-      <c r="H72" s="78"/>
-      <c r="I72" s="78"/>
-      <c r="J72" s="78"/>
-      <c r="K72" s="78"/>
-      <c r="L72" s="78"/>
-      <c r="M72" s="78"/>
-      <c r="N72" s="78"/>
-      <c r="O72" s="78"/>
-      <c r="P72" s="78"/>
-      <c r="Q72" s="78"/>
-      <c r="R72" s="78"/>
-      <c r="S72" s="78"/>
-      <c r="T72" s="78"/>
-      <c r="U72" s="78"/>
-      <c r="V72" s="24"/>
-    </row>
-    <row r="73" spans="1:22">
-      <c r="A73" s="65"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="149"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="148"/>
-      <c r="F73" s="150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G73" s="150"/>
-      <c r="H73" s="151"/>
-      <c r="I73" s="151"/>
-      <c r="J73" s="151"/>
-      <c r="K73" s="151"/>
-      <c r="L73" s="151"/>
-      <c r="M73" s="151"/>
-      <c r="N73" s="151"/>
-      <c r="O73" s="151"/>
-      <c r="P73" s="151"/>
-      <c r="Q73" s="151"/>
-      <c r="R73" s="151"/>
-      <c r="S73" s="151"/>
-      <c r="T73" s="151"/>
-      <c r="U73" s="151"/>
-      <c r="V73" s="163"/>
+      <c r="G73" s="157"/>
+      <c r="H73" s="158"/>
+      <c r="I73" s="158"/>
+      <c r="J73" s="158"/>
+      <c r="K73" s="158"/>
+      <c r="L73" s="158"/>
+      <c r="M73" s="158"/>
+      <c r="N73" s="158"/>
+      <c r="O73" s="158"/>
+      <c r="P73" s="158"/>
+      <c r="Q73" s="158"/>
+      <c r="R73" s="158"/>
+      <c r="S73" s="158"/>
+      <c r="T73" s="158"/>
+      <c r="U73" s="158"/>
+      <c r="V73" s="165"/>
     </row>
     <row r="74" spans="1:22">
       <c r="A74" s="65"/>
       <c r="B74" s="21"/>
-      <c r="C74" s="149"/>
+      <c r="C74" s="54"/>
       <c r="D74" s="21"/>
       <c r="E74" s="148"/>
       <c r="F74" s="23" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="G74" s="23"/>
       <c r="H74" s="78"/>
@@ -6655,118 +6759,118 @@
       <c r="U74" s="78"/>
       <c r="V74" s="24"/>
     </row>
-    <row r="75" ht="14.25" spans="1:22">
-      <c r="A75" s="66"/>
-      <c r="B75" s="54"/>
+    <row r="75" spans="1:22">
+      <c r="A75" s="65"/>
+      <c r="B75" s="21"/>
       <c r="C75" s="149"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="152"/>
-      <c r="F75" s="153" t="s">
+      <c r="D75" s="21"/>
+      <c r="E75" s="148"/>
+      <c r="F75" s="150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G75" s="150"/>
+      <c r="H75" s="151"/>
+      <c r="I75" s="151"/>
+      <c r="J75" s="151"/>
+      <c r="K75" s="151"/>
+      <c r="L75" s="151"/>
+      <c r="M75" s="151"/>
+      <c r="N75" s="151"/>
+      <c r="O75" s="151"/>
+      <c r="P75" s="151"/>
+      <c r="Q75" s="151"/>
+      <c r="R75" s="151"/>
+      <c r="S75" s="151"/>
+      <c r="T75" s="151"/>
+      <c r="U75" s="151"/>
+      <c r="V75" s="163"/>
+    </row>
+    <row r="76" spans="1:22">
+      <c r="A76" s="65"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="149"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="148"/>
+      <c r="F76" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G76" s="23"/>
+      <c r="H76" s="78"/>
+      <c r="I76" s="78"/>
+      <c r="J76" s="78"/>
+      <c r="K76" s="78"/>
+      <c r="L76" s="78"/>
+      <c r="M76" s="78"/>
+      <c r="N76" s="78"/>
+      <c r="O76" s="78"/>
+      <c r="P76" s="78"/>
+      <c r="Q76" s="78"/>
+      <c r="R76" s="78"/>
+      <c r="S76" s="78"/>
+      <c r="T76" s="78"/>
+      <c r="U76" s="78"/>
+      <c r="V76" s="24"/>
+    </row>
+    <row r="77" ht="14.25" spans="1:22">
+      <c r="A77" s="66"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="149"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="152"/>
+      <c r="F77" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="G75" s="153"/>
-      <c r="H75" s="154"/>
-      <c r="I75" s="154"/>
-      <c r="J75" s="154"/>
-      <c r="K75" s="154"/>
-      <c r="L75" s="154"/>
-      <c r="M75" s="154"/>
-      <c r="N75" s="154"/>
-      <c r="O75" s="154"/>
-      <c r="P75" s="154"/>
-      <c r="Q75" s="154"/>
-      <c r="R75" s="154"/>
-      <c r="S75" s="154"/>
-      <c r="T75" s="154"/>
-      <c r="U75" s="154"/>
-      <c r="V75" s="164"/>
-    </row>
-    <row r="76" ht="14.25" spans="1:22">
-      <c r="A76" s="103"/>
-      <c r="B76" s="104"/>
-      <c r="C76" s="155"/>
-      <c r="D76" s="104"/>
-      <c r="E76" s="156"/>
-      <c r="F76" s="157" t="s">
+      <c r="G77" s="153"/>
+      <c r="H77" s="154"/>
+      <c r="I77" s="154"/>
+      <c r="J77" s="154"/>
+      <c r="K77" s="154"/>
+      <c r="L77" s="154"/>
+      <c r="M77" s="154"/>
+      <c r="N77" s="154"/>
+      <c r="O77" s="154"/>
+      <c r="P77" s="154"/>
+      <c r="Q77" s="154"/>
+      <c r="R77" s="154"/>
+      <c r="S77" s="154"/>
+      <c r="T77" s="154"/>
+      <c r="U77" s="154"/>
+      <c r="V77" s="164"/>
+    </row>
+    <row r="78" ht="14.25" spans="1:22">
+      <c r="A78" s="103"/>
+      <c r="B78" s="104"/>
+      <c r="C78" s="155"/>
+      <c r="D78" s="104"/>
+      <c r="E78" s="156"/>
+      <c r="F78" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="G76" s="157"/>
-      <c r="H76" s="158"/>
-      <c r="I76" s="158"/>
-      <c r="J76" s="158"/>
-      <c r="K76" s="158"/>
-      <c r="L76" s="158"/>
-      <c r="M76" s="158"/>
-      <c r="N76" s="158"/>
-      <c r="O76" s="158"/>
-      <c r="P76" s="158"/>
-      <c r="Q76" s="158"/>
-      <c r="R76" s="158"/>
-      <c r="S76" s="158"/>
-      <c r="T76" s="158"/>
-      <c r="U76" s="158"/>
-      <c r="V76" s="165"/>
-    </row>
-    <row r="77" spans="1:22">
-      <c r="A77" s="65"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="54"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="148"/>
-      <c r="F77" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" s="23"/>
-      <c r="H77" s="78"/>
-      <c r="I77" s="78"/>
-      <c r="J77" s="78"/>
-      <c r="K77" s="78"/>
-      <c r="L77" s="78"/>
-      <c r="M77" s="78"/>
-      <c r="N77" s="78"/>
-      <c r="O77" s="78"/>
-      <c r="P77" s="78"/>
-      <c r="Q77" s="78"/>
-      <c r="R77" s="78"/>
-      <c r="S77" s="78"/>
-      <c r="T77" s="78"/>
-      <c r="U77" s="78"/>
-      <c r="V77" s="24"/>
-    </row>
-    <row r="78" spans="1:22">
-      <c r="A78" s="65"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="149"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="148"/>
-      <c r="F78" s="150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G78" s="150"/>
-      <c r="H78" s="151"/>
-      <c r="I78" s="151"/>
-      <c r="J78" s="151"/>
-      <c r="K78" s="151"/>
-      <c r="L78" s="151"/>
-      <c r="M78" s="151"/>
-      <c r="N78" s="151"/>
-      <c r="O78" s="151"/>
-      <c r="P78" s="151"/>
-      <c r="Q78" s="151"/>
-      <c r="R78" s="151"/>
-      <c r="S78" s="151"/>
-      <c r="T78" s="151"/>
-      <c r="U78" s="151"/>
-      <c r="V78" s="163"/>
+      <c r="G78" s="157"/>
+      <c r="H78" s="158"/>
+      <c r="I78" s="158"/>
+      <c r="J78" s="158"/>
+      <c r="K78" s="158"/>
+      <c r="L78" s="158"/>
+      <c r="M78" s="158"/>
+      <c r="N78" s="158"/>
+      <c r="O78" s="158"/>
+      <c r="P78" s="158"/>
+      <c r="Q78" s="158"/>
+      <c r="R78" s="158"/>
+      <c r="S78" s="158"/>
+      <c r="T78" s="158"/>
+      <c r="U78" s="158"/>
+      <c r="V78" s="165"/>
     </row>
     <row r="79" spans="1:22">
       <c r="A79" s="65"/>
       <c r="B79" s="21"/>
-      <c r="C79" s="149"/>
+      <c r="C79" s="54"/>
       <c r="D79" s="21"/>
       <c r="E79" s="148"/>
       <c r="F79" s="23" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="G79" s="23"/>
       <c r="H79" s="78"/>
@@ -6785,118 +6889,118 @@
       <c r="U79" s="78"/>
       <c r="V79" s="24"/>
     </row>
-    <row r="80" ht="14.25" spans="1:22">
-      <c r="A80" s="66"/>
-      <c r="B80" s="54"/>
+    <row r="80" spans="1:22">
+      <c r="A80" s="65"/>
+      <c r="B80" s="21"/>
       <c r="C80" s="149"/>
-      <c r="D80" s="54"/>
-      <c r="E80" s="152"/>
-      <c r="F80" s="153" t="s">
+      <c r="D80" s="21"/>
+      <c r="E80" s="148"/>
+      <c r="F80" s="150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G80" s="150"/>
+      <c r="H80" s="151"/>
+      <c r="I80" s="151"/>
+      <c r="J80" s="151"/>
+      <c r="K80" s="151"/>
+      <c r="L80" s="151"/>
+      <c r="M80" s="151"/>
+      <c r="N80" s="151"/>
+      <c r="O80" s="151"/>
+      <c r="P80" s="151"/>
+      <c r="Q80" s="151"/>
+      <c r="R80" s="151"/>
+      <c r="S80" s="151"/>
+      <c r="T80" s="151"/>
+      <c r="U80" s="151"/>
+      <c r="V80" s="163"/>
+    </row>
+    <row r="81" spans="1:22">
+      <c r="A81" s="65"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="149"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="148"/>
+      <c r="F81" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G81" s="23"/>
+      <c r="H81" s="78"/>
+      <c r="I81" s="78"/>
+      <c r="J81" s="78"/>
+      <c r="K81" s="78"/>
+      <c r="L81" s="78"/>
+      <c r="M81" s="78"/>
+      <c r="N81" s="78"/>
+      <c r="O81" s="78"/>
+      <c r="P81" s="78"/>
+      <c r="Q81" s="78"/>
+      <c r="R81" s="78"/>
+      <c r="S81" s="78"/>
+      <c r="T81" s="78"/>
+      <c r="U81" s="78"/>
+      <c r="V81" s="24"/>
+    </row>
+    <row r="82" ht="14.25" spans="1:22">
+      <c r="A82" s="66"/>
+      <c r="B82" s="54"/>
+      <c r="C82" s="149"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="152"/>
+      <c r="F82" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="G80" s="153"/>
-      <c r="H80" s="154"/>
-      <c r="I80" s="154"/>
-      <c r="J80" s="154"/>
-      <c r="K80" s="154"/>
-      <c r="L80" s="154"/>
-      <c r="M80" s="154"/>
-      <c r="N80" s="154"/>
-      <c r="O80" s="154"/>
-      <c r="P80" s="154"/>
-      <c r="Q80" s="154"/>
-      <c r="R80" s="154"/>
-      <c r="S80" s="154"/>
-      <c r="T80" s="154"/>
-      <c r="U80" s="154"/>
-      <c r="V80" s="164"/>
-    </row>
-    <row r="81" ht="14.25" spans="1:22">
-      <c r="A81" s="103"/>
-      <c r="B81" s="104"/>
-      <c r="C81" s="155"/>
-      <c r="D81" s="104"/>
-      <c r="E81" s="156"/>
-      <c r="F81" s="157" t="s">
+      <c r="G82" s="153"/>
+      <c r="H82" s="154"/>
+      <c r="I82" s="154"/>
+      <c r="J82" s="154"/>
+      <c r="K82" s="154"/>
+      <c r="L82" s="154"/>
+      <c r="M82" s="154"/>
+      <c r="N82" s="154"/>
+      <c r="O82" s="154"/>
+      <c r="P82" s="154"/>
+      <c r="Q82" s="154"/>
+      <c r="R82" s="154"/>
+      <c r="S82" s="154"/>
+      <c r="T82" s="154"/>
+      <c r="U82" s="154"/>
+      <c r="V82" s="164"/>
+    </row>
+    <row r="83" ht="14.25" spans="1:22">
+      <c r="A83" s="103"/>
+      <c r="B83" s="104"/>
+      <c r="C83" s="155"/>
+      <c r="D83" s="104"/>
+      <c r="E83" s="156"/>
+      <c r="F83" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="G81" s="157"/>
-      <c r="H81" s="158"/>
-      <c r="I81" s="158"/>
-      <c r="J81" s="158"/>
-      <c r="K81" s="158"/>
-      <c r="L81" s="158"/>
-      <c r="M81" s="158"/>
-      <c r="N81" s="158"/>
-      <c r="O81" s="158"/>
-      <c r="P81" s="158"/>
-      <c r="Q81" s="158"/>
-      <c r="R81" s="158"/>
-      <c r="S81" s="158"/>
-      <c r="T81" s="158"/>
-      <c r="U81" s="158"/>
-      <c r="V81" s="165"/>
-    </row>
-    <row r="82" spans="1:22">
-      <c r="A82" s="65"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="54"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="148"/>
-      <c r="F82" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" s="23"/>
-      <c r="H82" s="78"/>
-      <c r="I82" s="78"/>
-      <c r="J82" s="78"/>
-      <c r="K82" s="78"/>
-      <c r="L82" s="78"/>
-      <c r="M82" s="78"/>
-      <c r="N82" s="78"/>
-      <c r="O82" s="78"/>
-      <c r="P82" s="78"/>
-      <c r="Q82" s="78"/>
-      <c r="R82" s="78"/>
-      <c r="S82" s="78"/>
-      <c r="T82" s="78"/>
-      <c r="U82" s="78"/>
-      <c r="V82" s="24"/>
-    </row>
-    <row r="83" spans="1:22">
-      <c r="A83" s="65"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="149"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="148"/>
-      <c r="F83" s="150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G83" s="150"/>
-      <c r="H83" s="151"/>
-      <c r="I83" s="151"/>
-      <c r="J83" s="151"/>
-      <c r="K83" s="151"/>
-      <c r="L83" s="151"/>
-      <c r="M83" s="151"/>
-      <c r="N83" s="151"/>
-      <c r="O83" s="151"/>
-      <c r="P83" s="151"/>
-      <c r="Q83" s="151"/>
-      <c r="R83" s="151"/>
-      <c r="S83" s="151"/>
-      <c r="T83" s="151"/>
-      <c r="U83" s="151"/>
-      <c r="V83" s="163"/>
+      <c r="G83" s="157"/>
+      <c r="H83" s="158"/>
+      <c r="I83" s="158"/>
+      <c r="J83" s="158"/>
+      <c r="K83" s="158"/>
+      <c r="L83" s="158"/>
+      <c r="M83" s="158"/>
+      <c r="N83" s="158"/>
+      <c r="O83" s="158"/>
+      <c r="P83" s="158"/>
+      <c r="Q83" s="158"/>
+      <c r="R83" s="158"/>
+      <c r="S83" s="158"/>
+      <c r="T83" s="158"/>
+      <c r="U83" s="158"/>
+      <c r="V83" s="165"/>
     </row>
     <row r="84" spans="1:22">
       <c r="A84" s="65"/>
       <c r="B84" s="21"/>
-      <c r="C84" s="149"/>
+      <c r="C84" s="54"/>
       <c r="D84" s="21"/>
       <c r="E84" s="148"/>
       <c r="F84" s="23" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="G84" s="23"/>
       <c r="H84" s="78"/>
@@ -6915,118 +7019,118 @@
       <c r="U84" s="78"/>
       <c r="V84" s="24"/>
     </row>
-    <row r="85" ht="14.25" spans="1:22">
-      <c r="A85" s="66"/>
-      <c r="B85" s="54"/>
+    <row r="85" spans="1:22">
+      <c r="A85" s="65"/>
+      <c r="B85" s="21"/>
       <c r="C85" s="149"/>
-      <c r="D85" s="54"/>
-      <c r="E85" s="152"/>
-      <c r="F85" s="153" t="s">
+      <c r="D85" s="21"/>
+      <c r="E85" s="148"/>
+      <c r="F85" s="150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G85" s="150"/>
+      <c r="H85" s="151"/>
+      <c r="I85" s="151"/>
+      <c r="J85" s="151"/>
+      <c r="K85" s="151"/>
+      <c r="L85" s="151"/>
+      <c r="M85" s="151"/>
+      <c r="N85" s="151"/>
+      <c r="O85" s="151"/>
+      <c r="P85" s="151"/>
+      <c r="Q85" s="151"/>
+      <c r="R85" s="151"/>
+      <c r="S85" s="151"/>
+      <c r="T85" s="151"/>
+      <c r="U85" s="151"/>
+      <c r="V85" s="163"/>
+    </row>
+    <row r="86" spans="1:22">
+      <c r="A86" s="65"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="149"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="148"/>
+      <c r="F86" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G86" s="23"/>
+      <c r="H86" s="78"/>
+      <c r="I86" s="78"/>
+      <c r="J86" s="78"/>
+      <c r="K86" s="78"/>
+      <c r="L86" s="78"/>
+      <c r="M86" s="78"/>
+      <c r="N86" s="78"/>
+      <c r="O86" s="78"/>
+      <c r="P86" s="78"/>
+      <c r="Q86" s="78"/>
+      <c r="R86" s="78"/>
+      <c r="S86" s="78"/>
+      <c r="T86" s="78"/>
+      <c r="U86" s="78"/>
+      <c r="V86" s="24"/>
+    </row>
+    <row r="87" ht="14.25" spans="1:22">
+      <c r="A87" s="66"/>
+      <c r="B87" s="54"/>
+      <c r="C87" s="149"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="152"/>
+      <c r="F87" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="G85" s="153"/>
-      <c r="H85" s="154"/>
-      <c r="I85" s="154"/>
-      <c r="J85" s="154"/>
-      <c r="K85" s="154"/>
-      <c r="L85" s="154"/>
-      <c r="M85" s="154"/>
-      <c r="N85" s="154"/>
-      <c r="O85" s="154"/>
-      <c r="P85" s="154"/>
-      <c r="Q85" s="154"/>
-      <c r="R85" s="154"/>
-      <c r="S85" s="154"/>
-      <c r="T85" s="154"/>
-      <c r="U85" s="154"/>
-      <c r="V85" s="164"/>
-    </row>
-    <row r="86" ht="14.25" spans="1:22">
-      <c r="A86" s="103"/>
-      <c r="B86" s="104"/>
-      <c r="C86" s="155"/>
-      <c r="D86" s="104"/>
-      <c r="E86" s="156"/>
-      <c r="F86" s="157" t="s">
+      <c r="G87" s="153"/>
+      <c r="H87" s="154"/>
+      <c r="I87" s="154"/>
+      <c r="J87" s="154"/>
+      <c r="K87" s="154"/>
+      <c r="L87" s="154"/>
+      <c r="M87" s="154"/>
+      <c r="N87" s="154"/>
+      <c r="O87" s="154"/>
+      <c r="P87" s="154"/>
+      <c r="Q87" s="154"/>
+      <c r="R87" s="154"/>
+      <c r="S87" s="154"/>
+      <c r="T87" s="154"/>
+      <c r="U87" s="154"/>
+      <c r="V87" s="164"/>
+    </row>
+    <row r="88" ht="14.25" spans="1:22">
+      <c r="A88" s="103"/>
+      <c r="B88" s="104"/>
+      <c r="C88" s="155"/>
+      <c r="D88" s="104"/>
+      <c r="E88" s="156"/>
+      <c r="F88" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="G86" s="157"/>
-      <c r="H86" s="158"/>
-      <c r="I86" s="158"/>
-      <c r="J86" s="158"/>
-      <c r="K86" s="158"/>
-      <c r="L86" s="158"/>
-      <c r="M86" s="158"/>
-      <c r="N86" s="158"/>
-      <c r="O86" s="158"/>
-      <c r="P86" s="158"/>
-      <c r="Q86" s="158"/>
-      <c r="R86" s="158"/>
-      <c r="S86" s="158"/>
-      <c r="T86" s="158"/>
-      <c r="U86" s="158"/>
-      <c r="V86" s="165"/>
-    </row>
-    <row r="87" spans="1:22">
-      <c r="A87" s="65"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="54"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="148"/>
-      <c r="F87" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" s="23"/>
-      <c r="H87" s="78"/>
-      <c r="I87" s="78"/>
-      <c r="J87" s="78"/>
-      <c r="K87" s="78"/>
-      <c r="L87" s="78"/>
-      <c r="M87" s="78"/>
-      <c r="N87" s="78"/>
-      <c r="O87" s="78"/>
-      <c r="P87" s="78"/>
-      <c r="Q87" s="78"/>
-      <c r="R87" s="78"/>
-      <c r="S87" s="78"/>
-      <c r="T87" s="78"/>
-      <c r="U87" s="78"/>
-      <c r="V87" s="24"/>
-    </row>
-    <row r="88" spans="1:22">
-      <c r="A88" s="65"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="149"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="148"/>
-      <c r="F88" s="150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G88" s="150"/>
-      <c r="H88" s="151"/>
-      <c r="I88" s="151"/>
-      <c r="J88" s="151"/>
-      <c r="K88" s="151"/>
-      <c r="L88" s="151"/>
-      <c r="M88" s="151"/>
-      <c r="N88" s="151"/>
-      <c r="O88" s="151"/>
-      <c r="P88" s="151"/>
-      <c r="Q88" s="151"/>
-      <c r="R88" s="151"/>
-      <c r="S88" s="151"/>
-      <c r="T88" s="151"/>
-      <c r="U88" s="151"/>
-      <c r="V88" s="163"/>
+      <c r="G88" s="157"/>
+      <c r="H88" s="158"/>
+      <c r="I88" s="158"/>
+      <c r="J88" s="158"/>
+      <c r="K88" s="158"/>
+      <c r="L88" s="158"/>
+      <c r="M88" s="158"/>
+      <c r="N88" s="158"/>
+      <c r="O88" s="158"/>
+      <c r="P88" s="158"/>
+      <c r="Q88" s="158"/>
+      <c r="R88" s="158"/>
+      <c r="S88" s="158"/>
+      <c r="T88" s="158"/>
+      <c r="U88" s="158"/>
+      <c r="V88" s="165"/>
     </row>
     <row r="89" spans="1:22">
       <c r="A89" s="65"/>
       <c r="B89" s="21"/>
-      <c r="C89" s="149"/>
+      <c r="C89" s="54"/>
       <c r="D89" s="21"/>
       <c r="E89" s="148"/>
       <c r="F89" s="23" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="G89" s="23"/>
       <c r="H89" s="78"/>
@@ -7045,118 +7149,118 @@
       <c r="U89" s="78"/>
       <c r="V89" s="24"/>
     </row>
-    <row r="90" ht="14.25" spans="1:22">
-      <c r="A90" s="66"/>
-      <c r="B90" s="54"/>
+    <row r="90" spans="1:22">
+      <c r="A90" s="65"/>
+      <c r="B90" s="21"/>
       <c r="C90" s="149"/>
-      <c r="D90" s="54"/>
-      <c r="E90" s="152"/>
-      <c r="F90" s="153" t="s">
+      <c r="D90" s="21"/>
+      <c r="E90" s="148"/>
+      <c r="F90" s="150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G90" s="150"/>
+      <c r="H90" s="151"/>
+      <c r="I90" s="151"/>
+      <c r="J90" s="151"/>
+      <c r="K90" s="151"/>
+      <c r="L90" s="151"/>
+      <c r="M90" s="151"/>
+      <c r="N90" s="151"/>
+      <c r="O90" s="151"/>
+      <c r="P90" s="151"/>
+      <c r="Q90" s="151"/>
+      <c r="R90" s="151"/>
+      <c r="S90" s="151"/>
+      <c r="T90" s="151"/>
+      <c r="U90" s="151"/>
+      <c r="V90" s="163"/>
+    </row>
+    <row r="91" spans="1:22">
+      <c r="A91" s="65"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="149"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="148"/>
+      <c r="F91" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G91" s="23"/>
+      <c r="H91" s="78"/>
+      <c r="I91" s="78"/>
+      <c r="J91" s="78"/>
+      <c r="K91" s="78"/>
+      <c r="L91" s="78"/>
+      <c r="M91" s="78"/>
+      <c r="N91" s="78"/>
+      <c r="O91" s="78"/>
+      <c r="P91" s="78"/>
+      <c r="Q91" s="78"/>
+      <c r="R91" s="78"/>
+      <c r="S91" s="78"/>
+      <c r="T91" s="78"/>
+      <c r="U91" s="78"/>
+      <c r="V91" s="24"/>
+    </row>
+    <row r="92" ht="14.25" spans="1:22">
+      <c r="A92" s="66"/>
+      <c r="B92" s="54"/>
+      <c r="C92" s="149"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="152"/>
+      <c r="F92" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="G90" s="153"/>
-      <c r="H90" s="154"/>
-      <c r="I90" s="154"/>
-      <c r="J90" s="154"/>
-      <c r="K90" s="154"/>
-      <c r="L90" s="154"/>
-      <c r="M90" s="154"/>
-      <c r="N90" s="154"/>
-      <c r="O90" s="154"/>
-      <c r="P90" s="154"/>
-      <c r="Q90" s="154"/>
-      <c r="R90" s="154"/>
-      <c r="S90" s="154"/>
-      <c r="T90" s="154"/>
-      <c r="U90" s="154"/>
-      <c r="V90" s="164"/>
-    </row>
-    <row r="91" ht="14.25" spans="1:22">
-      <c r="A91" s="103"/>
-      <c r="B91" s="104"/>
-      <c r="C91" s="155"/>
-      <c r="D91" s="104"/>
-      <c r="E91" s="156"/>
-      <c r="F91" s="157" t="s">
+      <c r="G92" s="153"/>
+      <c r="H92" s="154"/>
+      <c r="I92" s="154"/>
+      <c r="J92" s="154"/>
+      <c r="K92" s="154"/>
+      <c r="L92" s="154"/>
+      <c r="M92" s="154"/>
+      <c r="N92" s="154"/>
+      <c r="O92" s="154"/>
+      <c r="P92" s="154"/>
+      <c r="Q92" s="154"/>
+      <c r="R92" s="154"/>
+      <c r="S92" s="154"/>
+      <c r="T92" s="154"/>
+      <c r="U92" s="154"/>
+      <c r="V92" s="164"/>
+    </row>
+    <row r="93" ht="14.25" spans="1:22">
+      <c r="A93" s="103"/>
+      <c r="B93" s="104"/>
+      <c r="C93" s="155"/>
+      <c r="D93" s="104"/>
+      <c r="E93" s="156"/>
+      <c r="F93" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="G91" s="157"/>
-      <c r="H91" s="158"/>
-      <c r="I91" s="158"/>
-      <c r="J91" s="158"/>
-      <c r="K91" s="158"/>
-      <c r="L91" s="158"/>
-      <c r="M91" s="158"/>
-      <c r="N91" s="158"/>
-      <c r="O91" s="158"/>
-      <c r="P91" s="158"/>
-      <c r="Q91" s="158"/>
-      <c r="R91" s="158"/>
-      <c r="S91" s="158"/>
-      <c r="T91" s="158"/>
-      <c r="U91" s="158"/>
-      <c r="V91" s="165"/>
-    </row>
-    <row r="92" spans="1:22">
-      <c r="A92" s="65"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="54"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="148"/>
-      <c r="F92" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" s="23"/>
-      <c r="H92" s="78"/>
-      <c r="I92" s="78"/>
-      <c r="J92" s="78"/>
-      <c r="K92" s="78"/>
-      <c r="L92" s="78"/>
-      <c r="M92" s="78"/>
-      <c r="N92" s="78"/>
-      <c r="O92" s="78"/>
-      <c r="P92" s="78"/>
-      <c r="Q92" s="78"/>
-      <c r="R92" s="78"/>
-      <c r="S92" s="78"/>
-      <c r="T92" s="78"/>
-      <c r="U92" s="78"/>
-      <c r="V92" s="24"/>
-    </row>
-    <row r="93" spans="1:22">
-      <c r="A93" s="65"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="149"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="148"/>
-      <c r="F93" s="150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G93" s="150"/>
-      <c r="H93" s="151"/>
-      <c r="I93" s="151"/>
-      <c r="J93" s="151"/>
-      <c r="K93" s="151"/>
-      <c r="L93" s="151"/>
-      <c r="M93" s="151"/>
-      <c r="N93" s="151"/>
-      <c r="O93" s="151"/>
-      <c r="P93" s="151"/>
-      <c r="Q93" s="151"/>
-      <c r="R93" s="151"/>
-      <c r="S93" s="151"/>
-      <c r="T93" s="151"/>
-      <c r="U93" s="151"/>
-      <c r="V93" s="163"/>
+      <c r="G93" s="157"/>
+      <c r="H93" s="158"/>
+      <c r="I93" s="158"/>
+      <c r="J93" s="158"/>
+      <c r="K93" s="158"/>
+      <c r="L93" s="158"/>
+      <c r="M93" s="158"/>
+      <c r="N93" s="158"/>
+      <c r="O93" s="158"/>
+      <c r="P93" s="158"/>
+      <c r="Q93" s="158"/>
+      <c r="R93" s="158"/>
+      <c r="S93" s="158"/>
+      <c r="T93" s="158"/>
+      <c r="U93" s="158"/>
+      <c r="V93" s="165"/>
     </row>
     <row r="94" spans="1:22">
       <c r="A94" s="65"/>
       <c r="B94" s="21"/>
-      <c r="C94" s="149"/>
+      <c r="C94" s="54"/>
       <c r="D94" s="21"/>
       <c r="E94" s="148"/>
       <c r="F94" s="23" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="G94" s="23"/>
       <c r="H94" s="78"/>
@@ -7175,118 +7279,118 @@
       <c r="U94" s="78"/>
       <c r="V94" s="24"/>
     </row>
-    <row r="95" ht="14.25" spans="1:22">
-      <c r="A95" s="66"/>
-      <c r="B95" s="54"/>
+    <row r="95" spans="1:22">
+      <c r="A95" s="65"/>
+      <c r="B95" s="21"/>
       <c r="C95" s="149"/>
-      <c r="D95" s="54"/>
-      <c r="E95" s="152"/>
-      <c r="F95" s="153" t="s">
+      <c r="D95" s="21"/>
+      <c r="E95" s="148"/>
+      <c r="F95" s="150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G95" s="150"/>
+      <c r="H95" s="151"/>
+      <c r="I95" s="151"/>
+      <c r="J95" s="151"/>
+      <c r="K95" s="151"/>
+      <c r="L95" s="151"/>
+      <c r="M95" s="151"/>
+      <c r="N95" s="151"/>
+      <c r="O95" s="151"/>
+      <c r="P95" s="151"/>
+      <c r="Q95" s="151"/>
+      <c r="R95" s="151"/>
+      <c r="S95" s="151"/>
+      <c r="T95" s="151"/>
+      <c r="U95" s="151"/>
+      <c r="V95" s="163"/>
+    </row>
+    <row r="96" spans="1:22">
+      <c r="A96" s="65"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="149"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="148"/>
+      <c r="F96" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G96" s="23"/>
+      <c r="H96" s="78"/>
+      <c r="I96" s="78"/>
+      <c r="J96" s="78"/>
+      <c r="K96" s="78"/>
+      <c r="L96" s="78"/>
+      <c r="M96" s="78"/>
+      <c r="N96" s="78"/>
+      <c r="O96" s="78"/>
+      <c r="P96" s="78"/>
+      <c r="Q96" s="78"/>
+      <c r="R96" s="78"/>
+      <c r="S96" s="78"/>
+      <c r="T96" s="78"/>
+      <c r="U96" s="78"/>
+      <c r="V96" s="24"/>
+    </row>
+    <row r="97" ht="14.25" spans="1:22">
+      <c r="A97" s="66"/>
+      <c r="B97" s="54"/>
+      <c r="C97" s="149"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="152"/>
+      <c r="F97" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="G95" s="153"/>
-      <c r="H95" s="154"/>
-      <c r="I95" s="154"/>
-      <c r="J95" s="154"/>
-      <c r="K95" s="154"/>
-      <c r="L95" s="154"/>
-      <c r="M95" s="154"/>
-      <c r="N95" s="154"/>
-      <c r="O95" s="154"/>
-      <c r="P95" s="154"/>
-      <c r="Q95" s="154"/>
-      <c r="R95" s="154"/>
-      <c r="S95" s="154"/>
-      <c r="T95" s="154"/>
-      <c r="U95" s="154"/>
-      <c r="V95" s="164"/>
-    </row>
-    <row r="96" ht="14.25" spans="1:22">
-      <c r="A96" s="103"/>
-      <c r="B96" s="104"/>
-      <c r="C96" s="155"/>
-      <c r="D96" s="104"/>
-      <c r="E96" s="156"/>
-      <c r="F96" s="157" t="s">
+      <c r="G97" s="153"/>
+      <c r="H97" s="154"/>
+      <c r="I97" s="154"/>
+      <c r="J97" s="154"/>
+      <c r="K97" s="154"/>
+      <c r="L97" s="154"/>
+      <c r="M97" s="154"/>
+      <c r="N97" s="154"/>
+      <c r="O97" s="154"/>
+      <c r="P97" s="154"/>
+      <c r="Q97" s="154"/>
+      <c r="R97" s="154"/>
+      <c r="S97" s="154"/>
+      <c r="T97" s="154"/>
+      <c r="U97" s="154"/>
+      <c r="V97" s="164"/>
+    </row>
+    <row r="98" ht="14.25" spans="1:22">
+      <c r="A98" s="103"/>
+      <c r="B98" s="104"/>
+      <c r="C98" s="155"/>
+      <c r="D98" s="104"/>
+      <c r="E98" s="156"/>
+      <c r="F98" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="G96" s="157"/>
-      <c r="H96" s="158"/>
-      <c r="I96" s="158"/>
-      <c r="J96" s="158"/>
-      <c r="K96" s="158"/>
-      <c r="L96" s="158"/>
-      <c r="M96" s="158"/>
-      <c r="N96" s="158"/>
-      <c r="O96" s="158"/>
-      <c r="P96" s="158"/>
-      <c r="Q96" s="158"/>
-      <c r="R96" s="158"/>
-      <c r="S96" s="158"/>
-      <c r="T96" s="158"/>
-      <c r="U96" s="158"/>
-      <c r="V96" s="165"/>
-    </row>
-    <row r="97" spans="1:22">
-      <c r="A97" s="65"/>
-      <c r="B97" s="21"/>
-      <c r="C97" s="54"/>
-      <c r="D97" s="21"/>
-      <c r="E97" s="148"/>
-      <c r="F97" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" s="23"/>
-      <c r="H97" s="78"/>
-      <c r="I97" s="78"/>
-      <c r="J97" s="78"/>
-      <c r="K97" s="78"/>
-      <c r="L97" s="78"/>
-      <c r="M97" s="78"/>
-      <c r="N97" s="78"/>
-      <c r="O97" s="78"/>
-      <c r="P97" s="78"/>
-      <c r="Q97" s="78"/>
-      <c r="R97" s="78"/>
-      <c r="S97" s="78"/>
-      <c r="T97" s="78"/>
-      <c r="U97" s="78"/>
-      <c r="V97" s="24"/>
-    </row>
-    <row r="98" spans="1:22">
-      <c r="A98" s="65"/>
-      <c r="B98" s="21"/>
-      <c r="C98" s="149"/>
-      <c r="D98" s="21"/>
-      <c r="E98" s="148"/>
-      <c r="F98" s="150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G98" s="150"/>
-      <c r="H98" s="151"/>
-      <c r="I98" s="151"/>
-      <c r="J98" s="151"/>
-      <c r="K98" s="151"/>
-      <c r="L98" s="151"/>
-      <c r="M98" s="151"/>
-      <c r="N98" s="151"/>
-      <c r="O98" s="151"/>
-      <c r="P98" s="151"/>
-      <c r="Q98" s="151"/>
-      <c r="R98" s="151"/>
-      <c r="S98" s="151"/>
-      <c r="T98" s="151"/>
-      <c r="U98" s="151"/>
-      <c r="V98" s="163"/>
+      <c r="G98" s="157"/>
+      <c r="H98" s="158"/>
+      <c r="I98" s="158"/>
+      <c r="J98" s="158"/>
+      <c r="K98" s="158"/>
+      <c r="L98" s="158"/>
+      <c r="M98" s="158"/>
+      <c r="N98" s="158"/>
+      <c r="O98" s="158"/>
+      <c r="P98" s="158"/>
+      <c r="Q98" s="158"/>
+      <c r="R98" s="158"/>
+      <c r="S98" s="158"/>
+      <c r="T98" s="158"/>
+      <c r="U98" s="158"/>
+      <c r="V98" s="165"/>
     </row>
     <row r="99" spans="1:22">
       <c r="A99" s="65"/>
       <c r="B99" s="21"/>
-      <c r="C99" s="149"/>
+      <c r="C99" s="54"/>
       <c r="D99" s="21"/>
       <c r="E99" s="148"/>
       <c r="F99" s="23" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="G99" s="23"/>
       <c r="H99" s="78"/>
@@ -7305,118 +7409,118 @@
       <c r="U99" s="78"/>
       <c r="V99" s="24"/>
     </row>
-    <row r="100" ht="14.25" spans="1:22">
-      <c r="A100" s="66"/>
-      <c r="B100" s="54"/>
+    <row r="100" spans="1:22">
+      <c r="A100" s="65"/>
+      <c r="B100" s="21"/>
       <c r="C100" s="149"/>
-      <c r="D100" s="54"/>
-      <c r="E100" s="152"/>
-      <c r="F100" s="153" t="s">
+      <c r="D100" s="21"/>
+      <c r="E100" s="148"/>
+      <c r="F100" s="150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G100" s="150"/>
+      <c r="H100" s="151"/>
+      <c r="I100" s="151"/>
+      <c r="J100" s="151"/>
+      <c r="K100" s="151"/>
+      <c r="L100" s="151"/>
+      <c r="M100" s="151"/>
+      <c r="N100" s="151"/>
+      <c r="O100" s="151"/>
+      <c r="P100" s="151"/>
+      <c r="Q100" s="151"/>
+      <c r="R100" s="151"/>
+      <c r="S100" s="151"/>
+      <c r="T100" s="151"/>
+      <c r="U100" s="151"/>
+      <c r="V100" s="163"/>
+    </row>
+    <row r="101" spans="1:22">
+      <c r="A101" s="65"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="149"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="148"/>
+      <c r="F101" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G101" s="23"/>
+      <c r="H101" s="78"/>
+      <c r="I101" s="78"/>
+      <c r="J101" s="78"/>
+      <c r="K101" s="78"/>
+      <c r="L101" s="78"/>
+      <c r="M101" s="78"/>
+      <c r="N101" s="78"/>
+      <c r="O101" s="78"/>
+      <c r="P101" s="78"/>
+      <c r="Q101" s="78"/>
+      <c r="R101" s="78"/>
+      <c r="S101" s="78"/>
+      <c r="T101" s="78"/>
+      <c r="U101" s="78"/>
+      <c r="V101" s="24"/>
+    </row>
+    <row r="102" ht="14.25" spans="1:22">
+      <c r="A102" s="66"/>
+      <c r="B102" s="54"/>
+      <c r="C102" s="149"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="152"/>
+      <c r="F102" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="G100" s="153"/>
-      <c r="H100" s="154"/>
-      <c r="I100" s="154"/>
-      <c r="J100" s="154"/>
-      <c r="K100" s="154"/>
-      <c r="L100" s="154"/>
-      <c r="M100" s="154"/>
-      <c r="N100" s="154"/>
-      <c r="O100" s="154"/>
-      <c r="P100" s="154"/>
-      <c r="Q100" s="154"/>
-      <c r="R100" s="154"/>
-      <c r="S100" s="154"/>
-      <c r="T100" s="154"/>
-      <c r="U100" s="154"/>
-      <c r="V100" s="164"/>
-    </row>
-    <row r="101" ht="14.25" spans="1:22">
-      <c r="A101" s="103"/>
-      <c r="B101" s="104"/>
-      <c r="C101" s="155"/>
-      <c r="D101" s="104"/>
-      <c r="E101" s="156"/>
-      <c r="F101" s="157" t="s">
+      <c r="G102" s="153"/>
+      <c r="H102" s="154"/>
+      <c r="I102" s="154"/>
+      <c r="J102" s="154"/>
+      <c r="K102" s="154"/>
+      <c r="L102" s="154"/>
+      <c r="M102" s="154"/>
+      <c r="N102" s="154"/>
+      <c r="O102" s="154"/>
+      <c r="P102" s="154"/>
+      <c r="Q102" s="154"/>
+      <c r="R102" s="154"/>
+      <c r="S102" s="154"/>
+      <c r="T102" s="154"/>
+      <c r="U102" s="154"/>
+      <c r="V102" s="164"/>
+    </row>
+    <row r="103" ht="14.25" spans="1:22">
+      <c r="A103" s="103"/>
+      <c r="B103" s="104"/>
+      <c r="C103" s="155"/>
+      <c r="D103" s="104"/>
+      <c r="E103" s="156"/>
+      <c r="F103" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="G101" s="157"/>
-      <c r="H101" s="158"/>
-      <c r="I101" s="158"/>
-      <c r="J101" s="158"/>
-      <c r="K101" s="158"/>
-      <c r="L101" s="158"/>
-      <c r="M101" s="158"/>
-      <c r="N101" s="158"/>
-      <c r="O101" s="158"/>
-      <c r="P101" s="158"/>
-      <c r="Q101" s="158"/>
-      <c r="R101" s="158"/>
-      <c r="S101" s="158"/>
-      <c r="T101" s="158"/>
-      <c r="U101" s="158"/>
-      <c r="V101" s="165"/>
-    </row>
-    <row r="102" spans="1:22">
-      <c r="A102" s="65"/>
-      <c r="B102" s="21"/>
-      <c r="C102" s="54"/>
-      <c r="D102" s="21"/>
-      <c r="E102" s="148"/>
-      <c r="F102" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" s="23"/>
-      <c r="H102" s="78"/>
-      <c r="I102" s="78"/>
-      <c r="J102" s="78"/>
-      <c r="K102" s="78"/>
-      <c r="L102" s="78"/>
-      <c r="M102" s="78"/>
-      <c r="N102" s="78"/>
-      <c r="O102" s="78"/>
-      <c r="P102" s="78"/>
-      <c r="Q102" s="78"/>
-      <c r="R102" s="78"/>
-      <c r="S102" s="78"/>
-      <c r="T102" s="78"/>
-      <c r="U102" s="78"/>
-      <c r="V102" s="24"/>
-    </row>
-    <row r="103" spans="1:22">
-      <c r="A103" s="65"/>
-      <c r="B103" s="21"/>
-      <c r="C103" s="149"/>
-      <c r="D103" s="21"/>
-      <c r="E103" s="148"/>
-      <c r="F103" s="150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G103" s="150"/>
-      <c r="H103" s="151"/>
-      <c r="I103" s="151"/>
-      <c r="J103" s="151"/>
-      <c r="K103" s="151"/>
-      <c r="L103" s="151"/>
-      <c r="M103" s="151"/>
-      <c r="N103" s="151"/>
-      <c r="O103" s="151"/>
-      <c r="P103" s="151"/>
-      <c r="Q103" s="151"/>
-      <c r="R103" s="151"/>
-      <c r="S103" s="151"/>
-      <c r="T103" s="151"/>
-      <c r="U103" s="151"/>
-      <c r="V103" s="163"/>
+      <c r="G103" s="157"/>
+      <c r="H103" s="158"/>
+      <c r="I103" s="158"/>
+      <c r="J103" s="158"/>
+      <c r="K103" s="158"/>
+      <c r="L103" s="158"/>
+      <c r="M103" s="158"/>
+      <c r="N103" s="158"/>
+      <c r="O103" s="158"/>
+      <c r="P103" s="158"/>
+      <c r="Q103" s="158"/>
+      <c r="R103" s="158"/>
+      <c r="S103" s="158"/>
+      <c r="T103" s="158"/>
+      <c r="U103" s="158"/>
+      <c r="V103" s="165"/>
     </row>
     <row r="104" spans="1:22">
       <c r="A104" s="65"/>
       <c r="B104" s="21"/>
-      <c r="C104" s="149"/>
+      <c r="C104" s="54"/>
       <c r="D104" s="21"/>
       <c r="E104" s="148"/>
       <c r="F104" s="23" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="G104" s="23"/>
       <c r="H104" s="78"/>
@@ -7435,118 +7539,118 @@
       <c r="U104" s="78"/>
       <c r="V104" s="24"/>
     </row>
-    <row r="105" ht="14.25" spans="1:22">
-      <c r="A105" s="66"/>
-      <c r="B105" s="54"/>
+    <row r="105" spans="1:22">
+      <c r="A105" s="65"/>
+      <c r="B105" s="21"/>
       <c r="C105" s="149"/>
-      <c r="D105" s="54"/>
-      <c r="E105" s="152"/>
-      <c r="F105" s="153" t="s">
+      <c r="D105" s="21"/>
+      <c r="E105" s="148"/>
+      <c r="F105" s="150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G105" s="150"/>
+      <c r="H105" s="151"/>
+      <c r="I105" s="151"/>
+      <c r="J105" s="151"/>
+      <c r="K105" s="151"/>
+      <c r="L105" s="151"/>
+      <c r="M105" s="151"/>
+      <c r="N105" s="151"/>
+      <c r="O105" s="151"/>
+      <c r="P105" s="151"/>
+      <c r="Q105" s="151"/>
+      <c r="R105" s="151"/>
+      <c r="S105" s="151"/>
+      <c r="T105" s="151"/>
+      <c r="U105" s="151"/>
+      <c r="V105" s="163"/>
+    </row>
+    <row r="106" spans="1:22">
+      <c r="A106" s="65"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="149"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="148"/>
+      <c r="F106" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G106" s="23"/>
+      <c r="H106" s="78"/>
+      <c r="I106" s="78"/>
+      <c r="J106" s="78"/>
+      <c r="K106" s="78"/>
+      <c r="L106" s="78"/>
+      <c r="M106" s="78"/>
+      <c r="N106" s="78"/>
+      <c r="O106" s="78"/>
+      <c r="P106" s="78"/>
+      <c r="Q106" s="78"/>
+      <c r="R106" s="78"/>
+      <c r="S106" s="78"/>
+      <c r="T106" s="78"/>
+      <c r="U106" s="78"/>
+      <c r="V106" s="24"/>
+    </row>
+    <row r="107" ht="14.25" spans="1:22">
+      <c r="A107" s="66"/>
+      <c r="B107" s="54"/>
+      <c r="C107" s="149"/>
+      <c r="D107" s="54"/>
+      <c r="E107" s="152"/>
+      <c r="F107" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="G105" s="153"/>
-      <c r="H105" s="154"/>
-      <c r="I105" s="154"/>
-      <c r="J105" s="154"/>
-      <c r="K105" s="154"/>
-      <c r="L105" s="154"/>
-      <c r="M105" s="154"/>
-      <c r="N105" s="154"/>
-      <c r="O105" s="154"/>
-      <c r="P105" s="154"/>
-      <c r="Q105" s="154"/>
-      <c r="R105" s="154"/>
-      <c r="S105" s="154"/>
-      <c r="T105" s="154"/>
-      <c r="U105" s="154"/>
-      <c r="V105" s="164"/>
-    </row>
-    <row r="106" ht="14.25" spans="1:22">
-      <c r="A106" s="103"/>
-      <c r="B106" s="104"/>
-      <c r="C106" s="155"/>
-      <c r="D106" s="104"/>
-      <c r="E106" s="156"/>
-      <c r="F106" s="157" t="s">
+      <c r="G107" s="153"/>
+      <c r="H107" s="154"/>
+      <c r="I107" s="154"/>
+      <c r="J107" s="154"/>
+      <c r="K107" s="154"/>
+      <c r="L107" s="154"/>
+      <c r="M107" s="154"/>
+      <c r="N107" s="154"/>
+      <c r="O107" s="154"/>
+      <c r="P107" s="154"/>
+      <c r="Q107" s="154"/>
+      <c r="R107" s="154"/>
+      <c r="S107" s="154"/>
+      <c r="T107" s="154"/>
+      <c r="U107" s="154"/>
+      <c r="V107" s="164"/>
+    </row>
+    <row r="108" ht="14.25" spans="1:22">
+      <c r="A108" s="103"/>
+      <c r="B108" s="104"/>
+      <c r="C108" s="155"/>
+      <c r="D108" s="104"/>
+      <c r="E108" s="156"/>
+      <c r="F108" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="G106" s="157"/>
-      <c r="H106" s="158"/>
-      <c r="I106" s="158"/>
-      <c r="J106" s="158"/>
-      <c r="K106" s="158"/>
-      <c r="L106" s="158"/>
-      <c r="M106" s="158"/>
-      <c r="N106" s="158"/>
-      <c r="O106" s="158"/>
-      <c r="P106" s="158"/>
-      <c r="Q106" s="158"/>
-      <c r="R106" s="158"/>
-      <c r="S106" s="158"/>
-      <c r="T106" s="158"/>
-      <c r="U106" s="158"/>
-      <c r="V106" s="165"/>
-    </row>
-    <row r="107" spans="1:22">
-      <c r="A107" s="65"/>
-      <c r="B107" s="21"/>
-      <c r="C107" s="54"/>
-      <c r="D107" s="21"/>
-      <c r="E107" s="148"/>
-      <c r="F107" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G107" s="23"/>
-      <c r="H107" s="78"/>
-      <c r="I107" s="78"/>
-      <c r="J107" s="78"/>
-      <c r="K107" s="78"/>
-      <c r="L107" s="78"/>
-      <c r="M107" s="78"/>
-      <c r="N107" s="78"/>
-      <c r="O107" s="78"/>
-      <c r="P107" s="78"/>
-      <c r="Q107" s="78"/>
-      <c r="R107" s="78"/>
-      <c r="S107" s="78"/>
-      <c r="T107" s="78"/>
-      <c r="U107" s="78"/>
-      <c r="V107" s="24"/>
-    </row>
-    <row r="108" spans="1:22">
-      <c r="A108" s="65"/>
-      <c r="B108" s="21"/>
-      <c r="C108" s="149"/>
-      <c r="D108" s="21"/>
-      <c r="E108" s="148"/>
-      <c r="F108" s="150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G108" s="150"/>
-      <c r="H108" s="151"/>
-      <c r="I108" s="151"/>
-      <c r="J108" s="151"/>
-      <c r="K108" s="151"/>
-      <c r="L108" s="151"/>
-      <c r="M108" s="151"/>
-      <c r="N108" s="151"/>
-      <c r="O108" s="151"/>
-      <c r="P108" s="151"/>
-      <c r="Q108" s="151"/>
-      <c r="R108" s="151"/>
-      <c r="S108" s="151"/>
-      <c r="T108" s="151"/>
-      <c r="U108" s="151"/>
-      <c r="V108" s="163"/>
+      <c r="G108" s="157"/>
+      <c r="H108" s="158"/>
+      <c r="I108" s="158"/>
+      <c r="J108" s="158"/>
+      <c r="K108" s="158"/>
+      <c r="L108" s="158"/>
+      <c r="M108" s="158"/>
+      <c r="N108" s="158"/>
+      <c r="O108" s="158"/>
+      <c r="P108" s="158"/>
+      <c r="Q108" s="158"/>
+      <c r="R108" s="158"/>
+      <c r="S108" s="158"/>
+      <c r="T108" s="158"/>
+      <c r="U108" s="158"/>
+      <c r="V108" s="165"/>
     </row>
     <row r="109" spans="1:22">
       <c r="A109" s="65"/>
       <c r="B109" s="21"/>
-      <c r="C109" s="149"/>
+      <c r="C109" s="54"/>
       <c r="D109" s="21"/>
       <c r="E109" s="148"/>
       <c r="F109" s="23" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="G109" s="23"/>
       <c r="H109" s="78"/>
@@ -7565,118 +7669,118 @@
       <c r="U109" s="78"/>
       <c r="V109" s="24"/>
     </row>
-    <row r="110" ht="14.25" spans="1:22">
-      <c r="A110" s="66"/>
-      <c r="B110" s="54"/>
+    <row r="110" spans="1:22">
+      <c r="A110" s="65"/>
+      <c r="B110" s="21"/>
       <c r="C110" s="149"/>
-      <c r="D110" s="54"/>
-      <c r="E110" s="152"/>
-      <c r="F110" s="153" t="s">
+      <c r="D110" s="21"/>
+      <c r="E110" s="148"/>
+      <c r="F110" s="150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G110" s="150"/>
+      <c r="H110" s="151"/>
+      <c r="I110" s="151"/>
+      <c r="J110" s="151"/>
+      <c r="K110" s="151"/>
+      <c r="L110" s="151"/>
+      <c r="M110" s="151"/>
+      <c r="N110" s="151"/>
+      <c r="O110" s="151"/>
+      <c r="P110" s="151"/>
+      <c r="Q110" s="151"/>
+      <c r="R110" s="151"/>
+      <c r="S110" s="151"/>
+      <c r="T110" s="151"/>
+      <c r="U110" s="151"/>
+      <c r="V110" s="163"/>
+    </row>
+    <row r="111" spans="1:22">
+      <c r="A111" s="65"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="149"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="148"/>
+      <c r="F111" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G111" s="23"/>
+      <c r="H111" s="78"/>
+      <c r="I111" s="78"/>
+      <c r="J111" s="78"/>
+      <c r="K111" s="78"/>
+      <c r="L111" s="78"/>
+      <c r="M111" s="78"/>
+      <c r="N111" s="78"/>
+      <c r="O111" s="78"/>
+      <c r="P111" s="78"/>
+      <c r="Q111" s="78"/>
+      <c r="R111" s="78"/>
+      <c r="S111" s="78"/>
+      <c r="T111" s="78"/>
+      <c r="U111" s="78"/>
+      <c r="V111" s="24"/>
+    </row>
+    <row r="112" ht="14.25" spans="1:22">
+      <c r="A112" s="66"/>
+      <c r="B112" s="54"/>
+      <c r="C112" s="149"/>
+      <c r="D112" s="54"/>
+      <c r="E112" s="152"/>
+      <c r="F112" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="G110" s="153"/>
-      <c r="H110" s="154"/>
-      <c r="I110" s="154"/>
-      <c r="J110" s="154"/>
-      <c r="K110" s="154"/>
-      <c r="L110" s="154"/>
-      <c r="M110" s="154"/>
-      <c r="N110" s="154"/>
-      <c r="O110" s="154"/>
-      <c r="P110" s="154"/>
-      <c r="Q110" s="154"/>
-      <c r="R110" s="154"/>
-      <c r="S110" s="154"/>
-      <c r="T110" s="154"/>
-      <c r="U110" s="154"/>
-      <c r="V110" s="164"/>
-    </row>
-    <row r="111" ht="14.25" spans="1:22">
-      <c r="A111" s="103"/>
-      <c r="B111" s="104"/>
-      <c r="C111" s="155"/>
-      <c r="D111" s="104"/>
-      <c r="E111" s="156"/>
-      <c r="F111" s="157" t="s">
+      <c r="G112" s="153"/>
+      <c r="H112" s="154"/>
+      <c r="I112" s="154"/>
+      <c r="J112" s="154"/>
+      <c r="K112" s="154"/>
+      <c r="L112" s="154"/>
+      <c r="M112" s="154"/>
+      <c r="N112" s="154"/>
+      <c r="O112" s="154"/>
+      <c r="P112" s="154"/>
+      <c r="Q112" s="154"/>
+      <c r="R112" s="154"/>
+      <c r="S112" s="154"/>
+      <c r="T112" s="154"/>
+      <c r="U112" s="154"/>
+      <c r="V112" s="164"/>
+    </row>
+    <row r="113" ht="14.25" spans="1:22">
+      <c r="A113" s="103"/>
+      <c r="B113" s="104"/>
+      <c r="C113" s="155"/>
+      <c r="D113" s="104"/>
+      <c r="E113" s="156"/>
+      <c r="F113" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="G111" s="157"/>
-      <c r="H111" s="158"/>
-      <c r="I111" s="158"/>
-      <c r="J111" s="158"/>
-      <c r="K111" s="158"/>
-      <c r="L111" s="158"/>
-      <c r="M111" s="158"/>
-      <c r="N111" s="158"/>
-      <c r="O111" s="158"/>
-      <c r="P111" s="158"/>
-      <c r="Q111" s="158"/>
-      <c r="R111" s="158"/>
-      <c r="S111" s="158"/>
-      <c r="T111" s="158"/>
-      <c r="U111" s="158"/>
-      <c r="V111" s="165"/>
-    </row>
-    <row r="112" spans="1:22">
-      <c r="A112" s="65"/>
-      <c r="B112" s="21"/>
-      <c r="C112" s="54"/>
-      <c r="D112" s="21"/>
-      <c r="E112" s="148"/>
-      <c r="F112" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" s="23"/>
-      <c r="H112" s="78"/>
-      <c r="I112" s="78"/>
-      <c r="J112" s="78"/>
-      <c r="K112" s="78"/>
-      <c r="L112" s="78"/>
-      <c r="M112" s="78"/>
-      <c r="N112" s="78"/>
-      <c r="O112" s="78"/>
-      <c r="P112" s="78"/>
-      <c r="Q112" s="78"/>
-      <c r="R112" s="78"/>
-      <c r="S112" s="78"/>
-      <c r="T112" s="78"/>
-      <c r="U112" s="78"/>
-      <c r="V112" s="24"/>
-    </row>
-    <row r="113" spans="1:22">
-      <c r="A113" s="65"/>
-      <c r="B113" s="21"/>
-      <c r="C113" s="149"/>
-      <c r="D113" s="21"/>
-      <c r="E113" s="148"/>
-      <c r="F113" s="150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G113" s="150"/>
-      <c r="H113" s="151"/>
-      <c r="I113" s="151"/>
-      <c r="J113" s="151"/>
-      <c r="K113" s="151"/>
-      <c r="L113" s="151"/>
-      <c r="M113" s="151"/>
-      <c r="N113" s="151"/>
-      <c r="O113" s="151"/>
-      <c r="P113" s="151"/>
-      <c r="Q113" s="151"/>
-      <c r="R113" s="151"/>
-      <c r="S113" s="151"/>
-      <c r="T113" s="151"/>
-      <c r="U113" s="151"/>
-      <c r="V113" s="163"/>
+      <c r="G113" s="157"/>
+      <c r="H113" s="158"/>
+      <c r="I113" s="158"/>
+      <c r="J113" s="158"/>
+      <c r="K113" s="158"/>
+      <c r="L113" s="158"/>
+      <c r="M113" s="158"/>
+      <c r="N113" s="158"/>
+      <c r="O113" s="158"/>
+      <c r="P113" s="158"/>
+      <c r="Q113" s="158"/>
+      <c r="R113" s="158"/>
+      <c r="S113" s="158"/>
+      <c r="T113" s="158"/>
+      <c r="U113" s="158"/>
+      <c r="V113" s="165"/>
     </row>
     <row r="114" spans="1:22">
       <c r="A114" s="65"/>
       <c r="B114" s="21"/>
-      <c r="C114" s="149"/>
+      <c r="C114" s="54"/>
       <c r="D114" s="21"/>
       <c r="E114" s="148"/>
       <c r="F114" s="23" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="G114" s="23"/>
       <c r="H114" s="78"/>
@@ -7695,60 +7799,372 @@
       <c r="U114" s="78"/>
       <c r="V114" s="24"/>
     </row>
-    <row r="115" ht="14.25" spans="1:22">
-      <c r="A115" s="66"/>
-      <c r="B115" s="54"/>
+    <row r="115" spans="1:22">
+      <c r="A115" s="65"/>
+      <c r="B115" s="21"/>
       <c r="C115" s="149"/>
-      <c r="D115" s="54"/>
-      <c r="E115" s="152"/>
-      <c r="F115" s="153" t="s">
+      <c r="D115" s="21"/>
+      <c r="E115" s="148"/>
+      <c r="F115" s="150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G115" s="150"/>
+      <c r="H115" s="151"/>
+      <c r="I115" s="151"/>
+      <c r="J115" s="151"/>
+      <c r="K115" s="151"/>
+      <c r="L115" s="151"/>
+      <c r="M115" s="151"/>
+      <c r="N115" s="151"/>
+      <c r="O115" s="151"/>
+      <c r="P115" s="151"/>
+      <c r="Q115" s="151"/>
+      <c r="R115" s="151"/>
+      <c r="S115" s="151"/>
+      <c r="T115" s="151"/>
+      <c r="U115" s="151"/>
+      <c r="V115" s="163"/>
+    </row>
+    <row r="116" spans="1:22">
+      <c r="A116" s="65"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="149"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="148"/>
+      <c r="F116" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G116" s="23"/>
+      <c r="H116" s="78"/>
+      <c r="I116" s="78"/>
+      <c r="J116" s="78"/>
+      <c r="K116" s="78"/>
+      <c r="L116" s="78"/>
+      <c r="M116" s="78"/>
+      <c r="N116" s="78"/>
+      <c r="O116" s="78"/>
+      <c r="P116" s="78"/>
+      <c r="Q116" s="78"/>
+      <c r="R116" s="78"/>
+      <c r="S116" s="78"/>
+      <c r="T116" s="78"/>
+      <c r="U116" s="78"/>
+      <c r="V116" s="24"/>
+    </row>
+    <row r="117" ht="14.25" spans="1:22">
+      <c r="A117" s="66"/>
+      <c r="B117" s="54"/>
+      <c r="C117" s="149"/>
+      <c r="D117" s="54"/>
+      <c r="E117" s="152"/>
+      <c r="F117" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="G115" s="153"/>
-      <c r="H115" s="154"/>
-      <c r="I115" s="154"/>
-      <c r="J115" s="154"/>
-      <c r="K115" s="154"/>
-      <c r="L115" s="154"/>
-      <c r="M115" s="154"/>
-      <c r="N115" s="154"/>
-      <c r="O115" s="154"/>
-      <c r="P115" s="154"/>
-      <c r="Q115" s="154"/>
-      <c r="R115" s="154"/>
-      <c r="S115" s="154"/>
-      <c r="T115" s="154"/>
-      <c r="U115" s="154"/>
-      <c r="V115" s="164"/>
-    </row>
-    <row r="116" ht="14.25" spans="1:22">
-      <c r="A116" s="103"/>
-      <c r="B116" s="104"/>
-      <c r="C116" s="155"/>
-      <c r="D116" s="104"/>
-      <c r="E116" s="156"/>
-      <c r="F116" s="157" t="s">
+      <c r="G117" s="153"/>
+      <c r="H117" s="154"/>
+      <c r="I117" s="154"/>
+      <c r="J117" s="154"/>
+      <c r="K117" s="154"/>
+      <c r="L117" s="154"/>
+      <c r="M117" s="154"/>
+      <c r="N117" s="154"/>
+      <c r="O117" s="154"/>
+      <c r="P117" s="154"/>
+      <c r="Q117" s="154"/>
+      <c r="R117" s="154"/>
+      <c r="S117" s="154"/>
+      <c r="T117" s="154"/>
+      <c r="U117" s="154"/>
+      <c r="V117" s="164"/>
+    </row>
+    <row r="118" ht="14.25" spans="1:22">
+      <c r="A118" s="103"/>
+      <c r="B118" s="104"/>
+      <c r="C118" s="155"/>
+      <c r="D118" s="104"/>
+      <c r="E118" s="156"/>
+      <c r="F118" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="G116" s="157"/>
-      <c r="H116" s="158"/>
-      <c r="I116" s="158"/>
-      <c r="J116" s="158"/>
-      <c r="K116" s="158"/>
-      <c r="L116" s="158"/>
-      <c r="M116" s="158"/>
-      <c r="N116" s="158"/>
-      <c r="O116" s="158"/>
-      <c r="P116" s="158"/>
-      <c r="Q116" s="158"/>
-      <c r="R116" s="158"/>
-      <c r="S116" s="158"/>
-      <c r="T116" s="158"/>
-      <c r="U116" s="158"/>
-      <c r="V116" s="165"/>
+      <c r="G118" s="157"/>
+      <c r="H118" s="158"/>
+      <c r="I118" s="158"/>
+      <c r="J118" s="158"/>
+      <c r="K118" s="158"/>
+      <c r="L118" s="158"/>
+      <c r="M118" s="158"/>
+      <c r="N118" s="158"/>
+      <c r="O118" s="158"/>
+      <c r="P118" s="158"/>
+      <c r="Q118" s="158"/>
+      <c r="R118" s="158"/>
+      <c r="S118" s="158"/>
+      <c r="T118" s="158"/>
+      <c r="U118" s="158"/>
+      <c r="V118" s="165"/>
+    </row>
+    <row r="119" spans="1:22">
+      <c r="A119" s="65"/>
+      <c r="B119" s="21"/>
+      <c r="C119" s="54"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="148"/>
+      <c r="F119" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G119" s="23"/>
+      <c r="H119" s="78"/>
+      <c r="I119" s="78"/>
+      <c r="J119" s="78"/>
+      <c r="K119" s="78"/>
+      <c r="L119" s="78"/>
+      <c r="M119" s="78"/>
+      <c r="N119" s="78"/>
+      <c r="O119" s="78"/>
+      <c r="P119" s="78"/>
+      <c r="Q119" s="78"/>
+      <c r="R119" s="78"/>
+      <c r="S119" s="78"/>
+      <c r="T119" s="78"/>
+      <c r="U119" s="78"/>
+      <c r="V119" s="24"/>
+    </row>
+    <row r="120" spans="1:22">
+      <c r="A120" s="65"/>
+      <c r="B120" s="21"/>
+      <c r="C120" s="149"/>
+      <c r="D120" s="21"/>
+      <c r="E120" s="148"/>
+      <c r="F120" s="150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G120" s="150"/>
+      <c r="H120" s="151"/>
+      <c r="I120" s="151"/>
+      <c r="J120" s="151"/>
+      <c r="K120" s="151"/>
+      <c r="L120" s="151"/>
+      <c r="M120" s="151"/>
+      <c r="N120" s="151"/>
+      <c r="O120" s="151"/>
+      <c r="P120" s="151"/>
+      <c r="Q120" s="151"/>
+      <c r="R120" s="151"/>
+      <c r="S120" s="151"/>
+      <c r="T120" s="151"/>
+      <c r="U120" s="151"/>
+      <c r="V120" s="163"/>
+    </row>
+    <row r="121" spans="1:22">
+      <c r="A121" s="65"/>
+      <c r="B121" s="21"/>
+      <c r="C121" s="149"/>
+      <c r="D121" s="21"/>
+      <c r="E121" s="148"/>
+      <c r="F121" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G121" s="23"/>
+      <c r="H121" s="78"/>
+      <c r="I121" s="78"/>
+      <c r="J121" s="78"/>
+      <c r="K121" s="78"/>
+      <c r="L121" s="78"/>
+      <c r="M121" s="78"/>
+      <c r="N121" s="78"/>
+      <c r="O121" s="78"/>
+      <c r="P121" s="78"/>
+      <c r="Q121" s="78"/>
+      <c r="R121" s="78"/>
+      <c r="S121" s="78"/>
+      <c r="T121" s="78"/>
+      <c r="U121" s="78"/>
+      <c r="V121" s="24"/>
+    </row>
+    <row r="122" ht="14.25" spans="1:22">
+      <c r="A122" s="66"/>
+      <c r="B122" s="54"/>
+      <c r="C122" s="149"/>
+      <c r="D122" s="54"/>
+      <c r="E122" s="152"/>
+      <c r="F122" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="G122" s="153"/>
+      <c r="H122" s="154"/>
+      <c r="I122" s="154"/>
+      <c r="J122" s="154"/>
+      <c r="K122" s="154"/>
+      <c r="L122" s="154"/>
+      <c r="M122" s="154"/>
+      <c r="N122" s="154"/>
+      <c r="O122" s="154"/>
+      <c r="P122" s="154"/>
+      <c r="Q122" s="154"/>
+      <c r="R122" s="154"/>
+      <c r="S122" s="154"/>
+      <c r="T122" s="154"/>
+      <c r="U122" s="154"/>
+      <c r="V122" s="164"/>
+    </row>
+    <row r="123" ht="14.25" spans="1:22">
+      <c r="A123" s="103"/>
+      <c r="B123" s="104"/>
+      <c r="C123" s="155"/>
+      <c r="D123" s="104"/>
+      <c r="E123" s="156"/>
+      <c r="F123" s="157" t="s">
+        <v>42</v>
+      </c>
+      <c r="G123" s="157"/>
+      <c r="H123" s="158"/>
+      <c r="I123" s="158"/>
+      <c r="J123" s="158"/>
+      <c r="K123" s="158"/>
+      <c r="L123" s="158"/>
+      <c r="M123" s="158"/>
+      <c r="N123" s="158"/>
+      <c r="O123" s="158"/>
+      <c r="P123" s="158"/>
+      <c r="Q123" s="158"/>
+      <c r="R123" s="158"/>
+      <c r="S123" s="158"/>
+      <c r="T123" s="158"/>
+      <c r="U123" s="158"/>
+      <c r="V123" s="165"/>
+    </row>
+    <row r="124" spans="1:22">
+      <c r="A124" s="65"/>
+      <c r="B124" s="21"/>
+      <c r="C124" s="54"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="148"/>
+      <c r="F124" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G124" s="23"/>
+      <c r="H124" s="78"/>
+      <c r="I124" s="78"/>
+      <c r="J124" s="78"/>
+      <c r="K124" s="78"/>
+      <c r="L124" s="78"/>
+      <c r="M124" s="78"/>
+      <c r="N124" s="78"/>
+      <c r="O124" s="78"/>
+      <c r="P124" s="78"/>
+      <c r="Q124" s="78"/>
+      <c r="R124" s="78"/>
+      <c r="S124" s="78"/>
+      <c r="T124" s="78"/>
+      <c r="U124" s="78"/>
+      <c r="V124" s="24"/>
+    </row>
+    <row r="125" spans="1:22">
+      <c r="A125" s="65"/>
+      <c r="B125" s="21"/>
+      <c r="C125" s="149"/>
+      <c r="D125" s="21"/>
+      <c r="E125" s="148"/>
+      <c r="F125" s="150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G125" s="150"/>
+      <c r="H125" s="151"/>
+      <c r="I125" s="151"/>
+      <c r="J125" s="151"/>
+      <c r="K125" s="151"/>
+      <c r="L125" s="151"/>
+      <c r="M125" s="151"/>
+      <c r="N125" s="151"/>
+      <c r="O125" s="151"/>
+      <c r="P125" s="151"/>
+      <c r="Q125" s="151"/>
+      <c r="R125" s="151"/>
+      <c r="S125" s="151"/>
+      <c r="T125" s="151"/>
+      <c r="U125" s="151"/>
+      <c r="V125" s="163"/>
+    </row>
+    <row r="126" spans="1:22">
+      <c r="A126" s="65"/>
+      <c r="B126" s="21"/>
+      <c r="C126" s="149"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="148"/>
+      <c r="F126" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G126" s="23"/>
+      <c r="H126" s="78"/>
+      <c r="I126" s="78"/>
+      <c r="J126" s="78"/>
+      <c r="K126" s="78"/>
+      <c r="L126" s="78"/>
+      <c r="M126" s="78"/>
+      <c r="N126" s="78"/>
+      <c r="O126" s="78"/>
+      <c r="P126" s="78"/>
+      <c r="Q126" s="78"/>
+      <c r="R126" s="78"/>
+      <c r="S126" s="78"/>
+      <c r="T126" s="78"/>
+      <c r="U126" s="78"/>
+      <c r="V126" s="24"/>
+    </row>
+    <row r="127" ht="14.25" spans="1:22">
+      <c r="A127" s="66"/>
+      <c r="B127" s="54"/>
+      <c r="C127" s="149"/>
+      <c r="D127" s="54"/>
+      <c r="E127" s="152"/>
+      <c r="F127" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="G127" s="153"/>
+      <c r="H127" s="154"/>
+      <c r="I127" s="154"/>
+      <c r="J127" s="154"/>
+      <c r="K127" s="154"/>
+      <c r="L127" s="154"/>
+      <c r="M127" s="154"/>
+      <c r="N127" s="154"/>
+      <c r="O127" s="154"/>
+      <c r="P127" s="154"/>
+      <c r="Q127" s="154"/>
+      <c r="R127" s="154"/>
+      <c r="S127" s="154"/>
+      <c r="T127" s="154"/>
+      <c r="U127" s="154"/>
+      <c r="V127" s="164"/>
+    </row>
+    <row r="128" ht="14.25" spans="1:22">
+      <c r="A128" s="103"/>
+      <c r="B128" s="104"/>
+      <c r="C128" s="155"/>
+      <c r="D128" s="104"/>
+      <c r="E128" s="156"/>
+      <c r="F128" s="157" t="s">
+        <v>42</v>
+      </c>
+      <c r="G128" s="157"/>
+      <c r="H128" s="158"/>
+      <c r="I128" s="158"/>
+      <c r="J128" s="158"/>
+      <c r="K128" s="158"/>
+      <c r="L128" s="158"/>
+      <c r="M128" s="158"/>
+      <c r="N128" s="158"/>
+      <c r="O128" s="158"/>
+      <c r="P128" s="158"/>
+      <c r="Q128" s="158"/>
+      <c r="R128" s="158"/>
+      <c r="S128" s="158"/>
+      <c r="T128" s="158"/>
+      <c r="U128" s="158"/>
+      <c r="V128" s="165"/>
     </row>
   </sheetData>
-  <mergeCells count="110">
+  <mergeCells count="120">
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A11:A16"/>
@@ -7757,20 +8173,22 @@
     <mergeCell ref="A29:A34"/>
     <mergeCell ref="A35:A40"/>
     <mergeCell ref="A41:A46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A124:A128"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="B11:B16"/>
@@ -7779,20 +8197,22 @@
     <mergeCell ref="B29:B34"/>
     <mergeCell ref="B35:B40"/>
     <mergeCell ref="B41:B46"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="B112:B116"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="B104:B108"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="B124:B128"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="C5:C10"/>
     <mergeCell ref="C11:C16"/>
@@ -7801,20 +8221,22 @@
     <mergeCell ref="C29:C34"/>
     <mergeCell ref="C35:C40"/>
     <mergeCell ref="C41:C46"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="C67:C71"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="C77:C81"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="C92:C96"/>
-    <mergeCell ref="C97:C101"/>
-    <mergeCell ref="C102:C106"/>
-    <mergeCell ref="C107:C111"/>
-    <mergeCell ref="C112:C116"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="C64:C68"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="C89:C93"/>
+    <mergeCell ref="C94:C98"/>
+    <mergeCell ref="C99:C103"/>
+    <mergeCell ref="C104:C108"/>
+    <mergeCell ref="C109:C113"/>
+    <mergeCell ref="C114:C118"/>
+    <mergeCell ref="C119:C123"/>
+    <mergeCell ref="C124:C128"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="D5:D10"/>
     <mergeCell ref="D11:D16"/>
@@ -7823,20 +8245,22 @@
     <mergeCell ref="D29:D34"/>
     <mergeCell ref="D35:D40"/>
     <mergeCell ref="D41:D46"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="D87:D91"/>
-    <mergeCell ref="D92:D96"/>
-    <mergeCell ref="D97:D101"/>
-    <mergeCell ref="D102:D106"/>
-    <mergeCell ref="D107:D111"/>
-    <mergeCell ref="D112:D116"/>
+    <mergeCell ref="D47:D52"/>
+    <mergeCell ref="D53:D58"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="D64:D68"/>
+    <mergeCell ref="D69:D73"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="D104:D108"/>
+    <mergeCell ref="D109:D113"/>
+    <mergeCell ref="D114:D118"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="D124:D128"/>
     <mergeCell ref="E1:E4"/>
     <mergeCell ref="E5:E10"/>
     <mergeCell ref="E11:E16"/>
@@ -7845,20 +8269,22 @@
     <mergeCell ref="E29:E34"/>
     <mergeCell ref="E35:E40"/>
     <mergeCell ref="E41:E46"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="E52:E56"/>
-    <mergeCell ref="E57:E61"/>
-    <mergeCell ref="E62:E66"/>
-    <mergeCell ref="E67:E71"/>
-    <mergeCell ref="E72:E76"/>
-    <mergeCell ref="E77:E81"/>
-    <mergeCell ref="E82:E86"/>
-    <mergeCell ref="E87:E91"/>
-    <mergeCell ref="E92:E96"/>
-    <mergeCell ref="E97:E101"/>
-    <mergeCell ref="E102:E106"/>
-    <mergeCell ref="E107:E111"/>
-    <mergeCell ref="E112:E116"/>
+    <mergeCell ref="E47:E52"/>
+    <mergeCell ref="E53:E58"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="E64:E68"/>
+    <mergeCell ref="E69:E73"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="E79:E83"/>
+    <mergeCell ref="E84:E88"/>
+    <mergeCell ref="E89:E93"/>
+    <mergeCell ref="E94:E98"/>
+    <mergeCell ref="E99:E103"/>
+    <mergeCell ref="E104:E108"/>
+    <mergeCell ref="E109:E113"/>
+    <mergeCell ref="E114:E118"/>
+    <mergeCell ref="E119:E123"/>
+    <mergeCell ref="E124:E128"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7886,14 +8312,14 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="3" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="6" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="7" t="s">
@@ -7917,7 +8343,7 @@
       <c r="R1" s="7"/>
       <c r="S1" s="5"/>
       <c r="T1" s="94" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:20">
@@ -7937,46 +8363,46 @@
         <v>6</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="I2" s="69" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="M2" s="70" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="N2" s="69" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="O2" s="70" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="P2" s="69" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="Q2" s="95" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="R2" s="70" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="S2" s="69" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="T2" s="96"/>
     </row>
@@ -7985,7 +8411,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>17</v>
@@ -8019,7 +8445,7 @@
       <c r="R3" s="74"/>
       <c r="S3" s="18"/>
       <c r="T3" s="97" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8055,7 +8481,7 @@
       <c r="D5" s="21"/>
       <c r="E5" s="22"/>
       <c r="F5" s="23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>33</v>
@@ -8124,31 +8550,31 @@
         <v>11</v>
       </c>
       <c r="K7" s="84" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="L7" s="84" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="M7" s="85" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="N7" s="31" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="O7" s="85" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="P7" s="31" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="83" t="s">
         <v>8</v>
       </c>
       <c r="R7" s="85" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="S7" s="31" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="T7" s="98"/>
     </row>
@@ -8174,23 +8600,23 @@
       <c r="K8" s="88"/>
       <c r="L8" s="88"/>
       <c r="M8" s="89" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="N8" s="34" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="O8" s="89" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="87"/>
       <c r="R8" s="89" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="S8" s="34" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="T8" s="99"/>
     </row>
@@ -8201,7 +8627,7 @@
       <c r="D9" s="21"/>
       <c r="E9" s="29"/>
       <c r="F9" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G9" s="34" t="s">
         <v>34</v>
@@ -8216,23 +8642,23 @@
       <c r="K9" s="88"/>
       <c r="L9" s="88"/>
       <c r="M9" s="89" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="N9" s="34" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="O9" s="89" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="Q9" s="87"/>
       <c r="R9" s="89" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="S9" s="34" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="T9" s="99"/>
     </row>
@@ -8258,23 +8684,23 @@
       <c r="K10" s="92"/>
       <c r="L10" s="92"/>
       <c r="M10" s="93" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="N10" s="37" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="O10" s="93" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="P10" s="37" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="Q10" s="91"/>
       <c r="R10" s="93" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="S10" s="37" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="T10" s="100"/>
     </row>
@@ -8302,22 +8728,22 @@
         <v>11</v>
       </c>
       <c r="K11" s="73" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="L11" s="73" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="M11" s="74" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="O11" s="17" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="P11" s="18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="72" t="s">
         <v>7</v>
@@ -8348,16 +8774,16 @@
       <c r="K12" s="77"/>
       <c r="L12" s="77"/>
       <c r="M12" s="78" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="P12" s="24" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="Q12" s="76"/>
       <c r="R12" s="78"/>
@@ -8371,7 +8797,7 @@
       <c r="D13" s="21"/>
       <c r="E13" s="22"/>
       <c r="F13" s="23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G13" s="24" t="s">
         <v>35</v>
@@ -8386,16 +8812,16 @@
       <c r="K13" s="77"/>
       <c r="L13" s="77"/>
       <c r="M13" s="78" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="N13" s="24" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P13" s="24" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="Q13" s="76"/>
       <c r="R13" s="78"/>
@@ -8424,16 +8850,16 @@
       <c r="K14" s="81"/>
       <c r="L14" s="81"/>
       <c r="M14" s="82" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="N14" s="27" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="O14" s="26" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P14" s="27" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="Q14" s="80"/>
       <c r="R14" s="82"/>
@@ -8464,22 +8890,22 @@
         <v>12</v>
       </c>
       <c r="K15" s="84" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L15" s="84" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M15" s="85" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="N15" s="31" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="O15" s="85" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P15" s="31" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="Q15" s="83" t="s">
         <v>8</v>
@@ -8510,16 +8936,16 @@
       <c r="K16" s="88"/>
       <c r="L16" s="88"/>
       <c r="M16" s="89" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="N16" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="O16" s="89" t="s">
+        <v>210</v>
+      </c>
+      <c r="P16" s="34" t="s">
         <v>192</v>
-      </c>
-      <c r="O16" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="P16" s="34" t="s">
-        <v>175</v>
       </c>
       <c r="Q16" s="87"/>
       <c r="R16" s="89"/>
@@ -8533,7 +8959,7 @@
       <c r="D17" s="21"/>
       <c r="E17" s="29"/>
       <c r="F17" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G17" s="34" t="s">
         <v>36</v>
@@ -8548,23 +8974,23 @@
       <c r="K17" s="88"/>
       <c r="L17" s="88"/>
       <c r="M17" s="89" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="N17" s="34" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="O17" s="89" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="P17" s="34" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="Q17" s="87"/>
       <c r="R17" s="89" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="S17" s="34" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="T17" s="99"/>
     </row>
@@ -8590,23 +9016,23 @@
       <c r="K18" s="92"/>
       <c r="L18" s="92"/>
       <c r="M18" s="93" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="N18" s="37" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="O18" s="93" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="P18" s="37" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="Q18" s="91"/>
       <c r="R18" s="93" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="S18" s="37" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="T18" s="100"/>
     </row>
@@ -8628,10 +9054,10 @@
         <v>12</v>
       </c>
       <c r="K19" s="73" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="L19" s="73" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="M19" s="74"/>
       <c r="N19" s="18"/>
@@ -8675,7 +9101,7 @@
       <c r="D21" s="21"/>
       <c r="E21" s="22"/>
       <c r="F21" s="23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G21" s="24"/>
       <c r="H21" s="25"/>
@@ -8718,16 +9144,16 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" s="43">
         <v>1</v>
@@ -8736,7 +9162,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="H23" s="32">
         <v>20</v>
@@ -8748,10 +9174,10 @@
         <v>11</v>
       </c>
       <c r="K23" s="84" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="L23" s="84" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M23" s="85"/>
       <c r="N23" s="31"/>
@@ -8774,7 +9200,7 @@
         <v>23</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H24" s="35">
         <v>20</v>
@@ -8801,16 +9227,16 @@
       <c r="D25" s="46"/>
       <c r="E25" s="29"/>
       <c r="F25" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H25" s="35" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="I25" s="86" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="J25" s="87"/>
       <c r="K25" s="88"/>
@@ -8821,10 +9247,10 @@
       <c r="P25" s="34"/>
       <c r="Q25" s="87"/>
       <c r="R25" s="89" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="S25" s="34" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="T25" s="99"/>
     </row>
@@ -8838,7 +9264,7 @@
         <v>37</v>
       </c>
       <c r="G26" s="37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H26" s="38">
         <v>20</v>
@@ -8850,38 +9276,38 @@
       <c r="K26" s="92"/>
       <c r="L26" s="92"/>
       <c r="M26" s="93" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="N26" s="37" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="O26" s="93" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="P26" s="37" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="Q26" s="91"/>
       <c r="R26" s="93" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="S26" s="37" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="T26" s="100"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E27" s="16">
         <v>0</v>
@@ -8890,7 +9316,7 @@
         <v>18</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H27" s="19">
         <v>7.68</v>
@@ -8902,31 +9328,31 @@
         <v>11</v>
       </c>
       <c r="K27" s="73" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="L27" s="73" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M27" s="74" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="N27" s="18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="O27" s="17" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="P27" s="18" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="Q27" s="72" t="s">
         <v>8</v>
       </c>
       <c r="R27" s="74" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="S27" s="18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="T27" s="101"/>
     </row>
@@ -8940,7 +9366,7 @@
         <v>23</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H28" s="25">
         <v>63.12</v>
@@ -8952,23 +9378,23 @@
       <c r="K28" s="77"/>
       <c r="L28" s="77"/>
       <c r="M28" s="78" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="N28" s="24" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="O28" s="23" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="P28" s="24" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="Q28" s="76"/>
       <c r="R28" s="78" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="S28" s="24" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="T28" s="102"/>
     </row>
@@ -8979,10 +9405,10 @@
       <c r="D29" s="21"/>
       <c r="E29" s="22"/>
       <c r="F29" s="23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H29" s="25">
         <v>9.33</v>
@@ -8994,23 +9420,23 @@
       <c r="K29" s="77"/>
       <c r="L29" s="77"/>
       <c r="M29" s="78" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="N29" s="24" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="O29" s="23" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P29" s="24" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q29" s="76"/>
       <c r="R29" s="78" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="S29" s="24" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="T29" s="102"/>
     </row>
@@ -9024,7 +9450,7 @@
         <v>37</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H30" s="28">
         <v>63.12</v>
@@ -9036,23 +9462,23 @@
       <c r="K30" s="81"/>
       <c r="L30" s="81"/>
       <c r="M30" s="82" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="N30" s="27" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="O30" s="26" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P30" s="27" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="Q30" s="80"/>
       <c r="R30" s="82" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="S30" s="27" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="T30" s="102"/>
     </row>
@@ -9068,7 +9494,7 @@
         <v>18</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H31" s="32">
         <v>59.59</v>
@@ -9080,31 +9506,31 @@
         <v>11</v>
       </c>
       <c r="K31" s="84" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="L31" s="84" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M31" s="85" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="N31" s="31" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="O31" s="85" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="P31" s="31" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="Q31" s="83" t="s">
         <v>8</v>
       </c>
       <c r="R31" s="85" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="S31" s="31" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="T31" s="98"/>
     </row>
@@ -9118,7 +9544,7 @@
         <v>23</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H32" s="35">
         <v>64</v>
@@ -9130,23 +9556,23 @@
       <c r="K32" s="88"/>
       <c r="L32" s="88"/>
       <c r="M32" s="89" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="N32" s="34" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="O32" s="89" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="P32" s="34" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="Q32" s="87"/>
       <c r="R32" s="89" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="S32" s="34" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="T32" s="99"/>
     </row>
@@ -9157,10 +9583,10 @@
       <c r="D33" s="52"/>
       <c r="E33" s="29"/>
       <c r="F33" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H33" s="35">
         <v>53.5</v>
@@ -9172,23 +9598,23 @@
       <c r="K33" s="88"/>
       <c r="L33" s="88"/>
       <c r="M33" s="89" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="N33" s="34" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="O33" s="89" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="P33" s="34" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="Q33" s="87"/>
       <c r="R33" s="89" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="S33" s="34" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="T33" s="99"/>
     </row>
@@ -9202,7 +9628,7 @@
         <v>37</v>
       </c>
       <c r="G34" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H34" s="38">
         <v>64</v>
@@ -9214,23 +9640,23 @@
       <c r="K34" s="92"/>
       <c r="L34" s="92"/>
       <c r="M34" s="93" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="N34" s="37" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="O34" s="93" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="P34" s="37" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="Q34" s="91"/>
       <c r="R34" s="93" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="S34" s="37" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="T34" s="100"/>
     </row>
@@ -9246,7 +9672,7 @@
         <v>18</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H35" s="19">
         <v>59.59</v>
@@ -9258,22 +9684,22 @@
         <v>11</v>
       </c>
       <c r="K35" s="73" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="L35" s="73" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M35" s="74" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="N35" s="18" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="O35" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="P35" s="18" t="s">
         <v>181</v>
-      </c>
-      <c r="P35" s="18" t="s">
-        <v>164</v>
       </c>
       <c r="Q35" s="72" t="s">
         <v>7</v>
@@ -9292,7 +9718,7 @@
         <v>23</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H36" s="25">
         <v>64</v>
@@ -9304,16 +9730,16 @@
       <c r="K36" s="77"/>
       <c r="L36" s="77"/>
       <c r="M36" s="78" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="N36" s="24" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="O36" s="23" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="P36" s="24" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="Q36" s="76"/>
       <c r="R36" s="78"/>
@@ -9327,10 +9753,10 @@
       <c r="D37" s="21"/>
       <c r="E37" s="22"/>
       <c r="F37" s="23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25">
         <v>64</v>
@@ -9342,16 +9768,16 @@
       <c r="K37" s="77"/>
       <c r="L37" s="77"/>
       <c r="M37" s="78" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="N37" s="24" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="O37" s="23" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="P37" s="24" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="Q37" s="76"/>
       <c r="R37" s="78"/>
@@ -9368,7 +9794,7 @@
         <v>37</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H38" s="28">
         <v>64</v>
@@ -9380,16 +9806,16 @@
       <c r="K38" s="81"/>
       <c r="L38" s="81"/>
       <c r="M38" s="82" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="N38" s="27" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="O38" s="26" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="P38" s="27" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="Q38" s="80"/>
       <c r="R38" s="82"/>
@@ -9408,7 +9834,7 @@
         <v>18</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H39" s="32">
         <v>63.31</v>
@@ -9420,31 +9846,31 @@
         <v>12</v>
       </c>
       <c r="K39" s="84" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="L39" s="84" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="M39" s="32" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="N39" s="31" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="O39" s="85" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="P39" s="31" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="Q39" s="83" t="s">
         <v>8</v>
       </c>
       <c r="R39" s="85" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="S39" s="31" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="T39" s="98"/>
     </row>
@@ -9458,7 +9884,7 @@
         <v>23</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H40" s="35">
         <v>64</v>
@@ -9470,23 +9896,23 @@
       <c r="K40" s="88"/>
       <c r="L40" s="88"/>
       <c r="M40" s="89" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="N40" s="34" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="O40" s="89" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="P40" s="34" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="Q40" s="87"/>
       <c r="R40" s="89" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="S40" s="34" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="T40" s="99"/>
     </row>
@@ -9497,10 +9923,10 @@
       <c r="D41" s="52"/>
       <c r="E41" s="29"/>
       <c r="F41" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G41" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H41" s="35">
         <v>19</v>
@@ -9512,23 +9938,23 @@
       <c r="K41" s="88"/>
       <c r="L41" s="88"/>
       <c r="M41" s="89" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="N41" s="34" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="O41" s="89" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="P41" s="34" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="Q41" s="87"/>
       <c r="R41" s="89" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="S41" s="34" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="T41" s="99"/>
     </row>
@@ -9542,7 +9968,7 @@
         <v>37</v>
       </c>
       <c r="G42" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H42" s="38">
         <v>64</v>
@@ -9554,23 +9980,23 @@
       <c r="K42" s="92"/>
       <c r="L42" s="92"/>
       <c r="M42" s="93" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="N42" s="37" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="O42" s="93" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="P42" s="37" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="Q42" s="91"/>
       <c r="R42" s="93" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="S42" s="37" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="T42" s="100"/>
     </row>
@@ -9586,7 +10012,7 @@
         <v>18</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="H43" s="19">
         <v>63.88</v>
@@ -9598,22 +10024,22 @@
         <v>12</v>
       </c>
       <c r="K43" s="73" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="L43" s="73" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="M43" s="74" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="N43" s="18" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="O43" s="17" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="P43" s="18" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="Q43" s="72" t="s">
         <v>7</v>
@@ -9632,7 +10058,7 @@
         <v>23</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="H44" s="25">
         <v>6.93</v>
@@ -9644,16 +10070,16 @@
       <c r="K44" s="77"/>
       <c r="L44" s="77"/>
       <c r="M44" s="78" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="N44" s="24" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="O44" s="23" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="P44" s="24" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="Q44" s="76"/>
       <c r="R44" s="78"/>
@@ -9667,10 +10093,10 @@
       <c r="D45" s="21"/>
       <c r="E45" s="22"/>
       <c r="F45" s="23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="H45" s="25">
         <v>64</v>
@@ -9682,16 +10108,16 @@
       <c r="K45" s="77"/>
       <c r="L45" s="77"/>
       <c r="M45" s="78" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="N45" s="24" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="O45" s="23" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="P45" s="24" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="Q45" s="76"/>
       <c r="R45" s="78"/>
@@ -9708,7 +10134,7 @@
         <v>37</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H46" s="28">
         <v>64</v>
@@ -9720,16 +10146,16 @@
       <c r="K46" s="81"/>
       <c r="L46" s="81"/>
       <c r="M46" s="82" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="N46" s="27" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="O46" s="26" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="P46" s="27" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="Q46" s="80"/>
       <c r="R46" s="82"/>
@@ -9738,16 +10164,16 @@
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="55" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B47" s="56" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="C47" s="56" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D47" s="56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E47" s="43">
         <v>1</v>
@@ -9801,7 +10227,7 @@
       <c r="D49" s="58"/>
       <c r="E49" s="29"/>
       <c r="F49" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G49" s="34"/>
       <c r="H49" s="35"/>
@@ -9899,7 +10325,7 @@
       <c r="D53" s="58"/>
       <c r="E53" s="22"/>
       <c r="F53" s="23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G53" s="24"/>
       <c r="H53" s="25"/>
@@ -9995,7 +10421,7 @@
       <c r="D57" s="52"/>
       <c r="E57" s="29"/>
       <c r="F57" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G57" s="34"/>
       <c r="H57" s="35"/>
@@ -10091,7 +10517,7 @@
       <c r="D61" s="21"/>
       <c r="E61" s="22"/>
       <c r="F61" s="23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G61" s="24"/>
       <c r="H61" s="25"/>
@@ -10187,7 +10613,7 @@
       <c r="D65" s="21"/>
       <c r="E65" s="29"/>
       <c r="F65" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G65" s="34"/>
       <c r="H65" s="35"/>
@@ -10283,7 +10709,7 @@
       <c r="D69" s="21"/>
       <c r="E69" s="22"/>
       <c r="F69" s="23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G69" s="24"/>
       <c r="H69" s="25"/>
@@ -10379,7 +10805,7 @@
       <c r="D73" s="21"/>
       <c r="E73" s="29"/>
       <c r="F73" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G73" s="34"/>
       <c r="H73" s="35"/>
@@ -10475,7 +10901,7 @@
       <c r="D77" s="21"/>
       <c r="E77" s="22"/>
       <c r="F77" s="23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G77" s="24"/>
       <c r="H77" s="25"/>
@@ -10571,7 +10997,7 @@
       <c r="D81" s="21"/>
       <c r="E81" s="29"/>
       <c r="F81" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G81" s="34"/>
       <c r="H81" s="35"/>
@@ -10667,7 +11093,7 @@
       <c r="D85" s="21"/>
       <c r="E85" s="22"/>
       <c r="F85" s="23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G85" s="24"/>
       <c r="H85" s="25"/>
@@ -10763,7 +11189,7 @@
       <c r="D89" s="21"/>
       <c r="E89" s="29"/>
       <c r="F89" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G89" s="34"/>
       <c r="H89" s="35"/>
@@ -10859,7 +11285,7 @@
       <c r="D93" s="21"/>
       <c r="E93" s="22"/>
       <c r="F93" s="23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G93" s="24"/>
       <c r="H93" s="25"/>
@@ -10955,7 +11381,7 @@
       <c r="D97" s="21"/>
       <c r="E97" s="29"/>
       <c r="F97" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G97" s="34"/>
       <c r="H97" s="35"/>
@@ -11051,7 +11477,7 @@
       <c r="D101" s="21"/>
       <c r="E101" s="22"/>
       <c r="F101" s="23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G101" s="24"/>
       <c r="H101" s="25"/>
@@ -11505,7 +11931,7 @@
   <sheetData>
     <row r="1" ht="68" customHeight="1" spans="1:25">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11534,7 +11960,7 @@
     </row>
     <row r="4" spans="12:23">
       <c r="L4" s="2" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -11760,7 +12186,7 @@
     </row>
     <row r="95" spans="16:23">
       <c r="P95" s="2" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>

--- a/testnet3 AMD CPU测试报告.xlsx
+++ b/testnet3 AMD CPU测试报告.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="275">
   <si>
     <t xml:space="preserve">1. 使用MaxCache参数可以大幅提高PreCommit1的效率（会多使用56G内存，建议全程开启该参数）
 2. PreCommit1阶段只使用单核CPU性能，带sha-ni指令扩展的AMD CPU可以对该阶段大幅加速
@@ -507,6 +507,22 @@
     <t>7h18m31s</t>
   </si>
   <si>
+    <t>512G
+128G可用物理内存+512G SSD swap</t>
+  </si>
+  <si>
+    <t>4h47m57s</t>
+  </si>
+  <si>
+    <t>42m43s</t>
+  </si>
+  <si>
+    <t>2h0m35s</t>
+  </si>
+  <si>
+    <t>7h41m27s</t>
+  </si>
+  <si>
     <t>许总测试结果</t>
   </si>
   <si>
@@ -868,8 +884,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -894,11 +910,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -910,16 +948,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -927,13 +958,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -961,31 +985,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1001,7 +1001,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1018,21 +1049,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1077,19 +1093,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,19 +1117,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,7 +1135,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,43 +1255,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1191,73 +1267,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1753,17 +1769,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1792,46 +1813,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1850,6 +1836,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1858,10 +1874,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1870,10 +1886,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1882,121 +1898,121 @@
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="46" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4395,12 +4411,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V128"/>
+  <dimension ref="A1:V134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Y29" sqref="Y29"/>
+      <selection pane="bottomLeft" activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4408,6 +4424,7 @@
     <col min="1" max="1" width="11.875" customWidth="1"/>
     <col min="2" max="2" width="19.875" customWidth="1"/>
     <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="4" max="4" width="14.75" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="17.125" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
@@ -6103,7 +6120,7 @@
       <c r="U51" s="154"/>
       <c r="V51" s="164"/>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" ht="14.25" spans="1:22">
       <c r="A52" s="103"/>
       <c r="B52" s="104"/>
       <c r="C52" s="155"/>
@@ -6267,7 +6284,7 @@
       <c r="U56" s="78"/>
       <c r="V56" s="24"/>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" ht="14.25" spans="1:22">
       <c r="A57" s="66"/>
       <c r="B57" s="54"/>
       <c r="C57" s="149"/>
@@ -6327,29 +6344,29 @@
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="C59" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>158</v>
-      </c>
       <c r="E59" s="148" t="s">
-        <v>159</v>
+        <v>56</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G59" s="23"/>
       <c r="H59" s="78"/>
-      <c r="I59" s="78" t="s">
-        <v>160</v>
-      </c>
-      <c r="J59" s="78"/>
+      <c r="I59" s="78"/>
+      <c r="J59" s="78" t="s">
+        <v>156</v>
+      </c>
       <c r="K59" s="78"/>
       <c r="L59" s="78"/>
       <c r="M59" s="78"/>
@@ -6374,10 +6391,10 @@
       </c>
       <c r="G60" s="150"/>
       <c r="H60" s="151"/>
-      <c r="I60" s="151" t="s">
-        <v>161</v>
-      </c>
-      <c r="J60" s="151"/>
+      <c r="I60" s="151"/>
+      <c r="J60" s="151" t="s">
+        <v>157</v>
+      </c>
       <c r="K60" s="151"/>
       <c r="L60" s="151"/>
       <c r="M60" s="151"/>
@@ -6397,133 +6414,147 @@
       <c r="C61" s="149"/>
       <c r="D61" s="21"/>
       <c r="E61" s="148"/>
-      <c r="F61" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="G61" s="23"/>
-      <c r="H61" s="78"/>
-      <c r="I61" s="78" t="s">
+      <c r="F61" s="150" t="s">
+        <v>28</v>
+      </c>
+      <c r="G61" s="150"/>
+      <c r="H61" s="151"/>
+      <c r="I61" s="151"/>
+      <c r="J61" s="151" t="s">
+        <v>30</v>
+      </c>
+      <c r="K61" s="151"/>
+      <c r="L61" s="151"/>
+      <c r="M61" s="151"/>
+      <c r="N61" s="151"/>
+      <c r="O61" s="151"/>
+      <c r="P61" s="151"/>
+      <c r="Q61" s="151"/>
+      <c r="R61" s="151"/>
+      <c r="S61" s="151"/>
+      <c r="T61" s="151"/>
+      <c r="U61" s="151"/>
+      <c r="V61" s="163"/>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="A62" s="65"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="149"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="148"/>
+      <c r="F62" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" s="23"/>
+      <c r="H62" s="78"/>
+      <c r="I62" s="78"/>
+      <c r="J62" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="K62" s="78"/>
+      <c r="L62" s="78"/>
+      <c r="M62" s="78"/>
+      <c r="N62" s="78"/>
+      <c r="O62" s="78"/>
+      <c r="P62" s="78"/>
+      <c r="Q62" s="78"/>
+      <c r="R62" s="78"/>
+      <c r="S62" s="78"/>
+      <c r="T62" s="78"/>
+      <c r="U62" s="78"/>
+      <c r="V62" s="24"/>
+    </row>
+    <row r="63" ht="14.25" spans="1:22">
+      <c r="A63" s="66"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="149"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="152"/>
+      <c r="F63" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="G63" s="153"/>
+      <c r="H63" s="154"/>
+      <c r="I63" s="154"/>
+      <c r="J63" s="154" t="s">
+        <v>159</v>
+      </c>
+      <c r="K63" s="154"/>
+      <c r="L63" s="154"/>
+      <c r="M63" s="154"/>
+      <c r="N63" s="154"/>
+      <c r="O63" s="154"/>
+      <c r="P63" s="154"/>
+      <c r="Q63" s="154"/>
+      <c r="R63" s="154"/>
+      <c r="S63" s="154"/>
+      <c r="T63" s="154"/>
+      <c r="U63" s="154"/>
+      <c r="V63" s="164"/>
+    </row>
+    <row r="64" ht="14.25" spans="1:22">
+      <c r="A64" s="103"/>
+      <c r="B64" s="104"/>
+      <c r="C64" s="155"/>
+      <c r="D64" s="104"/>
+      <c r="E64" s="156"/>
+      <c r="F64" s="157" t="s">
+        <v>42</v>
+      </c>
+      <c r="G64" s="157"/>
+      <c r="H64" s="158"/>
+      <c r="I64" s="158"/>
+      <c r="J64" s="158"/>
+      <c r="K64" s="158"/>
+      <c r="L64" s="158"/>
+      <c r="M64" s="158"/>
+      <c r="N64" s="158"/>
+      <c r="O64" s="158"/>
+      <c r="P64" s="158"/>
+      <c r="Q64" s="158"/>
+      <c r="R64" s="158"/>
+      <c r="S64" s="158"/>
+      <c r="T64" s="158"/>
+      <c r="U64" s="158"/>
+      <c r="V64" s="165"/>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="A65" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="J61" s="78"/>
-      <c r="K61" s="78"/>
-      <c r="L61" s="78"/>
-      <c r="M61" s="78"/>
-      <c r="N61" s="78"/>
-      <c r="O61" s="78"/>
-      <c r="P61" s="78"/>
-      <c r="Q61" s="78"/>
-      <c r="R61" s="78"/>
-      <c r="S61" s="78"/>
-      <c r="T61" s="78"/>
-      <c r="U61" s="78"/>
-      <c r="V61" s="24"/>
-    </row>
-    <row r="62" ht="14.25" spans="1:22">
-      <c r="A62" s="66"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="149"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="152"/>
-      <c r="F62" s="153" t="s">
-        <v>37</v>
-      </c>
-      <c r="G62" s="153"/>
-      <c r="H62" s="154"/>
-      <c r="I62" s="154" t="s">
+      <c r="D65" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="J62" s="154"/>
-      <c r="K62" s="154"/>
-      <c r="L62" s="154"/>
-      <c r="M62" s="154"/>
-      <c r="N62" s="154"/>
-      <c r="O62" s="154"/>
-      <c r="P62" s="154"/>
-      <c r="Q62" s="154"/>
-      <c r="R62" s="154"/>
-      <c r="S62" s="154"/>
-      <c r="T62" s="154"/>
-      <c r="U62" s="154"/>
-      <c r="V62" s="164"/>
-    </row>
-    <row r="63" ht="14.25" spans="1:22">
-      <c r="A63" s="103"/>
-      <c r="B63" s="104"/>
-      <c r="C63" s="155"/>
-      <c r="D63" s="104"/>
-      <c r="E63" s="156"/>
-      <c r="F63" s="157" t="s">
-        <v>42</v>
-      </c>
-      <c r="G63" s="157"/>
-      <c r="H63" s="158"/>
-      <c r="I63" s="158"/>
-      <c r="J63" s="158"/>
-      <c r="K63" s="158"/>
-      <c r="L63" s="158"/>
-      <c r="M63" s="158"/>
-      <c r="N63" s="158"/>
-      <c r="O63" s="158"/>
-      <c r="P63" s="158"/>
-      <c r="Q63" s="158"/>
-      <c r="R63" s="158"/>
-      <c r="S63" s="158"/>
-      <c r="T63" s="158"/>
-      <c r="U63" s="158"/>
-      <c r="V63" s="165"/>
-    </row>
-    <row r="64" spans="1:22">
-      <c r="A64" s="65"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="148"/>
-      <c r="F64" s="23" t="s">
+      <c r="E65" s="148" t="s">
+        <v>164</v>
+      </c>
+      <c r="F65" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G64" s="23"/>
-      <c r="H64" s="78"/>
-      <c r="I64" s="78"/>
-      <c r="J64" s="78"/>
-      <c r="K64" s="78"/>
-      <c r="L64" s="78"/>
-      <c r="M64" s="78"/>
-      <c r="N64" s="78"/>
-      <c r="O64" s="78"/>
-      <c r="P64" s="78"/>
-      <c r="Q64" s="78"/>
-      <c r="R64" s="78"/>
-      <c r="S64" s="78"/>
-      <c r="T64" s="78"/>
-      <c r="U64" s="78"/>
-      <c r="V64" s="24"/>
-    </row>
-    <row r="65" spans="1:22">
-      <c r="A65" s="65"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="149"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="148"/>
-      <c r="F65" s="150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" s="150"/>
-      <c r="H65" s="151"/>
-      <c r="I65" s="151"/>
-      <c r="J65" s="151"/>
-      <c r="K65" s="151"/>
-      <c r="L65" s="151"/>
-      <c r="M65" s="151"/>
-      <c r="N65" s="151"/>
-      <c r="O65" s="151"/>
-      <c r="P65" s="151"/>
-      <c r="Q65" s="151"/>
-      <c r="R65" s="151"/>
-      <c r="S65" s="151"/>
-      <c r="T65" s="151"/>
-      <c r="U65" s="151"/>
-      <c r="V65" s="163"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="78"/>
+      <c r="I65" s="78" t="s">
+        <v>165</v>
+      </c>
+      <c r="J65" s="78"/>
+      <c r="K65" s="78"/>
+      <c r="L65" s="78"/>
+      <c r="M65" s="78"/>
+      <c r="N65" s="78"/>
+      <c r="O65" s="78"/>
+      <c r="P65" s="78"/>
+      <c r="Q65" s="78"/>
+      <c r="R65" s="78"/>
+      <c r="S65" s="78"/>
+      <c r="T65" s="78"/>
+      <c r="U65" s="78"/>
+      <c r="V65" s="24"/>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="65"/>
@@ -6531,129 +6562,135 @@
       <c r="C66" s="149"/>
       <c r="D66" s="21"/>
       <c r="E66" s="148"/>
-      <c r="F66" s="23" t="s">
+      <c r="F66" s="150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" s="150"/>
+      <c r="H66" s="151"/>
+      <c r="I66" s="151" t="s">
+        <v>166</v>
+      </c>
+      <c r="J66" s="151"/>
+      <c r="K66" s="151"/>
+      <c r="L66" s="151"/>
+      <c r="M66" s="151"/>
+      <c r="N66" s="151"/>
+      <c r="O66" s="151"/>
+      <c r="P66" s="151"/>
+      <c r="Q66" s="151"/>
+      <c r="R66" s="151"/>
+      <c r="S66" s="151"/>
+      <c r="T66" s="151"/>
+      <c r="U66" s="151"/>
+      <c r="V66" s="163"/>
+    </row>
+    <row r="67" spans="1:22">
+      <c r="A67" s="65"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="149"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="148"/>
+      <c r="F67" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="G66" s="23"/>
-      <c r="H66" s="78"/>
-      <c r="I66" s="78"/>
-      <c r="J66" s="78"/>
-      <c r="K66" s="78"/>
-      <c r="L66" s="78"/>
-      <c r="M66" s="78"/>
-      <c r="N66" s="78"/>
-      <c r="O66" s="78"/>
-      <c r="P66" s="78"/>
-      <c r="Q66" s="78"/>
-      <c r="R66" s="78"/>
-      <c r="S66" s="78"/>
-      <c r="T66" s="78"/>
-      <c r="U66" s="78"/>
-      <c r="V66" s="24"/>
-    </row>
-    <row r="67" ht="14.25" spans="1:22">
-      <c r="A67" s="66"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="149"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="152"/>
-      <c r="F67" s="153" t="s">
+      <c r="G67" s="23"/>
+      <c r="H67" s="78"/>
+      <c r="I67" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="J67" s="78"/>
+      <c r="K67" s="78"/>
+      <c r="L67" s="78"/>
+      <c r="M67" s="78"/>
+      <c r="N67" s="78"/>
+      <c r="O67" s="78"/>
+      <c r="P67" s="78"/>
+      <c r="Q67" s="78"/>
+      <c r="R67" s="78"/>
+      <c r="S67" s="78"/>
+      <c r="T67" s="78"/>
+      <c r="U67" s="78"/>
+      <c r="V67" s="24"/>
+    </row>
+    <row r="68" ht="14.25" spans="1:22">
+      <c r="A68" s="66"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="149"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="152"/>
+      <c r="F68" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="G67" s="153"/>
-      <c r="H67" s="154"/>
-      <c r="I67" s="154"/>
-      <c r="J67" s="154"/>
-      <c r="K67" s="154"/>
-      <c r="L67" s="154"/>
-      <c r="M67" s="154"/>
-      <c r="N67" s="154"/>
-      <c r="O67" s="154"/>
-      <c r="P67" s="154"/>
-      <c r="Q67" s="154"/>
-      <c r="R67" s="154"/>
-      <c r="S67" s="154"/>
-      <c r="T67" s="154"/>
-      <c r="U67" s="154"/>
-      <c r="V67" s="164"/>
-    </row>
-    <row r="68" ht="14.25" spans="1:22">
-      <c r="A68" s="103"/>
-      <c r="B68" s="104"/>
-      <c r="C68" s="155"/>
-      <c r="D68" s="104"/>
-      <c r="E68" s="156"/>
-      <c r="F68" s="157" t="s">
+      <c r="G68" s="153"/>
+      <c r="H68" s="154"/>
+      <c r="I68" s="154" t="s">
+        <v>168</v>
+      </c>
+      <c r="J68" s="154"/>
+      <c r="K68" s="154"/>
+      <c r="L68" s="154"/>
+      <c r="M68" s="154"/>
+      <c r="N68" s="154"/>
+      <c r="O68" s="154"/>
+      <c r="P68" s="154"/>
+      <c r="Q68" s="154"/>
+      <c r="R68" s="154"/>
+      <c r="S68" s="154"/>
+      <c r="T68" s="154"/>
+      <c r="U68" s="154"/>
+      <c r="V68" s="164"/>
+    </row>
+    <row r="69" ht="14.25" spans="1:22">
+      <c r="A69" s="103"/>
+      <c r="B69" s="104"/>
+      <c r="C69" s="155"/>
+      <c r="D69" s="104"/>
+      <c r="E69" s="156"/>
+      <c r="F69" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="G68" s="157"/>
-      <c r="H68" s="158"/>
-      <c r="I68" s="158"/>
-      <c r="J68" s="158"/>
-      <c r="K68" s="158"/>
-      <c r="L68" s="158"/>
-      <c r="M68" s="158"/>
-      <c r="N68" s="158"/>
-      <c r="O68" s="158"/>
-      <c r="P68" s="158"/>
-      <c r="Q68" s="158"/>
-      <c r="R68" s="158"/>
-      <c r="S68" s="158"/>
-      <c r="T68" s="158"/>
-      <c r="U68" s="158"/>
-      <c r="V68" s="165"/>
-    </row>
-    <row r="69" spans="1:22">
-      <c r="A69" s="65"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="148"/>
-      <c r="F69" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" s="23"/>
-      <c r="H69" s="78"/>
-      <c r="I69" s="78"/>
-      <c r="J69" s="78"/>
-      <c r="K69" s="78"/>
-      <c r="L69" s="78"/>
-      <c r="M69" s="78"/>
-      <c r="N69" s="78"/>
-      <c r="O69" s="78"/>
-      <c r="P69" s="78"/>
-      <c r="Q69" s="78"/>
-      <c r="R69" s="78"/>
-      <c r="S69" s="78"/>
-      <c r="T69" s="78"/>
-      <c r="U69" s="78"/>
-      <c r="V69" s="24"/>
+      <c r="G69" s="157"/>
+      <c r="H69" s="158"/>
+      <c r="I69" s="158"/>
+      <c r="J69" s="158"/>
+      <c r="K69" s="158"/>
+      <c r="L69" s="158"/>
+      <c r="M69" s="158"/>
+      <c r="N69" s="158"/>
+      <c r="O69" s="158"/>
+      <c r="P69" s="158"/>
+      <c r="Q69" s="158"/>
+      <c r="R69" s="158"/>
+      <c r="S69" s="158"/>
+      <c r="T69" s="158"/>
+      <c r="U69" s="158"/>
+      <c r="V69" s="165"/>
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="65"/>
       <c r="B70" s="21"/>
-      <c r="C70" s="149"/>
+      <c r="C70" s="54"/>
       <c r="D70" s="21"/>
       <c r="E70" s="148"/>
-      <c r="F70" s="150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G70" s="150"/>
-      <c r="H70" s="151"/>
-      <c r="I70" s="151"/>
-      <c r="J70" s="151"/>
-      <c r="K70" s="151"/>
-      <c r="L70" s="151"/>
-      <c r="M70" s="151"/>
-      <c r="N70" s="151"/>
-      <c r="O70" s="151"/>
-      <c r="P70" s="151"/>
-      <c r="Q70" s="151"/>
-      <c r="R70" s="151"/>
-      <c r="S70" s="151"/>
-      <c r="T70" s="151"/>
-      <c r="U70" s="151"/>
-      <c r="V70" s="163"/>
+      <c r="F70" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="23"/>
+      <c r="H70" s="78"/>
+      <c r="I70" s="78"/>
+      <c r="J70" s="78"/>
+      <c r="K70" s="78"/>
+      <c r="L70" s="78"/>
+      <c r="M70" s="78"/>
+      <c r="N70" s="78"/>
+      <c r="O70" s="78"/>
+      <c r="P70" s="78"/>
+      <c r="Q70" s="78"/>
+      <c r="R70" s="78"/>
+      <c r="S70" s="78"/>
+      <c r="T70" s="78"/>
+      <c r="U70" s="78"/>
+      <c r="V70" s="24"/>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="65"/>
@@ -6661,129 +6698,129 @@
       <c r="C71" s="149"/>
       <c r="D71" s="21"/>
       <c r="E71" s="148"/>
-      <c r="F71" s="23" t="s">
+      <c r="F71" s="150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" s="150"/>
+      <c r="H71" s="151"/>
+      <c r="I71" s="151"/>
+      <c r="J71" s="151"/>
+      <c r="K71" s="151"/>
+      <c r="L71" s="151"/>
+      <c r="M71" s="151"/>
+      <c r="N71" s="151"/>
+      <c r="O71" s="151"/>
+      <c r="P71" s="151"/>
+      <c r="Q71" s="151"/>
+      <c r="R71" s="151"/>
+      <c r="S71" s="151"/>
+      <c r="T71" s="151"/>
+      <c r="U71" s="151"/>
+      <c r="V71" s="163"/>
+    </row>
+    <row r="72" spans="1:22">
+      <c r="A72" s="65"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="149"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="148"/>
+      <c r="F72" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="G71" s="23"/>
-      <c r="H71" s="78"/>
-      <c r="I71" s="78"/>
-      <c r="J71" s="78"/>
-      <c r="K71" s="78"/>
-      <c r="L71" s="78"/>
-      <c r="M71" s="78"/>
-      <c r="N71" s="78"/>
-      <c r="O71" s="78"/>
-      <c r="P71" s="78"/>
-      <c r="Q71" s="78"/>
-      <c r="R71" s="78"/>
-      <c r="S71" s="78"/>
-      <c r="T71" s="78"/>
-      <c r="U71" s="78"/>
-      <c r="V71" s="24"/>
-    </row>
-    <row r="72" ht="14.25" spans="1:22">
-      <c r="A72" s="66"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="149"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="152"/>
-      <c r="F72" s="153" t="s">
+      <c r="G72" s="23"/>
+      <c r="H72" s="78"/>
+      <c r="I72" s="78"/>
+      <c r="J72" s="78"/>
+      <c r="K72" s="78"/>
+      <c r="L72" s="78"/>
+      <c r="M72" s="78"/>
+      <c r="N72" s="78"/>
+      <c r="O72" s="78"/>
+      <c r="P72" s="78"/>
+      <c r="Q72" s="78"/>
+      <c r="R72" s="78"/>
+      <c r="S72" s="78"/>
+      <c r="T72" s="78"/>
+      <c r="U72" s="78"/>
+      <c r="V72" s="24"/>
+    </row>
+    <row r="73" ht="14.25" spans="1:22">
+      <c r="A73" s="66"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="149"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="152"/>
+      <c r="F73" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="G72" s="153"/>
-      <c r="H72" s="154"/>
-      <c r="I72" s="154"/>
-      <c r="J72" s="154"/>
-      <c r="K72" s="154"/>
-      <c r="L72" s="154"/>
-      <c r="M72" s="154"/>
-      <c r="N72" s="154"/>
-      <c r="O72" s="154"/>
-      <c r="P72" s="154"/>
-      <c r="Q72" s="154"/>
-      <c r="R72" s="154"/>
-      <c r="S72" s="154"/>
-      <c r="T72" s="154"/>
-      <c r="U72" s="154"/>
-      <c r="V72" s="164"/>
-    </row>
-    <row r="73" ht="14.25" spans="1:22">
-      <c r="A73" s="103"/>
-      <c r="B73" s="104"/>
-      <c r="C73" s="155"/>
-      <c r="D73" s="104"/>
-      <c r="E73" s="156"/>
-      <c r="F73" s="157" t="s">
+      <c r="G73" s="153"/>
+      <c r="H73" s="154"/>
+      <c r="I73" s="154"/>
+      <c r="J73" s="154"/>
+      <c r="K73" s="154"/>
+      <c r="L73" s="154"/>
+      <c r="M73" s="154"/>
+      <c r="N73" s="154"/>
+      <c r="O73" s="154"/>
+      <c r="P73" s="154"/>
+      <c r="Q73" s="154"/>
+      <c r="R73" s="154"/>
+      <c r="S73" s="154"/>
+      <c r="T73" s="154"/>
+      <c r="U73" s="154"/>
+      <c r="V73" s="164"/>
+    </row>
+    <row r="74" ht="14.25" spans="1:22">
+      <c r="A74" s="103"/>
+      <c r="B74" s="104"/>
+      <c r="C74" s="155"/>
+      <c r="D74" s="104"/>
+      <c r="E74" s="156"/>
+      <c r="F74" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="G73" s="157"/>
-      <c r="H73" s="158"/>
-      <c r="I73" s="158"/>
-      <c r="J73" s="158"/>
-      <c r="K73" s="158"/>
-      <c r="L73" s="158"/>
-      <c r="M73" s="158"/>
-      <c r="N73" s="158"/>
-      <c r="O73" s="158"/>
-      <c r="P73" s="158"/>
-      <c r="Q73" s="158"/>
-      <c r="R73" s="158"/>
-      <c r="S73" s="158"/>
-      <c r="T73" s="158"/>
-      <c r="U73" s="158"/>
-      <c r="V73" s="165"/>
-    </row>
-    <row r="74" spans="1:22">
-      <c r="A74" s="65"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="148"/>
-      <c r="F74" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" s="23"/>
-      <c r="H74" s="78"/>
-      <c r="I74" s="78"/>
-      <c r="J74" s="78"/>
-      <c r="K74" s="78"/>
-      <c r="L74" s="78"/>
-      <c r="M74" s="78"/>
-      <c r="N74" s="78"/>
-      <c r="O74" s="78"/>
-      <c r="P74" s="78"/>
-      <c r="Q74" s="78"/>
-      <c r="R74" s="78"/>
-      <c r="S74" s="78"/>
-      <c r="T74" s="78"/>
-      <c r="U74" s="78"/>
-      <c r="V74" s="24"/>
+      <c r="G74" s="157"/>
+      <c r="H74" s="158"/>
+      <c r="I74" s="158"/>
+      <c r="J74" s="158"/>
+      <c r="K74" s="158"/>
+      <c r="L74" s="158"/>
+      <c r="M74" s="158"/>
+      <c r="N74" s="158"/>
+      <c r="O74" s="158"/>
+      <c r="P74" s="158"/>
+      <c r="Q74" s="158"/>
+      <c r="R74" s="158"/>
+      <c r="S74" s="158"/>
+      <c r="T74" s="158"/>
+      <c r="U74" s="158"/>
+      <c r="V74" s="165"/>
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="65"/>
       <c r="B75" s="21"/>
-      <c r="C75" s="149"/>
+      <c r="C75" s="54"/>
       <c r="D75" s="21"/>
       <c r="E75" s="148"/>
-      <c r="F75" s="150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75" s="150"/>
-      <c r="H75" s="151"/>
-      <c r="I75" s="151"/>
-      <c r="J75" s="151"/>
-      <c r="K75" s="151"/>
-      <c r="L75" s="151"/>
-      <c r="M75" s="151"/>
-      <c r="N75" s="151"/>
-      <c r="O75" s="151"/>
-      <c r="P75" s="151"/>
-      <c r="Q75" s="151"/>
-      <c r="R75" s="151"/>
-      <c r="S75" s="151"/>
-      <c r="T75" s="151"/>
-      <c r="U75" s="151"/>
-      <c r="V75" s="163"/>
+      <c r="F75" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" s="23"/>
+      <c r="H75" s="78"/>
+      <c r="I75" s="78"/>
+      <c r="J75" s="78"/>
+      <c r="K75" s="78"/>
+      <c r="L75" s="78"/>
+      <c r="M75" s="78"/>
+      <c r="N75" s="78"/>
+      <c r="O75" s="78"/>
+      <c r="P75" s="78"/>
+      <c r="Q75" s="78"/>
+      <c r="R75" s="78"/>
+      <c r="S75" s="78"/>
+      <c r="T75" s="78"/>
+      <c r="U75" s="78"/>
+      <c r="V75" s="24"/>
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="65"/>
@@ -6791,129 +6828,129 @@
       <c r="C76" s="149"/>
       <c r="D76" s="21"/>
       <c r="E76" s="148"/>
-      <c r="F76" s="23" t="s">
+      <c r="F76" s="150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G76" s="150"/>
+      <c r="H76" s="151"/>
+      <c r="I76" s="151"/>
+      <c r="J76" s="151"/>
+      <c r="K76" s="151"/>
+      <c r="L76" s="151"/>
+      <c r="M76" s="151"/>
+      <c r="N76" s="151"/>
+      <c r="O76" s="151"/>
+      <c r="P76" s="151"/>
+      <c r="Q76" s="151"/>
+      <c r="R76" s="151"/>
+      <c r="S76" s="151"/>
+      <c r="T76" s="151"/>
+      <c r="U76" s="151"/>
+      <c r="V76" s="163"/>
+    </row>
+    <row r="77" spans="1:22">
+      <c r="A77" s="65"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="149"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="148"/>
+      <c r="F77" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="G76" s="23"/>
-      <c r="H76" s="78"/>
-      <c r="I76" s="78"/>
-      <c r="J76" s="78"/>
-      <c r="K76" s="78"/>
-      <c r="L76" s="78"/>
-      <c r="M76" s="78"/>
-      <c r="N76" s="78"/>
-      <c r="O76" s="78"/>
-      <c r="P76" s="78"/>
-      <c r="Q76" s="78"/>
-      <c r="R76" s="78"/>
-      <c r="S76" s="78"/>
-      <c r="T76" s="78"/>
-      <c r="U76" s="78"/>
-      <c r="V76" s="24"/>
-    </row>
-    <row r="77" ht="14.25" spans="1:22">
-      <c r="A77" s="66"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="149"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="152"/>
-      <c r="F77" s="153" t="s">
+      <c r="G77" s="23"/>
+      <c r="H77" s="78"/>
+      <c r="I77" s="78"/>
+      <c r="J77" s="78"/>
+      <c r="K77" s="78"/>
+      <c r="L77" s="78"/>
+      <c r="M77" s="78"/>
+      <c r="N77" s="78"/>
+      <c r="O77" s="78"/>
+      <c r="P77" s="78"/>
+      <c r="Q77" s="78"/>
+      <c r="R77" s="78"/>
+      <c r="S77" s="78"/>
+      <c r="T77" s="78"/>
+      <c r="U77" s="78"/>
+      <c r="V77" s="24"/>
+    </row>
+    <row r="78" ht="14.25" spans="1:22">
+      <c r="A78" s="66"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="149"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="152"/>
+      <c r="F78" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="G77" s="153"/>
-      <c r="H77" s="154"/>
-      <c r="I77" s="154"/>
-      <c r="J77" s="154"/>
-      <c r="K77" s="154"/>
-      <c r="L77" s="154"/>
-      <c r="M77" s="154"/>
-      <c r="N77" s="154"/>
-      <c r="O77" s="154"/>
-      <c r="P77" s="154"/>
-      <c r="Q77" s="154"/>
-      <c r="R77" s="154"/>
-      <c r="S77" s="154"/>
-      <c r="T77" s="154"/>
-      <c r="U77" s="154"/>
-      <c r="V77" s="164"/>
-    </row>
-    <row r="78" ht="14.25" spans="1:22">
-      <c r="A78" s="103"/>
-      <c r="B78" s="104"/>
-      <c r="C78" s="155"/>
-      <c r="D78" s="104"/>
-      <c r="E78" s="156"/>
-      <c r="F78" s="157" t="s">
+      <c r="G78" s="153"/>
+      <c r="H78" s="154"/>
+      <c r="I78" s="154"/>
+      <c r="J78" s="154"/>
+      <c r="K78" s="154"/>
+      <c r="L78" s="154"/>
+      <c r="M78" s="154"/>
+      <c r="N78" s="154"/>
+      <c r="O78" s="154"/>
+      <c r="P78" s="154"/>
+      <c r="Q78" s="154"/>
+      <c r="R78" s="154"/>
+      <c r="S78" s="154"/>
+      <c r="T78" s="154"/>
+      <c r="U78" s="154"/>
+      <c r="V78" s="164"/>
+    </row>
+    <row r="79" ht="14.25" spans="1:22">
+      <c r="A79" s="103"/>
+      <c r="B79" s="104"/>
+      <c r="C79" s="155"/>
+      <c r="D79" s="104"/>
+      <c r="E79" s="156"/>
+      <c r="F79" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="G78" s="157"/>
-      <c r="H78" s="158"/>
-      <c r="I78" s="158"/>
-      <c r="J78" s="158"/>
-      <c r="K78" s="158"/>
-      <c r="L78" s="158"/>
-      <c r="M78" s="158"/>
-      <c r="N78" s="158"/>
-      <c r="O78" s="158"/>
-      <c r="P78" s="158"/>
-      <c r="Q78" s="158"/>
-      <c r="R78" s="158"/>
-      <c r="S78" s="158"/>
-      <c r="T78" s="158"/>
-      <c r="U78" s="158"/>
-      <c r="V78" s="165"/>
-    </row>
-    <row r="79" spans="1:22">
-      <c r="A79" s="65"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="54"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="148"/>
-      <c r="F79" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" s="23"/>
-      <c r="H79" s="78"/>
-      <c r="I79" s="78"/>
-      <c r="J79" s="78"/>
-      <c r="K79" s="78"/>
-      <c r="L79" s="78"/>
-      <c r="M79" s="78"/>
-      <c r="N79" s="78"/>
-      <c r="O79" s="78"/>
-      <c r="P79" s="78"/>
-      <c r="Q79" s="78"/>
-      <c r="R79" s="78"/>
-      <c r="S79" s="78"/>
-      <c r="T79" s="78"/>
-      <c r="U79" s="78"/>
-      <c r="V79" s="24"/>
+      <c r="G79" s="157"/>
+      <c r="H79" s="158"/>
+      <c r="I79" s="158"/>
+      <c r="J79" s="158"/>
+      <c r="K79" s="158"/>
+      <c r="L79" s="158"/>
+      <c r="M79" s="158"/>
+      <c r="N79" s="158"/>
+      <c r="O79" s="158"/>
+      <c r="P79" s="158"/>
+      <c r="Q79" s="158"/>
+      <c r="R79" s="158"/>
+      <c r="S79" s="158"/>
+      <c r="T79" s="158"/>
+      <c r="U79" s="158"/>
+      <c r="V79" s="165"/>
     </row>
     <row r="80" spans="1:22">
       <c r="A80" s="65"/>
       <c r="B80" s="21"/>
-      <c r="C80" s="149"/>
+      <c r="C80" s="54"/>
       <c r="D80" s="21"/>
       <c r="E80" s="148"/>
-      <c r="F80" s="150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G80" s="150"/>
-      <c r="H80" s="151"/>
-      <c r="I80" s="151"/>
-      <c r="J80" s="151"/>
-      <c r="K80" s="151"/>
-      <c r="L80" s="151"/>
-      <c r="M80" s="151"/>
-      <c r="N80" s="151"/>
-      <c r="O80" s="151"/>
-      <c r="P80" s="151"/>
-      <c r="Q80" s="151"/>
-      <c r="R80" s="151"/>
-      <c r="S80" s="151"/>
-      <c r="T80" s="151"/>
-      <c r="U80" s="151"/>
-      <c r="V80" s="163"/>
+      <c r="F80" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G80" s="23"/>
+      <c r="H80" s="78"/>
+      <c r="I80" s="78"/>
+      <c r="J80" s="78"/>
+      <c r="K80" s="78"/>
+      <c r="L80" s="78"/>
+      <c r="M80" s="78"/>
+      <c r="N80" s="78"/>
+      <c r="O80" s="78"/>
+      <c r="P80" s="78"/>
+      <c r="Q80" s="78"/>
+      <c r="R80" s="78"/>
+      <c r="S80" s="78"/>
+      <c r="T80" s="78"/>
+      <c r="U80" s="78"/>
+      <c r="V80" s="24"/>
     </row>
     <row r="81" spans="1:22">
       <c r="A81" s="65"/>
@@ -6921,129 +6958,129 @@
       <c r="C81" s="149"/>
       <c r="D81" s="21"/>
       <c r="E81" s="148"/>
-      <c r="F81" s="23" t="s">
+      <c r="F81" s="150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G81" s="150"/>
+      <c r="H81" s="151"/>
+      <c r="I81" s="151"/>
+      <c r="J81" s="151"/>
+      <c r="K81" s="151"/>
+      <c r="L81" s="151"/>
+      <c r="M81" s="151"/>
+      <c r="N81" s="151"/>
+      <c r="O81" s="151"/>
+      <c r="P81" s="151"/>
+      <c r="Q81" s="151"/>
+      <c r="R81" s="151"/>
+      <c r="S81" s="151"/>
+      <c r="T81" s="151"/>
+      <c r="U81" s="151"/>
+      <c r="V81" s="163"/>
+    </row>
+    <row r="82" spans="1:22">
+      <c r="A82" s="65"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="149"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="148"/>
+      <c r="F82" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="G81" s="23"/>
-      <c r="H81" s="78"/>
-      <c r="I81" s="78"/>
-      <c r="J81" s="78"/>
-      <c r="K81" s="78"/>
-      <c r="L81" s="78"/>
-      <c r="M81" s="78"/>
-      <c r="N81" s="78"/>
-      <c r="O81" s="78"/>
-      <c r="P81" s="78"/>
-      <c r="Q81" s="78"/>
-      <c r="R81" s="78"/>
-      <c r="S81" s="78"/>
-      <c r="T81" s="78"/>
-      <c r="U81" s="78"/>
-      <c r="V81" s="24"/>
-    </row>
-    <row r="82" ht="14.25" spans="1:22">
-      <c r="A82" s="66"/>
-      <c r="B82" s="54"/>
-      <c r="C82" s="149"/>
-      <c r="D82" s="54"/>
-      <c r="E82" s="152"/>
-      <c r="F82" s="153" t="s">
+      <c r="G82" s="23"/>
+      <c r="H82" s="78"/>
+      <c r="I82" s="78"/>
+      <c r="J82" s="78"/>
+      <c r="K82" s="78"/>
+      <c r="L82" s="78"/>
+      <c r="M82" s="78"/>
+      <c r="N82" s="78"/>
+      <c r="O82" s="78"/>
+      <c r="P82" s="78"/>
+      <c r="Q82" s="78"/>
+      <c r="R82" s="78"/>
+      <c r="S82" s="78"/>
+      <c r="T82" s="78"/>
+      <c r="U82" s="78"/>
+      <c r="V82" s="24"/>
+    </row>
+    <row r="83" ht="14.25" spans="1:22">
+      <c r="A83" s="66"/>
+      <c r="B83" s="54"/>
+      <c r="C83" s="149"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="152"/>
+      <c r="F83" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="G82" s="153"/>
-      <c r="H82" s="154"/>
-      <c r="I82" s="154"/>
-      <c r="J82" s="154"/>
-      <c r="K82" s="154"/>
-      <c r="L82" s="154"/>
-      <c r="M82" s="154"/>
-      <c r="N82" s="154"/>
-      <c r="O82" s="154"/>
-      <c r="P82" s="154"/>
-      <c r="Q82" s="154"/>
-      <c r="R82" s="154"/>
-      <c r="S82" s="154"/>
-      <c r="T82" s="154"/>
-      <c r="U82" s="154"/>
-      <c r="V82" s="164"/>
-    </row>
-    <row r="83" ht="14.25" spans="1:22">
-      <c r="A83" s="103"/>
-      <c r="B83" s="104"/>
-      <c r="C83" s="155"/>
-      <c r="D83" s="104"/>
-      <c r="E83" s="156"/>
-      <c r="F83" s="157" t="s">
+      <c r="G83" s="153"/>
+      <c r="H83" s="154"/>
+      <c r="I83" s="154"/>
+      <c r="J83" s="154"/>
+      <c r="K83" s="154"/>
+      <c r="L83" s="154"/>
+      <c r="M83" s="154"/>
+      <c r="N83" s="154"/>
+      <c r="O83" s="154"/>
+      <c r="P83" s="154"/>
+      <c r="Q83" s="154"/>
+      <c r="R83" s="154"/>
+      <c r="S83" s="154"/>
+      <c r="T83" s="154"/>
+      <c r="U83" s="154"/>
+      <c r="V83" s="164"/>
+    </row>
+    <row r="84" ht="14.25" spans="1:22">
+      <c r="A84" s="103"/>
+      <c r="B84" s="104"/>
+      <c r="C84" s="155"/>
+      <c r="D84" s="104"/>
+      <c r="E84" s="156"/>
+      <c r="F84" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="G83" s="157"/>
-      <c r="H83" s="158"/>
-      <c r="I83" s="158"/>
-      <c r="J83" s="158"/>
-      <c r="K83" s="158"/>
-      <c r="L83" s="158"/>
-      <c r="M83" s="158"/>
-      <c r="N83" s="158"/>
-      <c r="O83" s="158"/>
-      <c r="P83" s="158"/>
-      <c r="Q83" s="158"/>
-      <c r="R83" s="158"/>
-      <c r="S83" s="158"/>
-      <c r="T83" s="158"/>
-      <c r="U83" s="158"/>
-      <c r="V83" s="165"/>
-    </row>
-    <row r="84" spans="1:22">
-      <c r="A84" s="65"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="54"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="148"/>
-      <c r="F84" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" s="23"/>
-      <c r="H84" s="78"/>
-      <c r="I84" s="78"/>
-      <c r="J84" s="78"/>
-      <c r="K84" s="78"/>
-      <c r="L84" s="78"/>
-      <c r="M84" s="78"/>
-      <c r="N84" s="78"/>
-      <c r="O84" s="78"/>
-      <c r="P84" s="78"/>
-      <c r="Q84" s="78"/>
-      <c r="R84" s="78"/>
-      <c r="S84" s="78"/>
-      <c r="T84" s="78"/>
-      <c r="U84" s="78"/>
-      <c r="V84" s="24"/>
+      <c r="G84" s="157"/>
+      <c r="H84" s="158"/>
+      <c r="I84" s="158"/>
+      <c r="J84" s="158"/>
+      <c r="K84" s="158"/>
+      <c r="L84" s="158"/>
+      <c r="M84" s="158"/>
+      <c r="N84" s="158"/>
+      <c r="O84" s="158"/>
+      <c r="P84" s="158"/>
+      <c r="Q84" s="158"/>
+      <c r="R84" s="158"/>
+      <c r="S84" s="158"/>
+      <c r="T84" s="158"/>
+      <c r="U84" s="158"/>
+      <c r="V84" s="165"/>
     </row>
     <row r="85" spans="1:22">
       <c r="A85" s="65"/>
       <c r="B85" s="21"/>
-      <c r="C85" s="149"/>
+      <c r="C85" s="54"/>
       <c r="D85" s="21"/>
       <c r="E85" s="148"/>
-      <c r="F85" s="150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G85" s="150"/>
-      <c r="H85" s="151"/>
-      <c r="I85" s="151"/>
-      <c r="J85" s="151"/>
-      <c r="K85" s="151"/>
-      <c r="L85" s="151"/>
-      <c r="M85" s="151"/>
-      <c r="N85" s="151"/>
-      <c r="O85" s="151"/>
-      <c r="P85" s="151"/>
-      <c r="Q85" s="151"/>
-      <c r="R85" s="151"/>
-      <c r="S85" s="151"/>
-      <c r="T85" s="151"/>
-      <c r="U85" s="151"/>
-      <c r="V85" s="163"/>
+      <c r="F85" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85" s="23"/>
+      <c r="H85" s="78"/>
+      <c r="I85" s="78"/>
+      <c r="J85" s="78"/>
+      <c r="K85" s="78"/>
+      <c r="L85" s="78"/>
+      <c r="M85" s="78"/>
+      <c r="N85" s="78"/>
+      <c r="O85" s="78"/>
+      <c r="P85" s="78"/>
+      <c r="Q85" s="78"/>
+      <c r="R85" s="78"/>
+      <c r="S85" s="78"/>
+      <c r="T85" s="78"/>
+      <c r="U85" s="78"/>
+      <c r="V85" s="24"/>
     </row>
     <row r="86" spans="1:22">
       <c r="A86" s="65"/>
@@ -7051,129 +7088,129 @@
       <c r="C86" s="149"/>
       <c r="D86" s="21"/>
       <c r="E86" s="148"/>
-      <c r="F86" s="23" t="s">
+      <c r="F86" s="150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G86" s="150"/>
+      <c r="H86" s="151"/>
+      <c r="I86" s="151"/>
+      <c r="J86" s="151"/>
+      <c r="K86" s="151"/>
+      <c r="L86" s="151"/>
+      <c r="M86" s="151"/>
+      <c r="N86" s="151"/>
+      <c r="O86" s="151"/>
+      <c r="P86" s="151"/>
+      <c r="Q86" s="151"/>
+      <c r="R86" s="151"/>
+      <c r="S86" s="151"/>
+      <c r="T86" s="151"/>
+      <c r="U86" s="151"/>
+      <c r="V86" s="163"/>
+    </row>
+    <row r="87" spans="1:22">
+      <c r="A87" s="65"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="149"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="148"/>
+      <c r="F87" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="G86" s="23"/>
-      <c r="H86" s="78"/>
-      <c r="I86" s="78"/>
-      <c r="J86" s="78"/>
-      <c r="K86" s="78"/>
-      <c r="L86" s="78"/>
-      <c r="M86" s="78"/>
-      <c r="N86" s="78"/>
-      <c r="O86" s="78"/>
-      <c r="P86" s="78"/>
-      <c r="Q86" s="78"/>
-      <c r="R86" s="78"/>
-      <c r="S86" s="78"/>
-      <c r="T86" s="78"/>
-      <c r="U86" s="78"/>
-      <c r="V86" s="24"/>
-    </row>
-    <row r="87" ht="14.25" spans="1:22">
-      <c r="A87" s="66"/>
-      <c r="B87" s="54"/>
-      <c r="C87" s="149"/>
-      <c r="D87" s="54"/>
-      <c r="E87" s="152"/>
-      <c r="F87" s="153" t="s">
+      <c r="G87" s="23"/>
+      <c r="H87" s="78"/>
+      <c r="I87" s="78"/>
+      <c r="J87" s="78"/>
+      <c r="K87" s="78"/>
+      <c r="L87" s="78"/>
+      <c r="M87" s="78"/>
+      <c r="N87" s="78"/>
+      <c r="O87" s="78"/>
+      <c r="P87" s="78"/>
+      <c r="Q87" s="78"/>
+      <c r="R87" s="78"/>
+      <c r="S87" s="78"/>
+      <c r="T87" s="78"/>
+      <c r="U87" s="78"/>
+      <c r="V87" s="24"/>
+    </row>
+    <row r="88" ht="14.25" spans="1:22">
+      <c r="A88" s="66"/>
+      <c r="B88" s="54"/>
+      <c r="C88" s="149"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="152"/>
+      <c r="F88" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="G87" s="153"/>
-      <c r="H87" s="154"/>
-      <c r="I87" s="154"/>
-      <c r="J87" s="154"/>
-      <c r="K87" s="154"/>
-      <c r="L87" s="154"/>
-      <c r="M87" s="154"/>
-      <c r="N87" s="154"/>
-      <c r="O87" s="154"/>
-      <c r="P87" s="154"/>
-      <c r="Q87" s="154"/>
-      <c r="R87" s="154"/>
-      <c r="S87" s="154"/>
-      <c r="T87" s="154"/>
-      <c r="U87" s="154"/>
-      <c r="V87" s="164"/>
-    </row>
-    <row r="88" ht="14.25" spans="1:22">
-      <c r="A88" s="103"/>
-      <c r="B88" s="104"/>
-      <c r="C88" s="155"/>
-      <c r="D88" s="104"/>
-      <c r="E88" s="156"/>
-      <c r="F88" s="157" t="s">
+      <c r="G88" s="153"/>
+      <c r="H88" s="154"/>
+      <c r="I88" s="154"/>
+      <c r="J88" s="154"/>
+      <c r="K88" s="154"/>
+      <c r="L88" s="154"/>
+      <c r="M88" s="154"/>
+      <c r="N88" s="154"/>
+      <c r="O88" s="154"/>
+      <c r="P88" s="154"/>
+      <c r="Q88" s="154"/>
+      <c r="R88" s="154"/>
+      <c r="S88" s="154"/>
+      <c r="T88" s="154"/>
+      <c r="U88" s="154"/>
+      <c r="V88" s="164"/>
+    </row>
+    <row r="89" ht="14.25" spans="1:22">
+      <c r="A89" s="103"/>
+      <c r="B89" s="104"/>
+      <c r="C89" s="155"/>
+      <c r="D89" s="104"/>
+      <c r="E89" s="156"/>
+      <c r="F89" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="G88" s="157"/>
-      <c r="H88" s="158"/>
-      <c r="I88" s="158"/>
-      <c r="J88" s="158"/>
-      <c r="K88" s="158"/>
-      <c r="L88" s="158"/>
-      <c r="M88" s="158"/>
-      <c r="N88" s="158"/>
-      <c r="O88" s="158"/>
-      <c r="P88" s="158"/>
-      <c r="Q88" s="158"/>
-      <c r="R88" s="158"/>
-      <c r="S88" s="158"/>
-      <c r="T88" s="158"/>
-      <c r="U88" s="158"/>
-      <c r="V88" s="165"/>
-    </row>
-    <row r="89" spans="1:22">
-      <c r="A89" s="65"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="54"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="148"/>
-      <c r="F89" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" s="23"/>
-      <c r="H89" s="78"/>
-      <c r="I89" s="78"/>
-      <c r="J89" s="78"/>
-      <c r="K89" s="78"/>
-      <c r="L89" s="78"/>
-      <c r="M89" s="78"/>
-      <c r="N89" s="78"/>
-      <c r="O89" s="78"/>
-      <c r="P89" s="78"/>
-      <c r="Q89" s="78"/>
-      <c r="R89" s="78"/>
-      <c r="S89" s="78"/>
-      <c r="T89" s="78"/>
-      <c r="U89" s="78"/>
-      <c r="V89" s="24"/>
+      <c r="G89" s="157"/>
+      <c r="H89" s="158"/>
+      <c r="I89" s="158"/>
+      <c r="J89" s="158"/>
+      <c r="K89" s="158"/>
+      <c r="L89" s="158"/>
+      <c r="M89" s="158"/>
+      <c r="N89" s="158"/>
+      <c r="O89" s="158"/>
+      <c r="P89" s="158"/>
+      <c r="Q89" s="158"/>
+      <c r="R89" s="158"/>
+      <c r="S89" s="158"/>
+      <c r="T89" s="158"/>
+      <c r="U89" s="158"/>
+      <c r="V89" s="165"/>
     </row>
     <row r="90" spans="1:22">
       <c r="A90" s="65"/>
       <c r="B90" s="21"/>
-      <c r="C90" s="149"/>
+      <c r="C90" s="54"/>
       <c r="D90" s="21"/>
       <c r="E90" s="148"/>
-      <c r="F90" s="150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G90" s="150"/>
-      <c r="H90" s="151"/>
-      <c r="I90" s="151"/>
-      <c r="J90" s="151"/>
-      <c r="K90" s="151"/>
-      <c r="L90" s="151"/>
-      <c r="M90" s="151"/>
-      <c r="N90" s="151"/>
-      <c r="O90" s="151"/>
-      <c r="P90" s="151"/>
-      <c r="Q90" s="151"/>
-      <c r="R90" s="151"/>
-      <c r="S90" s="151"/>
-      <c r="T90" s="151"/>
-      <c r="U90" s="151"/>
-      <c r="V90" s="163"/>
+      <c r="F90" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G90" s="23"/>
+      <c r="H90" s="78"/>
+      <c r="I90" s="78"/>
+      <c r="J90" s="78"/>
+      <c r="K90" s="78"/>
+      <c r="L90" s="78"/>
+      <c r="M90" s="78"/>
+      <c r="N90" s="78"/>
+      <c r="O90" s="78"/>
+      <c r="P90" s="78"/>
+      <c r="Q90" s="78"/>
+      <c r="R90" s="78"/>
+      <c r="S90" s="78"/>
+      <c r="T90" s="78"/>
+      <c r="U90" s="78"/>
+      <c r="V90" s="24"/>
     </row>
     <row r="91" spans="1:22">
       <c r="A91" s="65"/>
@@ -7181,129 +7218,129 @@
       <c r="C91" s="149"/>
       <c r="D91" s="21"/>
       <c r="E91" s="148"/>
-      <c r="F91" s="23" t="s">
+      <c r="F91" s="150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G91" s="150"/>
+      <c r="H91" s="151"/>
+      <c r="I91" s="151"/>
+      <c r="J91" s="151"/>
+      <c r="K91" s="151"/>
+      <c r="L91" s="151"/>
+      <c r="M91" s="151"/>
+      <c r="N91" s="151"/>
+      <c r="O91" s="151"/>
+      <c r="P91" s="151"/>
+      <c r="Q91" s="151"/>
+      <c r="R91" s="151"/>
+      <c r="S91" s="151"/>
+      <c r="T91" s="151"/>
+      <c r="U91" s="151"/>
+      <c r="V91" s="163"/>
+    </row>
+    <row r="92" spans="1:22">
+      <c r="A92" s="65"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="149"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="148"/>
+      <c r="F92" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="G91" s="23"/>
-      <c r="H91" s="78"/>
-      <c r="I91" s="78"/>
-      <c r="J91" s="78"/>
-      <c r="K91" s="78"/>
-      <c r="L91" s="78"/>
-      <c r="M91" s="78"/>
-      <c r="N91" s="78"/>
-      <c r="O91" s="78"/>
-      <c r="P91" s="78"/>
-      <c r="Q91" s="78"/>
-      <c r="R91" s="78"/>
-      <c r="S91" s="78"/>
-      <c r="T91" s="78"/>
-      <c r="U91" s="78"/>
-      <c r="V91" s="24"/>
-    </row>
-    <row r="92" ht="14.25" spans="1:22">
-      <c r="A92" s="66"/>
-      <c r="B92" s="54"/>
-      <c r="C92" s="149"/>
-      <c r="D92" s="54"/>
-      <c r="E92" s="152"/>
-      <c r="F92" s="153" t="s">
+      <c r="G92" s="23"/>
+      <c r="H92" s="78"/>
+      <c r="I92" s="78"/>
+      <c r="J92" s="78"/>
+      <c r="K92" s="78"/>
+      <c r="L92" s="78"/>
+      <c r="M92" s="78"/>
+      <c r="N92" s="78"/>
+      <c r="O92" s="78"/>
+      <c r="P92" s="78"/>
+      <c r="Q92" s="78"/>
+      <c r="R92" s="78"/>
+      <c r="S92" s="78"/>
+      <c r="T92" s="78"/>
+      <c r="U92" s="78"/>
+      <c r="V92" s="24"/>
+    </row>
+    <row r="93" ht="14.25" spans="1:22">
+      <c r="A93" s="66"/>
+      <c r="B93" s="54"/>
+      <c r="C93" s="149"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="152"/>
+      <c r="F93" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="G92" s="153"/>
-      <c r="H92" s="154"/>
-      <c r="I92" s="154"/>
-      <c r="J92" s="154"/>
-      <c r="K92" s="154"/>
-      <c r="L92" s="154"/>
-      <c r="M92" s="154"/>
-      <c r="N92" s="154"/>
-      <c r="O92" s="154"/>
-      <c r="P92" s="154"/>
-      <c r="Q92" s="154"/>
-      <c r="R92" s="154"/>
-      <c r="S92" s="154"/>
-      <c r="T92" s="154"/>
-      <c r="U92" s="154"/>
-      <c r="V92" s="164"/>
-    </row>
-    <row r="93" ht="14.25" spans="1:22">
-      <c r="A93" s="103"/>
-      <c r="B93" s="104"/>
-      <c r="C93" s="155"/>
-      <c r="D93" s="104"/>
-      <c r="E93" s="156"/>
-      <c r="F93" s="157" t="s">
+      <c r="G93" s="153"/>
+      <c r="H93" s="154"/>
+      <c r="I93" s="154"/>
+      <c r="J93" s="154"/>
+      <c r="K93" s="154"/>
+      <c r="L93" s="154"/>
+      <c r="M93" s="154"/>
+      <c r="N93" s="154"/>
+      <c r="O93" s="154"/>
+      <c r="P93" s="154"/>
+      <c r="Q93" s="154"/>
+      <c r="R93" s="154"/>
+      <c r="S93" s="154"/>
+      <c r="T93" s="154"/>
+      <c r="U93" s="154"/>
+      <c r="V93" s="164"/>
+    </row>
+    <row r="94" ht="14.25" spans="1:22">
+      <c r="A94" s="103"/>
+      <c r="B94" s="104"/>
+      <c r="C94" s="155"/>
+      <c r="D94" s="104"/>
+      <c r="E94" s="156"/>
+      <c r="F94" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="G93" s="157"/>
-      <c r="H93" s="158"/>
-      <c r="I93" s="158"/>
-      <c r="J93" s="158"/>
-      <c r="K93" s="158"/>
-      <c r="L93" s="158"/>
-      <c r="M93" s="158"/>
-      <c r="N93" s="158"/>
-      <c r="O93" s="158"/>
-      <c r="P93" s="158"/>
-      <c r="Q93" s="158"/>
-      <c r="R93" s="158"/>
-      <c r="S93" s="158"/>
-      <c r="T93" s="158"/>
-      <c r="U93" s="158"/>
-      <c r="V93" s="165"/>
-    </row>
-    <row r="94" spans="1:22">
-      <c r="A94" s="65"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="54"/>
-      <c r="D94" s="21"/>
-      <c r="E94" s="148"/>
-      <c r="F94" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" s="23"/>
-      <c r="H94" s="78"/>
-      <c r="I94" s="78"/>
-      <c r="J94" s="78"/>
-      <c r="K94" s="78"/>
-      <c r="L94" s="78"/>
-      <c r="M94" s="78"/>
-      <c r="N94" s="78"/>
-      <c r="O94" s="78"/>
-      <c r="P94" s="78"/>
-      <c r="Q94" s="78"/>
-      <c r="R94" s="78"/>
-      <c r="S94" s="78"/>
-      <c r="T94" s="78"/>
-      <c r="U94" s="78"/>
-      <c r="V94" s="24"/>
+      <c r="G94" s="157"/>
+      <c r="H94" s="158"/>
+      <c r="I94" s="158"/>
+      <c r="J94" s="158"/>
+      <c r="K94" s="158"/>
+      <c r="L94" s="158"/>
+      <c r="M94" s="158"/>
+      <c r="N94" s="158"/>
+      <c r="O94" s="158"/>
+      <c r="P94" s="158"/>
+      <c r="Q94" s="158"/>
+      <c r="R94" s="158"/>
+      <c r="S94" s="158"/>
+      <c r="T94" s="158"/>
+      <c r="U94" s="158"/>
+      <c r="V94" s="165"/>
     </row>
     <row r="95" spans="1:22">
       <c r="A95" s="65"/>
       <c r="B95" s="21"/>
-      <c r="C95" s="149"/>
+      <c r="C95" s="54"/>
       <c r="D95" s="21"/>
       <c r="E95" s="148"/>
-      <c r="F95" s="150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G95" s="150"/>
-      <c r="H95" s="151"/>
-      <c r="I95" s="151"/>
-      <c r="J95" s="151"/>
-      <c r="K95" s="151"/>
-      <c r="L95" s="151"/>
-      <c r="M95" s="151"/>
-      <c r="N95" s="151"/>
-      <c r="O95" s="151"/>
-      <c r="P95" s="151"/>
-      <c r="Q95" s="151"/>
-      <c r="R95" s="151"/>
-      <c r="S95" s="151"/>
-      <c r="T95" s="151"/>
-      <c r="U95" s="151"/>
-      <c r="V95" s="163"/>
+      <c r="F95" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G95" s="23"/>
+      <c r="H95" s="78"/>
+      <c r="I95" s="78"/>
+      <c r="J95" s="78"/>
+      <c r="K95" s="78"/>
+      <c r="L95" s="78"/>
+      <c r="M95" s="78"/>
+      <c r="N95" s="78"/>
+      <c r="O95" s="78"/>
+      <c r="P95" s="78"/>
+      <c r="Q95" s="78"/>
+      <c r="R95" s="78"/>
+      <c r="S95" s="78"/>
+      <c r="T95" s="78"/>
+      <c r="U95" s="78"/>
+      <c r="V95" s="24"/>
     </row>
     <row r="96" spans="1:22">
       <c r="A96" s="65"/>
@@ -7311,129 +7348,129 @@
       <c r="C96" s="149"/>
       <c r="D96" s="21"/>
       <c r="E96" s="148"/>
-      <c r="F96" s="23" t="s">
+      <c r="F96" s="150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G96" s="150"/>
+      <c r="H96" s="151"/>
+      <c r="I96" s="151"/>
+      <c r="J96" s="151"/>
+      <c r="K96" s="151"/>
+      <c r="L96" s="151"/>
+      <c r="M96" s="151"/>
+      <c r="N96" s="151"/>
+      <c r="O96" s="151"/>
+      <c r="P96" s="151"/>
+      <c r="Q96" s="151"/>
+      <c r="R96" s="151"/>
+      <c r="S96" s="151"/>
+      <c r="T96" s="151"/>
+      <c r="U96" s="151"/>
+      <c r="V96" s="163"/>
+    </row>
+    <row r="97" spans="1:22">
+      <c r="A97" s="65"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="149"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="148"/>
+      <c r="F97" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="G96" s="23"/>
-      <c r="H96" s="78"/>
-      <c r="I96" s="78"/>
-      <c r="J96" s="78"/>
-      <c r="K96" s="78"/>
-      <c r="L96" s="78"/>
-      <c r="M96" s="78"/>
-      <c r="N96" s="78"/>
-      <c r="O96" s="78"/>
-      <c r="P96" s="78"/>
-      <c r="Q96" s="78"/>
-      <c r="R96" s="78"/>
-      <c r="S96" s="78"/>
-      <c r="T96" s="78"/>
-      <c r="U96" s="78"/>
-      <c r="V96" s="24"/>
-    </row>
-    <row r="97" ht="14.25" spans="1:22">
-      <c r="A97" s="66"/>
-      <c r="B97" s="54"/>
-      <c r="C97" s="149"/>
-      <c r="D97" s="54"/>
-      <c r="E97" s="152"/>
-      <c r="F97" s="153" t="s">
+      <c r="G97" s="23"/>
+      <c r="H97" s="78"/>
+      <c r="I97" s="78"/>
+      <c r="J97" s="78"/>
+      <c r="K97" s="78"/>
+      <c r="L97" s="78"/>
+      <c r="M97" s="78"/>
+      <c r="N97" s="78"/>
+      <c r="O97" s="78"/>
+      <c r="P97" s="78"/>
+      <c r="Q97" s="78"/>
+      <c r="R97" s="78"/>
+      <c r="S97" s="78"/>
+      <c r="T97" s="78"/>
+      <c r="U97" s="78"/>
+      <c r="V97" s="24"/>
+    </row>
+    <row r="98" ht="14.25" spans="1:22">
+      <c r="A98" s="66"/>
+      <c r="B98" s="54"/>
+      <c r="C98" s="149"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="152"/>
+      <c r="F98" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="G97" s="153"/>
-      <c r="H97" s="154"/>
-      <c r="I97" s="154"/>
-      <c r="J97" s="154"/>
-      <c r="K97" s="154"/>
-      <c r="L97" s="154"/>
-      <c r="M97" s="154"/>
-      <c r="N97" s="154"/>
-      <c r="O97" s="154"/>
-      <c r="P97" s="154"/>
-      <c r="Q97" s="154"/>
-      <c r="R97" s="154"/>
-      <c r="S97" s="154"/>
-      <c r="T97" s="154"/>
-      <c r="U97" s="154"/>
-      <c r="V97" s="164"/>
-    </row>
-    <row r="98" ht="14.25" spans="1:22">
-      <c r="A98" s="103"/>
-      <c r="B98" s="104"/>
-      <c r="C98" s="155"/>
-      <c r="D98" s="104"/>
-      <c r="E98" s="156"/>
-      <c r="F98" s="157" t="s">
+      <c r="G98" s="153"/>
+      <c r="H98" s="154"/>
+      <c r="I98" s="154"/>
+      <c r="J98" s="154"/>
+      <c r="K98" s="154"/>
+      <c r="L98" s="154"/>
+      <c r="M98" s="154"/>
+      <c r="N98" s="154"/>
+      <c r="O98" s="154"/>
+      <c r="P98" s="154"/>
+      <c r="Q98" s="154"/>
+      <c r="R98" s="154"/>
+      <c r="S98" s="154"/>
+      <c r="T98" s="154"/>
+      <c r="U98" s="154"/>
+      <c r="V98" s="164"/>
+    </row>
+    <row r="99" ht="14.25" spans="1:22">
+      <c r="A99" s="103"/>
+      <c r="B99" s="104"/>
+      <c r="C99" s="155"/>
+      <c r="D99" s="104"/>
+      <c r="E99" s="156"/>
+      <c r="F99" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="G98" s="157"/>
-      <c r="H98" s="158"/>
-      <c r="I98" s="158"/>
-      <c r="J98" s="158"/>
-      <c r="K98" s="158"/>
-      <c r="L98" s="158"/>
-      <c r="M98" s="158"/>
-      <c r="N98" s="158"/>
-      <c r="O98" s="158"/>
-      <c r="P98" s="158"/>
-      <c r="Q98" s="158"/>
-      <c r="R98" s="158"/>
-      <c r="S98" s="158"/>
-      <c r="T98" s="158"/>
-      <c r="U98" s="158"/>
-      <c r="V98" s="165"/>
-    </row>
-    <row r="99" spans="1:22">
-      <c r="A99" s="65"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="54"/>
-      <c r="D99" s="21"/>
-      <c r="E99" s="148"/>
-      <c r="F99" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" s="23"/>
-      <c r="H99" s="78"/>
-      <c r="I99" s="78"/>
-      <c r="J99" s="78"/>
-      <c r="K99" s="78"/>
-      <c r="L99" s="78"/>
-      <c r="M99" s="78"/>
-      <c r="N99" s="78"/>
-      <c r="O99" s="78"/>
-      <c r="P99" s="78"/>
-      <c r="Q99" s="78"/>
-      <c r="R99" s="78"/>
-      <c r="S99" s="78"/>
-      <c r="T99" s="78"/>
-      <c r="U99" s="78"/>
-      <c r="V99" s="24"/>
+      <c r="G99" s="157"/>
+      <c r="H99" s="158"/>
+      <c r="I99" s="158"/>
+      <c r="J99" s="158"/>
+      <c r="K99" s="158"/>
+      <c r="L99" s="158"/>
+      <c r="M99" s="158"/>
+      <c r="N99" s="158"/>
+      <c r="O99" s="158"/>
+      <c r="P99" s="158"/>
+      <c r="Q99" s="158"/>
+      <c r="R99" s="158"/>
+      <c r="S99" s="158"/>
+      <c r="T99" s="158"/>
+      <c r="U99" s="158"/>
+      <c r="V99" s="165"/>
     </row>
     <row r="100" spans="1:22">
       <c r="A100" s="65"/>
       <c r="B100" s="21"/>
-      <c r="C100" s="149"/>
+      <c r="C100" s="54"/>
       <c r="D100" s="21"/>
       <c r="E100" s="148"/>
-      <c r="F100" s="150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G100" s="150"/>
-      <c r="H100" s="151"/>
-      <c r="I100" s="151"/>
-      <c r="J100" s="151"/>
-      <c r="K100" s="151"/>
-      <c r="L100" s="151"/>
-      <c r="M100" s="151"/>
-      <c r="N100" s="151"/>
-      <c r="O100" s="151"/>
-      <c r="P100" s="151"/>
-      <c r="Q100" s="151"/>
-      <c r="R100" s="151"/>
-      <c r="S100" s="151"/>
-      <c r="T100" s="151"/>
-      <c r="U100" s="151"/>
-      <c r="V100" s="163"/>
+      <c r="F100" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G100" s="23"/>
+      <c r="H100" s="78"/>
+      <c r="I100" s="78"/>
+      <c r="J100" s="78"/>
+      <c r="K100" s="78"/>
+      <c r="L100" s="78"/>
+      <c r="M100" s="78"/>
+      <c r="N100" s="78"/>
+      <c r="O100" s="78"/>
+      <c r="P100" s="78"/>
+      <c r="Q100" s="78"/>
+      <c r="R100" s="78"/>
+      <c r="S100" s="78"/>
+      <c r="T100" s="78"/>
+      <c r="U100" s="78"/>
+      <c r="V100" s="24"/>
     </row>
     <row r="101" spans="1:22">
       <c r="A101" s="65"/>
@@ -7441,129 +7478,129 @@
       <c r="C101" s="149"/>
       <c r="D101" s="21"/>
       <c r="E101" s="148"/>
-      <c r="F101" s="23" t="s">
+      <c r="F101" s="150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G101" s="150"/>
+      <c r="H101" s="151"/>
+      <c r="I101" s="151"/>
+      <c r="J101" s="151"/>
+      <c r="K101" s="151"/>
+      <c r="L101" s="151"/>
+      <c r="M101" s="151"/>
+      <c r="N101" s="151"/>
+      <c r="O101" s="151"/>
+      <c r="P101" s="151"/>
+      <c r="Q101" s="151"/>
+      <c r="R101" s="151"/>
+      <c r="S101" s="151"/>
+      <c r="T101" s="151"/>
+      <c r="U101" s="151"/>
+      <c r="V101" s="163"/>
+    </row>
+    <row r="102" spans="1:22">
+      <c r="A102" s="65"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="149"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="148"/>
+      <c r="F102" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="G101" s="23"/>
-      <c r="H101" s="78"/>
-      <c r="I101" s="78"/>
-      <c r="J101" s="78"/>
-      <c r="K101" s="78"/>
-      <c r="L101" s="78"/>
-      <c r="M101" s="78"/>
-      <c r="N101" s="78"/>
-      <c r="O101" s="78"/>
-      <c r="P101" s="78"/>
-      <c r="Q101" s="78"/>
-      <c r="R101" s="78"/>
-      <c r="S101" s="78"/>
-      <c r="T101" s="78"/>
-      <c r="U101" s="78"/>
-      <c r="V101" s="24"/>
-    </row>
-    <row r="102" ht="14.25" spans="1:22">
-      <c r="A102" s="66"/>
-      <c r="B102" s="54"/>
-      <c r="C102" s="149"/>
-      <c r="D102" s="54"/>
-      <c r="E102" s="152"/>
-      <c r="F102" s="153" t="s">
+      <c r="G102" s="23"/>
+      <c r="H102" s="78"/>
+      <c r="I102" s="78"/>
+      <c r="J102" s="78"/>
+      <c r="K102" s="78"/>
+      <c r="L102" s="78"/>
+      <c r="M102" s="78"/>
+      <c r="N102" s="78"/>
+      <c r="O102" s="78"/>
+      <c r="P102" s="78"/>
+      <c r="Q102" s="78"/>
+      <c r="R102" s="78"/>
+      <c r="S102" s="78"/>
+      <c r="T102" s="78"/>
+      <c r="U102" s="78"/>
+      <c r="V102" s="24"/>
+    </row>
+    <row r="103" ht="14.25" spans="1:22">
+      <c r="A103" s="66"/>
+      <c r="B103" s="54"/>
+      <c r="C103" s="149"/>
+      <c r="D103" s="54"/>
+      <c r="E103" s="152"/>
+      <c r="F103" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="G102" s="153"/>
-      <c r="H102" s="154"/>
-      <c r="I102" s="154"/>
-      <c r="J102" s="154"/>
-      <c r="K102" s="154"/>
-      <c r="L102" s="154"/>
-      <c r="M102" s="154"/>
-      <c r="N102" s="154"/>
-      <c r="O102" s="154"/>
-      <c r="P102" s="154"/>
-      <c r="Q102" s="154"/>
-      <c r="R102" s="154"/>
-      <c r="S102" s="154"/>
-      <c r="T102" s="154"/>
-      <c r="U102" s="154"/>
-      <c r="V102" s="164"/>
-    </row>
-    <row r="103" ht="14.25" spans="1:22">
-      <c r="A103" s="103"/>
-      <c r="B103" s="104"/>
-      <c r="C103" s="155"/>
-      <c r="D103" s="104"/>
-      <c r="E103" s="156"/>
-      <c r="F103" s="157" t="s">
+      <c r="G103" s="153"/>
+      <c r="H103" s="154"/>
+      <c r="I103" s="154"/>
+      <c r="J103" s="154"/>
+      <c r="K103" s="154"/>
+      <c r="L103" s="154"/>
+      <c r="M103" s="154"/>
+      <c r="N103" s="154"/>
+      <c r="O103" s="154"/>
+      <c r="P103" s="154"/>
+      <c r="Q103" s="154"/>
+      <c r="R103" s="154"/>
+      <c r="S103" s="154"/>
+      <c r="T103" s="154"/>
+      <c r="U103" s="154"/>
+      <c r="V103" s="164"/>
+    </row>
+    <row r="104" ht="14.25" spans="1:22">
+      <c r="A104" s="103"/>
+      <c r="B104" s="104"/>
+      <c r="C104" s="155"/>
+      <c r="D104" s="104"/>
+      <c r="E104" s="156"/>
+      <c r="F104" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="G103" s="157"/>
-      <c r="H103" s="158"/>
-      <c r="I103" s="158"/>
-      <c r="J103" s="158"/>
-      <c r="K103" s="158"/>
-      <c r="L103" s="158"/>
-      <c r="M103" s="158"/>
-      <c r="N103" s="158"/>
-      <c r="O103" s="158"/>
-      <c r="P103" s="158"/>
-      <c r="Q103" s="158"/>
-      <c r="R103" s="158"/>
-      <c r="S103" s="158"/>
-      <c r="T103" s="158"/>
-      <c r="U103" s="158"/>
-      <c r="V103" s="165"/>
-    </row>
-    <row r="104" spans="1:22">
-      <c r="A104" s="65"/>
-      <c r="B104" s="21"/>
-      <c r="C104" s="54"/>
-      <c r="D104" s="21"/>
-      <c r="E104" s="148"/>
-      <c r="F104" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" s="23"/>
-      <c r="H104" s="78"/>
-      <c r="I104" s="78"/>
-      <c r="J104" s="78"/>
-      <c r="K104" s="78"/>
-      <c r="L104" s="78"/>
-      <c r="M104" s="78"/>
-      <c r="N104" s="78"/>
-      <c r="O104" s="78"/>
-      <c r="P104" s="78"/>
-      <c r="Q104" s="78"/>
-      <c r="R104" s="78"/>
-      <c r="S104" s="78"/>
-      <c r="T104" s="78"/>
-      <c r="U104" s="78"/>
-      <c r="V104" s="24"/>
+      <c r="G104" s="157"/>
+      <c r="H104" s="158"/>
+      <c r="I104" s="158"/>
+      <c r="J104" s="158"/>
+      <c r="K104" s="158"/>
+      <c r="L104" s="158"/>
+      <c r="M104" s="158"/>
+      <c r="N104" s="158"/>
+      <c r="O104" s="158"/>
+      <c r="P104" s="158"/>
+      <c r="Q104" s="158"/>
+      <c r="R104" s="158"/>
+      <c r="S104" s="158"/>
+      <c r="T104" s="158"/>
+      <c r="U104" s="158"/>
+      <c r="V104" s="165"/>
     </row>
     <row r="105" spans="1:22">
       <c r="A105" s="65"/>
       <c r="B105" s="21"/>
-      <c r="C105" s="149"/>
+      <c r="C105" s="54"/>
       <c r="D105" s="21"/>
       <c r="E105" s="148"/>
-      <c r="F105" s="150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G105" s="150"/>
-      <c r="H105" s="151"/>
-      <c r="I105" s="151"/>
-      <c r="J105" s="151"/>
-      <c r="K105" s="151"/>
-      <c r="L105" s="151"/>
-      <c r="M105" s="151"/>
-      <c r="N105" s="151"/>
-      <c r="O105" s="151"/>
-      <c r="P105" s="151"/>
-      <c r="Q105" s="151"/>
-      <c r="R105" s="151"/>
-      <c r="S105" s="151"/>
-      <c r="T105" s="151"/>
-      <c r="U105" s="151"/>
-      <c r="V105" s="163"/>
+      <c r="F105" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G105" s="23"/>
+      <c r="H105" s="78"/>
+      <c r="I105" s="78"/>
+      <c r="J105" s="78"/>
+      <c r="K105" s="78"/>
+      <c r="L105" s="78"/>
+      <c r="M105" s="78"/>
+      <c r="N105" s="78"/>
+      <c r="O105" s="78"/>
+      <c r="P105" s="78"/>
+      <c r="Q105" s="78"/>
+      <c r="R105" s="78"/>
+      <c r="S105" s="78"/>
+      <c r="T105" s="78"/>
+      <c r="U105" s="78"/>
+      <c r="V105" s="24"/>
     </row>
     <row r="106" spans="1:22">
       <c r="A106" s="65"/>
@@ -7571,129 +7608,129 @@
       <c r="C106" s="149"/>
       <c r="D106" s="21"/>
       <c r="E106" s="148"/>
-      <c r="F106" s="23" t="s">
+      <c r="F106" s="150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G106" s="150"/>
+      <c r="H106" s="151"/>
+      <c r="I106" s="151"/>
+      <c r="J106" s="151"/>
+      <c r="K106" s="151"/>
+      <c r="L106" s="151"/>
+      <c r="M106" s="151"/>
+      <c r="N106" s="151"/>
+      <c r="O106" s="151"/>
+      <c r="P106" s="151"/>
+      <c r="Q106" s="151"/>
+      <c r="R106" s="151"/>
+      <c r="S106" s="151"/>
+      <c r="T106" s="151"/>
+      <c r="U106" s="151"/>
+      <c r="V106" s="163"/>
+    </row>
+    <row r="107" spans="1:22">
+      <c r="A107" s="65"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="149"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="148"/>
+      <c r="F107" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="G106" s="23"/>
-      <c r="H106" s="78"/>
-      <c r="I106" s="78"/>
-      <c r="J106" s="78"/>
-      <c r="K106" s="78"/>
-      <c r="L106" s="78"/>
-      <c r="M106" s="78"/>
-      <c r="N106" s="78"/>
-      <c r="O106" s="78"/>
-      <c r="P106" s="78"/>
-      <c r="Q106" s="78"/>
-      <c r="R106" s="78"/>
-      <c r="S106" s="78"/>
-      <c r="T106" s="78"/>
-      <c r="U106" s="78"/>
-      <c r="V106" s="24"/>
-    </row>
-    <row r="107" ht="14.25" spans="1:22">
-      <c r="A107" s="66"/>
-      <c r="B107" s="54"/>
-      <c r="C107" s="149"/>
-      <c r="D107" s="54"/>
-      <c r="E107" s="152"/>
-      <c r="F107" s="153" t="s">
+      <c r="G107" s="23"/>
+      <c r="H107" s="78"/>
+      <c r="I107" s="78"/>
+      <c r="J107" s="78"/>
+      <c r="K107" s="78"/>
+      <c r="L107" s="78"/>
+      <c r="M107" s="78"/>
+      <c r="N107" s="78"/>
+      <c r="O107" s="78"/>
+      <c r="P107" s="78"/>
+      <c r="Q107" s="78"/>
+      <c r="R107" s="78"/>
+      <c r="S107" s="78"/>
+      <c r="T107" s="78"/>
+      <c r="U107" s="78"/>
+      <c r="V107" s="24"/>
+    </row>
+    <row r="108" ht="14.25" spans="1:22">
+      <c r="A108" s="66"/>
+      <c r="B108" s="54"/>
+      <c r="C108" s="149"/>
+      <c r="D108" s="54"/>
+      <c r="E108" s="152"/>
+      <c r="F108" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="G107" s="153"/>
-      <c r="H107" s="154"/>
-      <c r="I107" s="154"/>
-      <c r="J107" s="154"/>
-      <c r="K107" s="154"/>
-      <c r="L107" s="154"/>
-      <c r="M107" s="154"/>
-      <c r="N107" s="154"/>
-      <c r="O107" s="154"/>
-      <c r="P107" s="154"/>
-      <c r="Q107" s="154"/>
-      <c r="R107" s="154"/>
-      <c r="S107" s="154"/>
-      <c r="T107" s="154"/>
-      <c r="U107" s="154"/>
-      <c r="V107" s="164"/>
-    </row>
-    <row r="108" ht="14.25" spans="1:22">
-      <c r="A108" s="103"/>
-      <c r="B108" s="104"/>
-      <c r="C108" s="155"/>
-      <c r="D108" s="104"/>
-      <c r="E108" s="156"/>
-      <c r="F108" s="157" t="s">
+      <c r="G108" s="153"/>
+      <c r="H108" s="154"/>
+      <c r="I108" s="154"/>
+      <c r="J108" s="154"/>
+      <c r="K108" s="154"/>
+      <c r="L108" s="154"/>
+      <c r="M108" s="154"/>
+      <c r="N108" s="154"/>
+      <c r="O108" s="154"/>
+      <c r="P108" s="154"/>
+      <c r="Q108" s="154"/>
+      <c r="R108" s="154"/>
+      <c r="S108" s="154"/>
+      <c r="T108" s="154"/>
+      <c r="U108" s="154"/>
+      <c r="V108" s="164"/>
+    </row>
+    <row r="109" ht="14.25" spans="1:22">
+      <c r="A109" s="103"/>
+      <c r="B109" s="104"/>
+      <c r="C109" s="155"/>
+      <c r="D109" s="104"/>
+      <c r="E109" s="156"/>
+      <c r="F109" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="G108" s="157"/>
-      <c r="H108" s="158"/>
-      <c r="I108" s="158"/>
-      <c r="J108" s="158"/>
-      <c r="K108" s="158"/>
-      <c r="L108" s="158"/>
-      <c r="M108" s="158"/>
-      <c r="N108" s="158"/>
-      <c r="O108" s="158"/>
-      <c r="P108" s="158"/>
-      <c r="Q108" s="158"/>
-      <c r="R108" s="158"/>
-      <c r="S108" s="158"/>
-      <c r="T108" s="158"/>
-      <c r="U108" s="158"/>
-      <c r="V108" s="165"/>
-    </row>
-    <row r="109" spans="1:22">
-      <c r="A109" s="65"/>
-      <c r="B109" s="21"/>
-      <c r="C109" s="54"/>
-      <c r="D109" s="21"/>
-      <c r="E109" s="148"/>
-      <c r="F109" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G109" s="23"/>
-      <c r="H109" s="78"/>
-      <c r="I109" s="78"/>
-      <c r="J109" s="78"/>
-      <c r="K109" s="78"/>
-      <c r="L109" s="78"/>
-      <c r="M109" s="78"/>
-      <c r="N109" s="78"/>
-      <c r="O109" s="78"/>
-      <c r="P109" s="78"/>
-      <c r="Q109" s="78"/>
-      <c r="R109" s="78"/>
-      <c r="S109" s="78"/>
-      <c r="T109" s="78"/>
-      <c r="U109" s="78"/>
-      <c r="V109" s="24"/>
+      <c r="G109" s="157"/>
+      <c r="H109" s="158"/>
+      <c r="I109" s="158"/>
+      <c r="J109" s="158"/>
+      <c r="K109" s="158"/>
+      <c r="L109" s="158"/>
+      <c r="M109" s="158"/>
+      <c r="N109" s="158"/>
+      <c r="O109" s="158"/>
+      <c r="P109" s="158"/>
+      <c r="Q109" s="158"/>
+      <c r="R109" s="158"/>
+      <c r="S109" s="158"/>
+      <c r="T109" s="158"/>
+      <c r="U109" s="158"/>
+      <c r="V109" s="165"/>
     </row>
     <row r="110" spans="1:22">
       <c r="A110" s="65"/>
       <c r="B110" s="21"/>
-      <c r="C110" s="149"/>
+      <c r="C110" s="54"/>
       <c r="D110" s="21"/>
       <c r="E110" s="148"/>
-      <c r="F110" s="150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G110" s="150"/>
-      <c r="H110" s="151"/>
-      <c r="I110" s="151"/>
-      <c r="J110" s="151"/>
-      <c r="K110" s="151"/>
-      <c r="L110" s="151"/>
-      <c r="M110" s="151"/>
-      <c r="N110" s="151"/>
-      <c r="O110" s="151"/>
-      <c r="P110" s="151"/>
-      <c r="Q110" s="151"/>
-      <c r="R110" s="151"/>
-      <c r="S110" s="151"/>
-      <c r="T110" s="151"/>
-      <c r="U110" s="151"/>
-      <c r="V110" s="163"/>
+      <c r="F110" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G110" s="23"/>
+      <c r="H110" s="78"/>
+      <c r="I110" s="78"/>
+      <c r="J110" s="78"/>
+      <c r="K110" s="78"/>
+      <c r="L110" s="78"/>
+      <c r="M110" s="78"/>
+      <c r="N110" s="78"/>
+      <c r="O110" s="78"/>
+      <c r="P110" s="78"/>
+      <c r="Q110" s="78"/>
+      <c r="R110" s="78"/>
+      <c r="S110" s="78"/>
+      <c r="T110" s="78"/>
+      <c r="U110" s="78"/>
+      <c r="V110" s="24"/>
     </row>
     <row r="111" spans="1:22">
       <c r="A111" s="65"/>
@@ -7701,129 +7738,129 @@
       <c r="C111" s="149"/>
       <c r="D111" s="21"/>
       <c r="E111" s="148"/>
-      <c r="F111" s="23" t="s">
+      <c r="F111" s="150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G111" s="150"/>
+      <c r="H111" s="151"/>
+      <c r="I111" s="151"/>
+      <c r="J111" s="151"/>
+      <c r="K111" s="151"/>
+      <c r="L111" s="151"/>
+      <c r="M111" s="151"/>
+      <c r="N111" s="151"/>
+      <c r="O111" s="151"/>
+      <c r="P111" s="151"/>
+      <c r="Q111" s="151"/>
+      <c r="R111" s="151"/>
+      <c r="S111" s="151"/>
+      <c r="T111" s="151"/>
+      <c r="U111" s="151"/>
+      <c r="V111" s="163"/>
+    </row>
+    <row r="112" spans="1:22">
+      <c r="A112" s="65"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="149"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="148"/>
+      <c r="F112" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="G111" s="23"/>
-      <c r="H111" s="78"/>
-      <c r="I111" s="78"/>
-      <c r="J111" s="78"/>
-      <c r="K111" s="78"/>
-      <c r="L111" s="78"/>
-      <c r="M111" s="78"/>
-      <c r="N111" s="78"/>
-      <c r="O111" s="78"/>
-      <c r="P111" s="78"/>
-      <c r="Q111" s="78"/>
-      <c r="R111" s="78"/>
-      <c r="S111" s="78"/>
-      <c r="T111" s="78"/>
-      <c r="U111" s="78"/>
-      <c r="V111" s="24"/>
-    </row>
-    <row r="112" ht="14.25" spans="1:22">
-      <c r="A112" s="66"/>
-      <c r="B112" s="54"/>
-      <c r="C112" s="149"/>
-      <c r="D112" s="54"/>
-      <c r="E112" s="152"/>
-      <c r="F112" s="153" t="s">
+      <c r="G112" s="23"/>
+      <c r="H112" s="78"/>
+      <c r="I112" s="78"/>
+      <c r="J112" s="78"/>
+      <c r="K112" s="78"/>
+      <c r="L112" s="78"/>
+      <c r="M112" s="78"/>
+      <c r="N112" s="78"/>
+      <c r="O112" s="78"/>
+      <c r="P112" s="78"/>
+      <c r="Q112" s="78"/>
+      <c r="R112" s="78"/>
+      <c r="S112" s="78"/>
+      <c r="T112" s="78"/>
+      <c r="U112" s="78"/>
+      <c r="V112" s="24"/>
+    </row>
+    <row r="113" ht="14.25" spans="1:22">
+      <c r="A113" s="66"/>
+      <c r="B113" s="54"/>
+      <c r="C113" s="149"/>
+      <c r="D113" s="54"/>
+      <c r="E113" s="152"/>
+      <c r="F113" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="G112" s="153"/>
-      <c r="H112" s="154"/>
-      <c r="I112" s="154"/>
-      <c r="J112" s="154"/>
-      <c r="K112" s="154"/>
-      <c r="L112" s="154"/>
-      <c r="M112" s="154"/>
-      <c r="N112" s="154"/>
-      <c r="O112" s="154"/>
-      <c r="P112" s="154"/>
-      <c r="Q112" s="154"/>
-      <c r="R112" s="154"/>
-      <c r="S112" s="154"/>
-      <c r="T112" s="154"/>
-      <c r="U112" s="154"/>
-      <c r="V112" s="164"/>
-    </row>
-    <row r="113" ht="14.25" spans="1:22">
-      <c r="A113" s="103"/>
-      <c r="B113" s="104"/>
-      <c r="C113" s="155"/>
-      <c r="D113" s="104"/>
-      <c r="E113" s="156"/>
-      <c r="F113" s="157" t="s">
+      <c r="G113" s="153"/>
+      <c r="H113" s="154"/>
+      <c r="I113" s="154"/>
+      <c r="J113" s="154"/>
+      <c r="K113" s="154"/>
+      <c r="L113" s="154"/>
+      <c r="M113" s="154"/>
+      <c r="N113" s="154"/>
+      <c r="O113" s="154"/>
+      <c r="P113" s="154"/>
+      <c r="Q113" s="154"/>
+      <c r="R113" s="154"/>
+      <c r="S113" s="154"/>
+      <c r="T113" s="154"/>
+      <c r="U113" s="154"/>
+      <c r="V113" s="164"/>
+    </row>
+    <row r="114" ht="14.25" spans="1:22">
+      <c r="A114" s="103"/>
+      <c r="B114" s="104"/>
+      <c r="C114" s="155"/>
+      <c r="D114" s="104"/>
+      <c r="E114" s="156"/>
+      <c r="F114" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="G113" s="157"/>
-      <c r="H113" s="158"/>
-      <c r="I113" s="158"/>
-      <c r="J113" s="158"/>
-      <c r="K113" s="158"/>
-      <c r="L113" s="158"/>
-      <c r="M113" s="158"/>
-      <c r="N113" s="158"/>
-      <c r="O113" s="158"/>
-      <c r="P113" s="158"/>
-      <c r="Q113" s="158"/>
-      <c r="R113" s="158"/>
-      <c r="S113" s="158"/>
-      <c r="T113" s="158"/>
-      <c r="U113" s="158"/>
-      <c r="V113" s="165"/>
-    </row>
-    <row r="114" spans="1:22">
-      <c r="A114" s="65"/>
-      <c r="B114" s="21"/>
-      <c r="C114" s="54"/>
-      <c r="D114" s="21"/>
-      <c r="E114" s="148"/>
-      <c r="F114" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" s="23"/>
-      <c r="H114" s="78"/>
-      <c r="I114" s="78"/>
-      <c r="J114" s="78"/>
-      <c r="K114" s="78"/>
-      <c r="L114" s="78"/>
-      <c r="M114" s="78"/>
-      <c r="N114" s="78"/>
-      <c r="O114" s="78"/>
-      <c r="P114" s="78"/>
-      <c r="Q114" s="78"/>
-      <c r="R114" s="78"/>
-      <c r="S114" s="78"/>
-      <c r="T114" s="78"/>
-      <c r="U114" s="78"/>
-      <c r="V114" s="24"/>
+      <c r="G114" s="157"/>
+      <c r="H114" s="158"/>
+      <c r="I114" s="158"/>
+      <c r="J114" s="158"/>
+      <c r="K114" s="158"/>
+      <c r="L114" s="158"/>
+      <c r="M114" s="158"/>
+      <c r="N114" s="158"/>
+      <c r="O114" s="158"/>
+      <c r="P114" s="158"/>
+      <c r="Q114" s="158"/>
+      <c r="R114" s="158"/>
+      <c r="S114" s="158"/>
+      <c r="T114" s="158"/>
+      <c r="U114" s="158"/>
+      <c r="V114" s="165"/>
     </row>
     <row r="115" spans="1:22">
       <c r="A115" s="65"/>
       <c r="B115" s="21"/>
-      <c r="C115" s="149"/>
+      <c r="C115" s="54"/>
       <c r="D115" s="21"/>
       <c r="E115" s="148"/>
-      <c r="F115" s="150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G115" s="150"/>
-      <c r="H115" s="151"/>
-      <c r="I115" s="151"/>
-      <c r="J115" s="151"/>
-      <c r="K115" s="151"/>
-      <c r="L115" s="151"/>
-      <c r="M115" s="151"/>
-      <c r="N115" s="151"/>
-      <c r="O115" s="151"/>
-      <c r="P115" s="151"/>
-      <c r="Q115" s="151"/>
-      <c r="R115" s="151"/>
-      <c r="S115" s="151"/>
-      <c r="T115" s="151"/>
-      <c r="U115" s="151"/>
-      <c r="V115" s="163"/>
+      <c r="F115" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G115" s="23"/>
+      <c r="H115" s="78"/>
+      <c r="I115" s="78"/>
+      <c r="J115" s="78"/>
+      <c r="K115" s="78"/>
+      <c r="L115" s="78"/>
+      <c r="M115" s="78"/>
+      <c r="N115" s="78"/>
+      <c r="O115" s="78"/>
+      <c r="P115" s="78"/>
+      <c r="Q115" s="78"/>
+      <c r="R115" s="78"/>
+      <c r="S115" s="78"/>
+      <c r="T115" s="78"/>
+      <c r="U115" s="78"/>
+      <c r="V115" s="24"/>
     </row>
     <row r="116" spans="1:22">
       <c r="A116" s="65"/>
@@ -7831,129 +7868,129 @@
       <c r="C116" s="149"/>
       <c r="D116" s="21"/>
       <c r="E116" s="148"/>
-      <c r="F116" s="23" t="s">
+      <c r="F116" s="150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G116" s="150"/>
+      <c r="H116" s="151"/>
+      <c r="I116" s="151"/>
+      <c r="J116" s="151"/>
+      <c r="K116" s="151"/>
+      <c r="L116" s="151"/>
+      <c r="M116" s="151"/>
+      <c r="N116" s="151"/>
+      <c r="O116" s="151"/>
+      <c r="P116" s="151"/>
+      <c r="Q116" s="151"/>
+      <c r="R116" s="151"/>
+      <c r="S116" s="151"/>
+      <c r="T116" s="151"/>
+      <c r="U116" s="151"/>
+      <c r="V116" s="163"/>
+    </row>
+    <row r="117" spans="1:22">
+      <c r="A117" s="65"/>
+      <c r="B117" s="21"/>
+      <c r="C117" s="149"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="148"/>
+      <c r="F117" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="G116" s="23"/>
-      <c r="H116" s="78"/>
-      <c r="I116" s="78"/>
-      <c r="J116" s="78"/>
-      <c r="K116" s="78"/>
-      <c r="L116" s="78"/>
-      <c r="M116" s="78"/>
-      <c r="N116" s="78"/>
-      <c r="O116" s="78"/>
-      <c r="P116" s="78"/>
-      <c r="Q116" s="78"/>
-      <c r="R116" s="78"/>
-      <c r="S116" s="78"/>
-      <c r="T116" s="78"/>
-      <c r="U116" s="78"/>
-      <c r="V116" s="24"/>
-    </row>
-    <row r="117" ht="14.25" spans="1:22">
-      <c r="A117" s="66"/>
-      <c r="B117" s="54"/>
-      <c r="C117" s="149"/>
-      <c r="D117" s="54"/>
-      <c r="E117" s="152"/>
-      <c r="F117" s="153" t="s">
+      <c r="G117" s="23"/>
+      <c r="H117" s="78"/>
+      <c r="I117" s="78"/>
+      <c r="J117" s="78"/>
+      <c r="K117" s="78"/>
+      <c r="L117" s="78"/>
+      <c r="M117" s="78"/>
+      <c r="N117" s="78"/>
+      <c r="O117" s="78"/>
+      <c r="P117" s="78"/>
+      <c r="Q117" s="78"/>
+      <c r="R117" s="78"/>
+      <c r="S117" s="78"/>
+      <c r="T117" s="78"/>
+      <c r="U117" s="78"/>
+      <c r="V117" s="24"/>
+    </row>
+    <row r="118" ht="14.25" spans="1:22">
+      <c r="A118" s="66"/>
+      <c r="B118" s="54"/>
+      <c r="C118" s="149"/>
+      <c r="D118" s="54"/>
+      <c r="E118" s="152"/>
+      <c r="F118" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="G117" s="153"/>
-      <c r="H117" s="154"/>
-      <c r="I117" s="154"/>
-      <c r="J117" s="154"/>
-      <c r="K117" s="154"/>
-      <c r="L117" s="154"/>
-      <c r="M117" s="154"/>
-      <c r="N117" s="154"/>
-      <c r="O117" s="154"/>
-      <c r="P117" s="154"/>
-      <c r="Q117" s="154"/>
-      <c r="R117" s="154"/>
-      <c r="S117" s="154"/>
-      <c r="T117" s="154"/>
-      <c r="U117" s="154"/>
-      <c r="V117" s="164"/>
-    </row>
-    <row r="118" ht="14.25" spans="1:22">
-      <c r="A118" s="103"/>
-      <c r="B118" s="104"/>
-      <c r="C118" s="155"/>
-      <c r="D118" s="104"/>
-      <c r="E118" s="156"/>
-      <c r="F118" s="157" t="s">
+      <c r="G118" s="153"/>
+      <c r="H118" s="154"/>
+      <c r="I118" s="154"/>
+      <c r="J118" s="154"/>
+      <c r="K118" s="154"/>
+      <c r="L118" s="154"/>
+      <c r="M118" s="154"/>
+      <c r="N118" s="154"/>
+      <c r="O118" s="154"/>
+      <c r="P118" s="154"/>
+      <c r="Q118" s="154"/>
+      <c r="R118" s="154"/>
+      <c r="S118" s="154"/>
+      <c r="T118" s="154"/>
+      <c r="U118" s="154"/>
+      <c r="V118" s="164"/>
+    </row>
+    <row r="119" ht="14.25" spans="1:22">
+      <c r="A119" s="103"/>
+      <c r="B119" s="104"/>
+      <c r="C119" s="155"/>
+      <c r="D119" s="104"/>
+      <c r="E119" s="156"/>
+      <c r="F119" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="G118" s="157"/>
-      <c r="H118" s="158"/>
-      <c r="I118" s="158"/>
-      <c r="J118" s="158"/>
-      <c r="K118" s="158"/>
-      <c r="L118" s="158"/>
-      <c r="M118" s="158"/>
-      <c r="N118" s="158"/>
-      <c r="O118" s="158"/>
-      <c r="P118" s="158"/>
-      <c r="Q118" s="158"/>
-      <c r="R118" s="158"/>
-      <c r="S118" s="158"/>
-      <c r="T118" s="158"/>
-      <c r="U118" s="158"/>
-      <c r="V118" s="165"/>
-    </row>
-    <row r="119" spans="1:22">
-      <c r="A119" s="65"/>
-      <c r="B119" s="21"/>
-      <c r="C119" s="54"/>
-      <c r="D119" s="21"/>
-      <c r="E119" s="148"/>
-      <c r="F119" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" s="23"/>
-      <c r="H119" s="78"/>
-      <c r="I119" s="78"/>
-      <c r="J119" s="78"/>
-      <c r="K119" s="78"/>
-      <c r="L119" s="78"/>
-      <c r="M119" s="78"/>
-      <c r="N119" s="78"/>
-      <c r="O119" s="78"/>
-      <c r="P119" s="78"/>
-      <c r="Q119" s="78"/>
-      <c r="R119" s="78"/>
-      <c r="S119" s="78"/>
-      <c r="T119" s="78"/>
-      <c r="U119" s="78"/>
-      <c r="V119" s="24"/>
+      <c r="G119" s="157"/>
+      <c r="H119" s="158"/>
+      <c r="I119" s="158"/>
+      <c r="J119" s="158"/>
+      <c r="K119" s="158"/>
+      <c r="L119" s="158"/>
+      <c r="M119" s="158"/>
+      <c r="N119" s="158"/>
+      <c r="O119" s="158"/>
+      <c r="P119" s="158"/>
+      <c r="Q119" s="158"/>
+      <c r="R119" s="158"/>
+      <c r="S119" s="158"/>
+      <c r="T119" s="158"/>
+      <c r="U119" s="158"/>
+      <c r="V119" s="165"/>
     </row>
     <row r="120" spans="1:22">
       <c r="A120" s="65"/>
       <c r="B120" s="21"/>
-      <c r="C120" s="149"/>
+      <c r="C120" s="54"/>
       <c r="D120" s="21"/>
       <c r="E120" s="148"/>
-      <c r="F120" s="150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G120" s="150"/>
-      <c r="H120" s="151"/>
-      <c r="I120" s="151"/>
-      <c r="J120" s="151"/>
-      <c r="K120" s="151"/>
-      <c r="L120" s="151"/>
-      <c r="M120" s="151"/>
-      <c r="N120" s="151"/>
-      <c r="O120" s="151"/>
-      <c r="P120" s="151"/>
-      <c r="Q120" s="151"/>
-      <c r="R120" s="151"/>
-      <c r="S120" s="151"/>
-      <c r="T120" s="151"/>
-      <c r="U120" s="151"/>
-      <c r="V120" s="163"/>
+      <c r="F120" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G120" s="23"/>
+      <c r="H120" s="78"/>
+      <c r="I120" s="78"/>
+      <c r="J120" s="78"/>
+      <c r="K120" s="78"/>
+      <c r="L120" s="78"/>
+      <c r="M120" s="78"/>
+      <c r="N120" s="78"/>
+      <c r="O120" s="78"/>
+      <c r="P120" s="78"/>
+      <c r="Q120" s="78"/>
+      <c r="R120" s="78"/>
+      <c r="S120" s="78"/>
+      <c r="T120" s="78"/>
+      <c r="U120" s="78"/>
+      <c r="V120" s="24"/>
     </row>
     <row r="121" spans="1:22">
       <c r="A121" s="65"/>
@@ -7961,129 +7998,129 @@
       <c r="C121" s="149"/>
       <c r="D121" s="21"/>
       <c r="E121" s="148"/>
-      <c r="F121" s="23" t="s">
+      <c r="F121" s="150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G121" s="150"/>
+      <c r="H121" s="151"/>
+      <c r="I121" s="151"/>
+      <c r="J121" s="151"/>
+      <c r="K121" s="151"/>
+      <c r="L121" s="151"/>
+      <c r="M121" s="151"/>
+      <c r="N121" s="151"/>
+      <c r="O121" s="151"/>
+      <c r="P121" s="151"/>
+      <c r="Q121" s="151"/>
+      <c r="R121" s="151"/>
+      <c r="S121" s="151"/>
+      <c r="T121" s="151"/>
+      <c r="U121" s="151"/>
+      <c r="V121" s="163"/>
+    </row>
+    <row r="122" spans="1:22">
+      <c r="A122" s="65"/>
+      <c r="B122" s="21"/>
+      <c r="C122" s="149"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="148"/>
+      <c r="F122" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="G121" s="23"/>
-      <c r="H121" s="78"/>
-      <c r="I121" s="78"/>
-      <c r="J121" s="78"/>
-      <c r="K121" s="78"/>
-      <c r="L121" s="78"/>
-      <c r="M121" s="78"/>
-      <c r="N121" s="78"/>
-      <c r="O121" s="78"/>
-      <c r="P121" s="78"/>
-      <c r="Q121" s="78"/>
-      <c r="R121" s="78"/>
-      <c r="S121" s="78"/>
-      <c r="T121" s="78"/>
-      <c r="U121" s="78"/>
-      <c r="V121" s="24"/>
-    </row>
-    <row r="122" ht="14.25" spans="1:22">
-      <c r="A122" s="66"/>
-      <c r="B122" s="54"/>
-      <c r="C122" s="149"/>
-      <c r="D122" s="54"/>
-      <c r="E122" s="152"/>
-      <c r="F122" s="153" t="s">
+      <c r="G122" s="23"/>
+      <c r="H122" s="78"/>
+      <c r="I122" s="78"/>
+      <c r="J122" s="78"/>
+      <c r="K122" s="78"/>
+      <c r="L122" s="78"/>
+      <c r="M122" s="78"/>
+      <c r="N122" s="78"/>
+      <c r="O122" s="78"/>
+      <c r="P122" s="78"/>
+      <c r="Q122" s="78"/>
+      <c r="R122" s="78"/>
+      <c r="S122" s="78"/>
+      <c r="T122" s="78"/>
+      <c r="U122" s="78"/>
+      <c r="V122" s="24"/>
+    </row>
+    <row r="123" ht="14.25" spans="1:22">
+      <c r="A123" s="66"/>
+      <c r="B123" s="54"/>
+      <c r="C123" s="149"/>
+      <c r="D123" s="54"/>
+      <c r="E123" s="152"/>
+      <c r="F123" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="G122" s="153"/>
-      <c r="H122" s="154"/>
-      <c r="I122" s="154"/>
-      <c r="J122" s="154"/>
-      <c r="K122" s="154"/>
-      <c r="L122" s="154"/>
-      <c r="M122" s="154"/>
-      <c r="N122" s="154"/>
-      <c r="O122" s="154"/>
-      <c r="P122" s="154"/>
-      <c r="Q122" s="154"/>
-      <c r="R122" s="154"/>
-      <c r="S122" s="154"/>
-      <c r="T122" s="154"/>
-      <c r="U122" s="154"/>
-      <c r="V122" s="164"/>
-    </row>
-    <row r="123" ht="14.25" spans="1:22">
-      <c r="A123" s="103"/>
-      <c r="B123" s="104"/>
-      <c r="C123" s="155"/>
-      <c r="D123" s="104"/>
-      <c r="E123" s="156"/>
-      <c r="F123" s="157" t="s">
+      <c r="G123" s="153"/>
+      <c r="H123" s="154"/>
+      <c r="I123" s="154"/>
+      <c r="J123" s="154"/>
+      <c r="K123" s="154"/>
+      <c r="L123" s="154"/>
+      <c r="M123" s="154"/>
+      <c r="N123" s="154"/>
+      <c r="O123" s="154"/>
+      <c r="P123" s="154"/>
+      <c r="Q123" s="154"/>
+      <c r="R123" s="154"/>
+      <c r="S123" s="154"/>
+      <c r="T123" s="154"/>
+      <c r="U123" s="154"/>
+      <c r="V123" s="164"/>
+    </row>
+    <row r="124" ht="14.25" spans="1:22">
+      <c r="A124" s="103"/>
+      <c r="B124" s="104"/>
+      <c r="C124" s="155"/>
+      <c r="D124" s="104"/>
+      <c r="E124" s="156"/>
+      <c r="F124" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="G123" s="157"/>
-      <c r="H123" s="158"/>
-      <c r="I123" s="158"/>
-      <c r="J123" s="158"/>
-      <c r="K123" s="158"/>
-      <c r="L123" s="158"/>
-      <c r="M123" s="158"/>
-      <c r="N123" s="158"/>
-      <c r="O123" s="158"/>
-      <c r="P123" s="158"/>
-      <c r="Q123" s="158"/>
-      <c r="R123" s="158"/>
-      <c r="S123" s="158"/>
-      <c r="T123" s="158"/>
-      <c r="U123" s="158"/>
-      <c r="V123" s="165"/>
-    </row>
-    <row r="124" spans="1:22">
-      <c r="A124" s="65"/>
-      <c r="B124" s="21"/>
-      <c r="C124" s="54"/>
-      <c r="D124" s="21"/>
-      <c r="E124" s="148"/>
-      <c r="F124" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" s="23"/>
-      <c r="H124" s="78"/>
-      <c r="I124" s="78"/>
-      <c r="J124" s="78"/>
-      <c r="K124" s="78"/>
-      <c r="L124" s="78"/>
-      <c r="M124" s="78"/>
-      <c r="N124" s="78"/>
-      <c r="O124" s="78"/>
-      <c r="P124" s="78"/>
-      <c r="Q124" s="78"/>
-      <c r="R124" s="78"/>
-      <c r="S124" s="78"/>
-      <c r="T124" s="78"/>
-      <c r="U124" s="78"/>
-      <c r="V124" s="24"/>
+      <c r="G124" s="157"/>
+      <c r="H124" s="158"/>
+      <c r="I124" s="158"/>
+      <c r="J124" s="158"/>
+      <c r="K124" s="158"/>
+      <c r="L124" s="158"/>
+      <c r="M124" s="158"/>
+      <c r="N124" s="158"/>
+      <c r="O124" s="158"/>
+      <c r="P124" s="158"/>
+      <c r="Q124" s="158"/>
+      <c r="R124" s="158"/>
+      <c r="S124" s="158"/>
+      <c r="T124" s="158"/>
+      <c r="U124" s="158"/>
+      <c r="V124" s="165"/>
     </row>
     <row r="125" spans="1:22">
       <c r="A125" s="65"/>
       <c r="B125" s="21"/>
-      <c r="C125" s="149"/>
+      <c r="C125" s="54"/>
       <c r="D125" s="21"/>
       <c r="E125" s="148"/>
-      <c r="F125" s="150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G125" s="150"/>
-      <c r="H125" s="151"/>
-      <c r="I125" s="151"/>
-      <c r="J125" s="151"/>
-      <c r="K125" s="151"/>
-      <c r="L125" s="151"/>
-      <c r="M125" s="151"/>
-      <c r="N125" s="151"/>
-      <c r="O125" s="151"/>
-      <c r="P125" s="151"/>
-      <c r="Q125" s="151"/>
-      <c r="R125" s="151"/>
-      <c r="S125" s="151"/>
-      <c r="T125" s="151"/>
-      <c r="U125" s="151"/>
-      <c r="V125" s="163"/>
+      <c r="F125" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G125" s="23"/>
+      <c r="H125" s="78"/>
+      <c r="I125" s="78"/>
+      <c r="J125" s="78"/>
+      <c r="K125" s="78"/>
+      <c r="L125" s="78"/>
+      <c r="M125" s="78"/>
+      <c r="N125" s="78"/>
+      <c r="O125" s="78"/>
+      <c r="P125" s="78"/>
+      <c r="Q125" s="78"/>
+      <c r="R125" s="78"/>
+      <c r="S125" s="78"/>
+      <c r="T125" s="78"/>
+      <c r="U125" s="78"/>
+      <c r="V125" s="24"/>
     </row>
     <row r="126" spans="1:22">
       <c r="A126" s="65"/>
@@ -8091,80 +8128,236 @@
       <c r="C126" s="149"/>
       <c r="D126" s="21"/>
       <c r="E126" s="148"/>
-      <c r="F126" s="23" t="s">
+      <c r="F126" s="150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G126" s="150"/>
+      <c r="H126" s="151"/>
+      <c r="I126" s="151"/>
+      <c r="J126" s="151"/>
+      <c r="K126" s="151"/>
+      <c r="L126" s="151"/>
+      <c r="M126" s="151"/>
+      <c r="N126" s="151"/>
+      <c r="O126" s="151"/>
+      <c r="P126" s="151"/>
+      <c r="Q126" s="151"/>
+      <c r="R126" s="151"/>
+      <c r="S126" s="151"/>
+      <c r="T126" s="151"/>
+      <c r="U126" s="151"/>
+      <c r="V126" s="163"/>
+    </row>
+    <row r="127" spans="1:22">
+      <c r="A127" s="65"/>
+      <c r="B127" s="21"/>
+      <c r="C127" s="149"/>
+      <c r="D127" s="21"/>
+      <c r="E127" s="148"/>
+      <c r="F127" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="G126" s="23"/>
-      <c r="H126" s="78"/>
-      <c r="I126" s="78"/>
-      <c r="J126" s="78"/>
-      <c r="K126" s="78"/>
-      <c r="L126" s="78"/>
-      <c r="M126" s="78"/>
-      <c r="N126" s="78"/>
-      <c r="O126" s="78"/>
-      <c r="P126" s="78"/>
-      <c r="Q126" s="78"/>
-      <c r="R126" s="78"/>
-      <c r="S126" s="78"/>
-      <c r="T126" s="78"/>
-      <c r="U126" s="78"/>
-      <c r="V126" s="24"/>
-    </row>
-    <row r="127" ht="14.25" spans="1:22">
-      <c r="A127" s="66"/>
-      <c r="B127" s="54"/>
-      <c r="C127" s="149"/>
-      <c r="D127" s="54"/>
-      <c r="E127" s="152"/>
-      <c r="F127" s="153" t="s">
+      <c r="G127" s="23"/>
+      <c r="H127" s="78"/>
+      <c r="I127" s="78"/>
+      <c r="J127" s="78"/>
+      <c r="K127" s="78"/>
+      <c r="L127" s="78"/>
+      <c r="M127" s="78"/>
+      <c r="N127" s="78"/>
+      <c r="O127" s="78"/>
+      <c r="P127" s="78"/>
+      <c r="Q127" s="78"/>
+      <c r="R127" s="78"/>
+      <c r="S127" s="78"/>
+      <c r="T127" s="78"/>
+      <c r="U127" s="78"/>
+      <c r="V127" s="24"/>
+    </row>
+    <row r="128" ht="14.25" spans="1:22">
+      <c r="A128" s="66"/>
+      <c r="B128" s="54"/>
+      <c r="C128" s="149"/>
+      <c r="D128" s="54"/>
+      <c r="E128" s="152"/>
+      <c r="F128" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="G127" s="153"/>
-      <c r="H127" s="154"/>
-      <c r="I127" s="154"/>
-      <c r="J127" s="154"/>
-      <c r="K127" s="154"/>
-      <c r="L127" s="154"/>
-      <c r="M127" s="154"/>
-      <c r="N127" s="154"/>
-      <c r="O127" s="154"/>
-      <c r="P127" s="154"/>
-      <c r="Q127" s="154"/>
-      <c r="R127" s="154"/>
-      <c r="S127" s="154"/>
-      <c r="T127" s="154"/>
-      <c r="U127" s="154"/>
-      <c r="V127" s="164"/>
-    </row>
-    <row r="128" ht="14.25" spans="1:22">
-      <c r="A128" s="103"/>
-      <c r="B128" s="104"/>
-      <c r="C128" s="155"/>
-      <c r="D128" s="104"/>
-      <c r="E128" s="156"/>
-      <c r="F128" s="157" t="s">
+      <c r="G128" s="153"/>
+      <c r="H128" s="154"/>
+      <c r="I128" s="154"/>
+      <c r="J128" s="154"/>
+      <c r="K128" s="154"/>
+      <c r="L128" s="154"/>
+      <c r="M128" s="154"/>
+      <c r="N128" s="154"/>
+      <c r="O128" s="154"/>
+      <c r="P128" s="154"/>
+      <c r="Q128" s="154"/>
+      <c r="R128" s="154"/>
+      <c r="S128" s="154"/>
+      <c r="T128" s="154"/>
+      <c r="U128" s="154"/>
+      <c r="V128" s="164"/>
+    </row>
+    <row r="129" ht="14.25" spans="1:22">
+      <c r="A129" s="103"/>
+      <c r="B129" s="104"/>
+      <c r="C129" s="155"/>
+      <c r="D129" s="104"/>
+      <c r="E129" s="156"/>
+      <c r="F129" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="G128" s="157"/>
-      <c r="H128" s="158"/>
-      <c r="I128" s="158"/>
-      <c r="J128" s="158"/>
-      <c r="K128" s="158"/>
-      <c r="L128" s="158"/>
-      <c r="M128" s="158"/>
-      <c r="N128" s="158"/>
-      <c r="O128" s="158"/>
-      <c r="P128" s="158"/>
-      <c r="Q128" s="158"/>
-      <c r="R128" s="158"/>
-      <c r="S128" s="158"/>
-      <c r="T128" s="158"/>
-      <c r="U128" s="158"/>
-      <c r="V128" s="165"/>
+      <c r="G129" s="157"/>
+      <c r="H129" s="158"/>
+      <c r="I129" s="158"/>
+      <c r="J129" s="158"/>
+      <c r="K129" s="158"/>
+      <c r="L129" s="158"/>
+      <c r="M129" s="158"/>
+      <c r="N129" s="158"/>
+      <c r="O129" s="158"/>
+      <c r="P129" s="158"/>
+      <c r="Q129" s="158"/>
+      <c r="R129" s="158"/>
+      <c r="S129" s="158"/>
+      <c r="T129" s="158"/>
+      <c r="U129" s="158"/>
+      <c r="V129" s="165"/>
+    </row>
+    <row r="130" spans="1:22">
+      <c r="A130" s="65"/>
+      <c r="B130" s="21"/>
+      <c r="C130" s="54"/>
+      <c r="D130" s="21"/>
+      <c r="E130" s="148"/>
+      <c r="F130" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G130" s="23"/>
+      <c r="H130" s="78"/>
+      <c r="I130" s="78"/>
+      <c r="J130" s="78"/>
+      <c r="K130" s="78"/>
+      <c r="L130" s="78"/>
+      <c r="M130" s="78"/>
+      <c r="N130" s="78"/>
+      <c r="O130" s="78"/>
+      <c r="P130" s="78"/>
+      <c r="Q130" s="78"/>
+      <c r="R130" s="78"/>
+      <c r="S130" s="78"/>
+      <c r="T130" s="78"/>
+      <c r="U130" s="78"/>
+      <c r="V130" s="24"/>
+    </row>
+    <row r="131" spans="1:22">
+      <c r="A131" s="65"/>
+      <c r="B131" s="21"/>
+      <c r="C131" s="149"/>
+      <c r="D131" s="21"/>
+      <c r="E131" s="148"/>
+      <c r="F131" s="150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G131" s="150"/>
+      <c r="H131" s="151"/>
+      <c r="I131" s="151"/>
+      <c r="J131" s="151"/>
+      <c r="K131" s="151"/>
+      <c r="L131" s="151"/>
+      <c r="M131" s="151"/>
+      <c r="N131" s="151"/>
+      <c r="O131" s="151"/>
+      <c r="P131" s="151"/>
+      <c r="Q131" s="151"/>
+      <c r="R131" s="151"/>
+      <c r="S131" s="151"/>
+      <c r="T131" s="151"/>
+      <c r="U131" s="151"/>
+      <c r="V131" s="163"/>
+    </row>
+    <row r="132" spans="1:22">
+      <c r="A132" s="65"/>
+      <c r="B132" s="21"/>
+      <c r="C132" s="149"/>
+      <c r="D132" s="21"/>
+      <c r="E132" s="148"/>
+      <c r="F132" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G132" s="23"/>
+      <c r="H132" s="78"/>
+      <c r="I132" s="78"/>
+      <c r="J132" s="78"/>
+      <c r="K132" s="78"/>
+      <c r="L132" s="78"/>
+      <c r="M132" s="78"/>
+      <c r="N132" s="78"/>
+      <c r="O132" s="78"/>
+      <c r="P132" s="78"/>
+      <c r="Q132" s="78"/>
+      <c r="R132" s="78"/>
+      <c r="S132" s="78"/>
+      <c r="T132" s="78"/>
+      <c r="U132" s="78"/>
+      <c r="V132" s="24"/>
+    </row>
+    <row r="133" ht="14.25" spans="1:22">
+      <c r="A133" s="66"/>
+      <c r="B133" s="54"/>
+      <c r="C133" s="149"/>
+      <c r="D133" s="54"/>
+      <c r="E133" s="152"/>
+      <c r="F133" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="G133" s="153"/>
+      <c r="H133" s="154"/>
+      <c r="I133" s="154"/>
+      <c r="J133" s="154"/>
+      <c r="K133" s="154"/>
+      <c r="L133" s="154"/>
+      <c r="M133" s="154"/>
+      <c r="N133" s="154"/>
+      <c r="O133" s="154"/>
+      <c r="P133" s="154"/>
+      <c r="Q133" s="154"/>
+      <c r="R133" s="154"/>
+      <c r="S133" s="154"/>
+      <c r="T133" s="154"/>
+      <c r="U133" s="154"/>
+      <c r="V133" s="164"/>
+    </row>
+    <row r="134" ht="14.25" spans="1:22">
+      <c r="A134" s="103"/>
+      <c r="B134" s="104"/>
+      <c r="C134" s="155"/>
+      <c r="D134" s="104"/>
+      <c r="E134" s="156"/>
+      <c r="F134" s="157" t="s">
+        <v>42</v>
+      </c>
+      <c r="G134" s="157"/>
+      <c r="H134" s="158"/>
+      <c r="I134" s="158"/>
+      <c r="J134" s="158"/>
+      <c r="K134" s="158"/>
+      <c r="L134" s="158"/>
+      <c r="M134" s="158"/>
+      <c r="N134" s="158"/>
+      <c r="O134" s="158"/>
+      <c r="P134" s="158"/>
+      <c r="Q134" s="158"/>
+      <c r="R134" s="158"/>
+      <c r="S134" s="158"/>
+      <c r="T134" s="158"/>
+      <c r="U134" s="158"/>
+      <c r="V134" s="165"/>
     </row>
   </sheetData>
-  <mergeCells count="120">
+  <mergeCells count="125">
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A11:A16"/>
@@ -8175,20 +8368,21 @@
     <mergeCell ref="A41:A46"/>
     <mergeCell ref="A47:A52"/>
     <mergeCell ref="A53:A58"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="A95:A99"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="A110:A114"/>
+    <mergeCell ref="A115:A119"/>
+    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="A125:A129"/>
+    <mergeCell ref="A130:A134"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="B11:B16"/>
@@ -8199,20 +8393,21 @@
     <mergeCell ref="B41:B46"/>
     <mergeCell ref="B47:B52"/>
     <mergeCell ref="B53:B58"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="B94:B98"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="B104:B108"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="B119:B123"/>
-    <mergeCell ref="B124:B128"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="B85:B89"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="B95:B99"/>
+    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="B110:B114"/>
+    <mergeCell ref="B115:B119"/>
+    <mergeCell ref="B120:B124"/>
+    <mergeCell ref="B125:B129"/>
+    <mergeCell ref="B130:B134"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="C5:C10"/>
     <mergeCell ref="C11:C16"/>
@@ -8223,20 +8418,21 @@
     <mergeCell ref="C41:C46"/>
     <mergeCell ref="C47:C52"/>
     <mergeCell ref="C53:C58"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="C64:C68"/>
-    <mergeCell ref="C69:C73"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="C79:C83"/>
-    <mergeCell ref="C84:C88"/>
-    <mergeCell ref="C89:C93"/>
-    <mergeCell ref="C94:C98"/>
-    <mergeCell ref="C99:C103"/>
-    <mergeCell ref="C104:C108"/>
-    <mergeCell ref="C109:C113"/>
-    <mergeCell ref="C114:C118"/>
-    <mergeCell ref="C119:C123"/>
-    <mergeCell ref="C124:C128"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="C65:C69"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="C80:C84"/>
+    <mergeCell ref="C85:C89"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="C95:C99"/>
+    <mergeCell ref="C100:C104"/>
+    <mergeCell ref="C105:C109"/>
+    <mergeCell ref="C110:C114"/>
+    <mergeCell ref="C115:C119"/>
+    <mergeCell ref="C120:C124"/>
+    <mergeCell ref="C125:C129"/>
+    <mergeCell ref="C130:C134"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="D5:D10"/>
     <mergeCell ref="D11:D16"/>
@@ -8247,20 +8443,21 @@
     <mergeCell ref="D41:D46"/>
     <mergeCell ref="D47:D52"/>
     <mergeCell ref="D53:D58"/>
-    <mergeCell ref="D59:D63"/>
-    <mergeCell ref="D64:D68"/>
-    <mergeCell ref="D69:D73"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="D89:D93"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="D104:D108"/>
-    <mergeCell ref="D109:D113"/>
-    <mergeCell ref="D114:D118"/>
-    <mergeCell ref="D119:D123"/>
-    <mergeCell ref="D124:D128"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="D65:D69"/>
+    <mergeCell ref="D70:D74"/>
+    <mergeCell ref="D75:D79"/>
+    <mergeCell ref="D80:D84"/>
+    <mergeCell ref="D85:D89"/>
+    <mergeCell ref="D90:D94"/>
+    <mergeCell ref="D95:D99"/>
+    <mergeCell ref="D100:D104"/>
+    <mergeCell ref="D105:D109"/>
+    <mergeCell ref="D110:D114"/>
+    <mergeCell ref="D115:D119"/>
+    <mergeCell ref="D120:D124"/>
+    <mergeCell ref="D125:D129"/>
+    <mergeCell ref="D130:D134"/>
     <mergeCell ref="E1:E4"/>
     <mergeCell ref="E5:E10"/>
     <mergeCell ref="E11:E16"/>
@@ -8271,20 +8468,21 @@
     <mergeCell ref="E41:E46"/>
     <mergeCell ref="E47:E52"/>
     <mergeCell ref="E53:E58"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="E64:E68"/>
-    <mergeCell ref="E69:E73"/>
-    <mergeCell ref="E74:E78"/>
-    <mergeCell ref="E79:E83"/>
-    <mergeCell ref="E84:E88"/>
-    <mergeCell ref="E89:E93"/>
-    <mergeCell ref="E94:E98"/>
-    <mergeCell ref="E99:E103"/>
-    <mergeCell ref="E104:E108"/>
-    <mergeCell ref="E109:E113"/>
-    <mergeCell ref="E114:E118"/>
-    <mergeCell ref="E119:E123"/>
-    <mergeCell ref="E124:E128"/>
+    <mergeCell ref="E59:E64"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="E70:E74"/>
+    <mergeCell ref="E75:E79"/>
+    <mergeCell ref="E80:E84"/>
+    <mergeCell ref="E85:E89"/>
+    <mergeCell ref="E90:E94"/>
+    <mergeCell ref="E95:E99"/>
+    <mergeCell ref="E100:E104"/>
+    <mergeCell ref="E105:E109"/>
+    <mergeCell ref="E110:E114"/>
+    <mergeCell ref="E115:E119"/>
+    <mergeCell ref="E120:E124"/>
+    <mergeCell ref="E125:E129"/>
+    <mergeCell ref="E130:E134"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -8312,14 +8510,14 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="6" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="7" t="s">
@@ -8343,7 +8541,7 @@
       <c r="R1" s="7"/>
       <c r="S1" s="5"/>
       <c r="T1" s="94" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:20">
@@ -8363,46 +8561,46 @@
         <v>6</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="I2" s="69" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M2" s="70" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="N2" s="69" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="O2" s="70" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="P2" s="69" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q2" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="R2" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="R2" s="70" t="s">
-        <v>169</v>
-      </c>
       <c r="S2" s="69" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="T2" s="96"/>
     </row>
@@ -8411,7 +8609,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>17</v>
@@ -8445,7 +8643,7 @@
       <c r="R3" s="74"/>
       <c r="S3" s="18"/>
       <c r="T3" s="97" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8550,31 +8748,31 @@
         <v>11</v>
       </c>
       <c r="K7" s="84" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L7" s="84" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M7" s="85" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="N7" s="31" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="O7" s="85" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="P7" s="31" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="83" t="s">
         <v>8</v>
       </c>
       <c r="R7" s="85" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="S7" s="31" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="T7" s="98"/>
     </row>
@@ -8600,23 +8798,23 @@
       <c r="K8" s="88"/>
       <c r="L8" s="88"/>
       <c r="M8" s="89" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="N8" s="34" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="O8" s="89" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="87"/>
       <c r="R8" s="89" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="S8" s="34" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="T8" s="99"/>
     </row>
@@ -8642,23 +8840,23 @@
       <c r="K9" s="88"/>
       <c r="L9" s="88"/>
       <c r="M9" s="89" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="N9" s="34" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="O9" s="89" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q9" s="87"/>
       <c r="R9" s="89" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="S9" s="34" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="T9" s="99"/>
     </row>
@@ -8684,23 +8882,23 @@
       <c r="K10" s="92"/>
       <c r="L10" s="92"/>
       <c r="M10" s="93" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="N10" s="37" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="O10" s="93" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="P10" s="37" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="91"/>
       <c r="R10" s="93" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="S10" s="37" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="T10" s="100"/>
     </row>
@@ -8728,22 +8926,22 @@
         <v>11</v>
       </c>
       <c r="K11" s="73" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L11" s="73" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M11" s="74" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="O11" s="17" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="P11" s="18" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q11" s="72" t="s">
         <v>7</v>
@@ -8774,16 +8972,16 @@
       <c r="K12" s="77"/>
       <c r="L12" s="77"/>
       <c r="M12" s="78" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="P12" s="24" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q12" s="76"/>
       <c r="R12" s="78"/>
@@ -8812,16 +9010,16 @@
       <c r="K13" s="77"/>
       <c r="L13" s="77"/>
       <c r="M13" s="78" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="N13" s="24" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="P13" s="24" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="76"/>
       <c r="R13" s="78"/>
@@ -8850,16 +9048,16 @@
       <c r="K14" s="81"/>
       <c r="L14" s="81"/>
       <c r="M14" s="82" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="N14" s="27" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="O14" s="26" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="P14" s="27" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="80"/>
       <c r="R14" s="82"/>
@@ -8890,22 +9088,22 @@
         <v>12</v>
       </c>
       <c r="K15" s="84" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="L15" s="84" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M15" s="85" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="N15" s="31" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="O15" s="85" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="P15" s="31" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q15" s="83" t="s">
         <v>8</v>
@@ -8936,16 +9134,16 @@
       <c r="K16" s="88"/>
       <c r="L16" s="88"/>
       <c r="M16" s="89" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="N16" s="34" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="O16" s="89" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="P16" s="34" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q16" s="87"/>
       <c r="R16" s="89"/>
@@ -8974,23 +9172,23 @@
       <c r="K17" s="88"/>
       <c r="L17" s="88"/>
       <c r="M17" s="89" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="N17" s="34" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="O17" s="89" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="P17" s="34" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q17" s="87"/>
       <c r="R17" s="89" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="S17" s="34" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="T17" s="99"/>
     </row>
@@ -9016,23 +9214,23 @@
       <c r="K18" s="92"/>
       <c r="L18" s="92"/>
       <c r="M18" s="93" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="N18" s="37" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="O18" s="93" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="P18" s="37" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q18" s="91"/>
       <c r="R18" s="93" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="S18" s="37" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="T18" s="100"/>
     </row>
@@ -9054,10 +9252,10 @@
         <v>12</v>
       </c>
       <c r="K19" s="73" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L19" s="73" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M19" s="74"/>
       <c r="N19" s="18"/>
@@ -9147,7 +9345,7 @@
         <v>53</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C23" s="41" t="s">
         <v>56</v>
@@ -9162,7 +9360,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H23" s="32">
         <v>20</v>
@@ -9174,10 +9372,10 @@
         <v>11</v>
       </c>
       <c r="K23" s="84" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="L23" s="84" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M23" s="85"/>
       <c r="N23" s="31"/>
@@ -9233,10 +9431,10 @@
         <v>60</v>
       </c>
       <c r="H25" s="35" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="I25" s="86" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="J25" s="87"/>
       <c r="K25" s="88"/>
@@ -9247,10 +9445,10 @@
       <c r="P25" s="34"/>
       <c r="Q25" s="87"/>
       <c r="R25" s="89" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="S25" s="34" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="T25" s="99"/>
     </row>
@@ -9276,23 +9474,23 @@
       <c r="K26" s="92"/>
       <c r="L26" s="92"/>
       <c r="M26" s="93" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="N26" s="37" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="O26" s="93" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="P26" s="37" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q26" s="91"/>
       <c r="R26" s="93" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="S26" s="37" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="T26" s="100"/>
     </row>
@@ -9301,10 +9499,10 @@
         <v>62</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>64</v>
@@ -9328,31 +9526,31 @@
         <v>11</v>
       </c>
       <c r="K27" s="73" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="L27" s="73" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M27" s="74" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="N27" s="18" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="O27" s="17" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="P27" s="18" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q27" s="72" t="s">
         <v>8</v>
       </c>
       <c r="R27" s="74" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="S27" s="18" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="T27" s="101"/>
     </row>
@@ -9378,23 +9576,23 @@
       <c r="K28" s="77"/>
       <c r="L28" s="77"/>
       <c r="M28" s="78" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="N28" s="24" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="O28" s="23" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="P28" s="24" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q28" s="76"/>
       <c r="R28" s="78" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="S28" s="24" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="T28" s="102"/>
     </row>
@@ -9420,23 +9618,23 @@
       <c r="K29" s="77"/>
       <c r="L29" s="77"/>
       <c r="M29" s="78" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="N29" s="24" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="O29" s="23" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="P29" s="24" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q29" s="76"/>
       <c r="R29" s="78" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="S29" s="24" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="T29" s="102"/>
     </row>
@@ -9462,23 +9660,23 @@
       <c r="K30" s="81"/>
       <c r="L30" s="81"/>
       <c r="M30" s="82" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="N30" s="27" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="O30" s="26" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="P30" s="27" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q30" s="80"/>
       <c r="R30" s="82" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="S30" s="27" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="T30" s="102"/>
     </row>
@@ -9506,31 +9704,31 @@
         <v>11</v>
       </c>
       <c r="K31" s="84" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="L31" s="84" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M31" s="85" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="N31" s="31" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="O31" s="85" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="P31" s="31" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q31" s="83" t="s">
         <v>8</v>
       </c>
       <c r="R31" s="85" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="S31" s="31" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="T31" s="98"/>
     </row>
@@ -9556,23 +9754,23 @@
       <c r="K32" s="88"/>
       <c r="L32" s="88"/>
       <c r="M32" s="89" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="N32" s="34" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="O32" s="89" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="P32" s="34" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q32" s="87"/>
       <c r="R32" s="89" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="S32" s="34" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="T32" s="99"/>
     </row>
@@ -9598,23 +9796,23 @@
       <c r="K33" s="88"/>
       <c r="L33" s="88"/>
       <c r="M33" s="89" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="N33" s="34" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="O33" s="89" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="P33" s="34" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q33" s="87"/>
       <c r="R33" s="89" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="S33" s="34" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="T33" s="99"/>
     </row>
@@ -9640,23 +9838,23 @@
       <c r="K34" s="92"/>
       <c r="L34" s="92"/>
       <c r="M34" s="93" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="N34" s="37" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="O34" s="93" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="P34" s="37" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q34" s="91"/>
       <c r="R34" s="93" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="S34" s="37" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="T34" s="100"/>
     </row>
@@ -9684,22 +9882,22 @@
         <v>11</v>
       </c>
       <c r="K35" s="73" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="L35" s="73" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M35" s="74" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="N35" s="18" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="O35" s="17" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="P35" s="18" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q35" s="72" t="s">
         <v>7</v>
@@ -9730,16 +9928,16 @@
       <c r="K36" s="77"/>
       <c r="L36" s="77"/>
       <c r="M36" s="78" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="N36" s="24" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="O36" s="23" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="P36" s="24" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q36" s="76"/>
       <c r="R36" s="78"/>
@@ -9768,16 +9966,16 @@
       <c r="K37" s="77"/>
       <c r="L37" s="77"/>
       <c r="M37" s="78" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="N37" s="24" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="O37" s="23" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="P37" s="24" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q37" s="76"/>
       <c r="R37" s="78"/>
@@ -9806,16 +10004,16 @@
       <c r="K38" s="81"/>
       <c r="L38" s="81"/>
       <c r="M38" s="82" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="N38" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="O38" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="P38" s="27" t="s">
         <v>251</v>
-      </c>
-      <c r="O38" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="P38" s="27" t="s">
-        <v>246</v>
       </c>
       <c r="Q38" s="80"/>
       <c r="R38" s="82"/>
@@ -9846,31 +10044,31 @@
         <v>12</v>
       </c>
       <c r="K39" s="84" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="L39" s="84" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M39" s="32" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="N39" s="31" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="O39" s="85" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="P39" s="31" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q39" s="83" t="s">
         <v>8</v>
       </c>
       <c r="R39" s="85" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="S39" s="31" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="T39" s="98"/>
     </row>
@@ -9896,23 +10094,23 @@
       <c r="K40" s="88"/>
       <c r="L40" s="88"/>
       <c r="M40" s="89" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="N40" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="O40" s="89" t="s">
         <v>254</v>
       </c>
-      <c r="O40" s="89" t="s">
-        <v>249</v>
-      </c>
       <c r="P40" s="34" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q40" s="87"/>
       <c r="R40" s="89" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="S40" s="34" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="T40" s="99"/>
     </row>
@@ -9938,23 +10136,23 @@
       <c r="K41" s="88"/>
       <c r="L41" s="88"/>
       <c r="M41" s="89" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="N41" s="34" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="O41" s="89" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P41" s="34" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q41" s="87"/>
       <c r="R41" s="89" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="S41" s="34" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="T41" s="99"/>
     </row>
@@ -9980,23 +10178,23 @@
       <c r="K42" s="92"/>
       <c r="L42" s="92"/>
       <c r="M42" s="93" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="N42" s="37" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="O42" s="93" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P42" s="37" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q42" s="91"/>
       <c r="R42" s="93" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="S42" s="37" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="T42" s="100"/>
     </row>
@@ -10012,7 +10210,7 @@
         <v>18</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H43" s="19">
         <v>63.88</v>
@@ -10024,22 +10222,22 @@
         <v>12</v>
       </c>
       <c r="K43" s="73" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="L43" s="73" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M43" s="74" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="N43" s="18" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="O43" s="17" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="P43" s="18" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q43" s="72" t="s">
         <v>7</v>
@@ -10058,7 +10256,7 @@
         <v>23</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H44" s="25">
         <v>6.93</v>
@@ -10070,16 +10268,16 @@
       <c r="K44" s="77"/>
       <c r="L44" s="77"/>
       <c r="M44" s="78" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="N44" s="24" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="O44" s="23" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="P44" s="24" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q44" s="76"/>
       <c r="R44" s="78"/>
@@ -10096,7 +10294,7 @@
         <v>112</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H45" s="25">
         <v>64</v>
@@ -10108,16 +10306,16 @@
       <c r="K45" s="77"/>
       <c r="L45" s="77"/>
       <c r="M45" s="78" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="N45" s="24" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="O45" s="23" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="P45" s="24" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q45" s="76"/>
       <c r="R45" s="78"/>
@@ -10146,16 +10344,16 @@
       <c r="K46" s="81"/>
       <c r="L46" s="81"/>
       <c r="M46" s="82" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="N46" s="27" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="O46" s="26" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="P46" s="27" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q46" s="80"/>
       <c r="R46" s="82"/>
@@ -10167,10 +10365,10 @@
         <v>88</v>
       </c>
       <c r="B47" s="56" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C47" s="56" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D47" s="56" t="s">
         <v>64</v>
@@ -11931,7 +12129,7 @@
   <sheetData>
     <row r="1" ht="68" customHeight="1" spans="1:25">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11960,7 +12158,7 @@
     </row>
     <row r="4" spans="12:23">
       <c r="L4" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -12186,7 +12384,7 @@
     </row>
     <row r="95" spans="16:23">
       <c r="P95" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>

--- a/testnet3 AMD CPU测试报告.xlsx
+++ b/testnet3 AMD CPU测试报告.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="280">
   <si>
     <t xml:space="preserve">1. 使用MaxCache参数可以大幅提高PreCommit1的效率（会多使用56G内存，建议全程开启该参数）
 2. PreCommit1阶段只使用单核CPU性能，带sha-ni指令扩展的AMD CPU可以对该阶段大幅加速
@@ -168,6 +168,21 @@
 使用BUILD_FROM_SOURCE编译</t>
   </si>
   <si>
+    <t>28h8m49s</t>
+  </si>
+  <si>
+    <t>1h26m41s</t>
+  </si>
+  <si>
+    <t>7s</t>
+  </si>
+  <si>
+    <t>2h3m3s</t>
+  </si>
+  <si>
+    <t>31h59m25s</t>
+  </si>
+  <si>
     <t>杭州发回机器</t>
   </si>
   <si>
@@ -883,10 +898,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -910,8 +925,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -919,9 +949,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -957,7 +995,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -965,50 +1010,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1032,23 +1033,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1093,31 +1108,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,6 +1156,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1147,25 +1180,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,49 +1204,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1237,13 +1246,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1255,25 +1288,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1771,68 +1786,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1866,6 +1822,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1874,10 +1889,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1886,133 +1901,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="46" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4414,9 +4429,9 @@
   <dimension ref="A1:V134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J62" sqref="J62"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4854,7 +4869,9 @@
       <c r="G11" s="23"/>
       <c r="H11" s="78"/>
       <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
+      <c r="J11" s="78" t="s">
+        <v>44</v>
+      </c>
       <c r="K11" s="78"/>
       <c r="L11" s="78"/>
       <c r="M11" s="78"/>
@@ -4880,7 +4897,9 @@
       <c r="G12" s="150"/>
       <c r="H12" s="151"/>
       <c r="I12" s="151"/>
-      <c r="J12" s="151"/>
+      <c r="J12" s="151" t="s">
+        <v>45</v>
+      </c>
       <c r="K12" s="151"/>
       <c r="L12" s="151"/>
       <c r="M12" s="151"/>
@@ -4906,7 +4925,9 @@
       <c r="G13" s="150"/>
       <c r="H13" s="151"/>
       <c r="I13" s="151"/>
-      <c r="J13" s="151"/>
+      <c r="J13" s="151" t="s">
+        <v>46</v>
+      </c>
       <c r="K13" s="151"/>
       <c r="L13" s="151"/>
       <c r="M13" s="151"/>
@@ -4932,7 +4953,9 @@
       <c r="G14" s="23"/>
       <c r="H14" s="78"/>
       <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
+      <c r="J14" s="78" t="s">
+        <v>47</v>
+      </c>
       <c r="K14" s="78"/>
       <c r="L14" s="78"/>
       <c r="M14" s="78"/>
@@ -4946,7 +4969,7 @@
       <c r="U14" s="78"/>
       <c r="V14" s="24"/>
     </row>
-    <row r="15" ht="14.25" spans="1:22">
+    <row r="15" spans="1:22">
       <c r="A15" s="66"/>
       <c r="B15" s="54"/>
       <c r="C15" s="149"/>
@@ -4958,7 +4981,9 @@
       <c r="G15" s="153"/>
       <c r="H15" s="154"/>
       <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
+      <c r="J15" s="154" t="s">
+        <v>48</v>
+      </c>
       <c r="K15" s="154"/>
       <c r="L15" s="154"/>
       <c r="M15" s="154"/>
@@ -5000,17 +5025,17 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="65" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C17" s="54"/>
       <c r="D17" s="21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E17" s="148" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>18</v>
@@ -5021,7 +5046,7 @@
       <c r="J17" s="78"/>
       <c r="K17" s="78"/>
       <c r="L17" s="78" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M17" s="78"/>
       <c r="N17" s="78"/>
@@ -5049,7 +5074,7 @@
       <c r="J18" s="151"/>
       <c r="K18" s="151"/>
       <c r="L18" s="151" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M18" s="151"/>
       <c r="N18" s="151"/>
@@ -5077,7 +5102,7 @@
       <c r="J19" s="151"/>
       <c r="K19" s="151"/>
       <c r="L19" s="151" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M19" s="151"/>
       <c r="N19" s="151"/>
@@ -5105,7 +5130,7 @@
       <c r="J20" s="78"/>
       <c r="K20" s="78"/>
       <c r="L20" s="78" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M20" s="78"/>
       <c r="N20" s="78"/>
@@ -5133,7 +5158,7 @@
       <c r="J21" s="154"/>
       <c r="K21" s="154"/>
       <c r="L21" s="154" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M21" s="154"/>
       <c r="N21" s="154"/>
@@ -5174,19 +5199,19 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="65" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E23" s="148" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F23" s="23" t="s">
         <v>18</v>
@@ -5194,7 +5219,7 @@
       <c r="G23" s="23"/>
       <c r="H23" s="78"/>
       <c r="I23" s="78" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J23" s="78"/>
       <c r="K23" s="78"/>
@@ -5222,7 +5247,7 @@
       <c r="G24" s="150"/>
       <c r="H24" s="151"/>
       <c r="I24" s="151" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J24" s="151"/>
       <c r="K24" s="151"/>
@@ -5250,7 +5275,7 @@
       <c r="G25" s="150"/>
       <c r="H25" s="151"/>
       <c r="I25" s="151" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J25" s="151"/>
       <c r="K25" s="151"/>
@@ -5278,7 +5303,7 @@
       <c r="G26" s="23"/>
       <c r="H26" s="78"/>
       <c r="I26" s="78" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J26" s="78"/>
       <c r="K26" s="78"/>
@@ -5306,7 +5331,7 @@
       <c r="G27" s="153"/>
       <c r="H27" s="154"/>
       <c r="I27" s="154" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J27" s="154"/>
       <c r="K27" s="154"/>
@@ -5350,38 +5375,38 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="65" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E29" s="148" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F29" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="78" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H29" s="78"/>
       <c r="I29" s="78" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="J29" s="78" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K29" s="78" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="L29" s="78" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M29" s="78"/>
       <c r="N29" s="78"/>
@@ -5404,20 +5429,20 @@
         <v>23</v>
       </c>
       <c r="G30" s="151" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H30" s="151"/>
       <c r="I30" s="151" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J30" s="151" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K30" s="151" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L30" s="151" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M30" s="151"/>
       <c r="N30" s="151"/>
@@ -5440,14 +5465,14 @@
         <v>28</v>
       </c>
       <c r="G31" s="151" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H31" s="151"/>
       <c r="I31" s="151" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J31" s="151" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K31" s="151"/>
       <c r="L31" s="151"/>
@@ -5472,20 +5497,20 @@
         <v>32</v>
       </c>
       <c r="G32" s="78" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H32" s="78"/>
       <c r="I32" s="78" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J32" s="78" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K32" s="78" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L32" s="78" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M32" s="78"/>
       <c r="N32" s="78"/>
@@ -5508,20 +5533,20 @@
         <v>37</v>
       </c>
       <c r="G33" s="154" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H33" s="154"/>
       <c r="I33" s="154" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J33" s="154" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K33" s="154" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L33" s="154" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M33" s="154"/>
       <c r="N33" s="154"/>
@@ -5562,19 +5587,19 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="65" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C35" s="54" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E35" s="148" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>18</v>
@@ -5582,13 +5607,13 @@
       <c r="G35" s="23"/>
       <c r="H35" s="78"/>
       <c r="I35" s="78" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J35" s="78" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K35" s="78" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="L35" s="78"/>
       <c r="M35" s="78"/>
@@ -5614,13 +5639,13 @@
       <c r="G36" s="150"/>
       <c r="H36" s="151"/>
       <c r="I36" s="151" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J36" s="151" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K36" s="151" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L36" s="151"/>
       <c r="M36" s="151"/>
@@ -5672,13 +5697,13 @@
       <c r="G38" s="23"/>
       <c r="H38" s="78"/>
       <c r="I38" s="78" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="J38" s="78" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K38" s="78" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L38" s="78"/>
       <c r="M38" s="78"/>
@@ -5704,13 +5729,13 @@
       <c r="G39" s="153"/>
       <c r="H39" s="154"/>
       <c r="I39" s="154" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J39" s="154" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K39" s="154" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="L39" s="154"/>
       <c r="M39" s="154"/>
@@ -5752,19 +5777,19 @@
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="65" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C41" s="54" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E41" s="148" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>18</v>
@@ -5772,16 +5797,16 @@
       <c r="G41" s="23"/>
       <c r="H41" s="78"/>
       <c r="I41" s="78" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="J41" s="78" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K41" s="78" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="L41" s="78" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="M41" s="78"/>
       <c r="N41" s="78"/>
@@ -5806,16 +5831,16 @@
       <c r="G42" s="150"/>
       <c r="H42" s="151"/>
       <c r="I42" s="151" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J42" s="151" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K42" s="151" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="L42" s="151" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="M42" s="151"/>
       <c r="N42" s="151"/>
@@ -5861,21 +5886,21 @@
       <c r="D44" s="21"/>
       <c r="E44" s="148"/>
       <c r="F44" s="23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G44" s="23"/>
       <c r="H44" s="78"/>
       <c r="I44" s="78" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="J44" s="78" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K44" s="78" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L44" s="78" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M44" s="78"/>
       <c r="N44" s="78"/>
@@ -5900,16 +5925,16 @@
       <c r="G45" s="153"/>
       <c r="H45" s="154"/>
       <c r="I45" s="154" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="J45" s="154" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="K45" s="154" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="L45" s="154" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M45" s="154"/>
       <c r="N45" s="154"/>
@@ -5950,19 +5975,19 @@
     </row>
     <row r="47" spans="1:22">
       <c r="A47" s="65" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C47" s="54" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E47" s="148" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>18</v>
@@ -5970,16 +5995,16 @@
       <c r="G47" s="23"/>
       <c r="H47" s="78"/>
       <c r="I47" s="78" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J47" s="78" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K47" s="78" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="L47" s="78" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="M47" s="78"/>
       <c r="N47" s="78"/>
@@ -6004,16 +6029,16 @@
       <c r="G48" s="150"/>
       <c r="H48" s="151"/>
       <c r="I48" s="151" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="J48" s="151" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K48" s="151" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="L48" s="151" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M48" s="151"/>
       <c r="N48" s="151"/>
@@ -6064,16 +6089,16 @@
       <c r="G50" s="23"/>
       <c r="H50" s="78"/>
       <c r="I50" s="78" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J50" s="78" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K50" s="78" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L50" s="78" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M50" s="78"/>
       <c r="N50" s="78"/>
@@ -6098,16 +6123,16 @@
       <c r="G51" s="153"/>
       <c r="H51" s="154"/>
       <c r="I51" s="154" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="J51" s="154" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K51" s="154" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="L51" s="154" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M51" s="154"/>
       <c r="N51" s="154"/>
@@ -6148,19 +6173,19 @@
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="65" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C53" s="54" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E53" s="148" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F53" s="23" t="s">
         <v>18</v>
@@ -6168,14 +6193,14 @@
       <c r="G53" s="23"/>
       <c r="H53" s="78"/>
       <c r="I53" s="78" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="J53" s="78" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="K53" s="78"/>
       <c r="L53" s="78" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M53" s="78"/>
       <c r="N53" s="78"/>
@@ -6200,14 +6225,14 @@
       <c r="G54" s="150"/>
       <c r="H54" s="151"/>
       <c r="I54" s="151" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="J54" s="151" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K54" s="151"/>
       <c r="L54" s="151" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M54" s="151"/>
       <c r="N54" s="151"/>
@@ -6232,14 +6257,14 @@
       <c r="G55" s="150"/>
       <c r="H55" s="151"/>
       <c r="I55" s="151" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="J55" s="151" t="s">
         <v>30</v>
       </c>
       <c r="K55" s="151"/>
       <c r="L55" s="151" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="M55" s="151"/>
       <c r="N55" s="151"/>
@@ -6264,14 +6289,14 @@
       <c r="G56" s="23"/>
       <c r="H56" s="78"/>
       <c r="I56" s="78" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="J56" s="78" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K56" s="78"/>
       <c r="L56" s="78" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M56" s="78"/>
       <c r="N56" s="78"/>
@@ -6296,14 +6321,14 @@
       <c r="G57" s="153"/>
       <c r="H57" s="154"/>
       <c r="I57" s="154" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="J57" s="154" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="K57" s="154"/>
       <c r="L57" s="154" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M57" s="154"/>
       <c r="N57" s="154"/>
@@ -6344,19 +6369,19 @@
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="65" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C59" s="54" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E59" s="148" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>18</v>
@@ -6365,7 +6390,7 @@
       <c r="H59" s="78"/>
       <c r="I59" s="78"/>
       <c r="J59" s="78" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="K59" s="78"/>
       <c r="L59" s="78"/>
@@ -6393,7 +6418,7 @@
       <c r="H60" s="151"/>
       <c r="I60" s="151"/>
       <c r="J60" s="151" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K60" s="151"/>
       <c r="L60" s="151"/>
@@ -6449,7 +6474,7 @@
       <c r="H62" s="78"/>
       <c r="I62" s="78"/>
       <c r="J62" s="78" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K62" s="78"/>
       <c r="L62" s="78"/>
@@ -6477,7 +6502,7 @@
       <c r="H63" s="154"/>
       <c r="I63" s="154"/>
       <c r="J63" s="154" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K63" s="154"/>
       <c r="L63" s="154"/>
@@ -6520,19 +6545,19 @@
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="65" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C65" s="54" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E65" s="148" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F65" s="23" t="s">
         <v>18</v>
@@ -6540,7 +6565,7 @@
       <c r="G65" s="23"/>
       <c r="H65" s="78"/>
       <c r="I65" s="78" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="J65" s="78"/>
       <c r="K65" s="78"/>
@@ -6568,7 +6593,7 @@
       <c r="G66" s="150"/>
       <c r="H66" s="151"/>
       <c r="I66" s="151" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="J66" s="151"/>
       <c r="K66" s="151"/>
@@ -6591,12 +6616,12 @@
       <c r="D67" s="21"/>
       <c r="E67" s="148"/>
       <c r="F67" s="23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G67" s="23"/>
       <c r="H67" s="78"/>
       <c r="I67" s="78" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="J67" s="78"/>
       <c r="K67" s="78"/>
@@ -6624,7 +6649,7 @@
       <c r="G68" s="153"/>
       <c r="H68" s="154"/>
       <c r="I68" s="154" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="J68" s="154"/>
       <c r="K68" s="154"/>
@@ -6725,7 +6750,7 @@
       <c r="D72" s="21"/>
       <c r="E72" s="148"/>
       <c r="F72" s="23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G72" s="23"/>
       <c r="H72" s="78"/>
@@ -6855,7 +6880,7 @@
       <c r="D77" s="21"/>
       <c r="E77" s="148"/>
       <c r="F77" s="23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G77" s="23"/>
       <c r="H77" s="78"/>
@@ -6985,7 +7010,7 @@
       <c r="D82" s="21"/>
       <c r="E82" s="148"/>
       <c r="F82" s="23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G82" s="23"/>
       <c r="H82" s="78"/>
@@ -7115,7 +7140,7 @@
       <c r="D87" s="21"/>
       <c r="E87" s="148"/>
       <c r="F87" s="23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G87" s="23"/>
       <c r="H87" s="78"/>
@@ -7245,7 +7270,7 @@
       <c r="D92" s="21"/>
       <c r="E92" s="148"/>
       <c r="F92" s="23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G92" s="23"/>
       <c r="H92" s="78"/>
@@ -7375,7 +7400,7 @@
       <c r="D97" s="21"/>
       <c r="E97" s="148"/>
       <c r="F97" s="23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G97" s="23"/>
       <c r="H97" s="78"/>
@@ -7505,7 +7530,7 @@
       <c r="D102" s="21"/>
       <c r="E102" s="148"/>
       <c r="F102" s="23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G102" s="23"/>
       <c r="H102" s="78"/>
@@ -7635,7 +7660,7 @@
       <c r="D107" s="21"/>
       <c r="E107" s="148"/>
       <c r="F107" s="23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G107" s="23"/>
       <c r="H107" s="78"/>
@@ -7765,7 +7790,7 @@
       <c r="D112" s="21"/>
       <c r="E112" s="148"/>
       <c r="F112" s="23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G112" s="23"/>
       <c r="H112" s="78"/>
@@ -7895,7 +7920,7 @@
       <c r="D117" s="21"/>
       <c r="E117" s="148"/>
       <c r="F117" s="23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G117" s="23"/>
       <c r="H117" s="78"/>
@@ -8025,7 +8050,7 @@
       <c r="D122" s="21"/>
       <c r="E122" s="148"/>
       <c r="F122" s="23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G122" s="23"/>
       <c r="H122" s="78"/>
@@ -8155,7 +8180,7 @@
       <c r="D127" s="21"/>
       <c r="E127" s="148"/>
       <c r="F127" s="23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G127" s="23"/>
       <c r="H127" s="78"/>
@@ -8285,7 +8310,7 @@
       <c r="D132" s="21"/>
       <c r="E132" s="148"/>
       <c r="F132" s="23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G132" s="23"/>
       <c r="H132" s="78"/>
@@ -8510,14 +8535,14 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="6" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="7" t="s">
@@ -8541,7 +8566,7 @@
       <c r="R1" s="7"/>
       <c r="S1" s="5"/>
       <c r="T1" s="94" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:20">
@@ -8561,46 +8586,46 @@
         <v>6</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="I2" s="69" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M2" s="70" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="N2" s="69" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="O2" s="70" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="P2" s="69" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q2" s="95" t="s">
+        <v>184</v>
+      </c>
+      <c r="R2" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="R2" s="70" t="s">
-        <v>174</v>
-      </c>
       <c r="S2" s="69" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="T2" s="96"/>
     </row>
@@ -8609,7 +8634,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>17</v>
@@ -8643,7 +8668,7 @@
       <c r="R3" s="74"/>
       <c r="S3" s="18"/>
       <c r="T3" s="97" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8679,7 +8704,7 @@
       <c r="D5" s="21"/>
       <c r="E5" s="22"/>
       <c r="F5" s="23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>33</v>
@@ -8748,31 +8773,31 @@
         <v>11</v>
       </c>
       <c r="K7" s="84" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L7" s="84" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M7" s="85" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="N7" s="31" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="O7" s="85" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="P7" s="31" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q7" s="83" t="s">
         <v>8</v>
       </c>
       <c r="R7" s="85" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="S7" s="31" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="T7" s="98"/>
     </row>
@@ -8798,23 +8823,23 @@
       <c r="K8" s="88"/>
       <c r="L8" s="88"/>
       <c r="M8" s="89" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="N8" s="34" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="O8" s="89" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="87"/>
       <c r="R8" s="89" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="S8" s="34" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="T8" s="99"/>
     </row>
@@ -8825,7 +8850,7 @@
       <c r="D9" s="21"/>
       <c r="E9" s="29"/>
       <c r="F9" s="33" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G9" s="34" t="s">
         <v>34</v>
@@ -8840,23 +8865,23 @@
       <c r="K9" s="88"/>
       <c r="L9" s="88"/>
       <c r="M9" s="89" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="N9" s="34" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="O9" s="89" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q9" s="87"/>
       <c r="R9" s="89" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="S9" s="34" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="T9" s="99"/>
     </row>
@@ -8882,23 +8907,23 @@
       <c r="K10" s="92"/>
       <c r="L10" s="92"/>
       <c r="M10" s="93" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="N10" s="37" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="O10" s="93" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="P10" s="37" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="91"/>
       <c r="R10" s="93" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="S10" s="37" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="T10" s="100"/>
     </row>
@@ -8926,22 +8951,22 @@
         <v>11</v>
       </c>
       <c r="K11" s="73" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L11" s="73" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M11" s="74" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="O11" s="17" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="P11" s="18" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="72" t="s">
         <v>7</v>
@@ -8972,16 +8997,16 @@
       <c r="K12" s="77"/>
       <c r="L12" s="77"/>
       <c r="M12" s="78" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="P12" s="24" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q12" s="76"/>
       <c r="R12" s="78"/>
@@ -8995,7 +9020,7 @@
       <c r="D13" s="21"/>
       <c r="E13" s="22"/>
       <c r="F13" s="23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G13" s="24" t="s">
         <v>35</v>
@@ -9010,16 +9035,16 @@
       <c r="K13" s="77"/>
       <c r="L13" s="77"/>
       <c r="M13" s="78" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="N13" s="24" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P13" s="24" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q13" s="76"/>
       <c r="R13" s="78"/>
@@ -9048,16 +9073,16 @@
       <c r="K14" s="81"/>
       <c r="L14" s="81"/>
       <c r="M14" s="82" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="N14" s="27" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="O14" s="26" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P14" s="27" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q14" s="80"/>
       <c r="R14" s="82"/>
@@ -9088,22 +9113,22 @@
         <v>12</v>
       </c>
       <c r="K15" s="84" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L15" s="84" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M15" s="85" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="N15" s="31" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="O15" s="85" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="P15" s="31" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q15" s="83" t="s">
         <v>8</v>
@@ -9134,16 +9159,16 @@
       <c r="K16" s="88"/>
       <c r="L16" s="88"/>
       <c r="M16" s="89" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="N16" s="34" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="O16" s="89" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="P16" s="34" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="87"/>
       <c r="R16" s="89"/>
@@ -9157,7 +9182,7 @@
       <c r="D17" s="21"/>
       <c r="E17" s="29"/>
       <c r="F17" s="33" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G17" s="34" t="s">
         <v>36</v>
@@ -9172,23 +9197,23 @@
       <c r="K17" s="88"/>
       <c r="L17" s="88"/>
       <c r="M17" s="89" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="N17" s="34" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="O17" s="89" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="P17" s="34" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q17" s="87"/>
       <c r="R17" s="89" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="S17" s="34" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="T17" s="99"/>
     </row>
@@ -9214,23 +9239,23 @@
       <c r="K18" s="92"/>
       <c r="L18" s="92"/>
       <c r="M18" s="93" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="N18" s="37" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="O18" s="93" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="P18" s="37" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q18" s="91"/>
       <c r="R18" s="93" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="S18" s="37" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="T18" s="100"/>
     </row>
@@ -9252,10 +9277,10 @@
         <v>12</v>
       </c>
       <c r="K19" s="73" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L19" s="73" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M19" s="74"/>
       <c r="N19" s="18"/>
@@ -9299,7 +9324,7 @@
       <c r="D21" s="21"/>
       <c r="E21" s="22"/>
       <c r="F21" s="23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G21" s="24"/>
       <c r="H21" s="25"/>
@@ -9342,16 +9367,16 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="40" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E23" s="43">
         <v>1</v>
@@ -9360,7 +9385,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H23" s="32">
         <v>20</v>
@@ -9372,10 +9397,10 @@
         <v>11</v>
       </c>
       <c r="K23" s="84" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="L23" s="84" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M23" s="85"/>
       <c r="N23" s="31"/>
@@ -9398,7 +9423,7 @@
         <v>23</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H24" s="35">
         <v>20</v>
@@ -9425,16 +9450,16 @@
       <c r="D25" s="46"/>
       <c r="E25" s="29"/>
       <c r="F25" s="33" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H25" s="35" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="I25" s="86" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="J25" s="87"/>
       <c r="K25" s="88"/>
@@ -9445,10 +9470,10 @@
       <c r="P25" s="34"/>
       <c r="Q25" s="87"/>
       <c r="R25" s="89" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="S25" s="34" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="T25" s="99"/>
     </row>
@@ -9462,7 +9487,7 @@
         <v>37</v>
       </c>
       <c r="G26" s="37" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H26" s="38">
         <v>20</v>
@@ -9474,38 +9499,38 @@
       <c r="K26" s="92"/>
       <c r="L26" s="92"/>
       <c r="M26" s="93" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="N26" s="37" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="O26" s="93" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="P26" s="37" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q26" s="91"/>
       <c r="R26" s="93" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="S26" s="37" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="T26" s="100"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="14" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E27" s="16">
         <v>0</v>
@@ -9514,7 +9539,7 @@
         <v>18</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H27" s="19">
         <v>7.68</v>
@@ -9526,31 +9551,31 @@
         <v>11</v>
       </c>
       <c r="K27" s="73" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="L27" s="73" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M27" s="74" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="N27" s="18" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="O27" s="17" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="P27" s="18" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q27" s="72" t="s">
         <v>8</v>
       </c>
       <c r="R27" s="74" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="S27" s="18" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="T27" s="101"/>
     </row>
@@ -9564,7 +9589,7 @@
         <v>23</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H28" s="25">
         <v>63.12</v>
@@ -9576,23 +9601,23 @@
       <c r="K28" s="77"/>
       <c r="L28" s="77"/>
       <c r="M28" s="78" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="N28" s="24" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="O28" s="23" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P28" s="24" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q28" s="76"/>
       <c r="R28" s="78" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="S28" s="24" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="T28" s="102"/>
     </row>
@@ -9603,10 +9628,10 @@
       <c r="D29" s="21"/>
       <c r="E29" s="22"/>
       <c r="F29" s="23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H29" s="25">
         <v>9.33</v>
@@ -9618,23 +9643,23 @@
       <c r="K29" s="77"/>
       <c r="L29" s="77"/>
       <c r="M29" s="78" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="N29" s="24" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="O29" s="23" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="P29" s="24" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q29" s="76"/>
       <c r="R29" s="78" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="S29" s="24" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="T29" s="102"/>
     </row>
@@ -9648,7 +9673,7 @@
         <v>37</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H30" s="28">
         <v>63.12</v>
@@ -9660,23 +9685,23 @@
       <c r="K30" s="81"/>
       <c r="L30" s="81"/>
       <c r="M30" s="82" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="N30" s="27" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="O30" s="26" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="P30" s="27" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q30" s="80"/>
       <c r="R30" s="82" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="S30" s="27" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="T30" s="102"/>
     </row>
@@ -9692,7 +9717,7 @@
         <v>18</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H31" s="32">
         <v>59.59</v>
@@ -9704,31 +9729,31 @@
         <v>11</v>
       </c>
       <c r="K31" s="84" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="L31" s="84" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M31" s="85" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="N31" s="31" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="O31" s="85" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="P31" s="31" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q31" s="83" t="s">
         <v>8</v>
       </c>
       <c r="R31" s="85" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="S31" s="31" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="T31" s="98"/>
     </row>
@@ -9742,7 +9767,7 @@
         <v>23</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H32" s="35">
         <v>64</v>
@@ -9754,23 +9779,23 @@
       <c r="K32" s="88"/>
       <c r="L32" s="88"/>
       <c r="M32" s="89" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="N32" s="34" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="O32" s="89" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="P32" s="34" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q32" s="87"/>
       <c r="R32" s="89" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="S32" s="34" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="T32" s="99"/>
     </row>
@@ -9781,10 +9806,10 @@
       <c r="D33" s="52"/>
       <c r="E33" s="29"/>
       <c r="F33" s="33" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H33" s="35">
         <v>53.5</v>
@@ -9796,23 +9821,23 @@
       <c r="K33" s="88"/>
       <c r="L33" s="88"/>
       <c r="M33" s="89" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="N33" s="34" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="O33" s="89" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="P33" s="34" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q33" s="87"/>
       <c r="R33" s="89" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="S33" s="34" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="T33" s="99"/>
     </row>
@@ -9826,7 +9851,7 @@
         <v>37</v>
       </c>
       <c r="G34" s="37" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H34" s="38">
         <v>64</v>
@@ -9838,23 +9863,23 @@
       <c r="K34" s="92"/>
       <c r="L34" s="92"/>
       <c r="M34" s="93" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="N34" s="37" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="O34" s="93" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="P34" s="37" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q34" s="91"/>
       <c r="R34" s="93" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="S34" s="37" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="T34" s="100"/>
     </row>
@@ -9870,7 +9895,7 @@
         <v>18</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H35" s="19">
         <v>59.59</v>
@@ -9882,22 +9907,22 @@
         <v>11</v>
       </c>
       <c r="K35" s="73" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="L35" s="73" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M35" s="74" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="N35" s="18" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="O35" s="17" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="P35" s="18" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q35" s="72" t="s">
         <v>7</v>
@@ -9916,7 +9941,7 @@
         <v>23</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H36" s="25">
         <v>64</v>
@@ -9928,16 +9953,16 @@
       <c r="K36" s="77"/>
       <c r="L36" s="77"/>
       <c r="M36" s="78" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="N36" s="24" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="O36" s="23" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="P36" s="24" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q36" s="76"/>
       <c r="R36" s="78"/>
@@ -9951,10 +9976,10 @@
       <c r="D37" s="21"/>
       <c r="E37" s="22"/>
       <c r="F37" s="23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H37" s="25">
         <v>64</v>
@@ -9966,16 +9991,16 @@
       <c r="K37" s="77"/>
       <c r="L37" s="77"/>
       <c r="M37" s="78" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="N37" s="24" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="O37" s="23" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P37" s="24" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q37" s="76"/>
       <c r="R37" s="78"/>
@@ -9992,7 +10017,7 @@
         <v>37</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H38" s="28">
         <v>64</v>
@@ -10004,16 +10029,16 @@
       <c r="K38" s="81"/>
       <c r="L38" s="81"/>
       <c r="M38" s="82" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="N38" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="O38" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="P38" s="27" t="s">
         <v>256</v>
-      </c>
-      <c r="O38" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="P38" s="27" t="s">
-        <v>251</v>
       </c>
       <c r="Q38" s="80"/>
       <c r="R38" s="82"/>
@@ -10032,7 +10057,7 @@
         <v>18</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H39" s="32">
         <v>63.31</v>
@@ -10044,31 +10069,31 @@
         <v>12</v>
       </c>
       <c r="K39" s="84" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="L39" s="84" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="M39" s="32" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="N39" s="31" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="O39" s="85" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="P39" s="31" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q39" s="83" t="s">
         <v>8</v>
       </c>
       <c r="R39" s="85" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="S39" s="31" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="T39" s="98"/>
     </row>
@@ -10082,7 +10107,7 @@
         <v>23</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H40" s="35">
         <v>64</v>
@@ -10094,23 +10119,23 @@
       <c r="K40" s="88"/>
       <c r="L40" s="88"/>
       <c r="M40" s="89" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="N40" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="O40" s="89" t="s">
         <v>259</v>
       </c>
-      <c r="O40" s="89" t="s">
-        <v>254</v>
-      </c>
       <c r="P40" s="34" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q40" s="87"/>
       <c r="R40" s="89" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="S40" s="34" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="T40" s="99"/>
     </row>
@@ -10121,10 +10146,10 @@
       <c r="D41" s="52"/>
       <c r="E41" s="29"/>
       <c r="F41" s="33" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G41" s="34" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H41" s="35">
         <v>19</v>
@@ -10136,23 +10161,23 @@
       <c r="K41" s="88"/>
       <c r="L41" s="88"/>
       <c r="M41" s="89" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="N41" s="34" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="O41" s="89" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="P41" s="34" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q41" s="87"/>
       <c r="R41" s="89" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="S41" s="34" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="T41" s="99"/>
     </row>
@@ -10166,7 +10191,7 @@
         <v>37</v>
       </c>
       <c r="G42" s="37" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H42" s="38">
         <v>64</v>
@@ -10178,23 +10203,23 @@
       <c r="K42" s="92"/>
       <c r="L42" s="92"/>
       <c r="M42" s="93" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="N42" s="37" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="O42" s="93" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="P42" s="37" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q42" s="91"/>
       <c r="R42" s="93" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="S42" s="37" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="T42" s="100"/>
     </row>
@@ -10210,7 +10235,7 @@
         <v>18</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H43" s="19">
         <v>63.88</v>
@@ -10222,22 +10247,22 @@
         <v>12</v>
       </c>
       <c r="K43" s="73" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L43" s="73" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="M43" s="74" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="N43" s="18" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="O43" s="17" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="P43" s="18" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q43" s="72" t="s">
         <v>7</v>
@@ -10256,7 +10281,7 @@
         <v>23</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="H44" s="25">
         <v>6.93</v>
@@ -10268,16 +10293,16 @@
       <c r="K44" s="77"/>
       <c r="L44" s="77"/>
       <c r="M44" s="78" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="N44" s="24" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="O44" s="23" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="P44" s="24" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q44" s="76"/>
       <c r="R44" s="78"/>
@@ -10291,10 +10316,10 @@
       <c r="D45" s="21"/>
       <c r="E45" s="22"/>
       <c r="F45" s="23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H45" s="25">
         <v>64</v>
@@ -10306,16 +10331,16 @@
       <c r="K45" s="77"/>
       <c r="L45" s="77"/>
       <c r="M45" s="78" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="N45" s="24" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="O45" s="23" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P45" s="24" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q45" s="76"/>
       <c r="R45" s="78"/>
@@ -10332,7 +10357,7 @@
         <v>37</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H46" s="28">
         <v>64</v>
@@ -10344,16 +10369,16 @@
       <c r="K46" s="81"/>
       <c r="L46" s="81"/>
       <c r="M46" s="82" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="N46" s="27" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="O46" s="26" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P46" s="27" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q46" s="80"/>
       <c r="R46" s="82"/>
@@ -10362,16 +10387,16 @@
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="55" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B47" s="56" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C47" s="56" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D47" s="56" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E47" s="43">
         <v>1</v>
@@ -10425,7 +10450,7 @@
       <c r="D49" s="58"/>
       <c r="E49" s="29"/>
       <c r="F49" s="33" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G49" s="34"/>
       <c r="H49" s="35"/>
@@ -10523,7 +10548,7 @@
       <c r="D53" s="58"/>
       <c r="E53" s="22"/>
       <c r="F53" s="23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G53" s="24"/>
       <c r="H53" s="25"/>
@@ -10619,7 +10644,7 @@
       <c r="D57" s="52"/>
       <c r="E57" s="29"/>
       <c r="F57" s="33" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G57" s="34"/>
       <c r="H57" s="35"/>
@@ -10715,7 +10740,7 @@
       <c r="D61" s="21"/>
       <c r="E61" s="22"/>
       <c r="F61" s="23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G61" s="24"/>
       <c r="H61" s="25"/>
@@ -10811,7 +10836,7 @@
       <c r="D65" s="21"/>
       <c r="E65" s="29"/>
       <c r="F65" s="33" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G65" s="34"/>
       <c r="H65" s="35"/>
@@ -10907,7 +10932,7 @@
       <c r="D69" s="21"/>
       <c r="E69" s="22"/>
       <c r="F69" s="23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G69" s="24"/>
       <c r="H69" s="25"/>
@@ -11003,7 +11028,7 @@
       <c r="D73" s="21"/>
       <c r="E73" s="29"/>
       <c r="F73" s="33" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G73" s="34"/>
       <c r="H73" s="35"/>
@@ -11099,7 +11124,7 @@
       <c r="D77" s="21"/>
       <c r="E77" s="22"/>
       <c r="F77" s="23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G77" s="24"/>
       <c r="H77" s="25"/>
@@ -11195,7 +11220,7 @@
       <c r="D81" s="21"/>
       <c r="E81" s="29"/>
       <c r="F81" s="33" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G81" s="34"/>
       <c r="H81" s="35"/>
@@ -11291,7 +11316,7 @@
       <c r="D85" s="21"/>
       <c r="E85" s="22"/>
       <c r="F85" s="23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G85" s="24"/>
       <c r="H85" s="25"/>
@@ -11387,7 +11412,7 @@
       <c r="D89" s="21"/>
       <c r="E89" s="29"/>
       <c r="F89" s="33" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G89" s="34"/>
       <c r="H89" s="35"/>
@@ -11483,7 +11508,7 @@
       <c r="D93" s="21"/>
       <c r="E93" s="22"/>
       <c r="F93" s="23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G93" s="24"/>
       <c r="H93" s="25"/>
@@ -11579,7 +11604,7 @@
       <c r="D97" s="21"/>
       <c r="E97" s="29"/>
       <c r="F97" s="33" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G97" s="34"/>
       <c r="H97" s="35"/>
@@ -11675,7 +11700,7 @@
       <c r="D101" s="21"/>
       <c r="E101" s="22"/>
       <c r="F101" s="23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G101" s="24"/>
       <c r="H101" s="25"/>
@@ -12129,7 +12154,7 @@
   <sheetData>
     <row r="1" ht="68" customHeight="1" spans="1:25">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -12158,7 +12183,7 @@
     </row>
     <row r="4" spans="12:23">
       <c r="L4" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -12384,7 +12409,7 @@
     </row>
     <row r="95" spans="16:23">
       <c r="P95" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
